--- a/projects/current/hattrick/z-TirosLejanos.xlsx
+++ b/projects/current/hattrick/z-TirosLejanos.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA95575-5099-462E-B324-848379F72481}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860EE63F-2AA4-49B9-B12A-1F76559BCD58}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tactica" sheetId="1" r:id="rId1"/>
@@ -14,16 +14,18 @@
     <sheet name="EquipoPerikas" sheetId="5" r:id="rId4"/>
     <sheet name="Sueldos" sheetId="11" r:id="rId5"/>
     <sheet name="451_TL_1Banda" sheetId="12" r:id="rId6"/>
-    <sheet name="Entrenamiento" sheetId="8" r:id="rId7"/>
-    <sheet name="Planning_10-11Jug" sheetId="2" r:id="rId8"/>
-    <sheet name="PLANNING" sheetId="19" r:id="rId9"/>
+    <sheet name="Planning_10-11Jug" sheetId="2" r:id="rId7"/>
+    <sheet name="PLANNING" sheetId="19" r:id="rId8"/>
+    <sheet name="Planning_v3" sheetId="20" r:id="rId9"/>
+    <sheet name="FICHAR" sheetId="21" r:id="rId10"/>
+    <sheet name="Entrenamiento" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="288">
   <si>
     <t>at-central</t>
   </si>
@@ -833,18 +835,157 @@
   <si>
     <t>Ent.OF</t>
   </si>
+  <si>
+    <t>#12</t>
+  </si>
+  <si>
+    <t>Jugador</t>
+  </si>
+  <si>
+    <t>Años</t>
+  </si>
+  <si>
+    <t>Dias</t>
+  </si>
+  <si>
+    <t>E_DEF</t>
+  </si>
+  <si>
+    <t>E_JUG</t>
+  </si>
+  <si>
+    <t>E_BP</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>Giuliano Poggiolini</t>
+  </si>
+  <si>
+    <t>Pais</t>
+  </si>
+  <si>
+    <t>Italia</t>
+  </si>
+  <si>
+    <t>Lid</t>
+  </si>
+  <si>
+    <t>Tomas Hammarbrant</t>
+  </si>
+  <si>
+    <t>Suecia</t>
+  </si>
+  <si>
+    <t>Minas Veritsis</t>
+  </si>
+  <si>
+    <t>Grecia</t>
+  </si>
+  <si>
+    <t>€/E</t>
+  </si>
+  <si>
+    <t>Moritz Pirol</t>
+  </si>
+  <si>
+    <t>Alemania</t>
+  </si>
+  <si>
+    <t>Augusto Jalin</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Enor Lika</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Corneliu Preja</t>
+  </si>
+  <si>
+    <t>Rumania</t>
+  </si>
+  <si>
+    <t>Damian Łoboda</t>
+  </si>
+  <si>
+    <t>Polonia</t>
+  </si>
+  <si>
+    <t>TEC</t>
+  </si>
+  <si>
+    <t>E_ANO</t>
+  </si>
+  <si>
+    <t>Nicolas Malot</t>
+  </si>
+  <si>
+    <t>Francia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roberto Magagnoli </t>
+  </si>
+  <si>
+    <t>Érico Sousa</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>Thierry Dees</t>
+  </si>
+  <si>
+    <t>Holanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veton Jashari </t>
+  </si>
+  <si>
+    <t>Byung-Kyoo Kye</t>
+  </si>
+  <si>
+    <t>Korea</t>
+  </si>
+  <si>
+    <t>Lorenzo Maffoni</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bogdan Dubicki</t>
+  </si>
+  <si>
+    <t>Enrique Vallaure</t>
+  </si>
+  <si>
+    <t>España</t>
+  </si>
+  <si>
+    <t>Adrian Vaşvari</t>
+  </si>
+  <si>
+    <t>Emilio Krawitz</t>
+  </si>
+  <si>
+    <t>Suiza</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -959,7 +1100,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1029,6 +1170,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1141,7 +1288,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1352,13 +1499,22 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3935,6 +4091,2848 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCC5FB6-4E02-489E-AAD8-5E2FB1AB2063}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:Q24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" style="85" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="85" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" style="85" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" style="85" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.5703125" style="85" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.5703125" style="85" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" style="85" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" style="85" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" style="85" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="85" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" style="85" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" style="85" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" style="85" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" style="85" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" style="85" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="101" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="101" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="101" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="E1" s="101" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1" s="101" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="101" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="101" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="101" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="101" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="101" t="s">
+        <v>246</v>
+      </c>
+      <c r="L1" s="101" t="s">
+        <v>247</v>
+      </c>
+      <c r="M1" s="101" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1" s="101" t="s">
+        <v>248</v>
+      </c>
+      <c r="O1" s="101" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" s="101" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q1" s="101" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="85" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="85">
+        <v>19</v>
+      </c>
+      <c r="D2" s="85">
+        <v>61</v>
+      </c>
+      <c r="E2" s="85">
+        <v>2</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2" s="29">
+        <v>6</v>
+      </c>
+      <c r="H2" s="29">
+        <v>4</v>
+      </c>
+      <c r="I2" s="29">
+        <v>10</v>
+      </c>
+      <c r="J2" s="29">
+        <v>3</v>
+      </c>
+      <c r="K2" s="85">
+        <v>18</v>
+      </c>
+      <c r="L2" s="85">
+        <v>9</v>
+      </c>
+      <c r="M2" s="85">
+        <v>39</v>
+      </c>
+      <c r="N2" s="85">
+        <v>2</v>
+      </c>
+      <c r="O2" s="85">
+        <f>N2+L2+K2+M2</f>
+        <v>68</v>
+      </c>
+      <c r="P2" s="102">
+        <v>1550000</v>
+      </c>
+      <c r="Q2" s="102">
+        <f>P2/O2</f>
+        <v>22794.117647058825</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="85" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" s="85">
+        <v>19</v>
+      </c>
+      <c r="D3" s="85">
+        <v>104</v>
+      </c>
+      <c r="E3" s="85">
+        <v>2</v>
+      </c>
+      <c r="G3" s="29">
+        <v>5</v>
+      </c>
+      <c r="H3" s="29">
+        <v>5</v>
+      </c>
+      <c r="I3" s="29">
+        <v>10</v>
+      </c>
+      <c r="J3" s="29">
+        <v>1</v>
+      </c>
+      <c r="K3" s="85">
+        <v>13</v>
+      </c>
+      <c r="L3" s="85">
+        <v>12</v>
+      </c>
+      <c r="M3" s="85">
+        <v>39</v>
+      </c>
+      <c r="N3" s="85">
+        <v>0</v>
+      </c>
+      <c r="O3" s="85">
+        <f t="shared" ref="O3:O14" si="0">N3+L3+K3+M3</f>
+        <v>64</v>
+      </c>
+      <c r="P3" s="102">
+        <v>1000000</v>
+      </c>
+      <c r="Q3" s="102">
+        <f t="shared" ref="Q3:Q7" si="1">P3/O3</f>
+        <v>15625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="85" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4" s="85" t="s">
+        <v>257</v>
+      </c>
+      <c r="C4" s="85">
+        <v>18</v>
+      </c>
+      <c r="D4" s="85">
+        <v>107</v>
+      </c>
+      <c r="E4" s="85">
+        <v>2</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="G4" s="29">
+        <v>2</v>
+      </c>
+      <c r="H4" s="29">
+        <v>7</v>
+      </c>
+      <c r="I4" s="29">
+        <v>10</v>
+      </c>
+      <c r="J4" s="29">
+        <v>1</v>
+      </c>
+      <c r="K4" s="85">
+        <v>3</v>
+      </c>
+      <c r="L4" s="85">
+        <v>21</v>
+      </c>
+      <c r="M4" s="85">
+        <v>39</v>
+      </c>
+      <c r="N4" s="85">
+        <v>0</v>
+      </c>
+      <c r="O4" s="85">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="P4" s="102">
+        <v>3230000</v>
+      </c>
+      <c r="Q4" s="102">
+        <f t="shared" si="1"/>
+        <v>51269.841269841272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="85" t="s">
+        <v>259</v>
+      </c>
+      <c r="B5" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="C5" s="85">
+        <v>19</v>
+      </c>
+      <c r="D5" s="85">
+        <v>23</v>
+      </c>
+      <c r="E5" s="85">
+        <v>6</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="G5" s="29">
+        <v>2</v>
+      </c>
+      <c r="H5" s="29">
+        <v>1</v>
+      </c>
+      <c r="I5" s="29">
+        <v>10</v>
+      </c>
+      <c r="J5" s="29">
+        <v>1</v>
+      </c>
+      <c r="K5" s="85">
+        <v>3</v>
+      </c>
+      <c r="L5" s="85">
+        <v>0</v>
+      </c>
+      <c r="M5" s="85">
+        <v>39</v>
+      </c>
+      <c r="N5" s="85">
+        <v>0</v>
+      </c>
+      <c r="O5" s="85">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="P5" s="102">
+        <v>1400000</v>
+      </c>
+      <c r="Q5" s="102">
+        <f t="shared" si="1"/>
+        <v>33333.333333333336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="85" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" s="85" t="s">
+        <v>262</v>
+      </c>
+      <c r="C6" s="85">
+        <v>19</v>
+      </c>
+      <c r="D6" s="85">
+        <v>80</v>
+      </c>
+      <c r="E6" s="85">
+        <v>4</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="29">
+        <v>6</v>
+      </c>
+      <c r="H6" s="29">
+        <v>2</v>
+      </c>
+      <c r="I6" s="29">
+        <v>12</v>
+      </c>
+      <c r="J6" s="29">
+        <v>0</v>
+      </c>
+      <c r="K6" s="85">
+        <v>18</v>
+      </c>
+      <c r="L6" s="85">
+        <v>3</v>
+      </c>
+      <c r="M6" s="85">
+        <v>57</v>
+      </c>
+      <c r="N6" s="85">
+        <v>-1</v>
+      </c>
+      <c r="O6" s="85">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="P6" s="102">
+        <v>3200000</v>
+      </c>
+      <c r="Q6" s="102">
+        <f t="shared" si="1"/>
+        <v>41558.441558441562</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="85" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" s="85" t="s">
+        <v>264</v>
+      </c>
+      <c r="C7" s="85">
+        <v>19</v>
+      </c>
+      <c r="D7" s="85">
+        <v>69</v>
+      </c>
+      <c r="E7" s="85">
+        <v>6</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="29">
+        <v>1</v>
+      </c>
+      <c r="H7" s="29">
+        <v>2</v>
+      </c>
+      <c r="I7" s="29">
+        <v>10</v>
+      </c>
+      <c r="J7" s="29">
+        <v>1</v>
+      </c>
+      <c r="K7" s="85">
+        <v>0</v>
+      </c>
+      <c r="L7" s="85">
+        <v>3</v>
+      </c>
+      <c r="M7" s="85">
+        <v>39</v>
+      </c>
+      <c r="N7" s="85">
+        <v>0</v>
+      </c>
+      <c r="O7" s="85">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="P7" s="102">
+        <v>1500000</v>
+      </c>
+      <c r="Q7" s="102">
+        <f t="shared" si="1"/>
+        <v>35714.285714285717</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="B8" s="85" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" s="85">
+        <v>19</v>
+      </c>
+      <c r="D8" s="85">
+        <v>36</v>
+      </c>
+      <c r="E8" s="85">
+        <v>6</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" s="29">
+        <v>2</v>
+      </c>
+      <c r="H8" s="29">
+        <v>2</v>
+      </c>
+      <c r="I8" s="29">
+        <v>10</v>
+      </c>
+      <c r="J8" s="29">
+        <v>0</v>
+      </c>
+      <c r="K8" s="85">
+        <v>3</v>
+      </c>
+      <c r="L8" s="85">
+        <v>3</v>
+      </c>
+      <c r="M8" s="85">
+        <v>39</v>
+      </c>
+      <c r="N8" s="85">
+        <v>-1</v>
+      </c>
+      <c r="O8" s="85">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="P8" s="102">
+        <v>1100000</v>
+      </c>
+      <c r="Q8" s="102">
+        <f t="shared" ref="Q8:Q14" si="2">P8/O8</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="85" t="s">
+        <v>267</v>
+      </c>
+      <c r="B9" s="85" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" s="85">
+        <v>19</v>
+      </c>
+      <c r="D9" s="85">
+        <v>20</v>
+      </c>
+      <c r="E9" s="85">
+        <v>6</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="G9" s="29">
+        <v>3</v>
+      </c>
+      <c r="H9" s="29">
+        <v>3</v>
+      </c>
+      <c r="I9" s="29">
+        <v>10</v>
+      </c>
+      <c r="J9" s="29">
+        <v>2</v>
+      </c>
+      <c r="K9" s="85">
+        <v>6</v>
+      </c>
+      <c r="L9" s="85">
+        <v>6</v>
+      </c>
+      <c r="M9" s="85">
+        <v>39</v>
+      </c>
+      <c r="N9" s="85">
+        <v>1</v>
+      </c>
+      <c r="O9" s="85">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="P9" s="102">
+        <v>1350000</v>
+      </c>
+      <c r="Q9" s="102">
+        <f t="shared" si="2"/>
+        <v>25961.538461538461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="85" t="s">
+        <v>271</v>
+      </c>
+      <c r="B10" s="85" t="s">
+        <v>272</v>
+      </c>
+      <c r="C10" s="85">
+        <v>17</v>
+      </c>
+      <c r="D10" s="85">
+        <v>86</v>
+      </c>
+      <c r="E10" s="85">
+        <v>2</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="G10" s="29">
+        <v>4</v>
+      </c>
+      <c r="H10" s="29">
+        <v>8</v>
+      </c>
+      <c r="I10" s="29">
+        <v>4</v>
+      </c>
+      <c r="J10" s="29">
+        <v>2</v>
+      </c>
+      <c r="K10" s="85">
+        <v>9</v>
+      </c>
+      <c r="L10" s="85">
+        <v>26</v>
+      </c>
+      <c r="M10" s="85">
+        <v>8</v>
+      </c>
+      <c r="N10" s="85">
+        <v>1</v>
+      </c>
+      <c r="O10" s="85">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="P10" s="102">
+        <v>500000</v>
+      </c>
+      <c r="Q10" s="102">
+        <f t="shared" si="2"/>
+        <v>11363.636363636364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="85" t="s">
+        <v>273</v>
+      </c>
+      <c r="B11" s="85" t="s">
+        <v>252</v>
+      </c>
+      <c r="C11" s="85">
+        <v>18</v>
+      </c>
+      <c r="D11" s="85">
+        <v>34</v>
+      </c>
+      <c r="E11" s="85">
+        <v>3</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="G11" s="29">
+        <v>4</v>
+      </c>
+      <c r="H11" s="29">
+        <v>8</v>
+      </c>
+      <c r="I11" s="29">
+        <v>4</v>
+      </c>
+      <c r="J11" s="29">
+        <v>1</v>
+      </c>
+      <c r="K11" s="85">
+        <v>9</v>
+      </c>
+      <c r="L11" s="85">
+        <v>26</v>
+      </c>
+      <c r="M11" s="85">
+        <v>8</v>
+      </c>
+      <c r="N11" s="85">
+        <v>0</v>
+      </c>
+      <c r="O11" s="85">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="P11" s="102">
+        <v>240000</v>
+      </c>
+      <c r="Q11" s="102">
+        <f t="shared" si="2"/>
+        <v>5581.395348837209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="B12" s="85" t="s">
+        <v>275</v>
+      </c>
+      <c r="C12" s="85">
+        <v>18</v>
+      </c>
+      <c r="D12" s="85">
+        <v>43</v>
+      </c>
+      <c r="E12" s="85">
+        <v>1</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="G12" s="29">
+        <v>4</v>
+      </c>
+      <c r="H12" s="29">
+        <v>9</v>
+      </c>
+      <c r="I12" s="29">
+        <v>4</v>
+      </c>
+      <c r="J12" s="29">
+        <v>4</v>
+      </c>
+      <c r="K12" s="85">
+        <v>9</v>
+      </c>
+      <c r="L12" s="85">
+        <v>32</v>
+      </c>
+      <c r="M12" s="85">
+        <v>8</v>
+      </c>
+      <c r="N12" s="85">
+        <v>3</v>
+      </c>
+      <c r="O12" s="85">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="P12" s="102">
+        <v>800000</v>
+      </c>
+      <c r="Q12" s="102">
+        <f t="shared" si="2"/>
+        <v>15384.615384615385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="85" t="s">
+        <v>276</v>
+      </c>
+      <c r="B13" s="85" t="s">
+        <v>277</v>
+      </c>
+      <c r="C13" s="85">
+        <v>18</v>
+      </c>
+      <c r="D13" s="85">
+        <v>45</v>
+      </c>
+      <c r="E13" s="85">
+        <v>1</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13" s="29">
+        <v>4</v>
+      </c>
+      <c r="H13" s="29">
+        <v>8</v>
+      </c>
+      <c r="I13" s="29">
+        <v>4</v>
+      </c>
+      <c r="J13" s="29">
+        <v>4</v>
+      </c>
+      <c r="K13" s="85">
+        <v>9</v>
+      </c>
+      <c r="L13" s="85">
+        <v>26</v>
+      </c>
+      <c r="M13" s="85">
+        <v>8</v>
+      </c>
+      <c r="N13" s="85">
+        <v>3</v>
+      </c>
+      <c r="O13" s="85">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="P13" s="102">
+        <v>450000</v>
+      </c>
+      <c r="Q13" s="102">
+        <f t="shared" si="2"/>
+        <v>9782.608695652174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="85" t="s">
+        <v>278</v>
+      </c>
+      <c r="B14" s="85" t="s">
+        <v>264</v>
+      </c>
+      <c r="C14" s="85">
+        <v>18</v>
+      </c>
+      <c r="D14" s="85">
+        <v>55</v>
+      </c>
+      <c r="E14" s="85">
+        <v>2</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="G14" s="29">
+        <v>4</v>
+      </c>
+      <c r="H14" s="29">
+        <v>10</v>
+      </c>
+      <c r="I14" s="29">
+        <v>4</v>
+      </c>
+      <c r="J14" s="29">
+        <v>4</v>
+      </c>
+      <c r="K14" s="85">
+        <v>9</v>
+      </c>
+      <c r="L14" s="85">
+        <v>39</v>
+      </c>
+      <c r="M14" s="85">
+        <v>8</v>
+      </c>
+      <c r="N14" s="85">
+        <v>3</v>
+      </c>
+      <c r="O14" s="85">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="P14" s="102">
+        <v>1450000</v>
+      </c>
+      <c r="Q14" s="102">
+        <f t="shared" si="2"/>
+        <v>24576.271186440677</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="B15" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="C15" s="85">
+        <v>17</v>
+      </c>
+      <c r="D15" s="85">
+        <v>107</v>
+      </c>
+      <c r="E15" s="85">
+        <v>2</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="G15" s="29">
+        <v>4</v>
+      </c>
+      <c r="H15" s="29">
+        <v>8</v>
+      </c>
+      <c r="I15" s="29">
+        <v>4</v>
+      </c>
+      <c r="J15" s="29">
+        <v>4</v>
+      </c>
+      <c r="K15" s="85">
+        <v>9</v>
+      </c>
+      <c r="L15" s="85">
+        <v>26</v>
+      </c>
+      <c r="M15" s="85">
+        <v>8</v>
+      </c>
+      <c r="N15" s="85">
+        <v>3</v>
+      </c>
+      <c r="O15" s="85">
+        <f t="shared" ref="O15:O24" si="3">N15+L15+K15+M15</f>
+        <v>46</v>
+      </c>
+      <c r="P15" s="102">
+        <v>630000</v>
+      </c>
+      <c r="Q15" s="102">
+        <f t="shared" ref="Q15:Q24" si="4">P15/O15</f>
+        <v>13695.652173913044</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="85" t="s">
+        <v>281</v>
+      </c>
+      <c r="B16" s="85" t="s">
+        <v>252</v>
+      </c>
+      <c r="C16" s="85">
+        <v>18</v>
+      </c>
+      <c r="D16" s="85">
+        <v>72</v>
+      </c>
+      <c r="E16" s="85">
+        <v>2</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="G16" s="29">
+        <v>5</v>
+      </c>
+      <c r="H16" s="29">
+        <v>10</v>
+      </c>
+      <c r="I16" s="29">
+        <v>4</v>
+      </c>
+      <c r="J16" s="29">
+        <v>4</v>
+      </c>
+      <c r="K16" s="85">
+        <v>9</v>
+      </c>
+      <c r="L16" s="85">
+        <v>39</v>
+      </c>
+      <c r="M16" s="85">
+        <v>8</v>
+      </c>
+      <c r="N16" s="85">
+        <v>3</v>
+      </c>
+      <c r="O16" s="85">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="P16" s="102">
+        <v>1900000</v>
+      </c>
+      <c r="Q16" s="102">
+        <f t="shared" si="4"/>
+        <v>32203.389830508473</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="85" t="s">
+        <v>282</v>
+      </c>
+      <c r="B17" s="85" t="s">
+        <v>268</v>
+      </c>
+      <c r="C17" s="85">
+        <v>19</v>
+      </c>
+      <c r="D17" s="85">
+        <v>15</v>
+      </c>
+      <c r="E17" s="85">
+        <v>6</v>
+      </c>
+      <c r="G17" s="29">
+        <v>10</v>
+      </c>
+      <c r="H17" s="29">
+        <v>7</v>
+      </c>
+      <c r="I17" s="29">
+        <v>4</v>
+      </c>
+      <c r="J17" s="29">
+        <v>3</v>
+      </c>
+      <c r="K17" s="85">
+        <v>44</v>
+      </c>
+      <c r="L17" s="85">
+        <v>21</v>
+      </c>
+      <c r="M17" s="85">
+        <v>8</v>
+      </c>
+      <c r="N17" s="85">
+        <v>2</v>
+      </c>
+      <c r="O17" s="85">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="P17" s="102">
+        <v>2000000</v>
+      </c>
+      <c r="Q17" s="102">
+        <f t="shared" si="4"/>
+        <v>26666.666666666668</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="85" t="s">
+        <v>283</v>
+      </c>
+      <c r="B18" s="85" t="s">
+        <v>284</v>
+      </c>
+      <c r="C18" s="85">
+        <v>21</v>
+      </c>
+      <c r="D18" s="85">
+        <v>57</v>
+      </c>
+      <c r="E18" s="85">
+        <v>2</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" s="29">
+        <v>9</v>
+      </c>
+      <c r="H18" s="29">
+        <v>9</v>
+      </c>
+      <c r="I18" s="29">
+        <v>8</v>
+      </c>
+      <c r="J18" s="29">
+        <v>1</v>
+      </c>
+      <c r="K18" s="85">
+        <v>36</v>
+      </c>
+      <c r="L18" s="85">
+        <v>32</v>
+      </c>
+      <c r="M18" s="85">
+        <v>26</v>
+      </c>
+      <c r="N18" s="85">
+        <v>0</v>
+      </c>
+      <c r="O18" s="85">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="P18" s="102">
+        <v>2500000</v>
+      </c>
+      <c r="Q18" s="102">
+        <f t="shared" si="4"/>
+        <v>26595.744680851065</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="85" t="s">
+        <v>285</v>
+      </c>
+      <c r="B19" s="85" t="s">
+        <v>284</v>
+      </c>
+      <c r="C19" s="85">
+        <v>21</v>
+      </c>
+      <c r="D19" s="85">
+        <v>81</v>
+      </c>
+      <c r="E19" s="85">
+        <v>1</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="G19" s="29">
+        <v>10</v>
+      </c>
+      <c r="H19" s="29">
+        <v>10</v>
+      </c>
+      <c r="I19" s="29">
+        <v>7</v>
+      </c>
+      <c r="J19" s="29">
+        <v>0</v>
+      </c>
+      <c r="K19" s="85">
+        <v>44</v>
+      </c>
+      <c r="L19" s="85">
+        <v>39</v>
+      </c>
+      <c r="M19" s="85">
+        <v>20</v>
+      </c>
+      <c r="N19" s="85">
+        <v>-1</v>
+      </c>
+      <c r="O19" s="85">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+      <c r="P19" s="102">
+        <v>3000000</v>
+      </c>
+      <c r="Q19" s="102">
+        <f t="shared" si="4"/>
+        <v>29411.764705882353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="85" t="s">
+        <v>286</v>
+      </c>
+      <c r="B20" s="85" t="s">
+        <v>287</v>
+      </c>
+      <c r="C20" s="85">
+        <v>20</v>
+      </c>
+      <c r="D20" s="85">
+        <v>78</v>
+      </c>
+      <c r="E20" s="85">
+        <v>5</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="G20" s="29">
+        <v>6</v>
+      </c>
+      <c r="H20" s="29">
+        <v>10</v>
+      </c>
+      <c r="I20" s="29">
+        <v>9</v>
+      </c>
+      <c r="J20" s="29">
+        <v>12</v>
+      </c>
+      <c r="K20" s="85">
+        <v>18</v>
+      </c>
+      <c r="L20" s="85">
+        <v>39</v>
+      </c>
+      <c r="M20" s="85">
+        <v>32</v>
+      </c>
+      <c r="N20" s="85">
+        <v>14</v>
+      </c>
+      <c r="O20" s="85">
+        <f t="shared" si="3"/>
+        <v>103</v>
+      </c>
+      <c r="P20" s="102">
+        <v>4200000</v>
+      </c>
+      <c r="Q20" s="102">
+        <f t="shared" si="4"/>
+        <v>40776.699029126212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E21" s="85">
+        <v>2</v>
+      </c>
+      <c r="G21" s="29">
+        <v>4</v>
+      </c>
+      <c r="H21" s="29">
+        <v>10</v>
+      </c>
+      <c r="I21" s="29">
+        <v>4</v>
+      </c>
+      <c r="J21" s="29">
+        <v>4</v>
+      </c>
+      <c r="K21" s="85">
+        <v>9</v>
+      </c>
+      <c r="L21" s="85">
+        <v>39</v>
+      </c>
+      <c r="M21" s="85">
+        <v>8</v>
+      </c>
+      <c r="N21" s="85">
+        <v>3</v>
+      </c>
+      <c r="O21" s="85">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="P21" s="102">
+        <v>1450007</v>
+      </c>
+      <c r="Q21" s="102">
+        <f t="shared" si="4"/>
+        <v>24576.389830508473</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E22" s="85">
+        <v>2</v>
+      </c>
+      <c r="G22" s="29">
+        <v>4</v>
+      </c>
+      <c r="H22" s="29">
+        <v>10</v>
+      </c>
+      <c r="I22" s="29">
+        <v>4</v>
+      </c>
+      <c r="J22" s="29">
+        <v>4</v>
+      </c>
+      <c r="K22" s="85">
+        <v>9</v>
+      </c>
+      <c r="L22" s="85">
+        <v>39</v>
+      </c>
+      <c r="M22" s="85">
+        <v>8</v>
+      </c>
+      <c r="N22" s="85">
+        <v>3</v>
+      </c>
+      <c r="O22" s="85">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="P22" s="102">
+        <v>1450008</v>
+      </c>
+      <c r="Q22" s="102">
+        <f t="shared" si="4"/>
+        <v>24576.406779661018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E23" s="85">
+        <v>2</v>
+      </c>
+      <c r="G23" s="29">
+        <v>4</v>
+      </c>
+      <c r="H23" s="29">
+        <v>10</v>
+      </c>
+      <c r="I23" s="29">
+        <v>4</v>
+      </c>
+      <c r="J23" s="29">
+        <v>4</v>
+      </c>
+      <c r="K23" s="85">
+        <v>9</v>
+      </c>
+      <c r="L23" s="85">
+        <v>39</v>
+      </c>
+      <c r="M23" s="85">
+        <v>8</v>
+      </c>
+      <c r="N23" s="85">
+        <v>3</v>
+      </c>
+      <c r="O23" s="85">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="P23" s="102">
+        <v>1450009</v>
+      </c>
+      <c r="Q23" s="102">
+        <f t="shared" si="4"/>
+        <v>24576.423728813559</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E24" s="85">
+        <v>2</v>
+      </c>
+      <c r="G24" s="29">
+        <v>4</v>
+      </c>
+      <c r="H24" s="29">
+        <v>10</v>
+      </c>
+      <c r="I24" s="29">
+        <v>4</v>
+      </c>
+      <c r="J24" s="29">
+        <v>4</v>
+      </c>
+      <c r="K24" s="85">
+        <v>9</v>
+      </c>
+      <c r="L24" s="85">
+        <v>39</v>
+      </c>
+      <c r="M24" s="85">
+        <v>8</v>
+      </c>
+      <c r="N24" s="85">
+        <v>3</v>
+      </c>
+      <c r="O24" s="85">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="P24" s="102">
+        <v>1450010</v>
+      </c>
+      <c r="Q24" s="102">
+        <f t="shared" si="4"/>
+        <v>24576.4406779661</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G2:H24 J2:J24">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:N24">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I24">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E24">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O24">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q24">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:X33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="27" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="13"/>
+      <c r="B1" s="60">
+        <v>1.25</v>
+      </c>
+      <c r="C1" s="60">
+        <v>1</v>
+      </c>
+      <c r="D1" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="E1" s="60">
+        <v>0.17</v>
+      </c>
+      <c r="F1" s="60">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="13">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13">
+        <v>6</v>
+      </c>
+      <c r="D2" s="13">
+        <v>4</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0</v>
+      </c>
+      <c r="F2" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="13">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13">
+        <v>6</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13">
+        <v>16</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="13">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13">
+        <v>10</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13">
+        <v>12</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="13">
+        <v>0</v>
+      </c>
+      <c r="C5" s="13">
+        <v>4</v>
+      </c>
+      <c r="D5" s="13">
+        <v>4</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+      <c r="F5" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="13">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13">
+        <v>18</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="105" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="105"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J9"/>
+      <c r="S9" s="27"/>
+      <c r="T9"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="P10" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10"/>
+      <c r="U10" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="L11" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N11" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q11" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="R11" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="S11" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="T11" s="1"/>
+      <c r="U11" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="V11" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="W11" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="X11" s="26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="27">
+        <v>3</v>
+      </c>
+      <c r="C12" s="27">
+        <v>1</v>
+      </c>
+      <c r="D12" s="27">
+        <f>C12</f>
+        <v>1</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G12" s="27">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12" s="27">
+        <f>H12</f>
+        <v>2</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="L12" s="27">
+        <v>3</v>
+      </c>
+      <c r="M12" s="27">
+        <v>3</v>
+      </c>
+      <c r="N12" s="27">
+        <f>M12</f>
+        <v>3</v>
+      </c>
+      <c r="P12" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q12" s="27">
+        <v>3</v>
+      </c>
+      <c r="R12" s="27">
+        <v>3</v>
+      </c>
+      <c r="S12" s="27">
+        <f>R12</f>
+        <v>3</v>
+      </c>
+      <c r="T12"/>
+      <c r="U12" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="V12" s="27">
+        <v>3</v>
+      </c>
+      <c r="W12">
+        <v>2</v>
+      </c>
+      <c r="X12" s="27">
+        <f>W12</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="27">
+        <v>3</v>
+      </c>
+      <c r="B13" s="27">
+        <v>4</v>
+      </c>
+      <c r="C13" s="27">
+        <v>1</v>
+      </c>
+      <c r="D13" s="27">
+        <f>C13+D12</f>
+        <v>2</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13" s="27">
+        <v>3</v>
+      </c>
+      <c r="G13" s="27">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13" s="27">
+        <f>H13+I12</f>
+        <v>5</v>
+      </c>
+      <c r="J13"/>
+      <c r="K13" s="27">
+        <v>3</v>
+      </c>
+      <c r="L13" s="27">
+        <v>4</v>
+      </c>
+      <c r="M13" s="27">
+        <v>3</v>
+      </c>
+      <c r="N13" s="27">
+        <f>M13+N12</f>
+        <v>6</v>
+      </c>
+      <c r="P13" s="27">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="27">
+        <v>4</v>
+      </c>
+      <c r="R13" s="27">
+        <v>3</v>
+      </c>
+      <c r="S13" s="27">
+        <f>R13+S12</f>
+        <v>6</v>
+      </c>
+      <c r="T13"/>
+      <c r="U13" s="27">
+        <v>3</v>
+      </c>
+      <c r="V13" s="27">
+        <v>4</v>
+      </c>
+      <c r="W13">
+        <v>2</v>
+      </c>
+      <c r="X13" s="27">
+        <f>W13+X12</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="27">
+        <v>4</v>
+      </c>
+      <c r="B14" s="27">
+        <v>5</v>
+      </c>
+      <c r="C14" s="27">
+        <v>1</v>
+      </c>
+      <c r="D14" s="27">
+        <f t="shared" ref="D14:D28" si="0">C14+D13</f>
+        <v>3</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14" s="27">
+        <v>4</v>
+      </c>
+      <c r="G14" s="27">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14" s="27">
+        <f t="shared" ref="I14:I27" si="1">H14+I13</f>
+        <v>8</v>
+      </c>
+      <c r="J14"/>
+      <c r="K14" s="27">
+        <v>4</v>
+      </c>
+      <c r="L14" s="27">
+        <v>5</v>
+      </c>
+      <c r="M14" s="27">
+        <v>3</v>
+      </c>
+      <c r="N14" s="27">
+        <f t="shared" ref="N14:N27" si="2">M14+N13</f>
+        <v>9</v>
+      </c>
+      <c r="P14" s="27">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="27">
+        <v>5</v>
+      </c>
+      <c r="R14" s="27">
+        <v>3</v>
+      </c>
+      <c r="S14" s="27">
+        <f t="shared" ref="S14:S28" si="3">R14+S13</f>
+        <v>9</v>
+      </c>
+      <c r="T14"/>
+      <c r="U14" s="27">
+        <v>4</v>
+      </c>
+      <c r="V14" s="27">
+        <v>5</v>
+      </c>
+      <c r="W14">
+        <v>2</v>
+      </c>
+      <c r="X14" s="27">
+        <f t="shared" ref="X14:X28" si="4">W14+X13</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="27">
+        <v>5</v>
+      </c>
+      <c r="B15" s="27">
+        <v>6</v>
+      </c>
+      <c r="C15" s="27">
+        <v>1</v>
+      </c>
+      <c r="D15" s="27">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15" s="27">
+        <v>5</v>
+      </c>
+      <c r="G15" s="27">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15" s="27">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J15"/>
+      <c r="K15" s="27">
+        <v>5</v>
+      </c>
+      <c r="L15" s="27">
+        <v>6</v>
+      </c>
+      <c r="M15" s="27">
+        <v>4</v>
+      </c>
+      <c r="N15" s="27">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="P15" s="27">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="27">
+        <v>6</v>
+      </c>
+      <c r="R15" s="27">
+        <v>3</v>
+      </c>
+      <c r="S15" s="27">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="T15"/>
+      <c r="U15" s="27">
+        <v>5</v>
+      </c>
+      <c r="V15" s="27">
+        <v>6</v>
+      </c>
+      <c r="W15">
+        <v>2</v>
+      </c>
+      <c r="X15" s="27">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="27">
+        <v>6</v>
+      </c>
+      <c r="B16" s="27">
+        <v>7</v>
+      </c>
+      <c r="C16" s="27">
+        <v>1</v>
+      </c>
+      <c r="D16" s="27">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16" s="27">
+        <v>6</v>
+      </c>
+      <c r="G16" s="27">
+        <v>7</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16" s="27">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="J16"/>
+      <c r="K16" s="27">
+        <v>6</v>
+      </c>
+      <c r="L16" s="27">
+        <v>7</v>
+      </c>
+      <c r="M16" s="27">
+        <v>5</v>
+      </c>
+      <c r="N16" s="27">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="P16" s="27">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="27">
+        <v>7</v>
+      </c>
+      <c r="R16" s="27">
+        <v>4</v>
+      </c>
+      <c r="S16" s="27">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="T16"/>
+      <c r="U16" s="27">
+        <v>6</v>
+      </c>
+      <c r="V16" s="27">
+        <v>7</v>
+      </c>
+      <c r="W16">
+        <v>3</v>
+      </c>
+      <c r="X16" s="27">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="27">
+        <v>7</v>
+      </c>
+      <c r="B17" s="27">
+        <v>8</v>
+      </c>
+      <c r="C17" s="27">
+        <v>1</v>
+      </c>
+      <c r="D17" s="27">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E17"/>
+      <c r="F17" s="27">
+        <v>7</v>
+      </c>
+      <c r="G17" s="27">
+        <v>8</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17" s="27">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="J17"/>
+      <c r="K17" s="27">
+        <v>7</v>
+      </c>
+      <c r="L17" s="27">
+        <v>8</v>
+      </c>
+      <c r="M17" s="27">
+        <v>5</v>
+      </c>
+      <c r="N17" s="27">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="P17" s="27">
+        <v>7</v>
+      </c>
+      <c r="Q17" s="27">
+        <v>8</v>
+      </c>
+      <c r="R17" s="27">
+        <v>5</v>
+      </c>
+      <c r="S17" s="27">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="T17"/>
+      <c r="U17" s="27">
+        <v>7</v>
+      </c>
+      <c r="V17" s="27">
+        <v>8</v>
+      </c>
+      <c r="W17">
+        <v>3</v>
+      </c>
+      <c r="X17" s="27">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="27">
+        <v>8</v>
+      </c>
+      <c r="B18" s="27">
+        <v>9</v>
+      </c>
+      <c r="C18" s="27">
+        <v>2</v>
+      </c>
+      <c r="D18" s="27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18" s="27">
+        <v>8</v>
+      </c>
+      <c r="G18" s="27">
+        <v>9</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="I18" s="27">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="J18"/>
+      <c r="K18" s="27">
+        <v>8</v>
+      </c>
+      <c r="L18" s="27">
+        <v>9</v>
+      </c>
+      <c r="M18" s="27">
+        <v>6</v>
+      </c>
+      <c r="N18" s="27">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="P18" s="27">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="27">
+        <v>9</v>
+      </c>
+      <c r="R18" s="27">
+        <v>5</v>
+      </c>
+      <c r="S18" s="27">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="T18"/>
+      <c r="U18" s="27">
+        <v>8</v>
+      </c>
+      <c r="V18" s="27">
+        <v>9</v>
+      </c>
+      <c r="W18">
+        <v>4</v>
+      </c>
+      <c r="X18" s="27">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="27">
+        <v>9</v>
+      </c>
+      <c r="B19" s="27">
+        <v>10</v>
+      </c>
+      <c r="C19" s="27">
+        <v>1</v>
+      </c>
+      <c r="D19" s="27">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19" s="27">
+        <v>9</v>
+      </c>
+      <c r="G19" s="27">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+      <c r="I19" s="27">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="J19"/>
+      <c r="K19" s="27">
+        <v>9</v>
+      </c>
+      <c r="L19" s="27">
+        <v>10</v>
+      </c>
+      <c r="M19" s="27">
+        <v>7</v>
+      </c>
+      <c r="N19" s="27">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="P19" s="27">
+        <v>9</v>
+      </c>
+      <c r="Q19" s="27">
+        <v>10</v>
+      </c>
+      <c r="R19" s="27">
+        <v>6</v>
+      </c>
+      <c r="S19" s="27">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="T19"/>
+      <c r="U19" s="27">
+        <v>9</v>
+      </c>
+      <c r="V19" s="27">
+        <v>10</v>
+      </c>
+      <c r="W19">
+        <v>4</v>
+      </c>
+      <c r="X19" s="27">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="27">
+        <v>10</v>
+      </c>
+      <c r="B20" s="27">
+        <v>11</v>
+      </c>
+      <c r="C20" s="27">
+        <v>1</v>
+      </c>
+      <c r="D20" s="27">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20" s="27">
+        <v>10</v>
+      </c>
+      <c r="G20" s="27">
+        <v>11</v>
+      </c>
+      <c r="H20">
+        <v>7</v>
+      </c>
+      <c r="I20" s="27">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="J20"/>
+      <c r="K20" s="27">
+        <v>10</v>
+      </c>
+      <c r="L20" s="27">
+        <v>11</v>
+      </c>
+      <c r="M20" s="27">
+        <v>8</v>
+      </c>
+      <c r="N20" s="27">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="P20" s="27">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="27">
+        <v>11</v>
+      </c>
+      <c r="R20" s="27">
+        <v>7</v>
+      </c>
+      <c r="S20" s="27">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="T20"/>
+      <c r="U20" s="27">
+        <v>10</v>
+      </c>
+      <c r="V20" s="27">
+        <v>11</v>
+      </c>
+      <c r="W20">
+        <v>5</v>
+      </c>
+      <c r="X20" s="27">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="27">
+        <v>11</v>
+      </c>
+      <c r="B21" s="27">
+        <v>12</v>
+      </c>
+      <c r="C21" s="27">
+        <v>2</v>
+      </c>
+      <c r="D21" s="27">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21" s="27">
+        <v>11</v>
+      </c>
+      <c r="G21" s="27">
+        <v>12</v>
+      </c>
+      <c r="H21">
+        <v>9</v>
+      </c>
+      <c r="I21" s="27">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="J21"/>
+      <c r="K21" s="27">
+        <v>11</v>
+      </c>
+      <c r="L21" s="27">
+        <v>12</v>
+      </c>
+      <c r="M21" s="27">
+        <v>10</v>
+      </c>
+      <c r="N21" s="27">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="P21" s="27">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="27">
+        <v>12</v>
+      </c>
+      <c r="R21" s="27">
+        <v>8</v>
+      </c>
+      <c r="S21" s="27">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="T21"/>
+      <c r="U21" s="27">
+        <v>11</v>
+      </c>
+      <c r="V21" s="27">
+        <v>12</v>
+      </c>
+      <c r="W21">
+        <v>5</v>
+      </c>
+      <c r="X21" s="27">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="27">
+        <v>12</v>
+      </c>
+      <c r="B22" s="27">
+        <v>13</v>
+      </c>
+      <c r="C22" s="27">
+        <v>2</v>
+      </c>
+      <c r="D22" s="27">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22" s="27">
+        <v>12</v>
+      </c>
+      <c r="G22" s="27">
+        <v>13</v>
+      </c>
+      <c r="H22">
+        <v>9</v>
+      </c>
+      <c r="I22" s="27">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="J22"/>
+      <c r="K22" s="27">
+        <v>12</v>
+      </c>
+      <c r="L22" s="27">
+        <v>13</v>
+      </c>
+      <c r="M22" s="27">
+        <v>11</v>
+      </c>
+      <c r="N22" s="27">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="P22" s="27">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="27">
+        <v>13</v>
+      </c>
+      <c r="R22" s="27">
+        <v>9</v>
+      </c>
+      <c r="S22" s="27">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="T22"/>
+      <c r="U22" s="27">
+        <v>12</v>
+      </c>
+      <c r="V22" s="27">
+        <v>13</v>
+      </c>
+      <c r="W22">
+        <v>6</v>
+      </c>
+      <c r="X22" s="27">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="27">
+        <v>13</v>
+      </c>
+      <c r="B23" s="27">
+        <v>14</v>
+      </c>
+      <c r="C23" s="27">
+        <v>2</v>
+      </c>
+      <c r="D23" s="27">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23" s="27">
+        <v>13</v>
+      </c>
+      <c r="G23" s="27">
+        <v>14</v>
+      </c>
+      <c r="H23">
+        <v>11</v>
+      </c>
+      <c r="I23" s="27">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="J23"/>
+      <c r="K23" s="27">
+        <v>13</v>
+      </c>
+      <c r="L23" s="27">
+        <v>14</v>
+      </c>
+      <c r="M23" s="27">
+        <v>12</v>
+      </c>
+      <c r="N23" s="27">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="P23" s="27">
+        <v>13</v>
+      </c>
+      <c r="Q23" s="27">
+        <v>14</v>
+      </c>
+      <c r="R23" s="27">
+        <v>10</v>
+      </c>
+      <c r="S23" s="27">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="T23"/>
+      <c r="U23" s="27">
+        <v>13</v>
+      </c>
+      <c r="V23" s="27">
+        <v>14</v>
+      </c>
+      <c r="W23">
+        <v>8</v>
+      </c>
+      <c r="X23" s="27">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="27">
+        <v>14</v>
+      </c>
+      <c r="B24" s="27">
+        <v>15</v>
+      </c>
+      <c r="C24" s="27">
+        <v>3</v>
+      </c>
+      <c r="D24" s="27">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24" s="27">
+        <v>14</v>
+      </c>
+      <c r="G24" s="27">
+        <v>15</v>
+      </c>
+      <c r="H24">
+        <v>12</v>
+      </c>
+      <c r="I24" s="27">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="J24"/>
+      <c r="K24" s="27">
+        <v>14</v>
+      </c>
+      <c r="L24" s="27">
+        <v>15</v>
+      </c>
+      <c r="M24" s="27">
+        <v>14</v>
+      </c>
+      <c r="N24" s="27">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="P24" s="27">
+        <v>14</v>
+      </c>
+      <c r="Q24" s="27">
+        <v>15</v>
+      </c>
+      <c r="R24" s="27">
+        <v>12</v>
+      </c>
+      <c r="S24" s="27">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="T24"/>
+      <c r="U24" s="27">
+        <v>14</v>
+      </c>
+      <c r="V24" s="27">
+        <v>15</v>
+      </c>
+      <c r="W24">
+        <v>8</v>
+      </c>
+      <c r="X24" s="27">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="27">
+        <v>15</v>
+      </c>
+      <c r="B25" s="27">
+        <v>16</v>
+      </c>
+      <c r="C25" s="27">
+        <v>3</v>
+      </c>
+      <c r="D25" s="27">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25" s="27">
+        <v>15</v>
+      </c>
+      <c r="G25" s="27">
+        <v>16</v>
+      </c>
+      <c r="H25">
+        <v>16</v>
+      </c>
+      <c r="I25" s="27">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="J25"/>
+      <c r="K25" s="27">
+        <v>15</v>
+      </c>
+      <c r="L25" s="27">
+        <v>16</v>
+      </c>
+      <c r="M25" s="27">
+        <v>18</v>
+      </c>
+      <c r="N25" s="27">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+      <c r="P25" s="27">
+        <v>15</v>
+      </c>
+      <c r="Q25" s="27">
+        <v>16</v>
+      </c>
+      <c r="R25" s="27">
+        <v>15</v>
+      </c>
+      <c r="S25" s="27">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="T25"/>
+      <c r="U25" s="27">
+        <v>15</v>
+      </c>
+      <c r="V25" s="27">
+        <v>16</v>
+      </c>
+      <c r="W25">
+        <v>9</v>
+      </c>
+      <c r="X25" s="27">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="27">
+        <v>16</v>
+      </c>
+      <c r="B26" s="27">
+        <v>17</v>
+      </c>
+      <c r="C26" s="27">
+        <v>3</v>
+      </c>
+      <c r="D26" s="27">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26" s="27">
+        <v>16</v>
+      </c>
+      <c r="G26" s="27">
+        <v>17</v>
+      </c>
+      <c r="H26">
+        <v>19</v>
+      </c>
+      <c r="I26" s="27">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="J26"/>
+      <c r="K26" s="27">
+        <v>16</v>
+      </c>
+      <c r="L26" s="27">
+        <v>17</v>
+      </c>
+      <c r="M26" s="27">
+        <v>22</v>
+      </c>
+      <c r="N26" s="27">
+        <f t="shared" si="2"/>
+        <v>131</v>
+      </c>
+      <c r="P26" s="27">
+        <v>16</v>
+      </c>
+      <c r="Q26" s="27">
+        <v>17</v>
+      </c>
+      <c r="R26" s="27">
+        <v>18</v>
+      </c>
+      <c r="S26" s="27">
+        <f t="shared" si="3"/>
+        <v>111</v>
+      </c>
+      <c r="T26"/>
+      <c r="U26" s="27">
+        <v>16</v>
+      </c>
+      <c r="V26" s="27">
+        <v>17</v>
+      </c>
+      <c r="W26">
+        <v>12</v>
+      </c>
+      <c r="X26" s="27">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="27">
+        <v>17</v>
+      </c>
+      <c r="B27" s="27">
+        <v>18</v>
+      </c>
+      <c r="C27" s="27">
+        <v>4</v>
+      </c>
+      <c r="D27" s="27">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27" s="27">
+        <v>17</v>
+      </c>
+      <c r="G27" s="27">
+        <v>18</v>
+      </c>
+      <c r="H27">
+        <v>26</v>
+      </c>
+      <c r="I27" s="27">
+        <f t="shared" si="1"/>
+        <v>141</v>
+      </c>
+      <c r="J27"/>
+      <c r="K27" s="27">
+        <v>17</v>
+      </c>
+      <c r="L27" s="27">
+        <v>18</v>
+      </c>
+      <c r="M27" s="27">
+        <v>33</v>
+      </c>
+      <c r="N27" s="27">
+        <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+      <c r="P27" s="27">
+        <v>17</v>
+      </c>
+      <c r="Q27" s="27">
+        <v>18</v>
+      </c>
+      <c r="R27" s="27">
+        <v>25</v>
+      </c>
+      <c r="S27" s="27">
+        <f t="shared" si="3"/>
+        <v>136</v>
+      </c>
+      <c r="T27"/>
+      <c r="U27" s="27">
+        <v>17</v>
+      </c>
+      <c r="V27" s="27">
+        <v>18</v>
+      </c>
+      <c r="W27">
+        <v>15</v>
+      </c>
+      <c r="X27" s="27">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="27">
+        <v>18</v>
+      </c>
+      <c r="B28" s="27">
+        <v>19</v>
+      </c>
+      <c r="C28" s="27">
+        <v>4</v>
+      </c>
+      <c r="D28" s="27">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28" s="27">
+        <v>18</v>
+      </c>
+      <c r="G28" s="27">
+        <v>19</v>
+      </c>
+      <c r="J28"/>
+      <c r="K28" s="27">
+        <v>18</v>
+      </c>
+      <c r="L28" s="27">
+        <v>19</v>
+      </c>
+      <c r="N28" s="27"/>
+      <c r="P28" s="27">
+        <v>18</v>
+      </c>
+      <c r="Q28" s="27">
+        <v>19</v>
+      </c>
+      <c r="R28" s="27">
+        <v>46</v>
+      </c>
+      <c r="S28" s="27">
+        <f t="shared" si="3"/>
+        <v>182</v>
+      </c>
+      <c r="T28"/>
+      <c r="U28" s="27">
+        <v>18</v>
+      </c>
+      <c r="V28" s="27">
+        <v>19</v>
+      </c>
+      <c r="W28">
+        <v>20</v>
+      </c>
+      <c r="X28" s="27">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="E29"/>
+      <c r="J29"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="E30"/>
+      <c r="J30"/>
+      <c r="N30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J31"/>
+      <c r="S31" s="27"/>
+      <c r="T31"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J32"/>
+      <c r="S32" s="27"/>
+      <c r="T32"/>
+    </row>
+    <row r="33" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="J33"/>
+      <c r="S33" s="27"/>
+      <c r="T33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
@@ -6258,1503 +9256,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
-    <tabColor theme="3" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:X33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="27" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="13"/>
-      <c r="B1" s="60">
-        <v>1.25</v>
-      </c>
-      <c r="C1" s="60">
-        <v>1</v>
-      </c>
-      <c r="D1" s="60">
-        <v>0.5</v>
-      </c>
-      <c r="E1" s="60">
-        <v>0.17</v>
-      </c>
-      <c r="F1" s="60">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="13">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13">
-        <v>6</v>
-      </c>
-      <c r="D2" s="13">
-        <v>4</v>
-      </c>
-      <c r="E2" s="13">
-        <v>0</v>
-      </c>
-      <c r="F2" s="13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" s="13">
-        <v>0</v>
-      </c>
-      <c r="C3" s="13">
-        <v>6</v>
-      </c>
-      <c r="D3" s="13">
-        <v>0</v>
-      </c>
-      <c r="E3" s="13">
-        <v>16</v>
-      </c>
-      <c r="F3" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" s="13">
-        <v>0</v>
-      </c>
-      <c r="C4" s="13">
-        <v>10</v>
-      </c>
-      <c r="D4" s="13">
-        <v>0</v>
-      </c>
-      <c r="E4" s="13">
-        <v>12</v>
-      </c>
-      <c r="F4" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="B5" s="13">
-        <v>0</v>
-      </c>
-      <c r="C5" s="13">
-        <v>4</v>
-      </c>
-      <c r="D5" s="13">
-        <v>4</v>
-      </c>
-      <c r="E5" s="13">
-        <v>0</v>
-      </c>
-      <c r="F5" s="13">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="13">
-        <v>4</v>
-      </c>
-      <c r="C6" s="13">
-        <v>18</v>
-      </c>
-      <c r="D6" s="13">
-        <v>0</v>
-      </c>
-      <c r="E6" s="13">
-        <v>0</v>
-      </c>
-      <c r="F6" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="100" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" s="100"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="J9"/>
-      <c r="S9" s="27"/>
-      <c r="T9"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10"/>
-      <c r="F10" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="J10"/>
-      <c r="K10" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="P10" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10"/>
-      <c r="U10" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="I11" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="L11" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="M11" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="N11" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q11" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="R11" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="S11" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="T11" s="1"/>
-      <c r="U11" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="V11" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="W11" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="X11" s="26" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="B12" s="27">
-        <v>3</v>
-      </c>
-      <c r="C12" s="27">
-        <v>1</v>
-      </c>
-      <c r="D12" s="27">
-        <f>C12</f>
-        <v>1</v>
-      </c>
-      <c r="E12"/>
-      <c r="F12" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="G12" s="27">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12" s="27">
-        <f>H12</f>
-        <v>2</v>
-      </c>
-      <c r="J12"/>
-      <c r="K12" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="L12" s="27">
-        <v>3</v>
-      </c>
-      <c r="M12" s="27">
-        <v>3</v>
-      </c>
-      <c r="N12" s="27">
-        <f>M12</f>
-        <v>3</v>
-      </c>
-      <c r="P12" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q12" s="27">
-        <v>3</v>
-      </c>
-      <c r="R12" s="27">
-        <v>3</v>
-      </c>
-      <c r="S12" s="27">
-        <f>R12</f>
-        <v>3</v>
-      </c>
-      <c r="T12"/>
-      <c r="U12" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="V12" s="27">
-        <v>3</v>
-      </c>
-      <c r="W12">
-        <v>2</v>
-      </c>
-      <c r="X12" s="27">
-        <f>W12</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="27">
-        <v>3</v>
-      </c>
-      <c r="B13" s="27">
-        <v>4</v>
-      </c>
-      <c r="C13" s="27">
-        <v>1</v>
-      </c>
-      <c r="D13" s="27">
-        <f>C13+D12</f>
-        <v>2</v>
-      </c>
-      <c r="E13"/>
-      <c r="F13" s="27">
-        <v>3</v>
-      </c>
-      <c r="G13" s="27">
-        <v>4</v>
-      </c>
-      <c r="H13">
-        <v>3</v>
-      </c>
-      <c r="I13" s="27">
-        <f>H13+I12</f>
-        <v>5</v>
-      </c>
-      <c r="J13"/>
-      <c r="K13" s="27">
-        <v>3</v>
-      </c>
-      <c r="L13" s="27">
-        <v>4</v>
-      </c>
-      <c r="M13" s="27">
-        <v>3</v>
-      </c>
-      <c r="N13" s="27">
-        <f>M13+N12</f>
-        <v>6</v>
-      </c>
-      <c r="P13" s="27">
-        <v>3</v>
-      </c>
-      <c r="Q13" s="27">
-        <v>4</v>
-      </c>
-      <c r="R13" s="27">
-        <v>3</v>
-      </c>
-      <c r="S13" s="27">
-        <f>R13+S12</f>
-        <v>6</v>
-      </c>
-      <c r="T13"/>
-      <c r="U13" s="27">
-        <v>3</v>
-      </c>
-      <c r="V13" s="27">
-        <v>4</v>
-      </c>
-      <c r="W13">
-        <v>2</v>
-      </c>
-      <c r="X13" s="27">
-        <f>W13+X12</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="27">
-        <v>4</v>
-      </c>
-      <c r="B14" s="27">
-        <v>5</v>
-      </c>
-      <c r="C14" s="27">
-        <v>1</v>
-      </c>
-      <c r="D14" s="27">
-        <f t="shared" ref="D14:D28" si="0">C14+D13</f>
-        <v>3</v>
-      </c>
-      <c r="E14"/>
-      <c r="F14" s="27">
-        <v>4</v>
-      </c>
-      <c r="G14" s="27">
-        <v>5</v>
-      </c>
-      <c r="H14">
-        <v>3</v>
-      </c>
-      <c r="I14" s="27">
-        <f t="shared" ref="I14:I27" si="1">H14+I13</f>
-        <v>8</v>
-      </c>
-      <c r="J14"/>
-      <c r="K14" s="27">
-        <v>4</v>
-      </c>
-      <c r="L14" s="27">
-        <v>5</v>
-      </c>
-      <c r="M14" s="27">
-        <v>3</v>
-      </c>
-      <c r="N14" s="27">
-        <f t="shared" ref="N14:N27" si="2">M14+N13</f>
-        <v>9</v>
-      </c>
-      <c r="P14" s="27">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="27">
-        <v>5</v>
-      </c>
-      <c r="R14" s="27">
-        <v>3</v>
-      </c>
-      <c r="S14" s="27">
-        <f t="shared" ref="S14:S28" si="3">R14+S13</f>
-        <v>9</v>
-      </c>
-      <c r="T14"/>
-      <c r="U14" s="27">
-        <v>4</v>
-      </c>
-      <c r="V14" s="27">
-        <v>5</v>
-      </c>
-      <c r="W14">
-        <v>2</v>
-      </c>
-      <c r="X14" s="27">
-        <f t="shared" ref="X14:X28" si="4">W14+X13</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="27">
-        <v>5</v>
-      </c>
-      <c r="B15" s="27">
-        <v>6</v>
-      </c>
-      <c r="C15" s="27">
-        <v>1</v>
-      </c>
-      <c r="D15" s="27">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E15"/>
-      <c r="F15" s="27">
-        <v>5</v>
-      </c>
-      <c r="G15" s="27">
-        <v>6</v>
-      </c>
-      <c r="H15">
-        <v>4</v>
-      </c>
-      <c r="I15" s="27">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="J15"/>
-      <c r="K15" s="27">
-        <v>5</v>
-      </c>
-      <c r="L15" s="27">
-        <v>6</v>
-      </c>
-      <c r="M15" s="27">
-        <v>4</v>
-      </c>
-      <c r="N15" s="27">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="P15" s="27">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="27">
-        <v>6</v>
-      </c>
-      <c r="R15" s="27">
-        <v>3</v>
-      </c>
-      <c r="S15" s="27">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="T15"/>
-      <c r="U15" s="27">
-        <v>5</v>
-      </c>
-      <c r="V15" s="27">
-        <v>6</v>
-      </c>
-      <c r="W15">
-        <v>2</v>
-      </c>
-      <c r="X15" s="27">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="27">
-        <v>6</v>
-      </c>
-      <c r="B16" s="27">
-        <v>7</v>
-      </c>
-      <c r="C16" s="27">
-        <v>1</v>
-      </c>
-      <c r="D16" s="27">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E16"/>
-      <c r="F16" s="27">
-        <v>6</v>
-      </c>
-      <c r="G16" s="27">
-        <v>7</v>
-      </c>
-      <c r="H16">
-        <v>4</v>
-      </c>
-      <c r="I16" s="27">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="J16"/>
-      <c r="K16" s="27">
-        <v>6</v>
-      </c>
-      <c r="L16" s="27">
-        <v>7</v>
-      </c>
-      <c r="M16" s="27">
-        <v>5</v>
-      </c>
-      <c r="N16" s="27">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="P16" s="27">
-        <v>6</v>
-      </c>
-      <c r="Q16" s="27">
-        <v>7</v>
-      </c>
-      <c r="R16" s="27">
-        <v>4</v>
-      </c>
-      <c r="S16" s="27">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="T16"/>
-      <c r="U16" s="27">
-        <v>6</v>
-      </c>
-      <c r="V16" s="27">
-        <v>7</v>
-      </c>
-      <c r="W16">
-        <v>3</v>
-      </c>
-      <c r="X16" s="27">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="27">
-        <v>7</v>
-      </c>
-      <c r="B17" s="27">
-        <v>8</v>
-      </c>
-      <c r="C17" s="27">
-        <v>1</v>
-      </c>
-      <c r="D17" s="27">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E17"/>
-      <c r="F17" s="27">
-        <v>7</v>
-      </c>
-      <c r="G17" s="27">
-        <v>8</v>
-      </c>
-      <c r="H17">
-        <v>4</v>
-      </c>
-      <c r="I17" s="27">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="J17"/>
-      <c r="K17" s="27">
-        <v>7</v>
-      </c>
-      <c r="L17" s="27">
-        <v>8</v>
-      </c>
-      <c r="M17" s="27">
-        <v>5</v>
-      </c>
-      <c r="N17" s="27">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="P17" s="27">
-        <v>7</v>
-      </c>
-      <c r="Q17" s="27">
-        <v>8</v>
-      </c>
-      <c r="R17" s="27">
-        <v>5</v>
-      </c>
-      <c r="S17" s="27">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="T17"/>
-      <c r="U17" s="27">
-        <v>7</v>
-      </c>
-      <c r="V17" s="27">
-        <v>8</v>
-      </c>
-      <c r="W17">
-        <v>3</v>
-      </c>
-      <c r="X17" s="27">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="27">
-        <v>8</v>
-      </c>
-      <c r="B18" s="27">
-        <v>9</v>
-      </c>
-      <c r="C18" s="27">
-        <v>2</v>
-      </c>
-      <c r="D18" s="27">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E18"/>
-      <c r="F18" s="27">
-        <v>8</v>
-      </c>
-      <c r="G18" s="27">
-        <v>9</v>
-      </c>
-      <c r="H18">
-        <v>6</v>
-      </c>
-      <c r="I18" s="27">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="J18"/>
-      <c r="K18" s="27">
-        <v>8</v>
-      </c>
-      <c r="L18" s="27">
-        <v>9</v>
-      </c>
-      <c r="M18" s="27">
-        <v>6</v>
-      </c>
-      <c r="N18" s="27">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="P18" s="27">
-        <v>8</v>
-      </c>
-      <c r="Q18" s="27">
-        <v>9</v>
-      </c>
-      <c r="R18" s="27">
-        <v>5</v>
-      </c>
-      <c r="S18" s="27">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="T18"/>
-      <c r="U18" s="27">
-        <v>8</v>
-      </c>
-      <c r="V18" s="27">
-        <v>9</v>
-      </c>
-      <c r="W18">
-        <v>4</v>
-      </c>
-      <c r="X18" s="27">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="27">
-        <v>9</v>
-      </c>
-      <c r="B19" s="27">
-        <v>10</v>
-      </c>
-      <c r="C19" s="27">
-        <v>1</v>
-      </c>
-      <c r="D19" s="27">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E19"/>
-      <c r="F19" s="27">
-        <v>9</v>
-      </c>
-      <c r="G19" s="27">
-        <v>10</v>
-      </c>
-      <c r="H19">
-        <v>6</v>
-      </c>
-      <c r="I19" s="27">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="J19"/>
-      <c r="K19" s="27">
-        <v>9</v>
-      </c>
-      <c r="L19" s="27">
-        <v>10</v>
-      </c>
-      <c r="M19" s="27">
-        <v>7</v>
-      </c>
-      <c r="N19" s="27">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="P19" s="27">
-        <v>9</v>
-      </c>
-      <c r="Q19" s="27">
-        <v>10</v>
-      </c>
-      <c r="R19" s="27">
-        <v>6</v>
-      </c>
-      <c r="S19" s="27">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="T19"/>
-      <c r="U19" s="27">
-        <v>9</v>
-      </c>
-      <c r="V19" s="27">
-        <v>10</v>
-      </c>
-      <c r="W19">
-        <v>4</v>
-      </c>
-      <c r="X19" s="27">
-        <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="27">
-        <v>10</v>
-      </c>
-      <c r="B20" s="27">
-        <v>11</v>
-      </c>
-      <c r="C20" s="27">
-        <v>1</v>
-      </c>
-      <c r="D20" s="27">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E20"/>
-      <c r="F20" s="27">
-        <v>10</v>
-      </c>
-      <c r="G20" s="27">
-        <v>11</v>
-      </c>
-      <c r="H20">
-        <v>7</v>
-      </c>
-      <c r="I20" s="27">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="J20"/>
-      <c r="K20" s="27">
-        <v>10</v>
-      </c>
-      <c r="L20" s="27">
-        <v>11</v>
-      </c>
-      <c r="M20" s="27">
-        <v>8</v>
-      </c>
-      <c r="N20" s="27">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="P20" s="27">
-        <v>10</v>
-      </c>
-      <c r="Q20" s="27">
-        <v>11</v>
-      </c>
-      <c r="R20" s="27">
-        <v>7</v>
-      </c>
-      <c r="S20" s="27">
-        <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-      <c r="T20"/>
-      <c r="U20" s="27">
-        <v>10</v>
-      </c>
-      <c r="V20" s="27">
-        <v>11</v>
-      </c>
-      <c r="W20">
-        <v>5</v>
-      </c>
-      <c r="X20" s="27">
-        <f t="shared" si="4"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="27">
-        <v>11</v>
-      </c>
-      <c r="B21" s="27">
-        <v>12</v>
-      </c>
-      <c r="C21" s="27">
-        <v>2</v>
-      </c>
-      <c r="D21" s="27">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E21"/>
-      <c r="F21" s="27">
-        <v>11</v>
-      </c>
-      <c r="G21" s="27">
-        <v>12</v>
-      </c>
-      <c r="H21">
-        <v>9</v>
-      </c>
-      <c r="I21" s="27">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="J21"/>
-      <c r="K21" s="27">
-        <v>11</v>
-      </c>
-      <c r="L21" s="27">
-        <v>12</v>
-      </c>
-      <c r="M21" s="27">
-        <v>10</v>
-      </c>
-      <c r="N21" s="27">
-        <f t="shared" si="2"/>
-        <v>54</v>
-      </c>
-      <c r="P21" s="27">
-        <v>11</v>
-      </c>
-      <c r="Q21" s="27">
-        <v>12</v>
-      </c>
-      <c r="R21" s="27">
-        <v>8</v>
-      </c>
-      <c r="S21" s="27">
-        <f t="shared" si="3"/>
-        <v>47</v>
-      </c>
-      <c r="T21"/>
-      <c r="U21" s="27">
-        <v>11</v>
-      </c>
-      <c r="V21" s="27">
-        <v>12</v>
-      </c>
-      <c r="W21">
-        <v>5</v>
-      </c>
-      <c r="X21" s="27">
-        <f t="shared" si="4"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="27">
-        <v>12</v>
-      </c>
-      <c r="B22" s="27">
-        <v>13</v>
-      </c>
-      <c r="C22" s="27">
-        <v>2</v>
-      </c>
-      <c r="D22" s="27">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="E22"/>
-      <c r="F22" s="27">
-        <v>12</v>
-      </c>
-      <c r="G22" s="27">
-        <v>13</v>
-      </c>
-      <c r="H22">
-        <v>9</v>
-      </c>
-      <c r="I22" s="27">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="J22"/>
-      <c r="K22" s="27">
-        <v>12</v>
-      </c>
-      <c r="L22" s="27">
-        <v>13</v>
-      </c>
-      <c r="M22" s="27">
-        <v>11</v>
-      </c>
-      <c r="N22" s="27">
-        <f t="shared" si="2"/>
-        <v>65</v>
-      </c>
-      <c r="P22" s="27">
-        <v>12</v>
-      </c>
-      <c r="Q22" s="27">
-        <v>13</v>
-      </c>
-      <c r="R22" s="27">
-        <v>9</v>
-      </c>
-      <c r="S22" s="27">
-        <f t="shared" si="3"/>
-        <v>56</v>
-      </c>
-      <c r="T22"/>
-      <c r="U22" s="27">
-        <v>12</v>
-      </c>
-      <c r="V22" s="27">
-        <v>13</v>
-      </c>
-      <c r="W22">
-        <v>6</v>
-      </c>
-      <c r="X22" s="27">
-        <f t="shared" si="4"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="27">
-        <v>13</v>
-      </c>
-      <c r="B23" s="27">
-        <v>14</v>
-      </c>
-      <c r="C23" s="27">
-        <v>2</v>
-      </c>
-      <c r="D23" s="27">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="E23"/>
-      <c r="F23" s="27">
-        <v>13</v>
-      </c>
-      <c r="G23" s="27">
-        <v>14</v>
-      </c>
-      <c r="H23">
-        <v>11</v>
-      </c>
-      <c r="I23" s="27">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="J23"/>
-      <c r="K23" s="27">
-        <v>13</v>
-      </c>
-      <c r="L23" s="27">
-        <v>14</v>
-      </c>
-      <c r="M23" s="27">
-        <v>12</v>
-      </c>
-      <c r="N23" s="27">
-        <f t="shared" si="2"/>
-        <v>77</v>
-      </c>
-      <c r="P23" s="27">
-        <v>13</v>
-      </c>
-      <c r="Q23" s="27">
-        <v>14</v>
-      </c>
-      <c r="R23" s="27">
-        <v>10</v>
-      </c>
-      <c r="S23" s="27">
-        <f t="shared" si="3"/>
-        <v>66</v>
-      </c>
-      <c r="T23"/>
-      <c r="U23" s="27">
-        <v>13</v>
-      </c>
-      <c r="V23" s="27">
-        <v>14</v>
-      </c>
-      <c r="W23">
-        <v>8</v>
-      </c>
-      <c r="X23" s="27">
-        <f t="shared" si="4"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="27">
-        <v>14</v>
-      </c>
-      <c r="B24" s="27">
-        <v>15</v>
-      </c>
-      <c r="C24" s="27">
-        <v>3</v>
-      </c>
-      <c r="D24" s="27">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="E24"/>
-      <c r="F24" s="27">
-        <v>14</v>
-      </c>
-      <c r="G24" s="27">
-        <v>15</v>
-      </c>
-      <c r="H24">
-        <v>12</v>
-      </c>
-      <c r="I24" s="27">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="J24"/>
-      <c r="K24" s="27">
-        <v>14</v>
-      </c>
-      <c r="L24" s="27">
-        <v>15</v>
-      </c>
-      <c r="M24" s="27">
-        <v>14</v>
-      </c>
-      <c r="N24" s="27">
-        <f t="shared" si="2"/>
-        <v>91</v>
-      </c>
-      <c r="P24" s="27">
-        <v>14</v>
-      </c>
-      <c r="Q24" s="27">
-        <v>15</v>
-      </c>
-      <c r="R24" s="27">
-        <v>12</v>
-      </c>
-      <c r="S24" s="27">
-        <f t="shared" si="3"/>
-        <v>78</v>
-      </c>
-      <c r="T24"/>
-      <c r="U24" s="27">
-        <v>14</v>
-      </c>
-      <c r="V24" s="27">
-        <v>15</v>
-      </c>
-      <c r="W24">
-        <v>8</v>
-      </c>
-      <c r="X24" s="27">
-        <f t="shared" si="4"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="27">
-        <v>15</v>
-      </c>
-      <c r="B25" s="27">
-        <v>16</v>
-      </c>
-      <c r="C25" s="27">
-        <v>3</v>
-      </c>
-      <c r="D25" s="27">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="E25"/>
-      <c r="F25" s="27">
-        <v>15</v>
-      </c>
-      <c r="G25" s="27">
-        <v>16</v>
-      </c>
-      <c r="H25">
-        <v>16</v>
-      </c>
-      <c r="I25" s="27">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="J25"/>
-      <c r="K25" s="27">
-        <v>15</v>
-      </c>
-      <c r="L25" s="27">
-        <v>16</v>
-      </c>
-      <c r="M25" s="27">
-        <v>18</v>
-      </c>
-      <c r="N25" s="27">
-        <f t="shared" si="2"/>
-        <v>109</v>
-      </c>
-      <c r="P25" s="27">
-        <v>15</v>
-      </c>
-      <c r="Q25" s="27">
-        <v>16</v>
-      </c>
-      <c r="R25" s="27">
-        <v>15</v>
-      </c>
-      <c r="S25" s="27">
-        <f t="shared" si="3"/>
-        <v>93</v>
-      </c>
-      <c r="T25"/>
-      <c r="U25" s="27">
-        <v>15</v>
-      </c>
-      <c r="V25" s="27">
-        <v>16</v>
-      </c>
-      <c r="W25">
-        <v>9</v>
-      </c>
-      <c r="X25" s="27">
-        <f t="shared" si="4"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="27">
-        <v>16</v>
-      </c>
-      <c r="B26" s="27">
-        <v>17</v>
-      </c>
-      <c r="C26" s="27">
-        <v>3</v>
-      </c>
-      <c r="D26" s="27">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E26"/>
-      <c r="F26" s="27">
-        <v>16</v>
-      </c>
-      <c r="G26" s="27">
-        <v>17</v>
-      </c>
-      <c r="H26">
-        <v>19</v>
-      </c>
-      <c r="I26" s="27">
-        <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="J26"/>
-      <c r="K26" s="27">
-        <v>16</v>
-      </c>
-      <c r="L26" s="27">
-        <v>17</v>
-      </c>
-      <c r="M26" s="27">
-        <v>22</v>
-      </c>
-      <c r="N26" s="27">
-        <f t="shared" si="2"/>
-        <v>131</v>
-      </c>
-      <c r="P26" s="27">
-        <v>16</v>
-      </c>
-      <c r="Q26" s="27">
-        <v>17</v>
-      </c>
-      <c r="R26" s="27">
-        <v>18</v>
-      </c>
-      <c r="S26" s="27">
-        <f t="shared" si="3"/>
-        <v>111</v>
-      </c>
-      <c r="T26"/>
-      <c r="U26" s="27">
-        <v>16</v>
-      </c>
-      <c r="V26" s="27">
-        <v>17</v>
-      </c>
-      <c r="W26">
-        <v>12</v>
-      </c>
-      <c r="X26" s="27">
-        <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="27">
-        <v>17</v>
-      </c>
-      <c r="B27" s="27">
-        <v>18</v>
-      </c>
-      <c r="C27" s="27">
-        <v>4</v>
-      </c>
-      <c r="D27" s="27">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="E27"/>
-      <c r="F27" s="27">
-        <v>17</v>
-      </c>
-      <c r="G27" s="27">
-        <v>18</v>
-      </c>
-      <c r="H27">
-        <v>26</v>
-      </c>
-      <c r="I27" s="27">
-        <f t="shared" si="1"/>
-        <v>141</v>
-      </c>
-      <c r="J27"/>
-      <c r="K27" s="27">
-        <v>17</v>
-      </c>
-      <c r="L27" s="27">
-        <v>18</v>
-      </c>
-      <c r="M27" s="27">
-        <v>33</v>
-      </c>
-      <c r="N27" s="27">
-        <f t="shared" si="2"/>
-        <v>164</v>
-      </c>
-      <c r="P27" s="27">
-        <v>17</v>
-      </c>
-      <c r="Q27" s="27">
-        <v>18</v>
-      </c>
-      <c r="R27" s="27">
-        <v>25</v>
-      </c>
-      <c r="S27" s="27">
-        <f t="shared" si="3"/>
-        <v>136</v>
-      </c>
-      <c r="T27"/>
-      <c r="U27" s="27">
-        <v>17</v>
-      </c>
-      <c r="V27" s="27">
-        <v>18</v>
-      </c>
-      <c r="W27">
-        <v>15</v>
-      </c>
-      <c r="X27" s="27">
-        <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="27">
-        <v>18</v>
-      </c>
-      <c r="B28" s="27">
-        <v>19</v>
-      </c>
-      <c r="C28" s="27">
-        <v>4</v>
-      </c>
-      <c r="D28" s="27">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="E28"/>
-      <c r="F28" s="27">
-        <v>18</v>
-      </c>
-      <c r="G28" s="27">
-        <v>19</v>
-      </c>
-      <c r="J28"/>
-      <c r="K28" s="27">
-        <v>18</v>
-      </c>
-      <c r="L28" s="27">
-        <v>19</v>
-      </c>
-      <c r="N28" s="27"/>
-      <c r="P28" s="27">
-        <v>18</v>
-      </c>
-      <c r="Q28" s="27">
-        <v>19</v>
-      </c>
-      <c r="R28" s="27">
-        <v>46</v>
-      </c>
-      <c r="S28" s="27">
-        <f t="shared" si="3"/>
-        <v>182</v>
-      </c>
-      <c r="T28"/>
-      <c r="U28" s="27">
-        <v>18</v>
-      </c>
-      <c r="V28" s="27">
-        <v>19</v>
-      </c>
-      <c r="W28">
-        <v>20</v>
-      </c>
-      <c r="X28" s="27">
-        <f t="shared" si="4"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E29"/>
-      <c r="J29"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E30"/>
-      <c r="J30"/>
-      <c r="N30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-      <c r="T30"/>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="J31"/>
-      <c r="S31" s="27"/>
-      <c r="T31"/>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="J32"/>
-      <c r="S32" s="27"/>
-      <c r="T32"/>
-    </row>
-    <row r="33" spans="10:20" x14ac:dyDescent="0.25">
-      <c r="J33"/>
-      <c r="S33" s="27"/>
-      <c r="T33"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A7:B7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:AJ24"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7790,13 +9299,13 @@
       <c r="B1" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
       <c r="K1" s="1" t="s">
         <v>187</v>
       </c>
@@ -7846,38 +9355,38 @@
       <c r="L2" s="78" t="s">
         <v>188</v>
       </c>
-      <c r="M2" s="101" t="s">
+      <c r="M2" s="104" t="s">
         <v>192</v>
       </c>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="101"/>
-      <c r="V2" s="101"/>
-      <c r="W2" s="101"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
+      <c r="T2" s="104"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="104"/>
+      <c r="W2" s="104"/>
       <c r="X2">
         <v>1</v>
       </c>
       <c r="Y2" s="78" t="s">
         <v>188</v>
       </c>
-      <c r="Z2" s="101" t="s">
+      <c r="Z2" s="104" t="s">
         <v>192</v>
       </c>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="101"/>
-      <c r="AF2" s="101"/>
-      <c r="AG2" s="101"/>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="101"/>
-      <c r="AJ2" s="101"/>
+      <c r="AA2" s="104"/>
+      <c r="AB2" s="104"/>
+      <c r="AC2" s="104"/>
+      <c r="AD2" s="104"/>
+      <c r="AE2" s="104"/>
+      <c r="AF2" s="104"/>
+      <c r="AG2" s="104"/>
+      <c r="AH2" s="104"/>
+      <c r="AI2" s="104"/>
+      <c r="AJ2" s="104"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -7912,38 +9421,38 @@
       <c r="L3" s="78" t="s">
         <v>189</v>
       </c>
-      <c r="M3" s="101" t="s">
+      <c r="M3" s="104" t="s">
         <v>193</v>
       </c>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
-      <c r="U3" s="101"/>
-      <c r="V3" s="101"/>
-      <c r="W3" s="101"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
+      <c r="U3" s="104"/>
+      <c r="V3" s="104"/>
+      <c r="W3" s="104"/>
       <c r="X3">
         <v>2</v>
       </c>
       <c r="Y3" s="78" t="s">
         <v>189</v>
       </c>
-      <c r="Z3" s="101" t="s">
+      <c r="Z3" s="104" t="s">
         <v>193</v>
       </c>
-      <c r="AA3" s="101"/>
-      <c r="AB3" s="101"/>
-      <c r="AC3" s="101"/>
-      <c r="AD3" s="101"/>
-      <c r="AE3" s="101"/>
-      <c r="AF3" s="101"/>
-      <c r="AG3" s="101"/>
-      <c r="AH3" s="101"/>
-      <c r="AI3" s="101"/>
-      <c r="AJ3" s="101"/>
+      <c r="AA3" s="104"/>
+      <c r="AB3" s="104"/>
+      <c r="AC3" s="104"/>
+      <c r="AD3" s="104"/>
+      <c r="AE3" s="104"/>
+      <c r="AF3" s="104"/>
+      <c r="AG3" s="104"/>
+      <c r="AH3" s="104"/>
+      <c r="AI3" s="104"/>
+      <c r="AJ3" s="104"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -7978,38 +9487,38 @@
       <c r="L4" s="78" t="s">
         <v>191</v>
       </c>
-      <c r="M4" s="101" t="s">
+      <c r="M4" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="101"/>
-      <c r="S4" s="101"/>
-      <c r="T4" s="101"/>
-      <c r="U4" s="101"/>
-      <c r="V4" s="101"/>
-      <c r="W4" s="101"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
+      <c r="U4" s="104"/>
+      <c r="V4" s="104"/>
+      <c r="W4" s="104"/>
       <c r="X4">
         <v>3</v>
       </c>
       <c r="Y4" s="78" t="s">
         <v>191</v>
       </c>
-      <c r="Z4" s="101" t="s">
+      <c r="Z4" s="104" t="s">
         <v>197</v>
       </c>
-      <c r="AA4" s="101"/>
-      <c r="AB4" s="101"/>
-      <c r="AC4" s="101"/>
-      <c r="AD4" s="101"/>
-      <c r="AE4" s="101"/>
-      <c r="AF4" s="101"/>
-      <c r="AG4" s="101"/>
-      <c r="AH4" s="101"/>
-      <c r="AI4" s="101"/>
-      <c r="AJ4" s="101"/>
+      <c r="AA4" s="104"/>
+      <c r="AB4" s="104"/>
+      <c r="AC4" s="104"/>
+      <c r="AD4" s="104"/>
+      <c r="AE4" s="104"/>
+      <c r="AF4" s="104"/>
+      <c r="AG4" s="104"/>
+      <c r="AH4" s="104"/>
+      <c r="AI4" s="104"/>
+      <c r="AJ4" s="104"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -9166,14 +10675,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:CR30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -9329,21 +10838,21 @@
       <c r="B2" s="84" t="s">
         <v>188</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="104" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -9565,21 +11074,21 @@
       <c r="B3" s="84" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
       <c r="R3" s="1" t="s">
         <v>160</v>
       </c>
@@ -9865,21 +11374,21 @@
       <c r="B4" s="84" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="101" t="s">
+      <c r="C4" s="104" t="s">
         <v>210</v>
       </c>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
       <c r="Q4" t="s">
         <v>32</v>
       </c>
@@ -14267,4 +15776,1410 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40056689-C64D-4E88-9875-45AB1E13DC76}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:AJ24"/>
+  <sheetViews>
+    <sheetView topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AI8" sqref="AI8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="30" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="68" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="L1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="U1" s="85"/>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="100"/>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="85" t="s">
+        <v>188</v>
+      </c>
+      <c r="N2" s="104" t="s">
+        <v>192</v>
+      </c>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
+      <c r="T2" s="104"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="104"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="49">
+        <v>451</v>
+      </c>
+      <c r="C3" s="14">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14">
+        <v>3</v>
+      </c>
+      <c r="E3" s="14">
+        <v>3</v>
+      </c>
+      <c r="F3" s="14">
+        <v>4</v>
+      </c>
+      <c r="G3" s="14">
+        <v>2</v>
+      </c>
+      <c r="H3" s="14">
+        <v>2</v>
+      </c>
+      <c r="I3" s="14">
+        <f>SUM(C3:H3)</f>
+        <v>15</v>
+      </c>
+      <c r="K3" s="100"/>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3" s="85" t="s">
+        <v>189</v>
+      </c>
+      <c r="N3" s="104" t="s">
+        <v>193</v>
+      </c>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
+      <c r="U3" s="104"/>
+      <c r="V3" s="104"/>
+      <c r="W3" s="104"/>
+      <c r="X3" s="104"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="49">
+        <v>550</v>
+      </c>
+      <c r="C4" s="14">
+        <v>1</v>
+      </c>
+      <c r="D4" s="14">
+        <v>4</v>
+      </c>
+      <c r="E4" s="14">
+        <v>3</v>
+      </c>
+      <c r="F4" s="14">
+        <v>4</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
+        <f>SUM(C4:H4)</f>
+        <v>12</v>
+      </c>
+      <c r="K4" s="100"/>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="N4" s="104" t="s">
+        <v>197</v>
+      </c>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
+      <c r="U4" s="104"/>
+      <c r="V4" s="104"/>
+      <c r="W4" s="104"/>
+      <c r="X4" s="104"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="49">
+        <f t="shared" ref="C5:I5" si="0">MAX(C3:C4)</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="49">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E5" s="49">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F5" s="49">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G5" s="49">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H5" s="49">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I5" s="49">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="M5" s="85"/>
+      <c r="V5" s="50">
+        <f>SUM(V7:V19)</f>
+        <v>338786.935</v>
+      </c>
+      <c r="W5" s="50">
+        <f>SUM(W7:W19)</f>
+        <v>406544.32200000004</v>
+      </c>
+      <c r="Z5" s="85"/>
+      <c r="AI5" s="50">
+        <f>SUM(AI7:AI19)</f>
+        <v>338786.935</v>
+      </c>
+      <c r="AJ5" s="50">
+        <f>SUM(AJ7:AJ19)</f>
+        <v>406544.32200000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="L6" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="R6" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="S6" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="T6" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="U6" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="V6" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="W6" s="77" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y6" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA6" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB6" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC6" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD6" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE6" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF6" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG6" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH6" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI6" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ6" s="77" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="L7" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="19"/>
+      <c r="O7" s="56">
+        <v>14</v>
+      </c>
+      <c r="P7" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="56">
+        <v>2</v>
+      </c>
+      <c r="R7" s="20">
+        <v>0</v>
+      </c>
+      <c r="S7" s="56">
+        <v>0</v>
+      </c>
+      <c r="T7" s="20">
+        <v>0</v>
+      </c>
+      <c r="U7" s="56">
+        <v>2</v>
+      </c>
+      <c r="V7" s="48">
+        <f>(18290+6200)*1.06</f>
+        <v>25959.4</v>
+      </c>
+      <c r="W7" s="50">
+        <f>V7*1.2</f>
+        <v>31151.279999999999</v>
+      </c>
+      <c r="Y7" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z7" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="56">
+        <v>14</v>
+      </c>
+      <c r="AC7" s="20">
+        <v>7</v>
+      </c>
+      <c r="AD7" s="56">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="56">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="56">
+        <v>17</v>
+      </c>
+      <c r="AI7" s="48">
+        <f>(18290+6200)*1.06</f>
+        <v>25959.4</v>
+      </c>
+      <c r="AJ7" s="50">
+        <f>AI7*1.2</f>
+        <v>31151.279999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="L8" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8" s="23">
+        <v>0</v>
+      </c>
+      <c r="P8" s="22">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="22">
+        <v>5</v>
+      </c>
+      <c r="R8" s="20">
+        <v>2</v>
+      </c>
+      <c r="S8" s="23">
+        <v>2</v>
+      </c>
+      <c r="T8" s="22">
+        <v>10</v>
+      </c>
+      <c r="U8" s="23">
+        <v>2</v>
+      </c>
+      <c r="V8" s="48">
+        <f>(18370+1700+1315)*1.049</f>
+        <v>22432.864999999998</v>
+      </c>
+      <c r="W8" s="50">
+        <f t="shared" ref="W8:W18" si="1">V8*1.2</f>
+        <v>26919.437999999998</v>
+      </c>
+      <c r="Y8" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z8" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA8" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB8" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="22">
+        <v>14</v>
+      </c>
+      <c r="AD8" s="22">
+        <v>7</v>
+      </c>
+      <c r="AE8" s="20">
+        <v>2</v>
+      </c>
+      <c r="AF8" s="23">
+        <v>2</v>
+      </c>
+      <c r="AG8" s="22">
+        <v>10</v>
+      </c>
+      <c r="AH8" s="23">
+        <v>16</v>
+      </c>
+      <c r="AI8" s="48">
+        <f>(18370+1700+1315)*1.049</f>
+        <v>22432.864999999998</v>
+      </c>
+      <c r="AJ8" s="50">
+        <f t="shared" ref="AJ8:AJ18" si="2">AI8*1.2</f>
+        <v>26919.437999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="L9" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" s="23">
+        <v>0</v>
+      </c>
+      <c r="P9" s="22">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="22">
+        <v>5</v>
+      </c>
+      <c r="R9" s="20">
+        <v>2</v>
+      </c>
+      <c r="S9" s="23">
+        <v>2</v>
+      </c>
+      <c r="T9" s="22">
+        <v>10</v>
+      </c>
+      <c r="U9" s="23">
+        <v>2</v>
+      </c>
+      <c r="V9" s="48">
+        <f t="shared" ref="V9:V11" si="3">(18370+1700+1315)*1.049</f>
+        <v>22432.864999999998</v>
+      </c>
+      <c r="W9" s="50">
+        <f t="shared" si="1"/>
+        <v>26919.437999999998</v>
+      </c>
+      <c r="Y9" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z9" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA9" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB9" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="22">
+        <v>14</v>
+      </c>
+      <c r="AD9" s="22">
+        <v>7</v>
+      </c>
+      <c r="AE9" s="20">
+        <v>2</v>
+      </c>
+      <c r="AF9" s="23">
+        <v>2</v>
+      </c>
+      <c r="AG9" s="22">
+        <v>10</v>
+      </c>
+      <c r="AH9" s="23">
+        <v>16</v>
+      </c>
+      <c r="AI9" s="48">
+        <f t="shared" ref="AI9:AI11" si="4">(18370+1700+1315)*1.049</f>
+        <v>22432.864999999998</v>
+      </c>
+      <c r="AJ9" s="50">
+        <f t="shared" si="2"/>
+        <v>26919.437999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="L10" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" s="23">
+        <v>0</v>
+      </c>
+      <c r="P10" s="22">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="22">
+        <v>5</v>
+      </c>
+      <c r="R10" s="20">
+        <v>2</v>
+      </c>
+      <c r="S10" s="23">
+        <v>2</v>
+      </c>
+      <c r="T10" s="22">
+        <v>10</v>
+      </c>
+      <c r="U10" s="23">
+        <v>2</v>
+      </c>
+      <c r="V10" s="48">
+        <f t="shared" si="3"/>
+        <v>22432.864999999998</v>
+      </c>
+      <c r="W10" s="50">
+        <f t="shared" si="1"/>
+        <v>26919.437999999998</v>
+      </c>
+      <c r="Y10" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z10" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA10" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB10" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="22">
+        <v>14</v>
+      </c>
+      <c r="AD10" s="22">
+        <v>7</v>
+      </c>
+      <c r="AE10" s="20">
+        <v>2</v>
+      </c>
+      <c r="AF10" s="23">
+        <v>2</v>
+      </c>
+      <c r="AG10" s="22">
+        <v>10</v>
+      </c>
+      <c r="AH10" s="23">
+        <v>16</v>
+      </c>
+      <c r="AI10" s="48">
+        <f t="shared" si="4"/>
+        <v>22432.864999999998</v>
+      </c>
+      <c r="AJ10" s="50">
+        <f t="shared" si="2"/>
+        <v>26919.437999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="L11" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="O11" s="23">
+        <v>0</v>
+      </c>
+      <c r="P11" s="22">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="22">
+        <v>5</v>
+      </c>
+      <c r="R11" s="20">
+        <v>2</v>
+      </c>
+      <c r="S11" s="23">
+        <v>2</v>
+      </c>
+      <c r="T11" s="22">
+        <v>10</v>
+      </c>
+      <c r="U11" s="23">
+        <v>2</v>
+      </c>
+      <c r="V11" s="48">
+        <f t="shared" si="3"/>
+        <v>22432.864999999998</v>
+      </c>
+      <c r="W11" s="50">
+        <f t="shared" si="1"/>
+        <v>26919.437999999998</v>
+      </c>
+      <c r="Y11" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z11" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA11" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB11" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="22">
+        <v>14</v>
+      </c>
+      <c r="AD11" s="22">
+        <v>7</v>
+      </c>
+      <c r="AE11" s="20">
+        <v>2</v>
+      </c>
+      <c r="AF11" s="23">
+        <v>2</v>
+      </c>
+      <c r="AG11" s="22">
+        <v>10</v>
+      </c>
+      <c r="AH11" s="23">
+        <v>16</v>
+      </c>
+      <c r="AI11" s="48">
+        <f t="shared" si="4"/>
+        <v>22432.864999999998</v>
+      </c>
+      <c r="AJ11" s="50">
+        <f t="shared" si="2"/>
+        <v>26919.437999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="L12" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="O12" s="23">
+        <v>0</v>
+      </c>
+      <c r="P12" s="22">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="22">
+        <v>5</v>
+      </c>
+      <c r="R12" s="20">
+        <v>2</v>
+      </c>
+      <c r="S12" s="23">
+        <v>2</v>
+      </c>
+      <c r="T12" s="22">
+        <v>10</v>
+      </c>
+      <c r="U12" s="23">
+        <v>2</v>
+      </c>
+      <c r="V12" s="48">
+        <f>(22460+9186+1315)*1.049</f>
+        <v>34576.089</v>
+      </c>
+      <c r="W12" s="50">
+        <f t="shared" si="1"/>
+        <v>41491.306799999998</v>
+      </c>
+      <c r="Y12" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z12" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA12" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB12" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="22">
+        <v>14</v>
+      </c>
+      <c r="AD12" s="22">
+        <v>7</v>
+      </c>
+      <c r="AE12" s="20">
+        <v>2</v>
+      </c>
+      <c r="AF12" s="23">
+        <v>2</v>
+      </c>
+      <c r="AG12" s="22">
+        <v>10</v>
+      </c>
+      <c r="AH12" s="23">
+        <v>16</v>
+      </c>
+      <c r="AI12" s="48">
+        <f>(22460+9186+1315)*1.049</f>
+        <v>34576.089</v>
+      </c>
+      <c r="AJ12" s="50">
+        <f t="shared" si="2"/>
+        <v>41491.306799999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="L13" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="O13" s="23">
+        <v>0</v>
+      </c>
+      <c r="P13" s="22">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="22">
+        <v>12</v>
+      </c>
+      <c r="R13" s="20">
+        <v>2</v>
+      </c>
+      <c r="S13" s="23">
+        <v>2</v>
+      </c>
+      <c r="T13" s="22">
+        <v>10</v>
+      </c>
+      <c r="U13" s="23">
+        <v>2</v>
+      </c>
+      <c r="V13" s="48">
+        <f t="shared" ref="V13:V16" si="5">(22460+9186+1315)*1.049</f>
+        <v>34576.089</v>
+      </c>
+      <c r="W13" s="50">
+        <f t="shared" si="1"/>
+        <v>41491.306799999998</v>
+      </c>
+      <c r="Y13" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z13" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA13" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB13" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="22">
+        <v>7</v>
+      </c>
+      <c r="AD13" s="22">
+        <v>14</v>
+      </c>
+      <c r="AE13" s="20">
+        <v>2</v>
+      </c>
+      <c r="AF13" s="23">
+        <v>2</v>
+      </c>
+      <c r="AG13" s="22">
+        <v>10</v>
+      </c>
+      <c r="AH13" s="23">
+        <v>16</v>
+      </c>
+      <c r="AI13" s="48">
+        <f t="shared" ref="AI13:AI16" si="6">(22460+9186+1315)*1.049</f>
+        <v>34576.089</v>
+      </c>
+      <c r="AJ13" s="50">
+        <f t="shared" si="2"/>
+        <v>41491.306799999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="L14" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="N14" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="O14" s="23">
+        <v>0</v>
+      </c>
+      <c r="P14" s="22">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="22">
+        <v>12</v>
+      </c>
+      <c r="R14" s="20">
+        <v>2</v>
+      </c>
+      <c r="S14" s="23">
+        <v>2</v>
+      </c>
+      <c r="T14" s="22">
+        <v>10</v>
+      </c>
+      <c r="U14" s="23">
+        <v>2</v>
+      </c>
+      <c r="V14" s="48">
+        <f t="shared" si="5"/>
+        <v>34576.089</v>
+      </c>
+      <c r="W14" s="50">
+        <f t="shared" si="1"/>
+        <v>41491.306799999998</v>
+      </c>
+      <c r="Y14" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z14" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA14" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB14" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="22">
+        <v>7</v>
+      </c>
+      <c r="AD14" s="22">
+        <v>14</v>
+      </c>
+      <c r="AE14" s="20">
+        <v>2</v>
+      </c>
+      <c r="AF14" s="23">
+        <v>2</v>
+      </c>
+      <c r="AG14" s="22">
+        <v>10</v>
+      </c>
+      <c r="AH14" s="23">
+        <v>16</v>
+      </c>
+      <c r="AI14" s="48">
+        <f t="shared" si="6"/>
+        <v>34576.089</v>
+      </c>
+      <c r="AJ14" s="50">
+        <f t="shared" si="2"/>
+        <v>41491.306799999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="L15" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="N15" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="O15" s="23">
+        <v>0</v>
+      </c>
+      <c r="P15" s="22">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="22">
+        <v>12</v>
+      </c>
+      <c r="R15" s="20">
+        <v>2</v>
+      </c>
+      <c r="S15" s="23">
+        <v>2</v>
+      </c>
+      <c r="T15" s="22">
+        <v>10</v>
+      </c>
+      <c r="U15" s="23">
+        <v>9</v>
+      </c>
+      <c r="V15" s="48">
+        <f t="shared" si="5"/>
+        <v>34576.089</v>
+      </c>
+      <c r="W15" s="50">
+        <f t="shared" si="1"/>
+        <v>41491.306799999998</v>
+      </c>
+      <c r="Y15" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z15" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA15" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB15" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="22">
+        <v>7</v>
+      </c>
+      <c r="AD15" s="22">
+        <v>14</v>
+      </c>
+      <c r="AE15" s="20">
+        <v>2</v>
+      </c>
+      <c r="AF15" s="23">
+        <v>2</v>
+      </c>
+      <c r="AG15" s="22">
+        <v>10</v>
+      </c>
+      <c r="AH15" s="23">
+        <v>19</v>
+      </c>
+      <c r="AI15" s="48">
+        <f t="shared" si="6"/>
+        <v>34576.089</v>
+      </c>
+      <c r="AJ15" s="50">
+        <f t="shared" si="2"/>
+        <v>41491.306799999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="L16" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="N16" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="O16" s="23">
+        <v>0</v>
+      </c>
+      <c r="P16" s="22">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="22">
+        <v>12</v>
+      </c>
+      <c r="R16" s="20">
+        <v>2</v>
+      </c>
+      <c r="S16" s="23">
+        <v>2</v>
+      </c>
+      <c r="T16" s="22">
+        <v>10</v>
+      </c>
+      <c r="U16" s="23">
+        <v>9</v>
+      </c>
+      <c r="V16" s="48">
+        <f t="shared" si="5"/>
+        <v>34576.089</v>
+      </c>
+      <c r="W16" s="50">
+        <f t="shared" si="1"/>
+        <v>41491.306799999998</v>
+      </c>
+      <c r="Y16" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z16" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA16" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB16" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="22">
+        <v>7</v>
+      </c>
+      <c r="AD16" s="22">
+        <v>14</v>
+      </c>
+      <c r="AE16" s="20">
+        <v>2</v>
+      </c>
+      <c r="AF16" s="23">
+        <v>2</v>
+      </c>
+      <c r="AG16" s="22">
+        <v>10</v>
+      </c>
+      <c r="AH16" s="23">
+        <v>19</v>
+      </c>
+      <c r="AI16" s="48">
+        <f t="shared" si="6"/>
+        <v>34576.089</v>
+      </c>
+      <c r="AJ16" s="50">
+        <f t="shared" si="2"/>
+        <v>41491.306799999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="L17" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="M17" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="N17" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="O17" s="23">
+        <v>0</v>
+      </c>
+      <c r="P17" s="22">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="22">
+        <v>12</v>
+      </c>
+      <c r="R17" s="20">
+        <v>2</v>
+      </c>
+      <c r="S17" s="23">
+        <v>2</v>
+      </c>
+      <c r="T17" s="22">
+        <v>10</v>
+      </c>
+      <c r="U17" s="23">
+        <v>2</v>
+      </c>
+      <c r="V17" s="48">
+        <f>(22460+160+1315)*1.049</f>
+        <v>25107.814999999999</v>
+      </c>
+      <c r="W17" s="50">
+        <f t="shared" ref="W17" si="7">V17*1.2</f>
+        <v>30129.377999999997</v>
+      </c>
+      <c r="Y17" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z17" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA17" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB17" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="22">
+        <v>7</v>
+      </c>
+      <c r="AD17" s="22">
+        <v>14</v>
+      </c>
+      <c r="AE17" s="20">
+        <v>2</v>
+      </c>
+      <c r="AF17" s="23">
+        <v>2</v>
+      </c>
+      <c r="AG17" s="22">
+        <v>10</v>
+      </c>
+      <c r="AH17" s="23">
+        <v>16</v>
+      </c>
+      <c r="AI17" s="48">
+        <f>(22460+160+1315)*1.049</f>
+        <v>25107.814999999999</v>
+      </c>
+      <c r="AJ17" s="50">
+        <f t="shared" si="2"/>
+        <v>30129.377999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="L18" s="54" t="s">
+        <v>242</v>
+      </c>
+      <c r="M18" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="N18" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="O18" s="23">
+        <v>0</v>
+      </c>
+      <c r="P18" s="22">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="22">
+        <v>12</v>
+      </c>
+      <c r="R18" s="20">
+        <v>2</v>
+      </c>
+      <c r="S18" s="23">
+        <v>2</v>
+      </c>
+      <c r="T18" s="22">
+        <v>10</v>
+      </c>
+      <c r="U18" s="23">
+        <v>2</v>
+      </c>
+      <c r="V18" s="48">
+        <f>(22460+160+1315)*1.049</f>
+        <v>25107.814999999999</v>
+      </c>
+      <c r="W18" s="50">
+        <f t="shared" si="1"/>
+        <v>30129.377999999997</v>
+      </c>
+      <c r="Y18" s="54" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z18" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA18" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB18" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="22">
+        <v>7</v>
+      </c>
+      <c r="AD18" s="22">
+        <v>14</v>
+      </c>
+      <c r="AE18" s="20">
+        <v>2</v>
+      </c>
+      <c r="AF18" s="23">
+        <v>2</v>
+      </c>
+      <c r="AG18" s="22">
+        <v>10</v>
+      </c>
+      <c r="AH18" s="23">
+        <v>16</v>
+      </c>
+      <c r="AI18" s="48">
+        <f>(22460+160+1315)*1.049</f>
+        <v>25107.814999999999</v>
+      </c>
+      <c r="AJ18" s="50">
+        <f t="shared" si="2"/>
+        <v>30129.377999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="M20" s="79" t="s">
+        <v>136</v>
+      </c>
+      <c r="N20">
+        <v>68</v>
+      </c>
+      <c r="Z20" s="79" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="L21"/>
+      <c r="M21" s="79" t="s">
+        <v>134</v>
+      </c>
+      <c r="N21">
+        <v>57</v>
+      </c>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="Z21" s="79" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="M22" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="N22">
+        <v>24</v>
+      </c>
+      <c r="Z22" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA22">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="M23" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="N23">
+        <f>N22+N21+N20</f>
+        <v>149</v>
+      </c>
+      <c r="Z23" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA23">
+        <f>AA22+AA21+AA20</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="M24" s="79" t="s">
+        <v>194</v>
+      </c>
+      <c r="N24" s="30">
+        <f>N23/16</f>
+        <v>9.3125</v>
+      </c>
+      <c r="Z24" s="79" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA24" s="30">
+        <f>AA23/16</f>
+        <v>4.125</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="N2:X2"/>
+    <mergeCell ref="N3:X3"/>
+    <mergeCell ref="N4:X4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="O7:U16 O18:U18">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O17:U17">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB7:AH16 AB18:AH18">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB17:AH17">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/projects/current/hattrick/z-TirosLejanos.xlsx
+++ b/projects/current/hattrick/z-TirosLejanos.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860EE63F-2AA4-49B9-B12A-1F76559BCD58}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0556FC-8AD8-44DB-9CA8-57A951C91178}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tactica" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="326">
   <si>
     <t>at-central</t>
   </si>
@@ -972,6 +972,120 @@
   </si>
   <si>
     <t>Suiza</t>
+  </si>
+  <si>
+    <t>Kyle Nelson</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Kory Woods</t>
+  </si>
+  <si>
+    <t>Rickey Forsyth</t>
+  </si>
+  <si>
+    <t>Christina Esquivel</t>
+  </si>
+  <si>
+    <t>Lorenzo Mantilla</t>
+  </si>
+  <si>
+    <t>Wendell Hartzler</t>
+  </si>
+  <si>
+    <t>Oswaldo Jiménez</t>
+  </si>
+  <si>
+    <t>Juha Peuraniemi</t>
+  </si>
+  <si>
+    <t>Finlandia</t>
+  </si>
+  <si>
+    <t>Pavol Jobus</t>
+  </si>
+  <si>
+    <t>Eslovenia</t>
+  </si>
+  <si>
+    <t>Shaquille Lai</t>
+  </si>
+  <si>
+    <t>Suriman</t>
+  </si>
+  <si>
+    <t>Geir Erstad</t>
+  </si>
+  <si>
+    <t>Noruega</t>
+  </si>
+  <si>
+    <t>Kristian Berglund</t>
+  </si>
+  <si>
+    <t>Nils Jambu</t>
+  </si>
+  <si>
+    <t>Henryk Indelak</t>
+  </si>
+  <si>
+    <t>Gianfrancesco Aghemo</t>
+  </si>
+  <si>
+    <t>iTALIA</t>
+  </si>
+  <si>
+    <t>Patryk Tuderek</t>
+  </si>
+  <si>
+    <t>pOLONIA</t>
+  </si>
+  <si>
+    <t>Ilmārs Vanags</t>
+  </si>
+  <si>
+    <t>Letonia</t>
+  </si>
+  <si>
+    <t>Ben McIlvaney</t>
+  </si>
+  <si>
+    <t>Escocia</t>
+  </si>
+  <si>
+    <t>Luka Tomic</t>
+  </si>
+  <si>
+    <t>Reinhard Scheidecker</t>
+  </si>
+  <si>
+    <t>Jonas Barslund</t>
+  </si>
+  <si>
+    <t>Dinamarca</t>
+  </si>
+  <si>
+    <t>Lenny Kolkman</t>
+  </si>
+  <si>
+    <t>Yalm Safak</t>
+  </si>
+  <si>
+    <t>Turquia</t>
+  </si>
+  <si>
+    <t>Nguyễn Phúc Hoàng</t>
+  </si>
+  <si>
+    <t>Nova Zelanda</t>
+  </si>
+  <si>
+    <t>李 (Lee) 燦貴 (Cangui)</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
   </si>
 </sst>
 </file>
@@ -1288,7 +1402,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1516,6 +1630,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4096,10 +4213,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4118,7 +4235,7 @@
     <col min="13" max="13" width="6.5703125" style="85" customWidth="1"/>
     <col min="14" max="14" width="5.28515625" style="85" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.42578125" style="85" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" style="85" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" style="85" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.42578125" style="85" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4175,7 +4292,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="85" t="s">
         <v>250</v>
       </c>
@@ -4230,7 +4347,7 @@
         <v>22794.117647058825</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="85" t="s">
         <v>254</v>
       </c>
@@ -4282,7 +4399,7 @@
         <v>15625</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="85" t="s">
         <v>256</v>
       </c>
@@ -4337,7 +4454,7 @@
         <v>51269.841269841272</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="85" t="s">
         <v>259</v>
       </c>
@@ -4392,7 +4509,7 @@
         <v>33333.333333333336</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="85" t="s">
         <v>261</v>
       </c>
@@ -4447,7 +4564,7 @@
         <v>41558.441558441562</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="85" t="s">
         <v>263</v>
       </c>
@@ -4502,7 +4619,7 @@
         <v>35714.285714285717</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="85" t="s">
         <v>265</v>
       </c>
@@ -4557,7 +4674,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="85" t="s">
         <v>267</v>
       </c>
@@ -4612,7 +4729,7 @@
         <v>25961.538461538461</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="85" t="s">
         <v>271</v>
       </c>
@@ -4667,7 +4784,7 @@
         <v>11363.636363636364</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="85" t="s">
         <v>273</v>
       </c>
@@ -4722,7 +4839,7 @@
         <v>5581.395348837209</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="85" t="s">
         <v>274</v>
       </c>
@@ -4777,7 +4894,7 @@
         <v>15384.615384615385</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="85" t="s">
         <v>276</v>
       </c>
@@ -4832,7 +4949,7 @@
         <v>9782.608695652174</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="85" t="s">
         <v>278</v>
       </c>
@@ -4887,7 +5004,7 @@
         <v>24576.271186440677</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="85" t="s">
         <v>279</v>
       </c>
@@ -4931,18 +5048,18 @@
         <v>3</v>
       </c>
       <c r="O15" s="85">
-        <f t="shared" ref="O15:O24" si="3">N15+L15+K15+M15</f>
+        <f t="shared" ref="O15:O32" si="3">N15+L15+K15+M15</f>
         <v>46</v>
       </c>
       <c r="P15" s="102">
         <v>630000</v>
       </c>
       <c r="Q15" s="102">
-        <f t="shared" ref="Q15:Q24" si="4">P15/O15</f>
+        <f t="shared" ref="Q15:Q32" si="4">P15/O15</f>
         <v>13695.652173913044</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="85" t="s">
         <v>281</v>
       </c>
@@ -4997,7 +5114,7 @@
         <v>32203.389830508473</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="85" t="s">
         <v>282</v>
       </c>
@@ -5049,7 +5166,7 @@
         <v>26666.666666666668</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="85" t="s">
         <v>283</v>
       </c>
@@ -5104,7 +5221,7 @@
         <v>26595.744680851065</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="85" t="s">
         <v>285</v>
       </c>
@@ -5159,7 +5276,7 @@
         <v>29411.764705882353</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="85" t="s">
         <v>286</v>
       </c>
@@ -5215,146 +5332,203 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="106" t="s">
+        <v>288</v>
+      </c>
+      <c r="B21" s="85" t="s">
+        <v>289</v>
+      </c>
+      <c r="C21" s="85">
+        <v>18</v>
+      </c>
+      <c r="D21" s="85">
+        <v>102</v>
+      </c>
       <c r="E21" s="85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G21" s="29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H21" s="29">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I21" s="29">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J21" s="29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K21" s="85">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L21" s="85">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M21" s="85">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="N21" s="85">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O21" s="85">
         <f t="shared" si="3"/>
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P21" s="102">
         <v>1450007</v>
       </c>
       <c r="Q21" s="102">
         <f t="shared" si="4"/>
-        <v>24576.389830508473</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+        <v>23770.60655737705</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="85" t="s">
+        <v>290</v>
+      </c>
+      <c r="B22" s="85" t="s">
+        <v>289</v>
+      </c>
+      <c r="C22" s="85">
+        <v>17</v>
+      </c>
+      <c r="D22" s="85">
+        <v>60</v>
+      </c>
       <c r="E22" s="85">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>106</v>
       </c>
       <c r="G22" s="29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H22" s="29">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I22" s="29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J22" s="29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K22" s="85">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L22" s="85">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M22" s="85">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N22" s="85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O22" s="85">
         <f t="shared" si="3"/>
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="P22" s="102">
-        <v>1450008</v>
+        <v>350000</v>
       </c>
       <c r="Q22" s="102">
         <f t="shared" si="4"/>
-        <v>24576.406779661018</v>
+        <v>9722.2222222222226</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="106" t="s">
+        <v>291</v>
+      </c>
+      <c r="B23" s="85" t="s">
+        <v>289</v>
+      </c>
+      <c r="C23" s="85">
+        <v>18</v>
+      </c>
+      <c r="D23" s="85">
+        <v>110</v>
+      </c>
       <c r="E23" s="85">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>179</v>
       </c>
       <c r="G23" s="29">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H23" s="29">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I23" s="29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J23" s="29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K23" s="85">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="L23" s="85">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="M23" s="85">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N23" s="85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O23" s="85">
         <f t="shared" si="3"/>
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P23" s="102">
-        <v>1450009</v>
+        <v>450000</v>
       </c>
       <c r="Q23" s="102">
         <f t="shared" si="4"/>
-        <v>24576.423728813559</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+        <v>7377.0491803278692</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="85" t="s">
+        <v>292</v>
+      </c>
+      <c r="B24" s="85" t="s">
+        <v>289</v>
+      </c>
+      <c r="C24" s="85">
+        <v>17</v>
+      </c>
+      <c r="D24" s="85">
+        <v>93</v>
+      </c>
       <c r="E24" s="85">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>183</v>
       </c>
       <c r="G24" s="29">
         <v>4</v>
       </c>
       <c r="H24" s="29">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I24" s="29">
         <v>4</v>
       </c>
       <c r="J24" s="29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K24" s="85">
         <v>9</v>
       </c>
       <c r="L24" s="85">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="M24" s="85">
         <v>8</v>
@@ -5364,19 +5538,1444 @@
       </c>
       <c r="O24" s="85">
         <f t="shared" si="3"/>
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="P24" s="102">
-        <v>1450010</v>
+        <v>800000</v>
       </c>
       <c r="Q24" s="102">
         <f t="shared" si="4"/>
-        <v>24576.4406779661</v>
+        <v>17391.304347826088</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="85" t="s">
+        <v>293</v>
+      </c>
+      <c r="B25" s="85" t="s">
+        <v>289</v>
+      </c>
+      <c r="C25" s="85">
+        <v>18</v>
+      </c>
+      <c r="D25" s="85">
+        <v>96</v>
+      </c>
+      <c r="E25" s="85">
+        <v>3.2456140350877201</v>
+      </c>
+      <c r="G25" s="29">
+        <v>3</v>
+      </c>
+      <c r="H25" s="29">
+        <v>9</v>
+      </c>
+      <c r="I25" s="29">
+        <v>5</v>
+      </c>
+      <c r="J25" s="29">
+        <v>3</v>
+      </c>
+      <c r="K25" s="85">
+        <v>6</v>
+      </c>
+      <c r="L25" s="85">
+        <v>32</v>
+      </c>
+      <c r="M25" s="85">
+        <v>12</v>
+      </c>
+      <c r="N25" s="85">
+        <v>2</v>
+      </c>
+      <c r="O25" s="85">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="P25" s="102">
+        <v>2000000</v>
+      </c>
+      <c r="Q25" s="102">
+        <f t="shared" si="4"/>
+        <v>38461.538461538461</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="85" t="s">
+        <v>294</v>
+      </c>
+      <c r="B26" s="85" t="s">
+        <v>289</v>
+      </c>
+      <c r="C26" s="85">
+        <v>17</v>
+      </c>
+      <c r="D26" s="85">
+        <v>59</v>
+      </c>
+      <c r="E26" s="85">
+        <v>3.2228070175438601</v>
+      </c>
+      <c r="G26" s="29">
+        <v>3</v>
+      </c>
+      <c r="H26" s="29">
+        <v>5</v>
+      </c>
+      <c r="I26" s="29">
+        <v>6</v>
+      </c>
+      <c r="J26" s="29">
+        <v>3</v>
+      </c>
+      <c r="K26" s="85">
+        <v>6</v>
+      </c>
+      <c r="L26" s="85">
+        <v>12</v>
+      </c>
+      <c r="M26" s="85">
+        <v>16</v>
+      </c>
+      <c r="N26" s="85">
+        <v>2</v>
+      </c>
+      <c r="O26" s="85">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="P26" s="102">
+        <v>400000</v>
+      </c>
+      <c r="Q26" s="102">
+        <f t="shared" si="4"/>
+        <v>11111.111111111111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="85" t="s">
+        <v>295</v>
+      </c>
+      <c r="B27" s="85" t="s">
+        <v>289</v>
+      </c>
+      <c r="C27" s="85">
+        <v>17</v>
+      </c>
+      <c r="D27" s="85">
+        <v>91</v>
+      </c>
+      <c r="E27" s="85">
+        <v>6</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="G27" s="29">
+        <v>2</v>
+      </c>
+      <c r="H27" s="29">
+        <v>8</v>
+      </c>
+      <c r="I27" s="29">
+        <v>5</v>
+      </c>
+      <c r="J27" s="29">
+        <v>0</v>
+      </c>
+      <c r="K27" s="85">
+        <v>3</v>
+      </c>
+      <c r="L27" s="85">
+        <v>26</v>
+      </c>
+      <c r="M27" s="85">
+        <v>12</v>
+      </c>
+      <c r="N27" s="85">
+        <v>-1</v>
+      </c>
+      <c r="O27" s="85">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="P27" s="102">
+        <v>700000</v>
+      </c>
+      <c r="Q27" s="102">
+        <f t="shared" si="4"/>
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="85" t="s">
+        <v>296</v>
+      </c>
+      <c r="B28" s="85" t="s">
+        <v>297</v>
+      </c>
+      <c r="C28" s="85">
+        <v>20</v>
+      </c>
+      <c r="D28" s="85">
+        <v>15</v>
+      </c>
+      <c r="E28" s="85">
+        <v>5</v>
+      </c>
+      <c r="G28" s="29">
+        <v>3</v>
+      </c>
+      <c r="H28" s="29">
+        <v>10</v>
+      </c>
+      <c r="I28" s="29">
+        <v>9</v>
+      </c>
+      <c r="J28" s="29">
+        <v>0</v>
+      </c>
+      <c r="K28" s="85">
+        <v>6</v>
+      </c>
+      <c r="L28" s="85">
+        <v>39</v>
+      </c>
+      <c r="M28" s="85">
+        <v>32</v>
+      </c>
+      <c r="N28" s="85">
+        <v>-1</v>
+      </c>
+      <c r="O28" s="85">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="P28" s="102">
+        <v>3700000</v>
+      </c>
+      <c r="Q28" s="102">
+        <f t="shared" si="4"/>
+        <v>48684.210526315786</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="85" t="s">
+        <v>298</v>
+      </c>
+      <c r="B29" s="85" t="s">
+        <v>299</v>
+      </c>
+      <c r="C29" s="85">
+        <v>20</v>
+      </c>
+      <c r="D29" s="85">
+        <v>90</v>
+      </c>
+      <c r="E29" s="85">
+        <v>4</v>
+      </c>
+      <c r="G29" s="29">
+        <v>3</v>
+      </c>
+      <c r="H29" s="29">
+        <v>12</v>
+      </c>
+      <c r="I29" s="29">
+        <v>9</v>
+      </c>
+      <c r="J29" s="29">
+        <v>2</v>
+      </c>
+      <c r="K29" s="85">
+        <v>6</v>
+      </c>
+      <c r="L29" s="85">
+        <v>56</v>
+      </c>
+      <c r="M29" s="85">
+        <v>32</v>
+      </c>
+      <c r="N29" s="85">
+        <v>1</v>
+      </c>
+      <c r="O29" s="85">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="P29" s="102">
+        <v>3900000</v>
+      </c>
+      <c r="Q29" s="102">
+        <f t="shared" si="4"/>
+        <v>41052.631578947367</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="85" t="s">
+        <v>300</v>
+      </c>
+      <c r="B30" s="85" t="s">
+        <v>301</v>
+      </c>
+      <c r="C30" s="85">
+        <v>20</v>
+      </c>
+      <c r="D30" s="85">
+        <v>85</v>
+      </c>
+      <c r="E30" s="85">
+        <v>5</v>
+      </c>
+      <c r="G30" s="29">
+        <v>3</v>
+      </c>
+      <c r="H30" s="29">
+        <v>11</v>
+      </c>
+      <c r="I30" s="29">
+        <v>9</v>
+      </c>
+      <c r="J30" s="29">
+        <v>3</v>
+      </c>
+      <c r="K30" s="85">
+        <v>6</v>
+      </c>
+      <c r="L30" s="85">
+        <v>47</v>
+      </c>
+      <c r="M30" s="85">
+        <v>32</v>
+      </c>
+      <c r="N30" s="85">
+        <v>2</v>
+      </c>
+      <c r="O30" s="85">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="P30" s="102">
+        <v>3900000</v>
+      </c>
+      <c r="Q30" s="102">
+        <f t="shared" si="4"/>
+        <v>44827.586206896551</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="85" t="s">
+        <v>302</v>
+      </c>
+      <c r="B31" s="85" t="s">
+        <v>303</v>
+      </c>
+      <c r="C31" s="85">
+        <v>20</v>
+      </c>
+      <c r="D31" s="85">
+        <v>91</v>
+      </c>
+      <c r="E31" s="85">
+        <v>4</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="G31" s="29">
+        <v>3</v>
+      </c>
+      <c r="H31" s="29">
+        <v>9</v>
+      </c>
+      <c r="I31" s="29">
+        <v>12</v>
+      </c>
+      <c r="J31" s="29">
+        <v>2</v>
+      </c>
+      <c r="K31" s="85">
+        <v>6</v>
+      </c>
+      <c r="L31" s="85">
+        <v>32</v>
+      </c>
+      <c r="M31" s="85">
+        <v>57</v>
+      </c>
+      <c r="N31" s="85">
+        <v>1</v>
+      </c>
+      <c r="O31" s="85">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="P31" s="102">
+        <v>3900000</v>
+      </c>
+      <c r="Q31" s="102">
+        <f t="shared" si="4"/>
+        <v>40625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="85" t="s">
+        <v>304</v>
+      </c>
+      <c r="B32" s="85" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="85">
+        <v>20</v>
+      </c>
+      <c r="D32" s="85">
+        <v>91</v>
+      </c>
+      <c r="E32" s="85">
+        <v>0</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G32" s="29">
+        <v>3</v>
+      </c>
+      <c r="H32" s="29">
+        <v>11</v>
+      </c>
+      <c r="I32" s="29">
+        <v>10</v>
+      </c>
+      <c r="J32" s="29">
+        <v>2</v>
+      </c>
+      <c r="K32" s="85">
+        <v>6</v>
+      </c>
+      <c r="L32" s="85">
+        <v>47</v>
+      </c>
+      <c r="M32" s="85">
+        <v>39</v>
+      </c>
+      <c r="N32" s="85">
+        <v>1</v>
+      </c>
+      <c r="O32" s="85">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="P32" s="102">
+        <v>4000000</v>
+      </c>
+      <c r="Q32" s="102">
+        <f t="shared" si="4"/>
+        <v>43010.752688172041</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="106" t="s">
+        <v>305</v>
+      </c>
+      <c r="B33" s="85" t="s">
+        <v>303</v>
+      </c>
+      <c r="C33" s="85">
+        <v>18</v>
+      </c>
+      <c r="D33" s="85">
+        <v>54</v>
+      </c>
+      <c r="E33" s="85">
+        <v>5</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="G33" s="29">
+        <v>3</v>
+      </c>
+      <c r="H33" s="29">
+        <v>7</v>
+      </c>
+      <c r="I33" s="29">
+        <v>8</v>
+      </c>
+      <c r="J33" s="29">
+        <v>3</v>
+      </c>
+      <c r="K33" s="85">
+        <v>6</v>
+      </c>
+      <c r="L33" s="85">
+        <v>21</v>
+      </c>
+      <c r="M33" s="85">
+        <v>26</v>
+      </c>
+      <c r="N33" s="85">
+        <v>2</v>
+      </c>
+      <c r="O33" s="85">
+        <f t="shared" ref="O33:O51" si="5">N33+L33+K33+M33</f>
+        <v>55</v>
+      </c>
+      <c r="P33" s="102">
+        <v>900000</v>
+      </c>
+      <c r="Q33" s="102">
+        <f t="shared" ref="Q33:Q51" si="6">P33/O33</f>
+        <v>16363.636363636364</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="85" t="s">
+        <v>306</v>
+      </c>
+      <c r="B34" s="85" t="s">
+        <v>255</v>
+      </c>
+      <c r="C34" s="85">
+        <v>18</v>
+      </c>
+      <c r="D34" s="85">
+        <v>92</v>
+      </c>
+      <c r="E34" s="85">
+        <v>5</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="G34" s="29">
+        <v>4</v>
+      </c>
+      <c r="H34" s="29">
+        <v>9</v>
+      </c>
+      <c r="I34" s="29">
+        <v>8</v>
+      </c>
+      <c r="J34" s="29">
+        <v>1</v>
+      </c>
+      <c r="K34" s="85">
+        <v>9</v>
+      </c>
+      <c r="L34" s="85">
+        <v>32</v>
+      </c>
+      <c r="M34" s="85">
+        <v>26</v>
+      </c>
+      <c r="N34" s="85">
+        <v>0</v>
+      </c>
+      <c r="O34" s="85">
+        <f t="shared" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="P34" s="102">
+        <v>3000000</v>
+      </c>
+      <c r="Q34" s="102">
+        <f t="shared" si="6"/>
+        <v>44776.119402985074</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="85" t="s">
+        <v>307</v>
+      </c>
+      <c r="B35" s="85" t="s">
+        <v>308</v>
+      </c>
+      <c r="C35" s="85">
+        <v>18</v>
+      </c>
+      <c r="D35" s="85">
+        <v>26</v>
+      </c>
+      <c r="E35" s="85">
+        <v>3</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G35" s="29">
+        <v>4</v>
+      </c>
+      <c r="H35" s="29">
+        <v>5</v>
+      </c>
+      <c r="I35" s="29">
+        <v>8</v>
+      </c>
+      <c r="J35" s="29">
+        <v>3</v>
+      </c>
+      <c r="K35" s="85">
+        <v>9</v>
+      </c>
+      <c r="L35" s="85">
+        <v>12</v>
+      </c>
+      <c r="M35" s="85">
+        <v>26</v>
+      </c>
+      <c r="N35" s="85">
+        <v>2</v>
+      </c>
+      <c r="O35" s="85">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="P35" s="102">
+        <v>1500000</v>
+      </c>
+      <c r="Q35" s="102">
+        <f t="shared" si="6"/>
+        <v>30612.244897959183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="106" t="s">
+        <v>309</v>
+      </c>
+      <c r="B36" s="85" t="s">
+        <v>310</v>
+      </c>
+      <c r="C36" s="85">
+        <v>18</v>
+      </c>
+      <c r="D36" s="85">
+        <v>55</v>
+      </c>
+      <c r="E36" s="85">
+        <v>4</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G36" s="29">
+        <v>6</v>
+      </c>
+      <c r="H36" s="29">
+        <v>6</v>
+      </c>
+      <c r="I36" s="29">
+        <v>6</v>
+      </c>
+      <c r="J36" s="29">
+        <v>8</v>
+      </c>
+      <c r="K36" s="85">
+        <v>18</v>
+      </c>
+      <c r="L36" s="85">
+        <v>16</v>
+      </c>
+      <c r="M36" s="85">
+        <v>16</v>
+      </c>
+      <c r="N36" s="85">
+        <v>8</v>
+      </c>
+      <c r="O36" s="85">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="P36" s="102">
+        <v>150000</v>
+      </c>
+      <c r="Q36" s="102">
+        <f t="shared" si="6"/>
+        <v>2586.2068965517242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="106" t="s">
+        <v>311</v>
+      </c>
+      <c r="B37" s="85" t="s">
+        <v>312</v>
+      </c>
+      <c r="C37" s="85">
+        <v>18</v>
+      </c>
+      <c r="D37" s="85">
+        <v>53</v>
+      </c>
+      <c r="E37" s="85">
+        <v>4</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G37" s="29">
+        <v>4</v>
+      </c>
+      <c r="H37" s="29">
+        <v>7</v>
+      </c>
+      <c r="I37" s="29">
+        <v>7</v>
+      </c>
+      <c r="J37" s="29">
+        <v>6</v>
+      </c>
+      <c r="K37" s="85">
+        <v>9</v>
+      </c>
+      <c r="L37" s="85">
+        <v>21</v>
+      </c>
+      <c r="M37" s="85">
+        <v>20</v>
+      </c>
+      <c r="N37" s="85">
+        <v>5</v>
+      </c>
+      <c r="O37" s="85">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="P37" s="102">
+        <v>650000</v>
+      </c>
+      <c r="Q37" s="102">
+        <f t="shared" si="6"/>
+        <v>11818.181818181818</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="106" t="s">
+        <v>313</v>
+      </c>
+      <c r="B38" s="85" t="s">
+        <v>314</v>
+      </c>
+      <c r="C38" s="85">
+        <v>18</v>
+      </c>
+      <c r="D38" s="85">
+        <v>37</v>
+      </c>
+      <c r="E38" s="85">
+        <v>2</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G38" s="29">
+        <v>6</v>
+      </c>
+      <c r="H38" s="29">
+        <v>5</v>
+      </c>
+      <c r="I38" s="29">
+        <v>7</v>
+      </c>
+      <c r="J38" s="29">
+        <v>5</v>
+      </c>
+      <c r="K38" s="85">
+        <v>18</v>
+      </c>
+      <c r="L38" s="85">
+        <v>12</v>
+      </c>
+      <c r="M38" s="85">
+        <v>20</v>
+      </c>
+      <c r="N38" s="85">
+        <v>4</v>
+      </c>
+      <c r="O38" s="85">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="P38" s="102">
+        <v>150000</v>
+      </c>
+      <c r="Q38" s="102">
+        <f t="shared" si="6"/>
+        <v>2777.7777777777778</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="85" t="s">
+        <v>315</v>
+      </c>
+      <c r="B39" s="85" t="s">
+        <v>299</v>
+      </c>
+      <c r="C39" s="85">
+        <v>18</v>
+      </c>
+      <c r="D39" s="85">
+        <v>71</v>
+      </c>
+      <c r="E39" s="85">
+        <v>6</v>
+      </c>
+      <c r="F39" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G39" s="29">
+        <v>4</v>
+      </c>
+      <c r="H39" s="29">
+        <v>6</v>
+      </c>
+      <c r="I39" s="29">
+        <v>7</v>
+      </c>
+      <c r="J39" s="29">
+        <v>4</v>
+      </c>
+      <c r="K39" s="85">
+        <v>9</v>
+      </c>
+      <c r="L39" s="85">
+        <v>16</v>
+      </c>
+      <c r="M39" s="85">
+        <v>20</v>
+      </c>
+      <c r="N39" s="85">
+        <v>3</v>
+      </c>
+      <c r="O39" s="85">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="P39" s="102">
+        <v>200000</v>
+      </c>
+      <c r="Q39" s="102">
+        <f t="shared" si="6"/>
+        <v>4166.666666666667</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="106" t="s">
+        <v>316</v>
+      </c>
+      <c r="B40" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="C40" s="85">
+        <v>18</v>
+      </c>
+      <c r="D40" s="85">
+        <v>87</v>
+      </c>
+      <c r="E40" s="85">
+        <v>4</v>
+      </c>
+      <c r="F40" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="G40" s="29">
+        <v>4</v>
+      </c>
+      <c r="H40" s="29">
+        <v>5</v>
+      </c>
+      <c r="I40" s="29">
+        <v>9</v>
+      </c>
+      <c r="J40" s="29">
+        <v>7</v>
+      </c>
+      <c r="K40" s="85">
+        <v>9</v>
+      </c>
+      <c r="L40" s="85">
+        <v>12</v>
+      </c>
+      <c r="M40" s="85">
+        <v>32</v>
+      </c>
+      <c r="N40" s="85">
+        <v>6</v>
+      </c>
+      <c r="O40" s="85">
+        <f t="shared" si="5"/>
+        <v>59</v>
+      </c>
+      <c r="P40" s="102">
+        <v>800000</v>
+      </c>
+      <c r="Q40" s="102">
+        <f t="shared" si="6"/>
+        <v>13559.322033898305</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="85" t="s">
+        <v>317</v>
+      </c>
+      <c r="B41" s="85" t="s">
+        <v>318</v>
+      </c>
+      <c r="C41" s="85">
+        <v>22</v>
+      </c>
+      <c r="D41" s="85">
+        <v>51</v>
+      </c>
+      <c r="E41" s="85">
+        <v>3</v>
+      </c>
+      <c r="G41" s="29">
+        <v>5</v>
+      </c>
+      <c r="H41" s="29">
+        <v>9</v>
+      </c>
+      <c r="I41" s="29">
+        <v>11</v>
+      </c>
+      <c r="J41" s="29">
+        <v>5</v>
+      </c>
+      <c r="K41" s="85">
+        <v>13</v>
+      </c>
+      <c r="L41" s="85">
+        <v>32</v>
+      </c>
+      <c r="M41" s="85">
+        <v>48</v>
+      </c>
+      <c r="N41" s="85">
+        <v>4</v>
+      </c>
+      <c r="O41" s="85">
+        <f t="shared" si="5"/>
+        <v>97</v>
+      </c>
+      <c r="P41" s="102">
+        <v>3000000</v>
+      </c>
+      <c r="Q41" s="102">
+        <f t="shared" si="6"/>
+        <v>30927.835051546394</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="106" t="s">
+        <v>319</v>
+      </c>
+      <c r="B42" s="85" t="s">
+        <v>277</v>
+      </c>
+      <c r="C42" s="85">
+        <v>19</v>
+      </c>
+      <c r="D42" s="85">
+        <v>36</v>
+      </c>
+      <c r="E42" s="85">
+        <v>6</v>
+      </c>
+      <c r="G42" s="29">
+        <v>3</v>
+      </c>
+      <c r="H42" s="29">
+        <v>10</v>
+      </c>
+      <c r="I42" s="29">
+        <v>7</v>
+      </c>
+      <c r="J42" s="29">
+        <v>3</v>
+      </c>
+      <c r="K42" s="85">
+        <v>6</v>
+      </c>
+      <c r="L42" s="85">
+        <v>39</v>
+      </c>
+      <c r="M42" s="85">
+        <v>20</v>
+      </c>
+      <c r="N42" s="85">
+        <v>2</v>
+      </c>
+      <c r="O42" s="85">
+        <f t="shared" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="P42" s="102">
+        <v>2500000</v>
+      </c>
+      <c r="Q42" s="102">
+        <f t="shared" si="6"/>
+        <v>37313.432835820895</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="106" t="s">
+        <v>320</v>
+      </c>
+      <c r="B43" s="85" t="s">
+        <v>321</v>
+      </c>
+      <c r="C43" s="85">
+        <v>19</v>
+      </c>
+      <c r="D43" s="85">
+        <v>60</v>
+      </c>
+      <c r="E43" s="85">
+        <v>3</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="G43" s="29">
+        <v>5</v>
+      </c>
+      <c r="H43" s="29">
+        <v>5</v>
+      </c>
+      <c r="I43" s="29">
+        <v>8</v>
+      </c>
+      <c r="J43" s="29">
+        <v>8</v>
+      </c>
+      <c r="K43" s="85">
+        <v>13</v>
+      </c>
+      <c r="L43" s="85">
+        <v>12</v>
+      </c>
+      <c r="M43" s="85">
+        <v>26</v>
+      </c>
+      <c r="N43" s="85">
+        <v>8</v>
+      </c>
+      <c r="O43" s="85">
+        <f t="shared" si="5"/>
+        <v>59</v>
+      </c>
+      <c r="P43" s="102">
+        <v>300000</v>
+      </c>
+      <c r="Q43" s="102">
+        <f t="shared" si="6"/>
+        <v>5084.7457627118647</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="94" t="s">
+        <v>322</v>
+      </c>
+      <c r="B44" s="85" t="s">
+        <v>323</v>
+      </c>
+      <c r="C44" s="85">
+        <v>19</v>
+      </c>
+      <c r="D44" s="85">
+        <v>78</v>
+      </c>
+      <c r="E44" s="85">
+        <v>4</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="G44" s="29">
+        <v>2</v>
+      </c>
+      <c r="H44" s="29">
+        <v>10</v>
+      </c>
+      <c r="I44" s="29">
+        <v>7</v>
+      </c>
+      <c r="J44" s="29">
+        <v>0</v>
+      </c>
+      <c r="K44" s="85">
+        <v>3</v>
+      </c>
+      <c r="L44" s="85">
+        <v>39</v>
+      </c>
+      <c r="M44" s="85">
+        <v>20</v>
+      </c>
+      <c r="N44" s="85">
+        <v>-1</v>
+      </c>
+      <c r="O44" s="85">
+        <f t="shared" si="5"/>
+        <v>61</v>
+      </c>
+      <c r="P44" s="102">
+        <v>3700000</v>
+      </c>
+      <c r="Q44" s="102">
+        <f t="shared" si="6"/>
+        <v>60655.737704918036</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="106" t="s">
+        <v>324</v>
+      </c>
+      <c r="B45" s="85" t="s">
+        <v>325</v>
+      </c>
+      <c r="C45" s="85">
+        <v>18</v>
+      </c>
+      <c r="D45" s="85">
+        <v>49</v>
+      </c>
+      <c r="E45" s="85">
+        <v>6</v>
+      </c>
+      <c r="G45" s="29">
+        <v>3</v>
+      </c>
+      <c r="H45" s="29">
+        <v>10</v>
+      </c>
+      <c r="I45" s="29">
+        <v>5</v>
+      </c>
+      <c r="J45" s="29">
+        <v>2</v>
+      </c>
+      <c r="K45" s="85">
+        <v>6</v>
+      </c>
+      <c r="L45" s="85">
+        <v>39</v>
+      </c>
+      <c r="M45" s="85">
+        <v>12</v>
+      </c>
+      <c r="N45" s="85">
+        <v>1</v>
+      </c>
+      <c r="O45" s="85">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="P45" s="102">
+        <v>2500000</v>
+      </c>
+      <c r="Q45" s="102">
+        <f t="shared" si="6"/>
+        <v>43103.448275862072</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C46" s="85">
+        <v>20</v>
+      </c>
+      <c r="D46" s="85">
+        <v>91</v>
+      </c>
+      <c r="E46" s="85">
+        <v>0</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G46" s="29">
+        <v>3</v>
+      </c>
+      <c r="H46" s="29">
+        <v>11</v>
+      </c>
+      <c r="I46" s="29">
+        <v>10</v>
+      </c>
+      <c r="J46" s="29">
+        <v>2</v>
+      </c>
+      <c r="K46" s="85">
+        <v>6</v>
+      </c>
+      <c r="L46" s="85">
+        <v>47</v>
+      </c>
+      <c r="M46" s="85">
+        <v>39</v>
+      </c>
+      <c r="N46" s="85">
+        <v>1</v>
+      </c>
+      <c r="O46" s="85">
+        <f t="shared" si="5"/>
+        <v>93</v>
+      </c>
+      <c r="P46" s="102">
+        <v>4000014</v>
+      </c>
+      <c r="Q46" s="102">
+        <f t="shared" si="6"/>
+        <v>43010.903225806454</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C47" s="85">
+        <v>20</v>
+      </c>
+      <c r="D47" s="85">
+        <v>91</v>
+      </c>
+      <c r="E47" s="85">
+        <v>0</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G47" s="29">
+        <v>3</v>
+      </c>
+      <c r="H47" s="29">
+        <v>11</v>
+      </c>
+      <c r="I47" s="29">
+        <v>10</v>
+      </c>
+      <c r="J47" s="29">
+        <v>2</v>
+      </c>
+      <c r="K47" s="85">
+        <v>6</v>
+      </c>
+      <c r="L47" s="85">
+        <v>47</v>
+      </c>
+      <c r="M47" s="85">
+        <v>39</v>
+      </c>
+      <c r="N47" s="85">
+        <v>1</v>
+      </c>
+      <c r="O47" s="85">
+        <f t="shared" si="5"/>
+        <v>93</v>
+      </c>
+      <c r="P47" s="102">
+        <v>4000015</v>
+      </c>
+      <c r="Q47" s="102">
+        <f t="shared" si="6"/>
+        <v>43010.913978494624</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C48" s="85">
+        <v>20</v>
+      </c>
+      <c r="D48" s="85">
+        <v>91</v>
+      </c>
+      <c r="E48" s="85">
+        <v>0</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G48" s="29">
+        <v>3</v>
+      </c>
+      <c r="H48" s="29">
+        <v>11</v>
+      </c>
+      <c r="I48" s="29">
+        <v>10</v>
+      </c>
+      <c r="J48" s="29">
+        <v>2</v>
+      </c>
+      <c r="K48" s="85">
+        <v>6</v>
+      </c>
+      <c r="L48" s="85">
+        <v>47</v>
+      </c>
+      <c r="M48" s="85">
+        <v>39</v>
+      </c>
+      <c r="N48" s="85">
+        <v>1</v>
+      </c>
+      <c r="O48" s="85">
+        <f t="shared" si="5"/>
+        <v>93</v>
+      </c>
+      <c r="P48" s="102">
+        <v>4000016</v>
+      </c>
+      <c r="Q48" s="102">
+        <f t="shared" si="6"/>
+        <v>43010.924731182793</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C49" s="85">
+        <v>20</v>
+      </c>
+      <c r="D49" s="85">
+        <v>91</v>
+      </c>
+      <c r="E49" s="85">
+        <v>0</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G49" s="29">
+        <v>3</v>
+      </c>
+      <c r="H49" s="29">
+        <v>11</v>
+      </c>
+      <c r="I49" s="29">
+        <v>10</v>
+      </c>
+      <c r="J49" s="29">
+        <v>2</v>
+      </c>
+      <c r="K49" s="85">
+        <v>6</v>
+      </c>
+      <c r="L49" s="85">
+        <v>47</v>
+      </c>
+      <c r="M49" s="85">
+        <v>39</v>
+      </c>
+      <c r="N49" s="85">
+        <v>1</v>
+      </c>
+      <c r="O49" s="85">
+        <f t="shared" si="5"/>
+        <v>93</v>
+      </c>
+      <c r="P49" s="102">
+        <v>4000017</v>
+      </c>
+      <c r="Q49" s="102">
+        <f t="shared" si="6"/>
+        <v>43010.93548387097</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C50" s="85">
+        <v>20</v>
+      </c>
+      <c r="D50" s="85">
+        <v>91</v>
+      </c>
+      <c r="E50" s="85">
+        <v>0</v>
+      </c>
+      <c r="F50" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G50" s="29">
+        <v>3</v>
+      </c>
+      <c r="H50" s="29">
+        <v>11</v>
+      </c>
+      <c r="I50" s="29">
+        <v>10</v>
+      </c>
+      <c r="J50" s="29">
+        <v>2</v>
+      </c>
+      <c r="K50" s="85">
+        <v>6</v>
+      </c>
+      <c r="L50" s="85">
+        <v>47</v>
+      </c>
+      <c r="M50" s="85">
+        <v>39</v>
+      </c>
+      <c r="N50" s="85">
+        <v>1</v>
+      </c>
+      <c r="O50" s="85">
+        <f t="shared" si="5"/>
+        <v>93</v>
+      </c>
+      <c r="P50" s="102">
+        <v>4000018</v>
+      </c>
+      <c r="Q50" s="102">
+        <f t="shared" si="6"/>
+        <v>43010.946236559139</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C51" s="85">
+        <v>20</v>
+      </c>
+      <c r="D51" s="85">
+        <v>91</v>
+      </c>
+      <c r="E51" s="85">
+        <v>0</v>
+      </c>
+      <c r="F51" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G51" s="29">
+        <v>3</v>
+      </c>
+      <c r="H51" s="29">
+        <v>11</v>
+      </c>
+      <c r="I51" s="29">
+        <v>10</v>
+      </c>
+      <c r="J51" s="29">
+        <v>2</v>
+      </c>
+      <c r="K51" s="85">
+        <v>6</v>
+      </c>
+      <c r="L51" s="85">
+        <v>47</v>
+      </c>
+      <c r="M51" s="85">
+        <v>39</v>
+      </c>
+      <c r="N51" s="85">
+        <v>1</v>
+      </c>
+      <c r="O51" s="85">
+        <f t="shared" si="5"/>
+        <v>93</v>
+      </c>
+      <c r="P51" s="102">
+        <v>4000019</v>
+      </c>
+      <c r="Q51" s="102">
+        <f t="shared" si="6"/>
+        <v>43010.956989247308</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:H24 J2:J24">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="G2:H51 J2:J51">
+    <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5385,8 +6984,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:N24">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="K2:N51">
+    <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5395,8 +6994,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I24">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="I2:I51">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5405,8 +7004,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E24">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="E2:E51">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5417,8 +7016,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O24">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="O2:O51">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5427,8 +7026,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q24">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="Q2:Q51">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5452,7 +7051,7 @@
   <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C17" sqref="C17:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9262,7 +10861,7 @@
   </sheetPr>
   <dimension ref="A1:AJ24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>

--- a/projects/current/hattrick/z-TirosLejanos.xlsx
+++ b/projects/current/hattrick/z-TirosLejanos.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A163FB-4C8F-4213-970F-8C75FA233270}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3C35AF-F3C6-4FBD-8E5F-627DEB2BD577}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipoPerikas" sheetId="5" r:id="rId1"/>
@@ -22,14 +22,14 @@
     <sheet name="Entrenamiento" sheetId="8" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">FICHAR!$A$1:$T$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">FICHAR!$A$1:$T$62</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="360">
   <si>
     <t>at-central</t>
   </si>
@@ -1177,6 +1177,21 @@
   </si>
   <si>
     <t>Herbert Tamm</t>
+  </si>
+  <si>
+    <t>Adrian Popazu</t>
+  </si>
+  <si>
+    <t>Walter Reinsperg</t>
+  </si>
+  <si>
+    <t>César Osuna</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Ian Stone</t>
   </si>
 </sst>
 </file>
@@ -4609,13 +4624,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCC5FB6-4E02-489E-AAD8-5E2FB1AB2063}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:T58"/>
+  <dimension ref="A1:T62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD28"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4701,7 +4716,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="85" t="s">
         <v>321</v>
       </c>
@@ -4766,547 +4781,553 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="104" t="s">
-        <v>325</v>
+      <c r="A3" s="85" t="s">
+        <v>357</v>
       </c>
       <c r="B3" s="85" t="s">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="C3" s="85">
         <v>19</v>
       </c>
       <c r="D3" s="85">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>269</v>
+        <v>183</v>
       </c>
       <c r="G3" s="29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3" s="29">
+        <v>7</v>
+      </c>
+      <c r="I3" s="29">
         <v>11</v>
       </c>
-      <c r="I3" s="29">
+      <c r="J3" s="29">
+        <v>0</v>
+      </c>
+      <c r="K3" s="85">
         <v>6</v>
       </c>
-      <c r="J3" s="29">
-        <v>4</v>
-      </c>
-      <c r="K3" s="85">
-        <v>9</v>
-      </c>
       <c r="L3" s="85">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="M3" s="85">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="N3" s="85">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="O3" s="85">
         <f>N3+L3+K3+M3</f>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P3" s="85">
         <f>(28-C3)*16-(D3/7)+O3</f>
-        <v>216.71428571428572</v>
+        <v>215.57142857142858</v>
       </c>
       <c r="Q3" s="85">
         <f>L3+M3+N3</f>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R3" s="85">
         <f>(28-C3)*16-(D3/7)+Q3</f>
-        <v>207.71428571428572</v>
+        <v>209.57142857142858</v>
       </c>
       <c r="S3" s="102">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
       <c r="T3" s="102">
         <f>S3/O3</f>
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+        <v>47297.2972972973</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="104" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="B4" s="85" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="C4" s="85">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="85">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="E4" s="85">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>181</v>
+        <v>269</v>
       </c>
       <c r="G4" s="29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H4" s="29">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I4" s="29">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J4" s="29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K4" s="85">
+        <v>9</v>
+      </c>
+      <c r="L4" s="85">
+        <v>47</v>
+      </c>
+      <c r="M4" s="85">
+        <v>16</v>
+      </c>
+      <c r="N4" s="85">
         <v>3</v>
-      </c>
-      <c r="L4" s="85">
-        <v>26</v>
-      </c>
-      <c r="M4" s="85">
-        <v>26</v>
-      </c>
-      <c r="N4" s="85">
-        <v>5</v>
       </c>
       <c r="O4" s="85">
         <f>N4+L4+K4+M4</f>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="P4" s="85">
         <f>(28-C4)*16-(D4/7)+O4</f>
-        <v>209.85714285714286</v>
+        <v>216.71428571428572</v>
       </c>
       <c r="Q4" s="85">
         <f>L4+M4+N4</f>
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="R4" s="85">
         <f>(28-C4)*16-(D4/7)+Q4</f>
-        <v>206.85714285714286</v>
+        <v>207.71428571428572</v>
       </c>
       <c r="S4" s="102">
-        <v>2500000</v>
+        <v>3000000</v>
       </c>
       <c r="T4" s="102">
         <f>S4/O4</f>
-        <v>41666.666666666664</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="94" t="s">
-        <v>311</v>
+      <c r="A5" s="85" t="s">
+        <v>356</v>
       </c>
       <c r="B5" s="85" t="s">
-        <v>312</v>
+        <v>260</v>
       </c>
       <c r="C5" s="85">
         <v>18</v>
       </c>
       <c r="D5" s="85">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="E5" s="85">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>183</v>
       </c>
       <c r="G5" s="29">
+        <v>2</v>
+      </c>
+      <c r="H5" s="29">
+        <v>8</v>
+      </c>
+      <c r="I5" s="29">
+        <v>9</v>
+      </c>
+      <c r="J5" s="29">
         <v>3</v>
       </c>
-      <c r="H5" s="29">
-        <v>10</v>
-      </c>
-      <c r="I5" s="29">
-        <v>5</v>
-      </c>
-      <c r="J5" s="29">
-        <v>2</v>
-      </c>
       <c r="K5" s="85">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L5" s="85">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="M5" s="85">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="N5" s="85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O5" s="85">
         <f>N5+L5+K5+M5</f>
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P5" s="85">
         <f>(28-C5)*16-(D5/7)+O5</f>
-        <v>211</v>
+        <v>209.57142857142858</v>
       </c>
       <c r="Q5" s="85">
         <f>L5+M5+N5</f>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="R5" s="85">
         <f>(28-C5)*16-(D5/7)+Q5</f>
-        <v>205</v>
+        <v>207.57142857142858</v>
       </c>
       <c r="S5" s="102">
-        <v>2500000</v>
+        <v>1900000</v>
       </c>
       <c r="T5" s="102">
         <f>S5/O5</f>
-        <v>43103.448275862072</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="85" t="s">
-        <v>295</v>
+        <v>30645.16129032258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="104" t="s">
+        <v>313</v>
       </c>
       <c r="B6" s="85" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="C6" s="85">
         <v>18</v>
       </c>
       <c r="D6" s="85">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="E6" s="85">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G6" s="29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H6" s="29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I6" s="29">
         <v>8</v>
       </c>
       <c r="J6" s="29">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K6" s="85">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L6" s="85">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="M6" s="85">
         <v>26</v>
       </c>
       <c r="N6" s="85">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O6" s="85">
         <f>N6+L6+K6+M6</f>
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="P6" s="85">
         <f>(28-C6)*16-(D6/7)+O6</f>
-        <v>213.85714285714286</v>
+        <v>209.85714285714286</v>
       </c>
       <c r="Q6" s="85">
         <f>L6+M6+N6</f>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R6" s="85">
         <f>(28-C6)*16-(D6/7)+Q6</f>
-        <v>204.85714285714286</v>
+        <v>206.85714285714286</v>
       </c>
       <c r="S6" s="102">
-        <v>3000000</v>
+        <v>2500000</v>
       </c>
       <c r="T6" s="102">
         <f>S6/O6</f>
-        <v>44776.119402985074</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="85" t="s">
-        <v>256</v>
+        <v>41666.666666666664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="94" t="s">
+        <v>311</v>
       </c>
       <c r="B7" s="85" t="s">
-        <v>257</v>
+        <v>312</v>
       </c>
       <c r="C7" s="85">
         <v>18</v>
       </c>
       <c r="D7" s="85">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="E7" s="85">
-        <v>2</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>181</v>
+        <v>6</v>
       </c>
       <c r="G7" s="29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7" s="29">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I7" s="29">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J7" s="29">
+        <v>2</v>
+      </c>
+      <c r="K7" s="85">
+        <v>6</v>
+      </c>
+      <c r="L7" s="85">
+        <v>39</v>
+      </c>
+      <c r="M7" s="85">
+        <v>12</v>
+      </c>
+      <c r="N7" s="85">
         <v>1</v>
-      </c>
-      <c r="K7" s="85">
-        <v>3</v>
-      </c>
-      <c r="L7" s="85">
-        <v>21</v>
-      </c>
-      <c r="M7" s="85">
-        <v>39</v>
-      </c>
-      <c r="N7" s="85">
-        <v>0</v>
       </c>
       <c r="O7" s="85">
         <f>N7+L7+K7+M7</f>
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="P7" s="85">
         <f>(28-C7)*16-(D7/7)+O7</f>
-        <v>207.71428571428572</v>
+        <v>211</v>
       </c>
       <c r="Q7" s="85">
         <f>L7+M7+N7</f>
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="R7" s="85">
         <f>(28-C7)*16-(D7/7)+Q7</f>
-        <v>204.71428571428572</v>
+        <v>205</v>
       </c>
       <c r="S7" s="102">
-        <v>3230000</v>
+        <v>2500000</v>
       </c>
       <c r="T7" s="102">
         <f>S7/O7</f>
-        <v>51269.841269841272</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+        <v>43103.448275862072</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="85" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="B8" s="85" t="s">
-        <v>305</v>
+        <v>255</v>
       </c>
       <c r="C8" s="85">
         <v>18</v>
       </c>
       <c r="D8" s="85">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E8" s="85">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>179</v>
       </c>
       <c r="G8" s="29">
         <v>4</v>
       </c>
       <c r="H8" s="29">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8" s="29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J8" s="29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K8" s="85">
         <v>9</v>
       </c>
       <c r="L8" s="85">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M8" s="85">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N8" s="85">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O8" s="85">
         <f>N8+L8+K8+M8</f>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P8" s="85">
         <f>(28-C8)*16-(D8/7)+O8</f>
-        <v>213.14285714285714</v>
+        <v>213.85714285714286</v>
       </c>
       <c r="Q8" s="85">
         <f>L8+M8+N8</f>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R8" s="85">
         <f>(28-C8)*16-(D8/7)+Q8</f>
-        <v>204.14285714285714</v>
+        <v>204.85714285714286</v>
       </c>
       <c r="S8" s="102">
-        <v>3800000</v>
+        <v>3000000</v>
       </c>
       <c r="T8" s="102">
         <f>S8/O8</f>
-        <v>55882.352941176468</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+        <v>44776.119402985074</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="85" t="s">
-        <v>334</v>
+        <v>256</v>
       </c>
       <c r="B9" s="85" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C9" s="85">
         <v>18</v>
       </c>
       <c r="D9" s="85">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="E9" s="85">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>181</v>
       </c>
       <c r="G9" s="29">
+        <v>2</v>
+      </c>
+      <c r="H9" s="29">
+        <v>7</v>
+      </c>
+      <c r="I9" s="29">
+        <v>10</v>
+      </c>
+      <c r="J9" s="29">
+        <v>1</v>
+      </c>
+      <c r="K9" s="85">
         <v>3</v>
       </c>
-      <c r="H9" s="29">
-        <v>8</v>
-      </c>
-      <c r="I9" s="29">
-        <v>7</v>
-      </c>
-      <c r="J9" s="29">
-        <v>3</v>
-      </c>
-      <c r="K9" s="85">
-        <v>6</v>
-      </c>
       <c r="L9" s="85">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M9" s="85">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N9" s="85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O9" s="85">
         <f>N9+L9+K9+M9</f>
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P9" s="85">
         <f>(28-C9)*16-(D9/7)+O9</f>
-        <v>208.85714285714286</v>
+        <v>207.71428571428572</v>
       </c>
       <c r="Q9" s="85">
         <f>L9+M9+N9</f>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="R9" s="85">
         <f>(28-C9)*16-(D9/7)+Q9</f>
-        <v>202.85714285714286</v>
+        <v>204.71428571428572</v>
       </c>
       <c r="S9" s="102">
-        <v>1125000</v>
+        <v>3230000</v>
       </c>
       <c r="T9" s="102">
         <f>S9/O9</f>
-        <v>20833.333333333332</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+        <v>51269.841269841272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="85" t="s">
-        <v>278</v>
+        <v>359</v>
       </c>
       <c r="B10" s="85" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="C10" s="85">
         <v>18</v>
       </c>
       <c r="D10" s="85">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="E10" s="85">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>269</v>
+        <v>181</v>
       </c>
       <c r="G10" s="29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H10" s="29">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I10" s="29">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J10" s="29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K10" s="85">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L10" s="85">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="M10" s="85">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="N10" s="85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O10" s="85">
         <f>N10+L10+K10+M10</f>
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="P10" s="85">
         <f>(28-C10)*16-(D10/7)+O10</f>
-        <v>211.14285714285714</v>
+        <v>210.71428571428572</v>
       </c>
       <c r="Q10" s="85">
         <f>L10+M10+N10</f>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="R10" s="85">
         <f>(28-C10)*16-(D10/7)+Q10</f>
-        <v>202.14285714285714</v>
+        <v>204.71428571428572</v>
       </c>
       <c r="S10" s="102">
-        <v>1450000</v>
+        <v>1500000</v>
       </c>
       <c r="T10" s="102">
         <f>S10/O10</f>
-        <v>24576.271186440677</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="104" t="s">
-        <v>318</v>
+        <v>29411.764705882353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="85" t="s">
+        <v>324</v>
       </c>
       <c r="B11" s="85" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C11" s="85">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="85">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="E11" s="85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" s="29">
         <v>4</v>
@@ -5315,10 +5336,10 @@
         <v>10</v>
       </c>
       <c r="I11" s="29">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J11" s="29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K11" s="85">
         <v>9</v>
@@ -5327,126 +5348,126 @@
         <v>39</v>
       </c>
       <c r="M11" s="85">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N11" s="85">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O11" s="85">
         <f>N11+L11+K11+M11</f>
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="P11" s="85">
         <f>(28-C11)*16-(D11/7)+O11</f>
-        <v>210.85714285714286</v>
+        <v>213.14285714285714</v>
       </c>
       <c r="Q11" s="85">
         <f>L11+M11+N11</f>
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="R11" s="85">
         <f>(28-C11)*16-(D11/7)+Q11</f>
-        <v>201.85714285714286</v>
+        <v>204.14285714285714</v>
       </c>
       <c r="S11" s="102">
-        <v>2750000</v>
+        <v>3800000</v>
       </c>
       <c r="T11" s="102">
         <f>S11/O11</f>
-        <v>37162.16216216216</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+        <v>55882.352941176468</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="85" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="B12" s="85" t="s">
-        <v>320</v>
+        <v>266</v>
       </c>
       <c r="C12" s="85">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="85">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="E12" s="85">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>181</v>
       </c>
       <c r="G12" s="29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H12" s="29">
         <v>8</v>
       </c>
       <c r="I12" s="29">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J12" s="29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K12" s="85">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="L12" s="85">
         <v>26</v>
       </c>
       <c r="M12" s="85">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="N12" s="85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O12" s="85">
         <f>N12+L12+K12+M12</f>
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="P12" s="85">
         <f>(28-C12)*16-(D12/7)+O12</f>
-        <v>214.57142857142858</v>
+        <v>206.28571428571428</v>
       </c>
       <c r="Q12" s="85">
         <f>L12+M12+N12</f>
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="R12" s="85">
         <f>(28-C12)*16-(D12/7)+Q12</f>
-        <v>201.57142857142858</v>
+        <v>203.28571428571428</v>
       </c>
       <c r="S12" s="102">
-        <v>2750000</v>
+        <v>2000000</v>
       </c>
       <c r="T12" s="102">
         <f>S12/O12</f>
-        <v>34810.126582278484</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="103" t="s">
-        <v>294</v>
+        <v>34482.758620689652</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="85" t="s">
+        <v>334</v>
       </c>
       <c r="B13" s="85" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="C13" s="85">
         <v>18</v>
       </c>
       <c r="D13" s="85">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E13" s="85">
-        <v>5</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="G13" s="29">
         <v>3</v>
       </c>
       <c r="H13" s="29">
+        <v>8</v>
+      </c>
+      <c r="I13" s="29">
         <v>7</v>
-      </c>
-      <c r="I13" s="29">
-        <v>8</v>
       </c>
       <c r="J13" s="29">
         <v>3</v>
@@ -5455,263 +5476,260 @@
         <v>6</v>
       </c>
       <c r="L13" s="85">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M13" s="85">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N13" s="85">
         <v>2</v>
       </c>
       <c r="O13" s="85">
         <f>N13+L13+K13+M13</f>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P13" s="85">
         <f>(28-C13)*16-(D13/7)+O13</f>
-        <v>207.28571428571428</v>
+        <v>208.85714285714286</v>
       </c>
       <c r="Q13" s="85">
         <f>L13+M13+N13</f>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R13" s="85">
         <f>(28-C13)*16-(D13/7)+Q13</f>
-        <v>201.28571428571428</v>
+        <v>202.85714285714286</v>
       </c>
       <c r="S13" s="102">
-        <v>900000</v>
+        <v>1125000</v>
       </c>
       <c r="T13" s="102">
         <f>S13/O13</f>
-        <v>16363.636363636364</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="104" t="s">
-        <v>327</v>
+        <v>20833.333333333332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="85" t="s">
+        <v>278</v>
       </c>
       <c r="B14" s="85" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C14" s="85">
         <v>18</v>
       </c>
       <c r="D14" s="85">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="E14" s="85">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>106</v>
+        <v>269</v>
       </c>
       <c r="G14" s="29">
+        <v>4</v>
+      </c>
+      <c r="H14" s="29">
+        <v>10</v>
+      </c>
+      <c r="I14" s="29">
+        <v>4</v>
+      </c>
+      <c r="J14" s="29">
+        <v>4</v>
+      </c>
+      <c r="K14" s="85">
+        <v>9</v>
+      </c>
+      <c r="L14" s="85">
+        <v>39</v>
+      </c>
+      <c r="M14" s="85">
+        <v>8</v>
+      </c>
+      <c r="N14" s="85">
         <v>3</v>
-      </c>
-      <c r="H14" s="29">
-        <v>9</v>
-      </c>
-      <c r="I14" s="29">
-        <v>7</v>
-      </c>
-      <c r="J14" s="29">
-        <v>0</v>
-      </c>
-      <c r="K14" s="85">
-        <v>6</v>
-      </c>
-      <c r="L14" s="85">
-        <v>32</v>
-      </c>
-      <c r="M14" s="85">
-        <v>20</v>
-      </c>
-      <c r="N14" s="85">
-        <v>-1</v>
       </c>
       <c r="O14" s="85">
         <f>N14+L14+K14+M14</f>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P14" s="85">
         <f>(28-C14)*16-(D14/7)+O14</f>
-        <v>206.42857142857142</v>
+        <v>211.14285714285714</v>
       </c>
       <c r="Q14" s="85">
         <f>L14+M14+N14</f>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R14" s="85">
         <f>(28-C14)*16-(D14/7)+Q14</f>
-        <v>200.42857142857142</v>
+        <v>202.14285714285714</v>
       </c>
       <c r="S14" s="102">
-        <v>3750000</v>
+        <v>1450000</v>
       </c>
       <c r="T14" s="102">
         <f>S14/O14</f>
-        <v>65789.473684210519</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="85" t="s">
-        <v>285</v>
+        <v>24576.271186440677</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="104" t="s">
+        <v>318</v>
       </c>
       <c r="B15" s="85" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="C15" s="85">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D15" s="85">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E15" s="85">
+        <v>2</v>
+      </c>
+      <c r="G15" s="29">
         <v>4</v>
       </c>
-      <c r="F15" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="G15" s="29">
-        <v>2</v>
-      </c>
       <c r="H15" s="29">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I15" s="29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J15" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15" s="85">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L15" s="85">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="M15" s="85">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N15" s="85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="85">
         <f>N15+L15+K15+M15</f>
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="P15" s="85">
         <f>(28-C15)*16-(D15/7)+O15</f>
-        <v>203.42857142857142</v>
+        <v>210.85714285714286</v>
       </c>
       <c r="Q15" s="85">
         <f>L15+M15+N15</f>
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="R15" s="85">
         <f>(28-C15)*16-(D15/7)+Q15</f>
-        <v>200.42857142857142</v>
+        <v>201.85714285714286</v>
       </c>
       <c r="S15" s="102">
-        <v>350000</v>
+        <v>2750000</v>
       </c>
       <c r="T15" s="102">
         <f>S15/O15</f>
-        <v>9722.2222222222226</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+        <v>37162.16216216216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="85" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="B16" s="85" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="C16" s="85">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D16" s="85">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="E16" s="85">
-        <v>6</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>183</v>
+        <v>3</v>
       </c>
       <c r="G16" s="29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H16" s="29">
         <v>8</v>
       </c>
       <c r="I16" s="29">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J16" s="29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K16" s="85">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="L16" s="85">
         <v>26</v>
       </c>
       <c r="M16" s="85">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="N16" s="85">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O16" s="85">
         <f>N16+L16+K16+M16</f>
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="P16" s="85">
         <f>(28-C16)*16-(D16/7)+O16</f>
-        <v>203</v>
+        <v>214.57142857142858</v>
       </c>
       <c r="Q16" s="85">
         <f>L16+M16+N16</f>
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="R16" s="85">
         <f>(28-C16)*16-(D16/7)+Q16</f>
-        <v>200</v>
+        <v>201.57142857142858</v>
       </c>
       <c r="S16" s="102">
-        <v>700000</v>
+        <v>2750000</v>
       </c>
       <c r="T16" s="102">
         <f>S16/O16</f>
-        <v>17500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="94" t="s">
-        <v>306</v>
+        <v>34810.126582278484</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="103" t="s">
+        <v>294</v>
       </c>
       <c r="B17" s="85" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="C17" s="85">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="85">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="E17" s="85">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>181</v>
       </c>
       <c r="G17" s="29">
         <v>3</v>
       </c>
       <c r="H17" s="29">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I17" s="29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J17" s="29">
         <v>3</v>
@@ -5720,108 +5738,108 @@
         <v>6</v>
       </c>
       <c r="L17" s="85">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="M17" s="85">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N17" s="85">
         <v>2</v>
       </c>
       <c r="O17" s="85">
         <f>N17+L17+K17+M17</f>
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="P17" s="85">
         <f>(28-C17)*16-(D17/7)+O17</f>
-        <v>205.85714285714286</v>
+        <v>207.28571428571428</v>
       </c>
       <c r="Q17" s="85">
         <f>L17+M17+N17</f>
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="R17" s="85">
         <f>(28-C17)*16-(D17/7)+Q17</f>
-        <v>199.85714285714286</v>
+        <v>201.28571428571428</v>
       </c>
       <c r="S17" s="102">
-        <v>2500000</v>
+        <v>900000</v>
       </c>
       <c r="T17" s="102">
         <f>S17/O17</f>
-        <v>37313.432835820895</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="85" t="s">
-        <v>281</v>
+        <v>16363.636363636364</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="104" t="s">
+        <v>327</v>
       </c>
       <c r="B18" s="85" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="C18" s="85">
         <v>18</v>
       </c>
       <c r="D18" s="85">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E18" s="85">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="G18" s="29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H18" s="29">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I18" s="29">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J18" s="29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K18" s="85">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L18" s="85">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M18" s="85">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N18" s="85">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="O18" s="85">
         <f>N18+L18+K18+M18</f>
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P18" s="85">
         <f>(28-C18)*16-(D18/7)+O18</f>
-        <v>208.71428571428572</v>
+        <v>206.42857142857142</v>
       </c>
       <c r="Q18" s="85">
         <f>L18+M18+N18</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R18" s="85">
         <f>(28-C18)*16-(D18/7)+Q18</f>
-        <v>199.71428571428572</v>
+        <v>200.42857142857142</v>
       </c>
       <c r="S18" s="102">
-        <v>1900000</v>
+        <v>3750000</v>
       </c>
       <c r="T18" s="102">
         <f>S18/O18</f>
-        <v>32203.389830508473</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+        <v>65789.473684210519</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="85" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B19" s="85" t="s">
         <v>284</v>
@@ -5830,80 +5848,80 @@
         <v>17</v>
       </c>
       <c r="D19" s="85">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="E19" s="85">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="G19" s="29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H19" s="29">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I19" s="29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J19" s="29">
         <v>2</v>
       </c>
       <c r="K19" s="85">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L19" s="85">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M19" s="85">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N19" s="85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O19" s="85">
         <f>N19+L19+K19+M19</f>
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="P19" s="85">
         <f>(28-C19)*16-(D19/7)+O19</f>
-        <v>208.71428571428572</v>
+        <v>203.42857142857142</v>
       </c>
       <c r="Q19" s="85">
         <f>L19+M19+N19</f>
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="R19" s="85">
         <f>(28-C19)*16-(D19/7)+Q19</f>
-        <v>199.71428571428572</v>
+        <v>200.42857142857142</v>
       </c>
       <c r="S19" s="102">
-        <v>800000</v>
+        <v>350000</v>
       </c>
       <c r="T19" s="102">
         <f>S19/O19</f>
-        <v>17391.304347826088</v>
+        <v>9722.2222222222226</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="85" t="s">
-        <v>271</v>
+        <v>338</v>
       </c>
       <c r="B20" s="85" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C20" s="85">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20" s="85">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E20" s="85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G20" s="29">
         <v>4</v>
@@ -5912,10 +5930,10 @@
         <v>8</v>
       </c>
       <c r="I20" s="29">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J20" s="29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K20" s="85">
         <v>9</v>
@@ -5924,211 +5942,208 @@
         <v>26</v>
       </c>
       <c r="M20" s="85">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="N20" s="85">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O20" s="85">
         <f>N20+L20+K20+M20</f>
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="P20" s="85">
         <f>(28-C20)*16-(D20/7)+O20</f>
-        <v>207.71428571428572</v>
+        <v>209.28571428571428</v>
       </c>
       <c r="Q20" s="85">
         <f>L20+M20+N20</f>
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="R20" s="85">
         <f>(28-C20)*16-(D20/7)+Q20</f>
-        <v>198.71428571428572</v>
+        <v>200.28571428571428</v>
       </c>
       <c r="S20" s="102">
-        <v>500000</v>
+        <v>1850000</v>
       </c>
       <c r="T20" s="102">
         <f>S20/O20</f>
-        <v>11363.636363636364</v>
+        <v>30833.333333333332</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="103" t="s">
-        <v>299</v>
+      <c r="A21" s="85" t="s">
+        <v>290</v>
       </c>
       <c r="B21" s="85" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="C21" s="85">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="85">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="E21" s="85">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="G21" s="29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H21" s="29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I21" s="29">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J21" s="29">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K21" s="85">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L21" s="85">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M21" s="85">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N21" s="85">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="O21" s="85">
         <f>N21+L21+K21+M21</f>
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="P21" s="85">
         <f>(28-C21)*16-(D21/7)+O21</f>
-        <v>207.42857142857142</v>
+        <v>203</v>
       </c>
       <c r="Q21" s="85">
         <f>L21+M21+N21</f>
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="R21" s="85">
         <f>(28-C21)*16-(D21/7)+Q21</f>
-        <v>198.42857142857142</v>
+        <v>200</v>
       </c>
       <c r="S21" s="102">
-        <v>650000</v>
+        <v>700000</v>
       </c>
       <c r="T21" s="102">
         <f>S21/O21</f>
-        <v>11818.181818181818</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="85" t="s">
-        <v>279</v>
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="94" t="s">
+        <v>306</v>
       </c>
       <c r="B22" s="85" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C22" s="85">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D22" s="85">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="E22" s="85">
-        <v>2</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>181</v>
+        <v>6</v>
       </c>
       <c r="G22" s="29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H22" s="29">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I22" s="29">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J22" s="29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K22" s="85">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L22" s="85">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="M22" s="85">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N22" s="85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O22" s="85">
         <f>N22+L22+K22+M22</f>
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="P22" s="85">
         <f>(28-C22)*16-(D22/7)+O22</f>
-        <v>206.71428571428572</v>
+        <v>205.85714285714286</v>
       </c>
       <c r="Q22" s="85">
         <f>L22+M22+N22</f>
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="R22" s="85">
         <f>(28-C22)*16-(D22/7)+Q22</f>
-        <v>197.71428571428572</v>
+        <v>199.85714285714286</v>
       </c>
       <c r="S22" s="102">
-        <v>630000</v>
+        <v>2500000</v>
       </c>
       <c r="T22" s="102">
         <f>S22/O22</f>
-        <v>13695.652173913044</v>
+        <v>37313.432835820895</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="103" t="s">
-        <v>304</v>
+      <c r="A23" s="85" t="s">
+        <v>281</v>
       </c>
       <c r="B23" s="85" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C23" s="85">
         <v>18</v>
       </c>
       <c r="D23" s="85">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E23" s="85">
+        <v>2</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="G23" s="29">
+        <v>5</v>
+      </c>
+      <c r="H23" s="29">
+        <v>10</v>
+      </c>
+      <c r="I23" s="29">
         <v>4</v>
       </c>
-      <c r="F23" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="G23" s="29">
+      <c r="J23" s="29">
         <v>4</v>
-      </c>
-      <c r="H23" s="29">
-        <v>5</v>
-      </c>
-      <c r="I23" s="29">
-        <v>9</v>
-      </c>
-      <c r="J23" s="29">
-        <v>7</v>
       </c>
       <c r="K23" s="85">
         <v>9</v>
       </c>
       <c r="L23" s="85">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="M23" s="85">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="N23" s="85">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O23" s="85">
         <f>N23+L23+K23+M23</f>
@@ -6136,7 +6151,7 @@
       </c>
       <c r="P23" s="85">
         <f>(28-C23)*16-(D23/7)+O23</f>
-        <v>206.57142857142858</v>
+        <v>208.71428571428572</v>
       </c>
       <c r="Q23" s="85">
         <f>L23+M23+N23</f>
@@ -6144,171 +6159,174 @@
       </c>
       <c r="R23" s="85">
         <f>(28-C23)*16-(D23/7)+Q23</f>
-        <v>197.57142857142858</v>
+        <v>199.71428571428572</v>
       </c>
       <c r="S23" s="102">
-        <v>800000</v>
+        <v>1900000</v>
       </c>
       <c r="T23" s="102">
         <f>S23/O23</f>
-        <v>13559.322033898305</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+        <v>32203.389830508473</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="85" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="B24" s="85" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="C24" s="85">
         <v>17</v>
       </c>
       <c r="D24" s="85">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="E24" s="85">
-        <v>3.2228070175438601</v>
+        <v>2</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>179</v>
       </c>
       <c r="G24" s="29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H24" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I24" s="29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J24" s="29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K24" s="85">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L24" s="85">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="M24" s="85">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N24" s="85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O24" s="85">
         <f>N24+L24+K24+M24</f>
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="P24" s="85">
         <f>(28-C24)*16-(D24/7)+O24</f>
-        <v>203.57142857142858</v>
+        <v>207.71428571428572</v>
       </c>
       <c r="Q24" s="85">
         <f>L24+M24+N24</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="R24" s="85">
         <f>(28-C24)*16-(D24/7)+Q24</f>
-        <v>197.57142857142858</v>
+        <v>198.71428571428572</v>
       </c>
       <c r="S24" s="102">
-        <v>400000</v>
+        <v>500000</v>
       </c>
       <c r="T24" s="102">
         <f>S24/O24</f>
-        <v>11111.111111111111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="85" t="s">
-        <v>354</v>
+        <v>11363.636363636364</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="103" t="s">
+        <v>299</v>
       </c>
       <c r="B25" s="85" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="C25" s="85">
         <v>18</v>
       </c>
       <c r="D25" s="85">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="E25" s="85">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="G25" s="29">
         <v>4</v>
       </c>
       <c r="H25" s="29">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I25" s="29">
+        <v>7</v>
+      </c>
+      <c r="J25" s="29">
         <v>6</v>
-      </c>
-      <c r="J25" s="29">
-        <v>3</v>
       </c>
       <c r="K25" s="85">
         <v>9</v>
       </c>
       <c r="L25" s="85">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="M25" s="85">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N25" s="85">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O25" s="85">
         <f>N25+L25+K25+M25</f>
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="P25" s="85">
         <f>(28-C25)*16-(D25/7)+O25</f>
-        <v>205.85714285714286</v>
+        <v>207.42857142857142</v>
       </c>
       <c r="Q25" s="85">
         <f>L25+M25+N25</f>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="R25" s="85">
         <f>(28-C25)*16-(D25/7)+Q25</f>
-        <v>196.85714285714286</v>
+        <v>198.42857142857142</v>
       </c>
       <c r="S25" s="102">
-        <v>1500000</v>
+        <v>650000</v>
       </c>
       <c r="T25" s="102">
         <f>S25/O25</f>
-        <v>25423.728813559323</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+        <v>11818.181818181818</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="85" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B26" s="85" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C26" s="85">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26" s="85">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="E26" s="85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G26" s="29">
         <v>4</v>
       </c>
       <c r="H26" s="29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I26" s="29">
         <v>4</v>
@@ -6320,7 +6338,7 @@
         <v>9</v>
       </c>
       <c r="L26" s="85">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="M26" s="85">
         <v>8</v>
@@ -6330,98 +6348,98 @@
       </c>
       <c r="O26" s="85">
         <f>N26+L26+K26+M26</f>
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P26" s="85">
         <f>(28-C26)*16-(D26/7)+O26</f>
-        <v>205.85714285714286</v>
+        <v>206.71428571428572</v>
       </c>
       <c r="Q26" s="85">
         <f>L26+M26+N26</f>
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="R26" s="85">
         <f>(28-C26)*16-(D26/7)+Q26</f>
-        <v>196.85714285714286</v>
+        <v>197.71428571428572</v>
       </c>
       <c r="S26" s="102">
-        <v>800000</v>
+        <v>630000</v>
       </c>
       <c r="T26" s="102">
         <f>S26/O26</f>
-        <v>15384.615384615385</v>
+        <v>13695.652173913044</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="85" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B27" s="85" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="C27" s="85">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27" s="85">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="E27" s="85">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="G27" s="29">
         <v>4</v>
       </c>
       <c r="H27" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I27" s="29">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J27" s="29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K27" s="85">
         <v>9</v>
       </c>
       <c r="L27" s="85">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="M27" s="85">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="N27" s="85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O27" s="85">
         <f>N27+L27+K27+M27</f>
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="P27" s="85">
         <f>(28-C27)*16-(D27/7)+O27</f>
-        <v>205.28571428571428</v>
+        <v>206.71428571428572</v>
       </c>
       <c r="Q27" s="85">
         <f>L27+M27+N27</f>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="R27" s="85">
         <f>(28-C27)*16-(D27/7)+Q27</f>
-        <v>196.28571428571428</v>
+        <v>197.71428571428572</v>
       </c>
       <c r="S27" s="102">
-        <v>1500000</v>
+        <v>800000</v>
       </c>
       <c r="T27" s="102">
         <f>S27/O27</f>
-        <v>30612.244897959183</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="85" t="s">
-        <v>338</v>
+        <v>18181.81818181818</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="103" t="s">
+        <v>304</v>
       </c>
       <c r="B28" s="85" t="s">
         <v>260</v>
@@ -6430,604 +6448,604 @@
         <v>18</v>
       </c>
       <c r="D28" s="85">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E28" s="85">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G28" s="29">
         <v>4</v>
       </c>
       <c r="H28" s="29">
+        <v>5</v>
+      </c>
+      <c r="I28" s="29">
+        <v>9</v>
+      </c>
+      <c r="J28" s="29">
         <v>7</v>
-      </c>
-      <c r="I28" s="29">
-        <v>8</v>
-      </c>
-      <c r="J28" s="29">
-        <v>0</v>
       </c>
       <c r="K28" s="85">
         <v>9</v>
       </c>
       <c r="L28" s="85">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="M28" s="85">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N28" s="85">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="O28" s="85">
         <f>N28+L28+K28+M28</f>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P28" s="85">
         <f>(28-C28)*16-(D28/7)+O28</f>
-        <v>204.57142857142858</v>
+        <v>206.57142857142858</v>
       </c>
       <c r="Q28" s="85">
         <f>L28+M28+N28</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="R28" s="85">
         <f>(28-C28)*16-(D28/7)+Q28</f>
-        <v>195.57142857142858</v>
+        <v>197.57142857142858</v>
       </c>
       <c r="S28" s="102">
-        <v>1850000</v>
+        <v>800000</v>
       </c>
       <c r="T28" s="102">
         <f>S28/O28</f>
-        <v>33636.36363636364</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+        <v>13559.322033898305</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="85" t="s">
-        <v>339</v>
+        <v>289</v>
       </c>
       <c r="B29" s="85" t="s">
-        <v>340</v>
+        <v>284</v>
       </c>
       <c r="C29" s="85">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D29" s="85">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="E29" s="85">
+        <v>3.2228070175438601</v>
+      </c>
+      <c r="G29" s="29">
         <v>3</v>
       </c>
-      <c r="F29" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="G29" s="29">
-        <v>2</v>
-      </c>
       <c r="H29" s="29">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I29" s="29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J29" s="29">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K29" s="85">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L29" s="85">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="M29" s="85">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N29" s="85">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O29" s="85">
         <f>N29+L29+K29+M29</f>
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="P29" s="85">
         <f>(28-C29)*16-(D29/7)+O29</f>
-        <v>195.57142857142858</v>
+        <v>203.57142857142858</v>
       </c>
       <c r="Q29" s="85">
         <f>L29+M29+N29</f>
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="R29" s="85">
         <f>(28-C29)*16-(D29/7)+Q29</f>
-        <v>193.57142857142858</v>
+        <v>197.57142857142858</v>
       </c>
       <c r="S29" s="102">
-        <v>1040308.55007257</v>
+        <v>400000</v>
       </c>
       <c r="T29" s="102">
         <f>S29/O29</f>
-        <v>18914.700910410364</v>
+        <v>11111.111111111111</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="103" t="s">
-        <v>283</v>
+      <c r="A30" s="85" t="s">
+        <v>354</v>
       </c>
       <c r="B30" s="85" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="C30" s="85">
         <v>18</v>
       </c>
       <c r="D30" s="85">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E30" s="85">
+        <v>3</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="G30" s="29">
         <v>4</v>
       </c>
-      <c r="G30" s="29">
-        <v>5</v>
-      </c>
       <c r="H30" s="29">
+        <v>9</v>
+      </c>
+      <c r="I30" s="29">
         <v>6</v>
       </c>
-      <c r="I30" s="29">
+      <c r="J30" s="29">
+        <v>3</v>
+      </c>
+      <c r="K30" s="85">
         <v>9</v>
       </c>
-      <c r="J30" s="29">
-        <v>1</v>
-      </c>
-      <c r="K30" s="85">
-        <v>13</v>
-      </c>
       <c r="L30" s="85">
+        <v>32</v>
+      </c>
+      <c r="M30" s="85">
         <v>16</v>
       </c>
-      <c r="M30" s="85">
-        <v>32</v>
-      </c>
       <c r="N30" s="85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O30" s="85">
         <f>N30+L30+K30+M30</f>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P30" s="85">
         <f>(28-C30)*16-(D30/7)+O30</f>
-        <v>206.42857142857142</v>
+        <v>205.85714285714286</v>
       </c>
       <c r="Q30" s="85">
         <f>L30+M30+N30</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R30" s="85">
         <f>(28-C30)*16-(D30/7)+Q30</f>
-        <v>193.42857142857142</v>
+        <v>196.85714285714286</v>
       </c>
       <c r="S30" s="102">
-        <v>1450007</v>
+        <v>1500000</v>
       </c>
       <c r="T30" s="102">
         <f>S30/O30</f>
-        <v>23770.60655737705</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+        <v>25423.728813559323</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="85" t="s">
-        <v>337</v>
+        <v>274</v>
       </c>
       <c r="B31" s="85" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="C31" s="85">
         <v>18</v>
       </c>
       <c r="D31" s="85">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E31" s="85">
         <v>1</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="G31" s="29">
         <v>4</v>
       </c>
       <c r="H31" s="29">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I31" s="29">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J31" s="29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K31" s="85">
         <v>9</v>
       </c>
       <c r="L31" s="85">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="M31" s="85">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="N31" s="85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O31" s="85">
         <f>N31+L31+K31+M31</f>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="P31" s="85">
         <f>(28-C31)*16-(D31/7)+O31</f>
-        <v>201.42857142857142</v>
+        <v>205.85714285714286</v>
       </c>
       <c r="Q31" s="85">
         <f>L31+M31+N31</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="R31" s="85">
         <f>(28-C31)*16-(D31/7)+Q31</f>
-        <v>192.42857142857142</v>
+        <v>196.85714285714286</v>
       </c>
       <c r="S31" s="102">
-        <v>1600000</v>
+        <v>800000</v>
       </c>
       <c r="T31" s="102">
         <f>S31/O31</f>
-        <v>33333.333333333336</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+        <v>15384.615384615385</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="85" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B32" s="85" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="C32" s="85">
         <v>18</v>
       </c>
       <c r="D32" s="85">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="E32" s="85">
-        <v>3.2456140350877201</v>
+        <v>3</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>106</v>
       </c>
       <c r="G32" s="29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H32" s="29">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I32" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J32" s="29">
         <v>3</v>
       </c>
       <c r="K32" s="85">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L32" s="85">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="M32" s="85">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N32" s="85">
         <v>2</v>
       </c>
       <c r="O32" s="85">
         <f>N32+L32+K32+M32</f>
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P32" s="85">
         <f>(28-C32)*16-(D32/7)+O32</f>
-        <v>198.28571428571428</v>
+        <v>205.28571428571428</v>
       </c>
       <c r="Q32" s="85">
         <f>L32+M32+N32</f>
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="R32" s="85">
         <f>(28-C32)*16-(D32/7)+Q32</f>
-        <v>192.28571428571428</v>
+        <v>196.28571428571428</v>
       </c>
       <c r="S32" s="102">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="T32" s="102">
         <f>S32/O32</f>
-        <v>38461.538461538461</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="103" t="s">
-        <v>298</v>
+        <v>30612.244897959183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="85" t="s">
+        <v>339</v>
       </c>
       <c r="B33" s="85" t="s">
-        <v>268</v>
+        <v>340</v>
       </c>
       <c r="C33" s="85">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D33" s="85">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="E33" s="85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F33" s="26" t="s">
         <v>106</v>
       </c>
       <c r="G33" s="29">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H33" s="29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I33" s="29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J33" s="29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K33" s="85">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="L33" s="85">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M33" s="85">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N33" s="85">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O33" s="85">
         <f>N33+L33+K33+M33</f>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="P33" s="85">
         <f>(28-C33)*16-(D33/7)+O33</f>
-        <v>210.14285714285714</v>
+        <v>195.57142857142858</v>
       </c>
       <c r="Q33" s="85">
         <f>L33+M33+N33</f>
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="R33" s="85">
         <f>(28-C33)*16-(D33/7)+Q33</f>
-        <v>192.14285714285714</v>
+        <v>193.57142857142858</v>
       </c>
       <c r="S33" s="102">
-        <v>150000</v>
+        <v>1040308.55007257</v>
       </c>
       <c r="T33" s="102">
         <f>S33/O33</f>
-        <v>2586.2068965517242</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="104" t="s">
-        <v>322</v>
+        <v>18914.700910410364</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="103" t="s">
+        <v>283</v>
       </c>
       <c r="B34" s="85" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="C34" s="85">
         <v>18</v>
       </c>
       <c r="D34" s="85">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E34" s="85">
+        <v>4</v>
+      </c>
+      <c r="G34" s="29">
+        <v>5</v>
+      </c>
+      <c r="H34" s="29">
+        <v>6</v>
+      </c>
+      <c r="I34" s="29">
+        <v>9</v>
+      </c>
+      <c r="J34" s="29">
         <v>1</v>
       </c>
-      <c r="G34" s="29">
-        <v>6</v>
-      </c>
-      <c r="H34" s="29">
-        <v>9</v>
-      </c>
-      <c r="I34" s="29">
-        <v>6</v>
-      </c>
-      <c r="J34" s="29">
+      <c r="K34" s="85">
+        <v>13</v>
+      </c>
+      <c r="L34" s="85">
+        <v>16</v>
+      </c>
+      <c r="M34" s="85">
+        <v>32</v>
+      </c>
+      <c r="N34" s="85">
         <v>0</v>
-      </c>
-      <c r="K34" s="85">
-        <v>18</v>
-      </c>
-      <c r="L34" s="85">
-        <v>32</v>
-      </c>
-      <c r="M34" s="85">
-        <v>16</v>
-      </c>
-      <c r="N34" s="85">
-        <v>-1</v>
       </c>
       <c r="O34" s="85">
         <f>N34+L34+K34+M34</f>
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="P34" s="85">
         <f>(28-C34)*16-(D34/7)+O34</f>
-        <v>209.85714285714286</v>
+        <v>206.42857142857142</v>
       </c>
       <c r="Q34" s="85">
         <f>L34+M34+N34</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R34" s="85">
         <f>(28-C34)*16-(D34/7)+Q34</f>
-        <v>191.85714285714286</v>
+        <v>193.42857142857142</v>
       </c>
       <c r="S34" s="102">
-        <v>975000</v>
+        <v>1450007</v>
       </c>
       <c r="T34" s="102">
         <f>S34/O34</f>
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+        <v>23770.60655737705</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="85" t="s">
-        <v>261</v>
+        <v>337</v>
       </c>
       <c r="B35" s="85" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C35" s="85">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35" s="85">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="E35" s="85">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F35" s="26" t="s">
         <v>106</v>
       </c>
       <c r="G35" s="29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H35" s="29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I35" s="29">
+        <v>8</v>
+      </c>
+      <c r="J35" s="29">
+        <v>2</v>
+      </c>
+      <c r="K35" s="85">
+        <v>9</v>
+      </c>
+      <c r="L35" s="85">
         <v>12</v>
       </c>
-      <c r="J35" s="29">
-        <v>0</v>
-      </c>
-      <c r="K35" s="85">
-        <v>18</v>
-      </c>
-      <c r="L35" s="85">
-        <v>3</v>
-      </c>
       <c r="M35" s="85">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="N35" s="85">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O35" s="85">
         <f>N35+L35+K35+M35</f>
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="P35" s="85">
         <f>(28-C35)*16-(D35/7)+O35</f>
-        <v>209.57142857142858</v>
+        <v>201.42857142857142</v>
       </c>
       <c r="Q35" s="85">
         <f>L35+M35+N35</f>
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="R35" s="85">
         <f>(28-C35)*16-(D35/7)+Q35</f>
-        <v>191.57142857142858</v>
+        <v>192.42857142857142</v>
       </c>
       <c r="S35" s="102">
-        <v>3200000</v>
+        <v>1600000</v>
       </c>
       <c r="T35" s="102">
         <f>S35/O35</f>
-        <v>41558.441558441562</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="94" t="s">
-        <v>309</v>
+        <v>33333.333333333336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="85" t="s">
+        <v>288</v>
       </c>
       <c r="B36" s="85" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="C36" s="85">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D36" s="85">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="E36" s="85">
-        <v>4</v>
-      </c>
-      <c r="F36" s="26" t="s">
-        <v>181</v>
+        <v>3.2456140350877201</v>
       </c>
       <c r="G36" s="29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H36" s="29">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I36" s="29">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J36" s="29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K36" s="85">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L36" s="85">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M36" s="85">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N36" s="85">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="O36" s="85">
         <f>N36+L36+K36+M36</f>
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P36" s="85">
         <f>(28-C36)*16-(D36/7)+O36</f>
-        <v>193.85714285714286</v>
+        <v>198.28571428571428</v>
       </c>
       <c r="Q36" s="85">
         <f>L36+M36+N36</f>
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="R36" s="85">
         <f>(28-C36)*16-(D36/7)+Q36</f>
-        <v>190.85714285714286</v>
+        <v>192.28571428571428</v>
       </c>
       <c r="S36" s="102">
-        <v>3700000</v>
+        <v>2000000</v>
       </c>
       <c r="T36" s="102">
         <f>S36/O36</f>
-        <v>60655.737704918036</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="94" t="s">
-        <v>301</v>
+        <v>38461.538461538461</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="103" t="s">
+        <v>298</v>
       </c>
       <c r="B37" s="85" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="C37" s="85">
         <v>18</v>
       </c>
       <c r="D37" s="85">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="E37" s="85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F37" s="26" t="s">
         <v>106</v>
@@ -7036,537 +7054,534 @@
         <v>6</v>
       </c>
       <c r="H37" s="29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I37" s="29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J37" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K37" s="85">
         <v>18</v>
       </c>
       <c r="L37" s="85">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M37" s="85">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N37" s="85">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O37" s="85">
         <f>N37+L37+K37+M37</f>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P37" s="85">
         <f>(28-C37)*16-(D37/7)+O37</f>
-        <v>208.71428571428572</v>
+        <v>210.14285714285714</v>
       </c>
       <c r="Q37" s="85">
         <f>L37+M37+N37</f>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="R37" s="85">
         <f>(28-C37)*16-(D37/7)+Q37</f>
-        <v>190.71428571428572</v>
+        <v>192.14285714285714</v>
       </c>
       <c r="S37" s="102">
         <v>150000</v>
       </c>
       <c r="T37" s="102">
         <f>S37/O37</f>
-        <v>2777.7777777777778</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="85" t="s">
-        <v>276</v>
+        <v>2586.2068965517242</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="104" t="s">
+        <v>322</v>
       </c>
       <c r="B38" s="85" t="s">
-        <v>277</v>
+        <v>323</v>
       </c>
       <c r="C38" s="85">
         <v>18</v>
       </c>
       <c r="D38" s="85">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="E38" s="85">
         <v>1</v>
       </c>
-      <c r="F38" s="26" t="s">
-        <v>179</v>
-      </c>
       <c r="G38" s="29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H38" s="29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I38" s="29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J38" s="29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K38" s="85">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="L38" s="85">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M38" s="85">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N38" s="85">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="O38" s="85">
         <f>N38+L38+K38+M38</f>
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="P38" s="85">
         <f>(28-C38)*16-(D38/7)+O38</f>
-        <v>199.57142857142858</v>
+        <v>209.85714285714286</v>
       </c>
       <c r="Q38" s="85">
         <f>L38+M38+N38</f>
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="R38" s="85">
         <f>(28-C38)*16-(D38/7)+Q38</f>
-        <v>190.57142857142858</v>
+        <v>191.85714285714286</v>
       </c>
       <c r="S38" s="102">
-        <v>450000</v>
+        <v>975000</v>
       </c>
       <c r="T38" s="102">
         <f>S38/O38</f>
-        <v>9782.608695652174</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="85" t="s">
-        <v>336</v>
+        <v>261</v>
       </c>
       <c r="B39" s="85" t="s">
-        <v>323</v>
+        <v>262</v>
       </c>
       <c r="C39" s="85">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D39" s="85">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="E39" s="85">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F39" s="26" t="s">
         <v>106</v>
       </c>
       <c r="G39" s="29">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H39" s="29">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I39" s="29">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J39" s="29">
         <v>0</v>
       </c>
       <c r="K39" s="85">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="L39" s="85">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="M39" s="85">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="N39" s="85">
         <v>-1</v>
       </c>
       <c r="O39" s="85">
         <f>N39+L39+K39+M39</f>
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P39" s="85">
         <f>(28-C39)*16-(D39/7)+O39</f>
-        <v>195.14285714285714</v>
+        <v>209.57142857142858</v>
       </c>
       <c r="Q39" s="85">
         <f>L39+M39+N39</f>
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="R39" s="85">
         <f>(28-C39)*16-(D39/7)+Q39</f>
-        <v>189.14285714285714</v>
+        <v>191.57142857142858</v>
       </c>
       <c r="S39" s="102">
-        <v>2000000</v>
+        <v>3200000</v>
       </c>
       <c r="T39" s="102">
         <f>S39/O39</f>
-        <v>48780.487804878052</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="85" t="s">
-        <v>273</v>
+        <v>41558.441558441562</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="94" t="s">
+        <v>309</v>
       </c>
       <c r="B40" s="85" t="s">
-        <v>252</v>
+        <v>310</v>
       </c>
       <c r="C40" s="85">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D40" s="85">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="E40" s="85">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F40" s="26" t="s">
         <v>181</v>
       </c>
       <c r="G40" s="29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H40" s="29">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I40" s="29">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J40" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="85">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L40" s="85">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="M40" s="85">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N40" s="85">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O40" s="85">
         <f>N40+L40+K40+M40</f>
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="P40" s="85">
         <f>(28-C40)*16-(D40/7)+O40</f>
-        <v>198.14285714285714</v>
+        <v>193.85714285714286</v>
       </c>
       <c r="Q40" s="85">
         <f>L40+M40+N40</f>
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="R40" s="85">
         <f>(28-C40)*16-(D40/7)+Q40</f>
-        <v>189.14285714285714</v>
+        <v>190.85714285714286</v>
       </c>
       <c r="S40" s="102">
-        <v>240000</v>
+        <v>3700000</v>
       </c>
       <c r="T40" s="102">
         <f>S40/O40</f>
-        <v>5581.395348837209</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="85" t="s">
-        <v>303</v>
+        <v>60655.737704918036</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="94" t="s">
+        <v>301</v>
       </c>
       <c r="B41" s="85" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="C41" s="85">
         <v>18</v>
       </c>
       <c r="D41" s="85">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="E41" s="85">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F41" s="26" t="s">
         <v>106</v>
       </c>
       <c r="G41" s="29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H41" s="29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I41" s="29">
         <v>7</v>
       </c>
       <c r="J41" s="29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K41" s="85">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="L41" s="85">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M41" s="85">
         <v>20</v>
       </c>
       <c r="N41" s="85">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O41" s="85">
         <f>N41+L41+K41+M41</f>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="P41" s="85">
         <f>(28-C41)*16-(D41/7)+O41</f>
-        <v>197.85714285714286</v>
+        <v>208.71428571428572</v>
       </c>
       <c r="Q41" s="85">
         <f>L41+M41+N41</f>
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R41" s="85">
         <f>(28-C41)*16-(D41/7)+Q41</f>
-        <v>188.85714285714286</v>
+        <v>190.71428571428572</v>
       </c>
       <c r="S41" s="102">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="T41" s="102">
         <f>S41/O41</f>
-        <v>4166.666666666667</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2777.7777777777778</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="85" t="s">
-        <v>353</v>
+        <v>276</v>
       </c>
       <c r="B42" s="85" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="C42" s="85">
         <v>18</v>
       </c>
       <c r="D42" s="85">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E42" s="85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" s="26" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="G42" s="29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H42" s="29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I42" s="29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J42" s="29">
         <v>4</v>
       </c>
       <c r="K42" s="85">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L42" s="85">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M42" s="85">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N42" s="85">
         <v>3</v>
       </c>
       <c r="O42" s="85">
         <f>N42+L42+K42+M42</f>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P42" s="85">
         <f>(28-C42)*16-(D42/7)+O42</f>
-        <v>201</v>
+        <v>199.57142857142858</v>
       </c>
       <c r="Q42" s="85">
         <f>L42+M42+N42</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="R42" s="85">
         <f>(28-C42)*16-(D42/7)+Q42</f>
-        <v>188</v>
+        <v>190.57142857142858</v>
       </c>
       <c r="S42" s="102">
-        <v>200000</v>
+        <v>450000</v>
       </c>
       <c r="T42" s="102">
         <f>S42/O42</f>
-        <v>4166.666666666667</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+        <v>9782.608695652174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="85" t="s">
-        <v>267</v>
+        <v>336</v>
       </c>
       <c r="B43" s="85" t="s">
-        <v>268</v>
+        <v>323</v>
       </c>
       <c r="C43" s="85">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D43" s="85">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E43" s="85">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F43" s="26" t="s">
-        <v>269</v>
+        <v>106</v>
       </c>
       <c r="G43" s="29">
         <v>3</v>
       </c>
       <c r="H43" s="29">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I43" s="29">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J43" s="29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K43" s="85">
         <v>6</v>
       </c>
       <c r="L43" s="85">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M43" s="85">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="N43" s="85">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O43" s="85">
         <f>N43+L43+K43+M43</f>
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="P43" s="85">
         <f>(28-C43)*16-(D43/7)+O43</f>
-        <v>193.14285714285714</v>
+        <v>195.14285714285714</v>
       </c>
       <c r="Q43" s="85">
         <f>L43+M43+N43</f>
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="R43" s="85">
         <f>(28-C43)*16-(D43/7)+Q43</f>
-        <v>187.14285714285714</v>
+        <v>189.14285714285714</v>
       </c>
       <c r="S43" s="102">
-        <v>1350000</v>
+        <v>2000000</v>
       </c>
       <c r="T43" s="102">
         <f>S43/O43</f>
-        <v>25961.538461538461</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+        <v>48780.487804878052</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="85" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="B44" s="85" t="s">
         <v>252</v>
       </c>
       <c r="C44" s="85">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D44" s="85">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="E44" s="85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F44" s="26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G44" s="29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H44" s="29">
+        <v>8</v>
+      </c>
+      <c r="I44" s="29">
         <v>4</v>
       </c>
-      <c r="I44" s="29">
-        <v>10</v>
-      </c>
       <c r="J44" s="29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K44" s="85">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="L44" s="85">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="M44" s="85">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="N44" s="85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O44" s="85">
         <f>N44+L44+K44+M44</f>
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="P44" s="85">
         <f>(28-C44)*16-(D44/7)+O44</f>
-        <v>203.28571428571428</v>
+        <v>198.14285714285714</v>
       </c>
       <c r="Q44" s="85">
         <f>L44+M44+N44</f>
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="R44" s="85">
         <f>(28-C44)*16-(D44/7)+Q44</f>
-        <v>185.28571428571428</v>
+        <v>189.14285714285714</v>
       </c>
       <c r="S44" s="102">
-        <v>1550000</v>
+        <v>240000</v>
       </c>
       <c r="T44" s="102">
         <f>S44/O44</f>
-        <v>22794.117647058825</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+        <v>5581.395348837209</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="85" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B45" s="85" t="s">
-        <v>293</v>
+        <v>252</v>
       </c>
       <c r="C45" s="85">
         <v>18</v>
       </c>
       <c r="D45" s="85">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E45" s="85">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F45" s="26" t="s">
-        <v>269</v>
+        <v>106</v>
       </c>
       <c r="G45" s="29">
         <v>5</v>
@@ -7578,7 +7593,7 @@
         <v>6</v>
       </c>
       <c r="J45" s="29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K45" s="85">
         <v>13</v>
@@ -7590,53 +7605,53 @@
         <v>16</v>
       </c>
       <c r="N45" s="85">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O45" s="85">
         <f>N45+L45+K45+M45</f>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P45" s="85">
         <f>(28-C45)*16-(D45/7)+O45</f>
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q45" s="85">
         <f>L45+M45+N45</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R45" s="85">
         <f>(28-C45)*16-(D45/7)+Q45</f>
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="S45" s="102">
-        <v>2500000</v>
+        <v>200000</v>
       </c>
       <c r="T45" s="102">
         <f>S45/O45</f>
-        <v>54347.82608695652</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+        <v>4081.6326530612246</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="85" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="B46" s="85" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="C46" s="85">
         <v>18</v>
       </c>
       <c r="D46" s="85">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="E46" s="85">
+        <v>6</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G46" s="29">
         <v>4</v>
-      </c>
-      <c r="F46" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="G46" s="29">
-        <v>5</v>
       </c>
       <c r="H46" s="29">
         <v>6</v>
@@ -7645,10 +7660,10 @@
         <v>7</v>
       </c>
       <c r="J46" s="29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K46" s="85">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L46" s="85">
         <v>16</v>
@@ -7657,385 +7672,385 @@
         <v>20</v>
       </c>
       <c r="N46" s="85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O46" s="85">
         <f>N46+L46+K46+M46</f>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P46" s="85">
         <f>(28-C46)*16-(D46/7)+O46</f>
-        <v>196.42857142857142</v>
+        <v>197.85714285714286</v>
       </c>
       <c r="Q46" s="85">
         <f>L46+M46+N46</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R46" s="85">
         <f>(28-C46)*16-(D46/7)+Q46</f>
-        <v>183.42857142857142</v>
+        <v>188.85714285714286</v>
       </c>
       <c r="S46" s="102">
-        <v>2350000</v>
+        <v>200000</v>
       </c>
       <c r="T46" s="102">
         <f>S46/O46</f>
-        <v>47000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+        <v>4166.666666666667</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="85" t="s">
-        <v>317</v>
+        <v>267</v>
       </c>
       <c r="B47" s="85" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C47" s="85">
         <v>19</v>
       </c>
       <c r="D47" s="85">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E47" s="85">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F47" s="26" t="s">
-        <v>106</v>
+        <v>269</v>
       </c>
       <c r="G47" s="29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H47" s="29">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I47" s="29">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J47" s="29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K47" s="85">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="L47" s="85">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="M47" s="85">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N47" s="85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O47" s="85">
         <f>N47+L47+K47+M47</f>
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P47" s="85">
         <f>(28-C47)*16-(D47/7)+O47</f>
-        <v>196.28571428571428</v>
+        <v>193.14285714285714</v>
       </c>
       <c r="Q47" s="85">
         <f>L47+M47+N47</f>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="R47" s="85">
         <f>(28-C47)*16-(D47/7)+Q47</f>
-        <v>183.28571428571428</v>
+        <v>187.14285714285714</v>
       </c>
       <c r="S47" s="102">
-        <v>3000000</v>
+        <v>1350000</v>
       </c>
       <c r="T47" s="102">
         <f>S47/O47</f>
-        <v>53571.428571428572</v>
+        <v>25961.538461538461</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="103" t="s">
-        <v>286</v>
+      <c r="A48" s="85" t="s">
+        <v>250</v>
       </c>
       <c r="B48" s="85" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="C48" s="85">
+        <v>19</v>
+      </c>
+      <c r="D48" s="85">
+        <v>61</v>
+      </c>
+      <c r="E48" s="85">
+        <v>2</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="G48" s="29">
+        <v>6</v>
+      </c>
+      <c r="H48" s="29">
+        <v>4</v>
+      </c>
+      <c r="I48" s="29">
+        <v>10</v>
+      </c>
+      <c r="J48" s="29">
+        <v>3</v>
+      </c>
+      <c r="K48" s="85">
         <v>18</v>
       </c>
-      <c r="D48" s="85">
-        <v>110</v>
-      </c>
-      <c r="E48" s="85">
-        <v>4</v>
-      </c>
-      <c r="F48" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="G48" s="29">
-        <v>7</v>
-      </c>
-      <c r="H48" s="29">
-        <v>7</v>
-      </c>
-      <c r="I48" s="29">
-        <v>6</v>
-      </c>
-      <c r="J48" s="29">
-        <v>2</v>
-      </c>
-      <c r="K48" s="85">
-        <v>23</v>
-      </c>
       <c r="L48" s="85">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="M48" s="85">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="N48" s="85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O48" s="85">
         <f>N48+L48+K48+M48</f>
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="P48" s="85">
         <f>(28-C48)*16-(D48/7)+O48</f>
-        <v>205.28571428571428</v>
+        <v>203.28571428571428</v>
       </c>
       <c r="Q48" s="85">
         <f>L48+M48+N48</f>
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="R48" s="85">
         <f>(28-C48)*16-(D48/7)+Q48</f>
-        <v>182.28571428571428</v>
+        <v>185.28571428571428</v>
       </c>
       <c r="S48" s="102">
-        <v>450000</v>
+        <v>1550000</v>
       </c>
       <c r="T48" s="102">
         <f>S48/O48</f>
-        <v>7377.0491803278692</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="104" t="s">
-        <v>328</v>
+        <v>22794.117647058825</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="85" t="s">
+        <v>352</v>
       </c>
       <c r="B49" s="85" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="C49" s="85">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D49" s="85">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="E49" s="85">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F49" s="26" t="s">
-        <v>183</v>
+        <v>269</v>
       </c>
       <c r="G49" s="29">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H49" s="29">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I49" s="29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J49" s="29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K49" s="85">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="L49" s="85">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M49" s="85">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N49" s="85">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O49" s="85">
         <f>N49+L49+K49+M49</f>
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="P49" s="85">
         <f>(28-C49)*16-(D49/7)+O49</f>
-        <v>217.42857142857142</v>
+        <v>198</v>
       </c>
       <c r="Q49" s="85">
         <f>L49+M49+N49</f>
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="R49" s="85">
         <f>(28-C49)*16-(D49/7)+Q49</f>
-        <v>181.42857142857142</v>
+        <v>185</v>
       </c>
       <c r="S49" s="102">
-        <v>4000000</v>
+        <v>2500000</v>
       </c>
       <c r="T49" s="102">
         <f>S49/O49</f>
-        <v>46511.627906976741</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="94" t="s">
-        <v>307</v>
+        <v>54347.82608695652</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="85" t="s">
+        <v>329</v>
       </c>
       <c r="B50" s="85" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="C50" s="85">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D50" s="85">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="E50" s="85">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G50" s="29">
         <v>5</v>
       </c>
       <c r="H50" s="29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I50" s="29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J50" s="29">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K50" s="85">
         <v>13</v>
       </c>
       <c r="L50" s="85">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M50" s="85">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N50" s="85">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O50" s="85">
         <f>N50+L50+K50+M50</f>
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="P50" s="85">
         <f>(28-C50)*16-(D50/7)+O50</f>
-        <v>194.42857142857142</v>
+        <v>196.42857142857142</v>
       </c>
       <c r="Q50" s="85">
         <f>L50+M50+N50</f>
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="R50" s="85">
         <f>(28-C50)*16-(D50/7)+Q50</f>
-        <v>181.42857142857142</v>
+        <v>183.42857142857142</v>
       </c>
       <c r="S50" s="102">
-        <v>300000</v>
+        <v>2350000</v>
       </c>
       <c r="T50" s="102">
         <f>S50/O50</f>
-        <v>5084.7457627118647</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="85" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B51" s="85" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="C51" s="85">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D51" s="85">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="E51" s="85">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>332</v>
+        <v>106</v>
       </c>
       <c r="G51" s="29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H51" s="29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I51" s="29">
         <v>7</v>
       </c>
       <c r="J51" s="29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K51" s="85">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="L51" s="85">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M51" s="85">
         <v>20</v>
       </c>
       <c r="N51" s="85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O51" s="85">
         <f>N51+L51+K51+M51</f>
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="P51" s="85">
         <f>(28-C51)*16-(D51/7)+O51</f>
-        <v>184.42857142857142</v>
+        <v>196.28571428571428</v>
       </c>
       <c r="Q51" s="85">
         <f>L51+M51+N51</f>
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="R51" s="85">
         <f>(28-C51)*16-(D51/7)+Q51</f>
-        <v>181.42857142857142</v>
+        <v>183.28571428571428</v>
       </c>
       <c r="S51" s="102">
-        <v>800000</v>
+        <v>3000000</v>
       </c>
       <c r="T51" s="102">
         <f>S51/O51</f>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="85" t="s">
-        <v>333</v>
+        <v>53571.428571428572</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="103" t="s">
+        <v>286</v>
       </c>
       <c r="B52" s="85" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C52" s="85">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D52" s="85">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="E52" s="85">
         <v>4</v>
       </c>
       <c r="F52" s="26" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="G52" s="29">
         <v>7</v>
@@ -8047,7 +8062,7 @@
         <v>6</v>
       </c>
       <c r="J52" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K52" s="85">
         <v>23</v>
@@ -8059,434 +8074,709 @@
         <v>16</v>
       </c>
       <c r="N52" s="85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52" s="85">
         <f>N52+L52+K52+M52</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P52" s="85">
         <f>(28-C52)*16-(D52/7)+O52</f>
-        <v>203.28571428571428</v>
+        <v>205.28571428571428</v>
       </c>
       <c r="Q52" s="85">
         <f>L52+M52+N52</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R52" s="85">
         <f>(28-C52)*16-(D52/7)+Q52</f>
-        <v>180.28571428571428</v>
+        <v>182.28571428571428</v>
       </c>
       <c r="S52" s="102">
-        <v>800000</v>
+        <v>450000</v>
       </c>
       <c r="T52" s="102">
         <f>S52/O52</f>
-        <v>13333.333333333334</v>
+        <v>7377.0491803278692</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" s="85" t="s">
-        <v>254</v>
+      <c r="A53" s="104" t="s">
+        <v>328</v>
       </c>
       <c r="B53" s="85" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C53" s="85">
         <v>19</v>
       </c>
       <c r="D53" s="85">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E53" s="85">
         <v>2</v>
       </c>
+      <c r="F53" s="26" t="s">
+        <v>183</v>
+      </c>
       <c r="G53" s="29">
+        <v>9</v>
+      </c>
+      <c r="H53" s="29">
+        <v>10</v>
+      </c>
+      <c r="I53" s="29">
         <v>5</v>
       </c>
-      <c r="H53" s="29">
-        <v>5</v>
-      </c>
-      <c r="I53" s="29">
-        <v>10</v>
-      </c>
       <c r="J53" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="85">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="L53" s="85">
+        <v>39</v>
+      </c>
+      <c r="M53" s="85">
         <v>12</v>
       </c>
-      <c r="M53" s="85">
-        <v>39</v>
-      </c>
       <c r="N53" s="85">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O53" s="85">
         <f>N53+L53+K53+M53</f>
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="P53" s="85">
         <f>(28-C53)*16-(D53/7)+O53</f>
-        <v>193.14285714285714</v>
+        <v>217.42857142857142</v>
       </c>
       <c r="Q53" s="85">
         <f>L53+M53+N53</f>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R53" s="85">
         <f>(28-C53)*16-(D53/7)+Q53</f>
-        <v>180.14285714285714</v>
+        <v>181.42857142857142</v>
       </c>
       <c r="S53" s="102">
-        <v>1000000</v>
+        <v>4000000</v>
       </c>
       <c r="T53" s="102">
         <f>S53/O53</f>
-        <v>15625</v>
+        <v>46511.627906976741</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="85" t="s">
-        <v>265</v>
+      <c r="A54" s="94" t="s">
+        <v>307</v>
       </c>
       <c r="B54" s="85" t="s">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="C54" s="85">
         <v>19</v>
       </c>
       <c r="D54" s="85">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E54" s="85">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F54" s="26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G54" s="29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H54" s="29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I54" s="29">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J54" s="29">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K54" s="85">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="L54" s="85">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="M54" s="85">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="N54" s="85">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O54" s="85">
         <f>N54+L54+K54+M54</f>
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="P54" s="85">
         <f>(28-C54)*16-(D54/7)+O54</f>
-        <v>182.85714285714286</v>
+        <v>194.42857142857142</v>
       </c>
       <c r="Q54" s="85">
         <f>L54+M54+N54</f>
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="R54" s="85">
         <f>(28-C54)*16-(D54/7)+Q54</f>
-        <v>179.85714285714286</v>
+        <v>181.42857142857142</v>
       </c>
       <c r="S54" s="102">
-        <v>1100000</v>
+        <v>300000</v>
       </c>
       <c r="T54" s="102">
         <f>S54/O54</f>
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+        <v>5084.7457627118647</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="85" t="s">
-        <v>259</v>
+        <v>331</v>
       </c>
       <c r="B55" s="85" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C55" s="85">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D55" s="85">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="E55" s="85">
+        <v>3</v>
+      </c>
+      <c r="F55" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="G55" s="29">
+        <v>2</v>
+      </c>
+      <c r="H55" s="29">
         <v>6</v>
       </c>
-      <c r="F55" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="G55" s="29">
-        <v>2</v>
-      </c>
-      <c r="H55" s="29">
-        <v>1</v>
-      </c>
       <c r="I55" s="29">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J55" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K55" s="85">
         <v>3</v>
       </c>
       <c r="L55" s="85">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M55" s="85">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="N55" s="85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" s="85">
         <f>N55+L55+K55+M55</f>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P55" s="85">
         <f>(28-C55)*16-(D55/7)+O55</f>
-        <v>182.71428571428572</v>
+        <v>184.42857142857142</v>
       </c>
       <c r="Q55" s="85">
         <f>L55+M55+N55</f>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R55" s="85">
         <f>(28-C55)*16-(D55/7)+Q55</f>
-        <v>179.71428571428572</v>
+        <v>181.42857142857142</v>
       </c>
       <c r="S55" s="102">
-        <v>1400000</v>
+        <v>800000</v>
       </c>
       <c r="T55" s="102">
         <f>S55/O55</f>
-        <v>33333.333333333336</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="85" t="s">
-        <v>263</v>
+        <v>333</v>
       </c>
       <c r="B56" s="85" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="C56" s="85">
         <v>19</v>
       </c>
       <c r="D56" s="85">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="E56" s="85">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F56" s="26" t="s">
         <v>106</v>
       </c>
       <c r="G56" s="29">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H56" s="29">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I56" s="29">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J56" s="29">
         <v>1</v>
       </c>
       <c r="K56" s="85">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="L56" s="85">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="M56" s="85">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="N56" s="85">
         <v>0</v>
       </c>
       <c r="O56" s="85">
         <f>N56+L56+K56+M56</f>
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="P56" s="85">
         <f>(28-C56)*16-(D56/7)+O56</f>
-        <v>176.14285714285714</v>
+        <v>203.28571428571428</v>
       </c>
       <c r="Q56" s="85">
         <f>L56+M56+N56</f>
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="R56" s="85">
         <f>(28-C56)*16-(D56/7)+Q56</f>
-        <v>176.14285714285714</v>
+        <v>180.28571428571428</v>
       </c>
       <c r="S56" s="102">
-        <v>1500000</v>
+        <v>800000</v>
       </c>
       <c r="T56" s="102">
         <f>S56/O56</f>
-        <v>35714.285714285717</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+        <v>13333.333333333334</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="85" t="s">
-        <v>335</v>
+        <v>254</v>
       </c>
       <c r="B57" s="85" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C57" s="85">
         <v>19</v>
       </c>
       <c r="D57" s="85">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="E57" s="85">
+        <v>2</v>
+      </c>
+      <c r="G57" s="29">
         <v>5</v>
-      </c>
-      <c r="F57" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="G57" s="29">
-        <v>10</v>
       </c>
       <c r="H57" s="29">
         <v>5</v>
       </c>
       <c r="I57" s="29">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J57" s="29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K57" s="85">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="L57" s="85">
         <v>12</v>
       </c>
       <c r="M57" s="85">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="N57" s="85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O57" s="85">
         <f>N57+L57+K57+M57</f>
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="P57" s="85">
         <f>(28-C57)*16-(D57/7)+O57</f>
-        <v>219.71428571428572</v>
+        <v>193.14285714285714</v>
       </c>
       <c r="Q57" s="85">
         <f>L57+M57+N57</f>
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="R57" s="85">
         <f>(28-C57)*16-(D57/7)+Q57</f>
-        <v>175.71428571428572</v>
+        <v>180.14285714285714</v>
       </c>
       <c r="S57" s="102">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="T57" s="102">
         <f>S57/O57</f>
-        <v>23809.523809523809</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+        <v>15625</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="85" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="B58" s="85" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C58" s="85">
         <v>19</v>
       </c>
       <c r="D58" s="85">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E58" s="85">
         <v>6</v>
       </c>
+      <c r="F58" s="26" t="s">
+        <v>181</v>
+      </c>
       <c r="G58" s="29">
+        <v>2</v>
+      </c>
+      <c r="H58" s="29">
+        <v>2</v>
+      </c>
+      <c r="I58" s="29">
         <v>10</v>
       </c>
-      <c r="H58" s="29">
-        <v>7</v>
-      </c>
-      <c r="I58" s="29">
-        <v>4</v>
-      </c>
       <c r="J58" s="29">
+        <v>0</v>
+      </c>
+      <c r="K58" s="85">
         <v>3</v>
       </c>
-      <c r="K58" s="85">
-        <v>44</v>
-      </c>
       <c r="L58" s="85">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="M58" s="85">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="N58" s="85">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="O58" s="85">
         <f>N58+L58+K58+M58</f>
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="P58" s="85">
         <f>(28-C58)*16-(D58/7)+O58</f>
-        <v>216.85714285714286</v>
+        <v>182.85714285714286</v>
       </c>
       <c r="Q58" s="85">
         <f>L58+M58+N58</f>
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="R58" s="85">
         <f>(28-C58)*16-(D58/7)+Q58</f>
-        <v>172.85714285714286</v>
+        <v>179.85714285714286</v>
       </c>
       <c r="S58" s="102">
-        <v>2000000</v>
+        <v>1100000</v>
       </c>
       <c r="T58" s="102">
         <f>S58/O58</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="85" t="s">
+        <v>259</v>
+      </c>
+      <c r="B59" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="C59" s="85">
+        <v>19</v>
+      </c>
+      <c r="D59" s="85">
+        <v>23</v>
+      </c>
+      <c r="E59" s="85">
+        <v>6</v>
+      </c>
+      <c r="F59" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="G59" s="29">
+        <v>2</v>
+      </c>
+      <c r="H59" s="29">
+        <v>1</v>
+      </c>
+      <c r="I59" s="29">
+        <v>10</v>
+      </c>
+      <c r="J59" s="29">
+        <v>1</v>
+      </c>
+      <c r="K59" s="85">
+        <v>3</v>
+      </c>
+      <c r="L59" s="85">
+        <v>0</v>
+      </c>
+      <c r="M59" s="85">
+        <v>39</v>
+      </c>
+      <c r="N59" s="85">
+        <v>0</v>
+      </c>
+      <c r="O59" s="85">
+        <f>N59+L59+K59+M59</f>
+        <v>42</v>
+      </c>
+      <c r="P59" s="85">
+        <f>(28-C59)*16-(D59/7)+O59</f>
+        <v>182.71428571428572</v>
+      </c>
+      <c r="Q59" s="85">
+        <f>L59+M59+N59</f>
+        <v>39</v>
+      </c>
+      <c r="R59" s="85">
+        <f>(28-C59)*16-(D59/7)+Q59</f>
+        <v>179.71428571428572</v>
+      </c>
+      <c r="S59" s="102">
+        <v>1400000</v>
+      </c>
+      <c r="T59" s="102">
+        <f>S59/O59</f>
+        <v>33333.333333333336</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="85" t="s">
+        <v>263</v>
+      </c>
+      <c r="B60" s="85" t="s">
+        <v>264</v>
+      </c>
+      <c r="C60" s="85">
+        <v>19</v>
+      </c>
+      <c r="D60" s="85">
+        <v>69</v>
+      </c>
+      <c r="E60" s="85">
+        <v>6</v>
+      </c>
+      <c r="F60" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G60" s="29">
+        <v>1</v>
+      </c>
+      <c r="H60" s="29">
+        <v>2</v>
+      </c>
+      <c r="I60" s="29">
+        <v>10</v>
+      </c>
+      <c r="J60" s="29">
+        <v>1</v>
+      </c>
+      <c r="K60" s="85">
+        <v>0</v>
+      </c>
+      <c r="L60" s="85">
+        <v>3</v>
+      </c>
+      <c r="M60" s="85">
+        <v>39</v>
+      </c>
+      <c r="N60" s="85">
+        <v>0</v>
+      </c>
+      <c r="O60" s="85">
+        <f>N60+L60+K60+M60</f>
+        <v>42</v>
+      </c>
+      <c r="P60" s="85">
+        <f>(28-C60)*16-(D60/7)+O60</f>
+        <v>176.14285714285714</v>
+      </c>
+      <c r="Q60" s="85">
+        <f>L60+M60+N60</f>
+        <v>42</v>
+      </c>
+      <c r="R60" s="85">
+        <f>(28-C60)*16-(D60/7)+Q60</f>
+        <v>176.14285714285714</v>
+      </c>
+      <c r="S60" s="102">
+        <v>1500000</v>
+      </c>
+      <c r="T60" s="102">
+        <f>S60/O60</f>
+        <v>35714.285714285717</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="85" t="s">
+        <v>335</v>
+      </c>
+      <c r="B61" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="C61" s="85">
+        <v>19</v>
+      </c>
+      <c r="D61" s="85">
+        <v>58</v>
+      </c>
+      <c r="E61" s="85">
+        <v>5</v>
+      </c>
+      <c r="F61" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="G61" s="29">
+        <v>10</v>
+      </c>
+      <c r="H61" s="29">
+        <v>5</v>
+      </c>
+      <c r="I61" s="29">
+        <v>8</v>
+      </c>
+      <c r="J61" s="29">
+        <v>3</v>
+      </c>
+      <c r="K61" s="85">
+        <v>44</v>
+      </c>
+      <c r="L61" s="85">
+        <v>12</v>
+      </c>
+      <c r="M61" s="85">
+        <v>26</v>
+      </c>
+      <c r="N61" s="85">
+        <v>2</v>
+      </c>
+      <c r="O61" s="85">
+        <f>N61+L61+K61+M61</f>
+        <v>84</v>
+      </c>
+      <c r="P61" s="85">
+        <f>(28-C61)*16-(D61/7)+O61</f>
+        <v>219.71428571428572</v>
+      </c>
+      <c r="Q61" s="85">
+        <f>L61+M61+N61</f>
+        <v>40</v>
+      </c>
+      <c r="R61" s="85">
+        <f>(28-C61)*16-(D61/7)+Q61</f>
+        <v>175.71428571428572</v>
+      </c>
+      <c r="S61" s="102">
+        <v>2000000</v>
+      </c>
+      <c r="T61" s="102">
+        <f>S61/O61</f>
+        <v>23809.523809523809</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="85" t="s">
+        <v>282</v>
+      </c>
+      <c r="B62" s="85" t="s">
+        <v>268</v>
+      </c>
+      <c r="C62" s="85">
+        <v>19</v>
+      </c>
+      <c r="D62" s="85">
+        <v>15</v>
+      </c>
+      <c r="E62" s="85">
+        <v>6</v>
+      </c>
+      <c r="G62" s="29">
+        <v>10</v>
+      </c>
+      <c r="H62" s="29">
+        <v>7</v>
+      </c>
+      <c r="I62" s="29">
+        <v>4</v>
+      </c>
+      <c r="J62" s="29">
+        <v>3</v>
+      </c>
+      <c r="K62" s="85">
+        <v>44</v>
+      </c>
+      <c r="L62" s="85">
+        <v>21</v>
+      </c>
+      <c r="M62" s="85">
+        <v>8</v>
+      </c>
+      <c r="N62" s="85">
+        <v>2</v>
+      </c>
+      <c r="O62" s="85">
+        <f>N62+L62+K62+M62</f>
+        <v>75</v>
+      </c>
+      <c r="P62" s="85">
+        <f>(28-C62)*16-(D62/7)+O62</f>
+        <v>216.85714285714286</v>
+      </c>
+      <c r="Q62" s="85">
+        <f>L62+M62+N62</f>
+        <v>31</v>
+      </c>
+      <c r="R62" s="85">
+        <f>(28-C62)*16-(D62/7)+Q62</f>
+        <v>172.85714285714286</v>
+      </c>
+      <c r="S62" s="102">
+        <v>2000000</v>
+      </c>
+      <c r="T62" s="102">
+        <f>S62/O62</f>
         <v>26666.666666666668</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:T58">
-    <sortCondition descending="1" ref="R2:R58"/>
-    <sortCondition descending="1" ref="Q2:Q58"/>
+  <autoFilter ref="A1:T62" xr:uid="{A6CFE25B-B022-4840-886C-3E19FFA11C9B}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="IMP"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A2:T62">
+    <sortCondition descending="1" ref="R2:R62"/>
+    <sortCondition descending="1" ref="Q2:Q62"/>
   </sortState>
-  <conditionalFormatting sqref="K12:N24 K26:N41 K43:N44 K46:N50">
+  <conditionalFormatting sqref="K47:N48 K31:N45 K16:N29 K3:N3 K5:N5 K50:N54">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -8496,7 +8786,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:N11 K25:N25 K42:N42 K45:N45 K58:N58">
+  <conditionalFormatting sqref="K46:N46 K2:N2 K4:N4 K6:N15 K30:N30 K49:N49 K62:N62">
     <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="min"/>
@@ -8506,19 +8796,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E49">
-    <cfRule type="colorScale" priority="110">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T50 T58">
+  <conditionalFormatting sqref="T2:T54 T62">
     <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="min"/>
@@ -8530,7 +8808,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:N51">
+  <conditionalFormatting sqref="K55:N55">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -8540,7 +8818,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T51">
+  <conditionalFormatting sqref="T55">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -8552,7 +8830,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52:N53">
+  <conditionalFormatting sqref="K56:N57">
     <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="min"/>
@@ -8562,7 +8840,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T52:T53">
+  <conditionalFormatting sqref="T56:T57">
     <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="min"/>
@@ -8574,7 +8852,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
+  <conditionalFormatting sqref="E54">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -8586,7 +8864,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
+  <conditionalFormatting sqref="E55">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -8598,7 +8876,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
+  <conditionalFormatting sqref="E56">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -8610,7 +8888,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
+  <conditionalFormatting sqref="E57">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -8622,7 +8900,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
+  <conditionalFormatting sqref="E58">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -8634,7 +8912,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K54:N54">
+  <conditionalFormatting sqref="K58:N58">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -8644,7 +8922,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T54">
+  <conditionalFormatting sqref="T58">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -8656,7 +8934,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K55:N55">
+  <conditionalFormatting sqref="K59:N59">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -8666,7 +8944,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T55">
+  <conditionalFormatting sqref="T59">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -8678,7 +8956,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K56:N56">
+  <conditionalFormatting sqref="K60:N60">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -8688,7 +8966,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T56">
+  <conditionalFormatting sqref="T60">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -8700,7 +8978,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K57:N57">
+  <conditionalFormatting sqref="K61:N61">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -8710,7 +8988,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T57">
+  <conditionalFormatting sqref="T61">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -8722,8 +9000,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:R58">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="E2:E53">
+    <cfRule type="colorScale" priority="146">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8734,8 +9012,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:J58">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="O2:R62">
+    <cfRule type="colorScale" priority="148">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:J62">
+    <cfRule type="colorScale" priority="150">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8757,7 +9047,7 @@
   <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/projects/current/hattrick/z-TirosLejanos.xlsx
+++ b/projects/current/hattrick/z-TirosLejanos.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3C35AF-F3C6-4FBD-8E5F-627DEB2BD577}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C114DFB-CDE5-4CA9-9988-C6B0BB07EEA1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipoPerikas" sheetId="5" r:id="rId1"/>
@@ -3325,8 +3325,8 @@
   </sheetPr>
   <dimension ref="A2:AB23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:AD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4624,13 +4624,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCC5FB6-4E02-489E-AAD8-5E2FB1AB2063}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4716,7 +4716,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="85" t="s">
         <v>321</v>
       </c>
@@ -4757,26 +4757,26 @@
         <v>0</v>
       </c>
       <c r="O2" s="85">
-        <f>N2+L2+K2+M2</f>
+        <f t="shared" ref="O2:O33" si="0">N2+L2+K2+M2</f>
         <v>70</v>
       </c>
       <c r="P2" s="85">
-        <f>(28-C2)*16-(D2/7)+O2</f>
+        <f t="shared" ref="P2:P33" si="1">(28-C2)*16-(D2/7)+O2</f>
         <v>215.57142857142858</v>
       </c>
       <c r="Q2" s="85">
-        <f>L2+M2+N2</f>
+        <f t="shared" ref="Q2:Q33" si="2">L2+M2+N2</f>
         <v>67</v>
       </c>
       <c r="R2" s="85">
-        <f>(28-C2)*16-(D2/7)+Q2</f>
+        <f t="shared" ref="R2:R33" si="3">(28-C2)*16-(D2/7)+Q2</f>
         <v>212.57142857142858</v>
       </c>
       <c r="S2" s="102">
         <v>3950000</v>
       </c>
       <c r="T2" s="102">
-        <f>S2/O2</f>
+        <f t="shared" ref="T2:T33" si="4">S2/O2</f>
         <v>56428.571428571428</v>
       </c>
     </row>
@@ -4824,30 +4824,30 @@
         <v>-1</v>
       </c>
       <c r="O3" s="85">
-        <f>N3+L3+K3+M3</f>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="P3" s="85">
-        <f>(28-C3)*16-(D3/7)+O3</f>
+        <f t="shared" si="1"/>
         <v>215.57142857142858</v>
       </c>
       <c r="Q3" s="85">
-        <f>L3+M3+N3</f>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="R3" s="85">
-        <f>(28-C3)*16-(D3/7)+Q3</f>
+        <f t="shared" si="3"/>
         <v>209.57142857142858</v>
       </c>
       <c r="S3" s="102">
         <v>3500000</v>
       </c>
       <c r="T3" s="102">
-        <f>S3/O3</f>
+        <f t="shared" si="4"/>
         <v>47297.2972972973</v>
       </c>
     </row>
-    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="104" t="s">
         <v>325</v>
       </c>
@@ -4891,26 +4891,26 @@
         <v>3</v>
       </c>
       <c r="O4" s="85">
-        <f>N4+L4+K4+M4</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="P4" s="85">
-        <f>(28-C4)*16-(D4/7)+O4</f>
+        <f t="shared" si="1"/>
         <v>216.71428571428572</v>
       </c>
       <c r="Q4" s="85">
-        <f>L4+M4+N4</f>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="R4" s="85">
-        <f>(28-C4)*16-(D4/7)+Q4</f>
+        <f t="shared" si="3"/>
         <v>207.71428571428572</v>
       </c>
       <c r="S4" s="102">
         <v>3000000</v>
       </c>
       <c r="T4" s="102">
-        <f>S4/O4</f>
+        <f t="shared" si="4"/>
         <v>40000</v>
       </c>
     </row>
@@ -4958,30 +4958,30 @@
         <v>2</v>
       </c>
       <c r="O5" s="85">
-        <f>N5+L5+K5+M5</f>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="P5" s="85">
-        <f>(28-C5)*16-(D5/7)+O5</f>
+        <f t="shared" si="1"/>
         <v>209.57142857142858</v>
       </c>
       <c r="Q5" s="85">
-        <f>L5+M5+N5</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="R5" s="85">
-        <f>(28-C5)*16-(D5/7)+Q5</f>
+        <f t="shared" si="3"/>
         <v>207.57142857142858</v>
       </c>
       <c r="S5" s="102">
         <v>1900000</v>
       </c>
       <c r="T5" s="102">
-        <f>S5/O5</f>
+        <f t="shared" si="4"/>
         <v>30645.16129032258</v>
       </c>
     </row>
-    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="104" t="s">
         <v>313</v>
       </c>
@@ -5025,30 +5025,30 @@
         <v>5</v>
       </c>
       <c r="O6" s="85">
-        <f>N6+L6+K6+M6</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="P6" s="85">
-        <f>(28-C6)*16-(D6/7)+O6</f>
+        <f t="shared" si="1"/>
         <v>209.85714285714286</v>
       </c>
       <c r="Q6" s="85">
-        <f>L6+M6+N6</f>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="R6" s="85">
-        <f>(28-C6)*16-(D6/7)+Q6</f>
+        <f t="shared" si="3"/>
         <v>206.85714285714286</v>
       </c>
       <c r="S6" s="102">
         <v>2500000</v>
       </c>
       <c r="T6" s="102">
-        <f>S6/O6</f>
+        <f t="shared" si="4"/>
         <v>41666.666666666664</v>
       </c>
     </row>
-    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="94" t="s">
         <v>311</v>
       </c>
@@ -5089,30 +5089,30 @@
         <v>1</v>
       </c>
       <c r="O7" s="85">
-        <f>N7+L7+K7+M7</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="P7" s="85">
-        <f>(28-C7)*16-(D7/7)+O7</f>
+        <f t="shared" si="1"/>
         <v>211</v>
       </c>
       <c r="Q7" s="85">
-        <f>L7+M7+N7</f>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="R7" s="85">
-        <f>(28-C7)*16-(D7/7)+Q7</f>
+        <f t="shared" si="3"/>
         <v>205</v>
       </c>
       <c r="S7" s="102">
         <v>2500000</v>
       </c>
       <c r="T7" s="102">
-        <f>S7/O7</f>
+        <f t="shared" si="4"/>
         <v>43103.448275862072</v>
       </c>
     </row>
-    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="85" t="s">
         <v>295</v>
       </c>
@@ -5156,30 +5156,30 @@
         <v>0</v>
       </c>
       <c r="O8" s="85">
-        <f>N8+L8+K8+M8</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="P8" s="85">
-        <f>(28-C8)*16-(D8/7)+O8</f>
+        <f t="shared" si="1"/>
         <v>213.85714285714286</v>
       </c>
       <c r="Q8" s="85">
-        <f>L8+M8+N8</f>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="R8" s="85">
-        <f>(28-C8)*16-(D8/7)+Q8</f>
+        <f t="shared" si="3"/>
         <v>204.85714285714286</v>
       </c>
       <c r="S8" s="102">
         <v>3000000</v>
       </c>
       <c r="T8" s="102">
-        <f>S8/O8</f>
+        <f t="shared" si="4"/>
         <v>44776.119402985074</v>
       </c>
     </row>
-    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="85" t="s">
         <v>256</v>
       </c>
@@ -5223,30 +5223,30 @@
         <v>0</v>
       </c>
       <c r="O9" s="85">
-        <f>N9+L9+K9+M9</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="P9" s="85">
-        <f>(28-C9)*16-(D9/7)+O9</f>
+        <f t="shared" si="1"/>
         <v>207.71428571428572</v>
       </c>
       <c r="Q9" s="85">
-        <f>L9+M9+N9</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="R9" s="85">
-        <f>(28-C9)*16-(D9/7)+Q9</f>
+        <f t="shared" si="3"/>
         <v>204.71428571428572</v>
       </c>
       <c r="S9" s="102">
         <v>3230000</v>
       </c>
       <c r="T9" s="102">
-        <f>S9/O9</f>
+        <f t="shared" si="4"/>
         <v>51269.841269841272</v>
       </c>
     </row>
-    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="85" t="s">
         <v>359</v>
       </c>
@@ -5290,30 +5290,30 @@
         <v>1</v>
       </c>
       <c r="O10" s="85">
-        <f>N10+L10+K10+M10</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="P10" s="85">
-        <f>(28-C10)*16-(D10/7)+O10</f>
+        <f t="shared" si="1"/>
         <v>210.71428571428572</v>
       </c>
       <c r="Q10" s="85">
-        <f>L10+M10+N10</f>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="R10" s="85">
-        <f>(28-C10)*16-(D10/7)+Q10</f>
+        <f t="shared" si="3"/>
         <v>204.71428571428572</v>
       </c>
       <c r="S10" s="102">
         <v>1500000</v>
       </c>
       <c r="T10" s="102">
-        <f>S10/O10</f>
+        <f t="shared" si="4"/>
         <v>29411.764705882353</v>
       </c>
     </row>
-    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="85" t="s">
         <v>324</v>
       </c>
@@ -5354,30 +5354,30 @@
         <v>4</v>
       </c>
       <c r="O11" s="85">
-        <f>N11+L11+K11+M11</f>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="P11" s="85">
-        <f>(28-C11)*16-(D11/7)+O11</f>
+        <f t="shared" si="1"/>
         <v>213.14285714285714</v>
       </c>
       <c r="Q11" s="85">
-        <f>L11+M11+N11</f>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="R11" s="85">
-        <f>(28-C11)*16-(D11/7)+Q11</f>
+        <f t="shared" si="3"/>
         <v>204.14285714285714</v>
       </c>
       <c r="S11" s="102">
         <v>3800000</v>
       </c>
       <c r="T11" s="102">
-        <f>S11/O11</f>
+        <f t="shared" si="4"/>
         <v>55882.352941176468</v>
       </c>
     </row>
-    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="85" t="s">
         <v>355</v>
       </c>
@@ -5421,30 +5421,30 @@
         <v>3</v>
       </c>
       <c r="O12" s="85">
-        <f>N12+L12+K12+M12</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="P12" s="85">
-        <f>(28-C12)*16-(D12/7)+O12</f>
+        <f t="shared" si="1"/>
         <v>206.28571428571428</v>
       </c>
       <c r="Q12" s="85">
-        <f>L12+M12+N12</f>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="R12" s="85">
-        <f>(28-C12)*16-(D12/7)+Q12</f>
+        <f t="shared" si="3"/>
         <v>203.28571428571428</v>
       </c>
       <c r="S12" s="102">
         <v>2000000</v>
       </c>
       <c r="T12" s="102">
-        <f>S12/O12</f>
+        <f t="shared" si="4"/>
         <v>34482.758620689652</v>
       </c>
     </row>
-    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="85" t="s">
         <v>334</v>
       </c>
@@ -5485,30 +5485,30 @@
         <v>2</v>
       </c>
       <c r="O13" s="85">
-        <f>N13+L13+K13+M13</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="P13" s="85">
-        <f>(28-C13)*16-(D13/7)+O13</f>
+        <f t="shared" si="1"/>
         <v>208.85714285714286</v>
       </c>
       <c r="Q13" s="85">
-        <f>L13+M13+N13</f>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="R13" s="85">
-        <f>(28-C13)*16-(D13/7)+Q13</f>
+        <f t="shared" si="3"/>
         <v>202.85714285714286</v>
       </c>
       <c r="S13" s="102">
         <v>1125000</v>
       </c>
       <c r="T13" s="102">
-        <f>S13/O13</f>
+        <f t="shared" si="4"/>
         <v>20833.333333333332</v>
       </c>
     </row>
-    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="85" t="s">
         <v>278</v>
       </c>
@@ -5552,30 +5552,30 @@
         <v>3</v>
       </c>
       <c r="O14" s="85">
-        <f>N14+L14+K14+M14</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="P14" s="85">
-        <f>(28-C14)*16-(D14/7)+O14</f>
+        <f t="shared" si="1"/>
         <v>211.14285714285714</v>
       </c>
       <c r="Q14" s="85">
-        <f>L14+M14+N14</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="R14" s="85">
-        <f>(28-C14)*16-(D14/7)+Q14</f>
+        <f t="shared" si="3"/>
         <v>202.14285714285714</v>
       </c>
       <c r="S14" s="102">
         <v>1450000</v>
       </c>
       <c r="T14" s="102">
-        <f>S14/O14</f>
+        <f t="shared" si="4"/>
         <v>24576.271186440677</v>
       </c>
     </row>
-    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="104" t="s">
         <v>318</v>
       </c>
@@ -5616,30 +5616,30 @@
         <v>0</v>
       </c>
       <c r="O15" s="85">
-        <f>N15+L15+K15+M15</f>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="P15" s="85">
-        <f>(28-C15)*16-(D15/7)+O15</f>
+        <f t="shared" si="1"/>
         <v>210.85714285714286</v>
       </c>
       <c r="Q15" s="85">
-        <f>L15+M15+N15</f>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="R15" s="85">
-        <f>(28-C15)*16-(D15/7)+Q15</f>
+        <f t="shared" si="3"/>
         <v>201.85714285714286</v>
       </c>
       <c r="S15" s="102">
         <v>2750000</v>
       </c>
       <c r="T15" s="102">
-        <f>S15/O15</f>
+        <f t="shared" si="4"/>
         <v>37162.16216216216</v>
       </c>
     </row>
-    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="85" t="s">
         <v>319</v>
       </c>
@@ -5680,30 +5680,30 @@
         <v>1</v>
       </c>
       <c r="O16" s="85">
-        <f>N16+L16+K16+M16</f>
+        <f t="shared" si="0"/>
         <v>79</v>
       </c>
       <c r="P16" s="85">
-        <f>(28-C16)*16-(D16/7)+O16</f>
+        <f t="shared" si="1"/>
         <v>214.57142857142858</v>
       </c>
       <c r="Q16" s="85">
-        <f>L16+M16+N16</f>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="R16" s="85">
-        <f>(28-C16)*16-(D16/7)+Q16</f>
+        <f t="shared" si="3"/>
         <v>201.57142857142858</v>
       </c>
       <c r="S16" s="102">
         <v>2750000</v>
       </c>
       <c r="T16" s="102">
-        <f>S16/O16</f>
+        <f t="shared" si="4"/>
         <v>34810.126582278484</v>
       </c>
     </row>
-    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="103" t="s">
         <v>294</v>
       </c>
@@ -5747,30 +5747,30 @@
         <v>2</v>
       </c>
       <c r="O17" s="85">
-        <f>N17+L17+K17+M17</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="P17" s="85">
-        <f>(28-C17)*16-(D17/7)+O17</f>
+        <f t="shared" si="1"/>
         <v>207.28571428571428</v>
       </c>
       <c r="Q17" s="85">
-        <f>L17+M17+N17</f>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="R17" s="85">
-        <f>(28-C17)*16-(D17/7)+Q17</f>
+        <f t="shared" si="3"/>
         <v>201.28571428571428</v>
       </c>
       <c r="S17" s="102">
         <v>900000</v>
       </c>
       <c r="T17" s="102">
-        <f>S17/O17</f>
+        <f t="shared" si="4"/>
         <v>16363.636363636364</v>
       </c>
     </row>
-    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="104" t="s">
         <v>327</v>
       </c>
@@ -5814,30 +5814,30 @@
         <v>-1</v>
       </c>
       <c r="O18" s="85">
-        <f>N18+L18+K18+M18</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="P18" s="85">
-        <f>(28-C18)*16-(D18/7)+O18</f>
+        <f t="shared" si="1"/>
         <v>206.42857142857142</v>
       </c>
       <c r="Q18" s="85">
-        <f>L18+M18+N18</f>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="R18" s="85">
-        <f>(28-C18)*16-(D18/7)+Q18</f>
+        <f t="shared" si="3"/>
         <v>200.42857142857142</v>
       </c>
       <c r="S18" s="102">
         <v>3750000</v>
       </c>
       <c r="T18" s="102">
-        <f>S18/O18</f>
+        <f t="shared" si="4"/>
         <v>65789.473684210519</v>
       </c>
     </row>
-    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="85" t="s">
         <v>285</v>
       </c>
@@ -5881,26 +5881,26 @@
         <v>1</v>
       </c>
       <c r="O19" s="85">
-        <f>N19+L19+K19+M19</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="P19" s="85">
-        <f>(28-C19)*16-(D19/7)+O19</f>
+        <f t="shared" si="1"/>
         <v>203.42857142857142</v>
       </c>
       <c r="Q19" s="85">
-        <f>L19+M19+N19</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="R19" s="85">
-        <f>(28-C19)*16-(D19/7)+Q19</f>
+        <f t="shared" si="3"/>
         <v>200.42857142857142</v>
       </c>
       <c r="S19" s="102">
         <v>350000</v>
       </c>
       <c r="T19" s="102">
-        <f>S19/O19</f>
+        <f t="shared" si="4"/>
         <v>9722.2222222222226</v>
       </c>
     </row>
@@ -5948,26 +5948,26 @@
         <v>-1</v>
       </c>
       <c r="O20" s="85">
-        <f>N20+L20+K20+M20</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="P20" s="85">
-        <f>(28-C20)*16-(D20/7)+O20</f>
+        <f t="shared" si="1"/>
         <v>209.28571428571428</v>
       </c>
       <c r="Q20" s="85">
-        <f>L20+M20+N20</f>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="R20" s="85">
-        <f>(28-C20)*16-(D20/7)+Q20</f>
+        <f t="shared" si="3"/>
         <v>200.28571428571428</v>
       </c>
       <c r="S20" s="102">
         <v>1850000</v>
       </c>
       <c r="T20" s="102">
-        <f>S20/O20</f>
+        <f t="shared" si="4"/>
         <v>30833.333333333332</v>
       </c>
     </row>
@@ -6015,30 +6015,30 @@
         <v>-1</v>
       </c>
       <c r="O21" s="85">
-        <f>N21+L21+K21+M21</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="P21" s="85">
-        <f>(28-C21)*16-(D21/7)+O21</f>
+        <f t="shared" si="1"/>
         <v>203</v>
       </c>
       <c r="Q21" s="85">
-        <f>L21+M21+N21</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="R21" s="85">
-        <f>(28-C21)*16-(D21/7)+Q21</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="S21" s="102">
         <v>700000</v>
       </c>
       <c r="T21" s="102">
-        <f>S21/O21</f>
+        <f t="shared" si="4"/>
         <v>17500</v>
       </c>
     </row>
-    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="94" t="s">
         <v>306</v>
       </c>
@@ -6079,26 +6079,26 @@
         <v>2</v>
       </c>
       <c r="O22" s="85">
-        <f>N22+L22+K22+M22</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="P22" s="85">
-        <f>(28-C22)*16-(D22/7)+O22</f>
+        <f t="shared" si="1"/>
         <v>205.85714285714286</v>
       </c>
       <c r="Q22" s="85">
-        <f>L22+M22+N22</f>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="R22" s="85">
-        <f>(28-C22)*16-(D22/7)+Q22</f>
+        <f t="shared" si="3"/>
         <v>199.85714285714286</v>
       </c>
       <c r="S22" s="102">
         <v>2500000</v>
       </c>
       <c r="T22" s="102">
-        <f>S22/O22</f>
+        <f t="shared" si="4"/>
         <v>37313.432835820895</v>
       </c>
     </row>
@@ -6146,30 +6146,30 @@
         <v>3</v>
       </c>
       <c r="O23" s="85">
-        <f>N23+L23+K23+M23</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="P23" s="85">
-        <f>(28-C23)*16-(D23/7)+O23</f>
+        <f t="shared" si="1"/>
         <v>208.71428571428572</v>
       </c>
       <c r="Q23" s="85">
-        <f>L23+M23+N23</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="R23" s="85">
-        <f>(28-C23)*16-(D23/7)+Q23</f>
+        <f t="shared" si="3"/>
         <v>199.71428571428572</v>
       </c>
       <c r="S23" s="102">
         <v>1900000</v>
       </c>
       <c r="T23" s="102">
-        <f>S23/O23</f>
+        <f t="shared" si="4"/>
         <v>32203.389830508473</v>
       </c>
     </row>
-    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="85" t="s">
         <v>271</v>
       </c>
@@ -6213,30 +6213,30 @@
         <v>1</v>
       </c>
       <c r="O24" s="85">
-        <f>N24+L24+K24+M24</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="P24" s="85">
-        <f>(28-C24)*16-(D24/7)+O24</f>
+        <f t="shared" si="1"/>
         <v>207.71428571428572</v>
       </c>
       <c r="Q24" s="85">
-        <f>L24+M24+N24</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="R24" s="85">
-        <f>(28-C24)*16-(D24/7)+Q24</f>
+        <f t="shared" si="3"/>
         <v>198.71428571428572</v>
       </c>
       <c r="S24" s="102">
         <v>500000</v>
       </c>
       <c r="T24" s="102">
-        <f>S24/O24</f>
+        <f t="shared" si="4"/>
         <v>11363.636363636364</v>
       </c>
     </row>
-    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="103" t="s">
         <v>299</v>
       </c>
@@ -6280,30 +6280,30 @@
         <v>5</v>
       </c>
       <c r="O25" s="85">
-        <f>N25+L25+K25+M25</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="P25" s="85">
-        <f>(28-C25)*16-(D25/7)+O25</f>
+        <f t="shared" si="1"/>
         <v>207.42857142857142</v>
       </c>
       <c r="Q25" s="85">
-        <f>L25+M25+N25</f>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="R25" s="85">
-        <f>(28-C25)*16-(D25/7)+Q25</f>
+        <f t="shared" si="3"/>
         <v>198.42857142857142</v>
       </c>
       <c r="S25" s="102">
         <v>650000</v>
       </c>
       <c r="T25" s="102">
-        <f>S25/O25</f>
+        <f t="shared" si="4"/>
         <v>11818.181818181818</v>
       </c>
     </row>
-    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="85" t="s">
         <v>279</v>
       </c>
@@ -6347,26 +6347,26 @@
         <v>3</v>
       </c>
       <c r="O26" s="85">
-        <f>N26+L26+K26+M26</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="P26" s="85">
-        <f>(28-C26)*16-(D26/7)+O26</f>
+        <f t="shared" si="1"/>
         <v>206.71428571428572</v>
       </c>
       <c r="Q26" s="85">
-        <f>L26+M26+N26</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="R26" s="85">
-        <f>(28-C26)*16-(D26/7)+Q26</f>
+        <f t="shared" si="3"/>
         <v>197.71428571428572</v>
       </c>
       <c r="S26" s="102">
         <v>630000</v>
       </c>
       <c r="T26" s="102">
-        <f>S26/O26</f>
+        <f t="shared" si="4"/>
         <v>13695.652173913044</v>
       </c>
     </row>
@@ -6414,30 +6414,30 @@
         <v>1</v>
       </c>
       <c r="O27" s="85">
-        <f>N27+L27+K27+M27</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="P27" s="85">
-        <f>(28-C27)*16-(D27/7)+O27</f>
+        <f t="shared" si="1"/>
         <v>206.71428571428572</v>
       </c>
       <c r="Q27" s="85">
-        <f>L27+M27+N27</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="R27" s="85">
-        <f>(28-C27)*16-(D27/7)+Q27</f>
+        <f t="shared" si="3"/>
         <v>197.71428571428572</v>
       </c>
       <c r="S27" s="102">
         <v>800000</v>
       </c>
       <c r="T27" s="102">
-        <f>S27/O27</f>
+        <f t="shared" si="4"/>
         <v>18181.81818181818</v>
       </c>
     </row>
-    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="103" t="s">
         <v>304</v>
       </c>
@@ -6481,30 +6481,30 @@
         <v>6</v>
       </c>
       <c r="O28" s="85">
-        <f>N28+L28+K28+M28</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="P28" s="85">
-        <f>(28-C28)*16-(D28/7)+O28</f>
+        <f t="shared" si="1"/>
         <v>206.57142857142858</v>
       </c>
       <c r="Q28" s="85">
-        <f>L28+M28+N28</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="R28" s="85">
-        <f>(28-C28)*16-(D28/7)+Q28</f>
+        <f t="shared" si="3"/>
         <v>197.57142857142858</v>
       </c>
       <c r="S28" s="102">
         <v>800000</v>
       </c>
       <c r="T28" s="102">
-        <f>S28/O28</f>
+        <f t="shared" si="4"/>
         <v>13559.322033898305</v>
       </c>
     </row>
-    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="85" t="s">
         <v>289</v>
       </c>
@@ -6545,26 +6545,26 @@
         <v>2</v>
       </c>
       <c r="O29" s="85">
-        <f>N29+L29+K29+M29</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="P29" s="85">
-        <f>(28-C29)*16-(D29/7)+O29</f>
+        <f t="shared" si="1"/>
         <v>203.57142857142858</v>
       </c>
       <c r="Q29" s="85">
-        <f>L29+M29+N29</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="R29" s="85">
-        <f>(28-C29)*16-(D29/7)+Q29</f>
+        <f t="shared" si="3"/>
         <v>197.57142857142858</v>
       </c>
       <c r="S29" s="102">
         <v>400000</v>
       </c>
       <c r="T29" s="102">
-        <f>S29/O29</f>
+        <f t="shared" si="4"/>
         <v>11111.111111111111</v>
       </c>
     </row>
@@ -6612,30 +6612,30 @@
         <v>2</v>
       </c>
       <c r="O30" s="85">
-        <f>N30+L30+K30+M30</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="P30" s="85">
-        <f>(28-C30)*16-(D30/7)+O30</f>
+        <f t="shared" si="1"/>
         <v>205.85714285714286</v>
       </c>
       <c r="Q30" s="85">
-        <f>L30+M30+N30</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="R30" s="85">
-        <f>(28-C30)*16-(D30/7)+Q30</f>
+        <f t="shared" si="3"/>
         <v>196.85714285714286</v>
       </c>
       <c r="S30" s="102">
         <v>1500000</v>
       </c>
       <c r="T30" s="102">
-        <f>S30/O30</f>
+        <f t="shared" si="4"/>
         <v>25423.728813559323</v>
       </c>
     </row>
-    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="85" t="s">
         <v>274</v>
       </c>
@@ -6679,30 +6679,30 @@
         <v>3</v>
       </c>
       <c r="O31" s="85">
-        <f>N31+L31+K31+M31</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="P31" s="85">
-        <f>(28-C31)*16-(D31/7)+O31</f>
+        <f t="shared" si="1"/>
         <v>205.85714285714286</v>
       </c>
       <c r="Q31" s="85">
-        <f>L31+M31+N31</f>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="R31" s="85">
-        <f>(28-C31)*16-(D31/7)+Q31</f>
+        <f t="shared" si="3"/>
         <v>196.85714285714286</v>
       </c>
       <c r="S31" s="102">
         <v>800000</v>
       </c>
       <c r="T31" s="102">
-        <f>S31/O31</f>
+        <f t="shared" si="4"/>
         <v>15384.615384615385</v>
       </c>
     </row>
-    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="85" t="s">
         <v>296</v>
       </c>
@@ -6746,30 +6746,30 @@
         <v>2</v>
       </c>
       <c r="O32" s="85">
-        <f>N32+L32+K32+M32</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="P32" s="85">
-        <f>(28-C32)*16-(D32/7)+O32</f>
+        <f t="shared" si="1"/>
         <v>205.28571428571428</v>
       </c>
       <c r="Q32" s="85">
-        <f>L32+M32+N32</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="R32" s="85">
-        <f>(28-C32)*16-(D32/7)+Q32</f>
+        <f t="shared" si="3"/>
         <v>196.28571428571428</v>
       </c>
       <c r="S32" s="102">
         <v>1500000</v>
       </c>
       <c r="T32" s="102">
-        <f>S32/O32</f>
+        <f t="shared" si="4"/>
         <v>30612.244897959183</v>
       </c>
     </row>
-    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="85" t="s">
         <v>339</v>
       </c>
@@ -6813,30 +6813,30 @@
         <v>7</v>
       </c>
       <c r="O33" s="85">
-        <f>N33+L33+K33+M33</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="P33" s="85">
-        <f>(28-C33)*16-(D33/7)+O33</f>
+        <f t="shared" si="1"/>
         <v>195.57142857142858</v>
       </c>
       <c r="Q33" s="85">
-        <f>L33+M33+N33</f>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="R33" s="85">
-        <f>(28-C33)*16-(D33/7)+Q33</f>
+        <f t="shared" si="3"/>
         <v>193.57142857142858</v>
       </c>
       <c r="S33" s="102">
         <v>1040308.55007257</v>
       </c>
       <c r="T33" s="102">
-        <f>S33/O33</f>
+        <f t="shared" si="4"/>
         <v>18914.700910410364</v>
       </c>
     </row>
-    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="103" t="s">
         <v>283</v>
       </c>
@@ -6877,30 +6877,30 @@
         <v>0</v>
       </c>
       <c r="O34" s="85">
-        <f>N34+L34+K34+M34</f>
+        <f t="shared" ref="O34:O65" si="5">N34+L34+K34+M34</f>
         <v>61</v>
       </c>
       <c r="P34" s="85">
-        <f>(28-C34)*16-(D34/7)+O34</f>
+        <f t="shared" ref="P34:P65" si="6">(28-C34)*16-(D34/7)+O34</f>
         <v>206.42857142857142</v>
       </c>
       <c r="Q34" s="85">
-        <f>L34+M34+N34</f>
+        <f t="shared" ref="Q34:Q62" si="7">L34+M34+N34</f>
         <v>48</v>
       </c>
       <c r="R34" s="85">
-        <f>(28-C34)*16-(D34/7)+Q34</f>
+        <f t="shared" ref="R34:R65" si="8">(28-C34)*16-(D34/7)+Q34</f>
         <v>193.42857142857142</v>
       </c>
       <c r="S34" s="102">
         <v>1450007</v>
       </c>
       <c r="T34" s="102">
-        <f>S34/O34</f>
+        <f t="shared" ref="T34:T65" si="9">S34/O34</f>
         <v>23770.60655737705</v>
       </c>
     </row>
-    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="85" t="s">
         <v>337</v>
       </c>
@@ -6944,30 +6944,30 @@
         <v>1</v>
       </c>
       <c r="O35" s="85">
-        <f>N35+L35+K35+M35</f>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="P35" s="85">
-        <f>(28-C35)*16-(D35/7)+O35</f>
+        <f t="shared" si="6"/>
         <v>201.42857142857142</v>
       </c>
       <c r="Q35" s="85">
-        <f>L35+M35+N35</f>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
       <c r="R35" s="85">
-        <f>(28-C35)*16-(D35/7)+Q35</f>
+        <f t="shared" si="8"/>
         <v>192.42857142857142</v>
       </c>
       <c r="S35" s="102">
         <v>1600000</v>
       </c>
       <c r="T35" s="102">
-        <f>S35/O35</f>
+        <f t="shared" si="9"/>
         <v>33333.333333333336</v>
       </c>
     </row>
-    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="85" t="s">
         <v>288</v>
       </c>
@@ -7008,30 +7008,30 @@
         <v>2</v>
       </c>
       <c r="O36" s="85">
-        <f>N36+L36+K36+M36</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="P36" s="85">
-        <f>(28-C36)*16-(D36/7)+O36</f>
+        <f t="shared" si="6"/>
         <v>198.28571428571428</v>
       </c>
       <c r="Q36" s="85">
-        <f>L36+M36+N36</f>
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
       <c r="R36" s="85">
-        <f>(28-C36)*16-(D36/7)+Q36</f>
+        <f t="shared" si="8"/>
         <v>192.28571428571428</v>
       </c>
       <c r="S36" s="102">
         <v>2000000</v>
       </c>
       <c r="T36" s="102">
-        <f>S36/O36</f>
+        <f t="shared" si="9"/>
         <v>38461.538461538461</v>
       </c>
     </row>
-    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="103" t="s">
         <v>298</v>
       </c>
@@ -7075,30 +7075,30 @@
         <v>8</v>
       </c>
       <c r="O37" s="85">
-        <f>N37+L37+K37+M37</f>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="P37" s="85">
-        <f>(28-C37)*16-(D37/7)+O37</f>
+        <f t="shared" si="6"/>
         <v>210.14285714285714</v>
       </c>
       <c r="Q37" s="85">
-        <f>L37+M37+N37</f>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="R37" s="85">
-        <f>(28-C37)*16-(D37/7)+Q37</f>
+        <f t="shared" si="8"/>
         <v>192.14285714285714</v>
       </c>
       <c r="S37" s="102">
         <v>150000</v>
       </c>
       <c r="T37" s="102">
-        <f>S37/O37</f>
+        <f t="shared" si="9"/>
         <v>2586.2068965517242</v>
       </c>
     </row>
-    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="104" t="s">
         <v>322</v>
       </c>
@@ -7139,30 +7139,30 @@
         <v>-1</v>
       </c>
       <c r="O38" s="85">
-        <f>N38+L38+K38+M38</f>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="P38" s="85">
-        <f>(28-C38)*16-(D38/7)+O38</f>
+        <f t="shared" si="6"/>
         <v>209.85714285714286</v>
       </c>
       <c r="Q38" s="85">
-        <f>L38+M38+N38</f>
+        <f t="shared" si="7"/>
         <v>47</v>
       </c>
       <c r="R38" s="85">
-        <f>(28-C38)*16-(D38/7)+Q38</f>
+        <f t="shared" si="8"/>
         <v>191.85714285714286</v>
       </c>
       <c r="S38" s="102">
         <v>975000</v>
       </c>
       <c r="T38" s="102">
-        <f>S38/O38</f>
+        <f t="shared" si="9"/>
         <v>15000</v>
       </c>
     </row>
-    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="85" t="s">
         <v>261</v>
       </c>
@@ -7206,30 +7206,30 @@
         <v>-1</v>
       </c>
       <c r="O39" s="85">
-        <f>N39+L39+K39+M39</f>
+        <f t="shared" si="5"/>
         <v>77</v>
       </c>
       <c r="P39" s="85">
-        <f>(28-C39)*16-(D39/7)+O39</f>
+        <f t="shared" si="6"/>
         <v>209.57142857142858</v>
       </c>
       <c r="Q39" s="85">
-        <f>L39+M39+N39</f>
+        <f t="shared" si="7"/>
         <v>59</v>
       </c>
       <c r="R39" s="85">
-        <f>(28-C39)*16-(D39/7)+Q39</f>
+        <f t="shared" si="8"/>
         <v>191.57142857142858</v>
       </c>
       <c r="S39" s="102">
         <v>3200000</v>
       </c>
       <c r="T39" s="102">
-        <f>S39/O39</f>
+        <f t="shared" si="9"/>
         <v>41558.441558441562</v>
       </c>
     </row>
-    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="94" t="s">
         <v>309</v>
       </c>
@@ -7273,30 +7273,30 @@
         <v>-1</v>
       </c>
       <c r="O40" s="85">
-        <f>N40+L40+K40+M40</f>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="P40" s="85">
-        <f>(28-C40)*16-(D40/7)+O40</f>
+        <f t="shared" si="6"/>
         <v>193.85714285714286</v>
       </c>
       <c r="Q40" s="85">
-        <f>L40+M40+N40</f>
+        <f t="shared" si="7"/>
         <v>58</v>
       </c>
       <c r="R40" s="85">
-        <f>(28-C40)*16-(D40/7)+Q40</f>
+        <f t="shared" si="8"/>
         <v>190.85714285714286</v>
       </c>
       <c r="S40" s="102">
         <v>3700000</v>
       </c>
       <c r="T40" s="102">
-        <f>S40/O40</f>
+        <f t="shared" si="9"/>
         <v>60655.737704918036</v>
       </c>
     </row>
-    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="94" t="s">
         <v>301</v>
       </c>
@@ -7340,30 +7340,30 @@
         <v>4</v>
       </c>
       <c r="O41" s="85">
-        <f>N41+L41+K41+M41</f>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="P41" s="85">
-        <f>(28-C41)*16-(D41/7)+O41</f>
+        <f t="shared" si="6"/>
         <v>208.71428571428572</v>
       </c>
       <c r="Q41" s="85">
-        <f>L41+M41+N41</f>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="R41" s="85">
-        <f>(28-C41)*16-(D41/7)+Q41</f>
+        <f t="shared" si="8"/>
         <v>190.71428571428572</v>
       </c>
       <c r="S41" s="102">
         <v>150000</v>
       </c>
       <c r="T41" s="102">
-        <f>S41/O41</f>
+        <f t="shared" si="9"/>
         <v>2777.7777777777778</v>
       </c>
     </row>
-    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="85" t="s">
         <v>276</v>
       </c>
@@ -7407,30 +7407,30 @@
         <v>3</v>
       </c>
       <c r="O42" s="85">
-        <f>N42+L42+K42+M42</f>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
       <c r="P42" s="85">
-        <f>(28-C42)*16-(D42/7)+O42</f>
+        <f t="shared" si="6"/>
         <v>199.57142857142858</v>
       </c>
       <c r="Q42" s="85">
-        <f>L42+M42+N42</f>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="R42" s="85">
-        <f>(28-C42)*16-(D42/7)+Q42</f>
+        <f t="shared" si="8"/>
         <v>190.57142857142858</v>
       </c>
       <c r="S42" s="102">
         <v>450000</v>
       </c>
       <c r="T42" s="102">
-        <f>S42/O42</f>
+        <f t="shared" si="9"/>
         <v>9782.608695652174</v>
       </c>
     </row>
-    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="85" t="s">
         <v>336</v>
       </c>
@@ -7474,30 +7474,30 @@
         <v>-1</v>
       </c>
       <c r="O43" s="85">
-        <f>N43+L43+K43+M43</f>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="P43" s="85">
-        <f>(28-C43)*16-(D43/7)+O43</f>
+        <f t="shared" si="6"/>
         <v>195.14285714285714</v>
       </c>
       <c r="Q43" s="85">
-        <f>L43+M43+N43</f>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="R43" s="85">
-        <f>(28-C43)*16-(D43/7)+Q43</f>
+        <f t="shared" si="8"/>
         <v>189.14285714285714</v>
       </c>
       <c r="S43" s="102">
         <v>2000000</v>
       </c>
       <c r="T43" s="102">
-        <f>S43/O43</f>
+        <f t="shared" si="9"/>
         <v>48780.487804878052</v>
       </c>
     </row>
-    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="85" t="s">
         <v>273</v>
       </c>
@@ -7541,30 +7541,30 @@
         <v>0</v>
       </c>
       <c r="O44" s="85">
-        <f>N44+L44+K44+M44</f>
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
       <c r="P44" s="85">
-        <f>(28-C44)*16-(D44/7)+O44</f>
+        <f t="shared" si="6"/>
         <v>198.14285714285714</v>
       </c>
       <c r="Q44" s="85">
-        <f>L44+M44+N44</f>
+        <f t="shared" si="7"/>
         <v>34</v>
       </c>
       <c r="R44" s="85">
-        <f>(28-C44)*16-(D44/7)+Q44</f>
+        <f t="shared" si="8"/>
         <v>189.14285714285714</v>
       </c>
       <c r="S44" s="102">
         <v>240000</v>
       </c>
       <c r="T44" s="102">
-        <f>S44/O44</f>
+        <f t="shared" si="9"/>
         <v>5581.395348837209</v>
       </c>
     </row>
-    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="85" t="s">
         <v>353</v>
       </c>
@@ -7608,30 +7608,30 @@
         <v>4</v>
       </c>
       <c r="O45" s="85">
-        <f>N45+L45+K45+M45</f>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
       <c r="P45" s="85">
-        <f>(28-C45)*16-(D45/7)+O45</f>
+        <f t="shared" si="6"/>
         <v>202</v>
       </c>
       <c r="Q45" s="85">
-        <f>L45+M45+N45</f>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="R45" s="85">
-        <f>(28-C45)*16-(D45/7)+Q45</f>
+        <f t="shared" si="8"/>
         <v>189</v>
       </c>
       <c r="S45" s="102">
         <v>200000</v>
       </c>
       <c r="T45" s="102">
-        <f>S45/O45</f>
+        <f t="shared" si="9"/>
         <v>4081.6326530612246</v>
       </c>
     </row>
-    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="85" t="s">
         <v>303</v>
       </c>
@@ -7675,30 +7675,30 @@
         <v>3</v>
       </c>
       <c r="O46" s="85">
-        <f>N46+L46+K46+M46</f>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="P46" s="85">
-        <f>(28-C46)*16-(D46/7)+O46</f>
+        <f t="shared" si="6"/>
         <v>197.85714285714286</v>
       </c>
       <c r="Q46" s="85">
-        <f>L46+M46+N46</f>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
       <c r="R46" s="85">
-        <f>(28-C46)*16-(D46/7)+Q46</f>
+        <f t="shared" si="8"/>
         <v>188.85714285714286</v>
       </c>
       <c r="S46" s="102">
         <v>200000</v>
       </c>
       <c r="T46" s="102">
-        <f>S46/O46</f>
+        <f t="shared" si="9"/>
         <v>4166.666666666667</v>
       </c>
     </row>
-    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="85" t="s">
         <v>267</v>
       </c>
@@ -7742,26 +7742,26 @@
         <v>1</v>
       </c>
       <c r="O47" s="85">
-        <f>N47+L47+K47+M47</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="P47" s="85">
-        <f>(28-C47)*16-(D47/7)+O47</f>
+        <f t="shared" si="6"/>
         <v>193.14285714285714</v>
       </c>
       <c r="Q47" s="85">
-        <f>L47+M47+N47</f>
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
       <c r="R47" s="85">
-        <f>(28-C47)*16-(D47/7)+Q47</f>
+        <f t="shared" si="8"/>
         <v>187.14285714285714</v>
       </c>
       <c r="S47" s="102">
         <v>1350000</v>
       </c>
       <c r="T47" s="102">
-        <f>S47/O47</f>
+        <f t="shared" si="9"/>
         <v>25961.538461538461</v>
       </c>
     </row>
@@ -7809,30 +7809,30 @@
         <v>2</v>
       </c>
       <c r="O48" s="85">
-        <f>N48+L48+K48+M48</f>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="P48" s="85">
-        <f>(28-C48)*16-(D48/7)+O48</f>
+        <f t="shared" si="6"/>
         <v>203.28571428571428</v>
       </c>
       <c r="Q48" s="85">
-        <f>L48+M48+N48</f>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="R48" s="85">
-        <f>(28-C48)*16-(D48/7)+Q48</f>
+        <f t="shared" si="8"/>
         <v>185.28571428571428</v>
       </c>
       <c r="S48" s="102">
         <v>1550000</v>
       </c>
       <c r="T48" s="102">
-        <f>S48/O48</f>
+        <f t="shared" si="9"/>
         <v>22794.117647058825</v>
       </c>
     </row>
-    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="85" t="s">
         <v>352</v>
       </c>
@@ -7876,30 +7876,30 @@
         <v>1</v>
       </c>
       <c r="O49" s="85">
-        <f>N49+L49+K49+M49</f>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
       <c r="P49" s="85">
-        <f>(28-C49)*16-(D49/7)+O49</f>
+        <f t="shared" si="6"/>
         <v>198</v>
       </c>
       <c r="Q49" s="85">
-        <f>L49+M49+N49</f>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
       <c r="R49" s="85">
-        <f>(28-C49)*16-(D49/7)+Q49</f>
+        <f t="shared" si="8"/>
         <v>185</v>
       </c>
       <c r="S49" s="102">
         <v>2500000</v>
       </c>
       <c r="T49" s="102">
-        <f>S49/O49</f>
+        <f t="shared" si="9"/>
         <v>54347.82608695652</v>
       </c>
     </row>
-    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="85" t="s">
         <v>329</v>
       </c>
@@ -7943,30 +7943,30 @@
         <v>1</v>
       </c>
       <c r="O50" s="85">
-        <f>N50+L50+K50+M50</f>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="P50" s="85">
-        <f>(28-C50)*16-(D50/7)+O50</f>
+        <f t="shared" si="6"/>
         <v>196.42857142857142</v>
       </c>
       <c r="Q50" s="85">
-        <f>L50+M50+N50</f>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="R50" s="85">
-        <f>(28-C50)*16-(D50/7)+Q50</f>
+        <f t="shared" si="8"/>
         <v>183.42857142857142</v>
       </c>
       <c r="S50" s="102">
         <v>2350000</v>
       </c>
       <c r="T50" s="102">
-        <f>S50/O50</f>
+        <f t="shared" si="9"/>
         <v>47000</v>
       </c>
     </row>
-    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="85" t="s">
         <v>317</v>
       </c>
@@ -8010,30 +8010,30 @@
         <v>2</v>
       </c>
       <c r="O51" s="85">
-        <f>N51+L51+K51+M51</f>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="P51" s="85">
-        <f>(28-C51)*16-(D51/7)+O51</f>
+        <f t="shared" si="6"/>
         <v>196.28571428571428</v>
       </c>
       <c r="Q51" s="85">
-        <f>L51+M51+N51</f>
+        <f t="shared" si="7"/>
         <v>43</v>
       </c>
       <c r="R51" s="85">
-        <f>(28-C51)*16-(D51/7)+Q51</f>
+        <f t="shared" si="8"/>
         <v>183.28571428571428</v>
       </c>
       <c r="S51" s="102">
         <v>3000000</v>
       </c>
       <c r="T51" s="102">
-        <f>S51/O51</f>
+        <f t="shared" si="9"/>
         <v>53571.428571428572</v>
       </c>
     </row>
-    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="103" t="s">
         <v>286</v>
       </c>
@@ -8077,26 +8077,26 @@
         <v>1</v>
       </c>
       <c r="O52" s="85">
-        <f>N52+L52+K52+M52</f>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="P52" s="85">
-        <f>(28-C52)*16-(D52/7)+O52</f>
+        <f t="shared" si="6"/>
         <v>205.28571428571428</v>
       </c>
       <c r="Q52" s="85">
-        <f>L52+M52+N52</f>
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
       <c r="R52" s="85">
-        <f>(28-C52)*16-(D52/7)+Q52</f>
+        <f t="shared" si="8"/>
         <v>182.28571428571428</v>
       </c>
       <c r="S52" s="102">
         <v>450000</v>
       </c>
       <c r="T52" s="102">
-        <f>S52/O52</f>
+        <f t="shared" si="9"/>
         <v>7377.0491803278692</v>
       </c>
     </row>
@@ -8144,26 +8144,26 @@
         <v>-1</v>
       </c>
       <c r="O53" s="85">
-        <f>N53+L53+K53+M53</f>
+        <f t="shared" si="5"/>
         <v>86</v>
       </c>
       <c r="P53" s="85">
-        <f>(28-C53)*16-(D53/7)+O53</f>
+        <f t="shared" si="6"/>
         <v>217.42857142857142</v>
       </c>
       <c r="Q53" s="85">
-        <f>L53+M53+N53</f>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="R53" s="85">
-        <f>(28-C53)*16-(D53/7)+Q53</f>
+        <f t="shared" si="8"/>
         <v>181.42857142857142</v>
       </c>
       <c r="S53" s="102">
         <v>4000000</v>
       </c>
       <c r="T53" s="102">
-        <f>S53/O53</f>
+        <f t="shared" si="9"/>
         <v>46511.627906976741</v>
       </c>
     </row>
@@ -8211,30 +8211,30 @@
         <v>8</v>
       </c>
       <c r="O54" s="85">
-        <f>N54+L54+K54+M54</f>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="P54" s="85">
-        <f>(28-C54)*16-(D54/7)+O54</f>
+        <f t="shared" si="6"/>
         <v>194.42857142857142</v>
       </c>
       <c r="Q54" s="85">
-        <f>L54+M54+N54</f>
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
       <c r="R54" s="85">
-        <f>(28-C54)*16-(D54/7)+Q54</f>
+        <f t="shared" si="8"/>
         <v>181.42857142857142</v>
       </c>
       <c r="S54" s="102">
         <v>300000</v>
       </c>
       <c r="T54" s="102">
-        <f>S54/O54</f>
+        <f t="shared" si="9"/>
         <v>5084.7457627118647</v>
       </c>
     </row>
-    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="85" t="s">
         <v>331</v>
       </c>
@@ -8278,30 +8278,30 @@
         <v>1</v>
       </c>
       <c r="O55" s="85">
-        <f>N55+L55+K55+M55</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="P55" s="85">
-        <f>(28-C55)*16-(D55/7)+O55</f>
+        <f t="shared" si="6"/>
         <v>184.42857142857142</v>
       </c>
       <c r="Q55" s="85">
-        <f>L55+M55+N55</f>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="R55" s="85">
-        <f>(28-C55)*16-(D55/7)+Q55</f>
+        <f t="shared" si="8"/>
         <v>181.42857142857142</v>
       </c>
       <c r="S55" s="102">
         <v>800000</v>
       </c>
       <c r="T55" s="102">
-        <f>S55/O55</f>
+        <f t="shared" si="9"/>
         <v>20000</v>
       </c>
     </row>
-    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="85" t="s">
         <v>333</v>
       </c>
@@ -8345,30 +8345,30 @@
         <v>0</v>
       </c>
       <c r="O56" s="85">
-        <f>N56+L56+K56+M56</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="P56" s="85">
-        <f>(28-C56)*16-(D56/7)+O56</f>
+        <f t="shared" si="6"/>
         <v>203.28571428571428</v>
       </c>
       <c r="Q56" s="85">
-        <f>L56+M56+N56</f>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="R56" s="85">
-        <f>(28-C56)*16-(D56/7)+Q56</f>
+        <f t="shared" si="8"/>
         <v>180.28571428571428</v>
       </c>
       <c r="S56" s="102">
         <v>800000</v>
       </c>
       <c r="T56" s="102">
-        <f>S56/O56</f>
+        <f t="shared" si="9"/>
         <v>13333.333333333334</v>
       </c>
     </row>
-    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="85" t="s">
         <v>254</v>
       </c>
@@ -8409,30 +8409,30 @@
         <v>0</v>
       </c>
       <c r="O57" s="85">
-        <f>N57+L57+K57+M57</f>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="P57" s="85">
-        <f>(28-C57)*16-(D57/7)+O57</f>
+        <f t="shared" si="6"/>
         <v>193.14285714285714</v>
       </c>
       <c r="Q57" s="85">
-        <f>L57+M57+N57</f>
+        <f t="shared" si="7"/>
         <v>51</v>
       </c>
       <c r="R57" s="85">
-        <f>(28-C57)*16-(D57/7)+Q57</f>
+        <f t="shared" si="8"/>
         <v>180.14285714285714</v>
       </c>
       <c r="S57" s="102">
         <v>1000000</v>
       </c>
       <c r="T57" s="102">
-        <f>S57/O57</f>
+        <f t="shared" si="9"/>
         <v>15625</v>
       </c>
     </row>
-    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="85" t="s">
         <v>265</v>
       </c>
@@ -8476,26 +8476,26 @@
         <v>-1</v>
       </c>
       <c r="O58" s="85">
-        <f>N58+L58+K58+M58</f>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
       <c r="P58" s="85">
-        <f>(28-C58)*16-(D58/7)+O58</f>
+        <f t="shared" si="6"/>
         <v>182.85714285714286</v>
       </c>
       <c r="Q58" s="85">
-        <f>L58+M58+N58</f>
+        <f t="shared" si="7"/>
         <v>41</v>
       </c>
       <c r="R58" s="85">
-        <f>(28-C58)*16-(D58/7)+Q58</f>
+        <f t="shared" si="8"/>
         <v>179.85714285714286</v>
       </c>
       <c r="S58" s="102">
         <v>1100000</v>
       </c>
       <c r="T58" s="102">
-        <f>S58/O58</f>
+        <f t="shared" si="9"/>
         <v>25000</v>
       </c>
     </row>
@@ -8543,30 +8543,30 @@
         <v>0</v>
       </c>
       <c r="O59" s="85">
-        <f>N59+L59+K59+M59</f>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
       <c r="P59" s="85">
-        <f>(28-C59)*16-(D59/7)+O59</f>
+        <f t="shared" si="6"/>
         <v>182.71428571428572</v>
       </c>
       <c r="Q59" s="85">
-        <f>L59+M59+N59</f>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
       <c r="R59" s="85">
-        <f>(28-C59)*16-(D59/7)+Q59</f>
+        <f t="shared" si="8"/>
         <v>179.71428571428572</v>
       </c>
       <c r="S59" s="102">
         <v>1400000</v>
       </c>
       <c r="T59" s="102">
-        <f>S59/O59</f>
+        <f t="shared" si="9"/>
         <v>33333.333333333336</v>
       </c>
     </row>
-    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="85" t="s">
         <v>263</v>
       </c>
@@ -8610,30 +8610,30 @@
         <v>0</v>
       </c>
       <c r="O60" s="85">
-        <f>N60+L60+K60+M60</f>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
       <c r="P60" s="85">
-        <f>(28-C60)*16-(D60/7)+O60</f>
+        <f t="shared" si="6"/>
         <v>176.14285714285714</v>
       </c>
       <c r="Q60" s="85">
-        <f>L60+M60+N60</f>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
       <c r="R60" s="85">
-        <f>(28-C60)*16-(D60/7)+Q60</f>
+        <f t="shared" si="8"/>
         <v>176.14285714285714</v>
       </c>
       <c r="S60" s="102">
         <v>1500000</v>
       </c>
       <c r="T60" s="102">
-        <f>S60/O60</f>
+        <f t="shared" si="9"/>
         <v>35714.285714285717</v>
       </c>
     </row>
-    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="85" t="s">
         <v>335</v>
       </c>
@@ -8677,30 +8677,30 @@
         <v>2</v>
       </c>
       <c r="O61" s="85">
-        <f>N61+L61+K61+M61</f>
+        <f t="shared" si="5"/>
         <v>84</v>
       </c>
       <c r="P61" s="85">
-        <f>(28-C61)*16-(D61/7)+O61</f>
+        <f t="shared" si="6"/>
         <v>219.71428571428572</v>
       </c>
       <c r="Q61" s="85">
-        <f>L61+M61+N61</f>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="R61" s="85">
-        <f>(28-C61)*16-(D61/7)+Q61</f>
+        <f t="shared" si="8"/>
         <v>175.71428571428572</v>
       </c>
       <c r="S61" s="102">
         <v>2000000</v>
       </c>
       <c r="T61" s="102">
-        <f>S61/O61</f>
+        <f t="shared" si="9"/>
         <v>23809.523809523809</v>
       </c>
     </row>
-    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="85" t="s">
         <v>282</v>
       </c>
@@ -8741,37 +8741,30 @@
         <v>2</v>
       </c>
       <c r="O62" s="85">
-        <f>N62+L62+K62+M62</f>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="P62" s="85">
-        <f>(28-C62)*16-(D62/7)+O62</f>
+        <f t="shared" si="6"/>
         <v>216.85714285714286</v>
       </c>
       <c r="Q62" s="85">
-        <f>L62+M62+N62</f>
+        <f t="shared" si="7"/>
         <v>31</v>
       </c>
       <c r="R62" s="85">
-        <f>(28-C62)*16-(D62/7)+Q62</f>
+        <f t="shared" si="8"/>
         <v>172.85714285714286</v>
       </c>
       <c r="S62" s="102">
         <v>2000000</v>
       </c>
       <c r="T62" s="102">
-        <f>S62/O62</f>
+        <f t="shared" si="9"/>
         <v>26666.666666666668</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T62" xr:uid="{A6CFE25B-B022-4840-886C-3E19FFA11C9B}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="IMP"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <sortState ref="A2:T62">
     <sortCondition descending="1" ref="R2:R62"/>
     <sortCondition descending="1" ref="Q2:Q62"/>

--- a/projects/current/hattrick/z-TirosLejanos.xlsx
+++ b/projects/current/hattrick/z-TirosLejanos.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C114DFB-CDE5-4CA9-9988-C6B0BB07EEA1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802F7605-C8BC-44CE-890C-8A0C33393064}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipoPerikas" sheetId="5" r:id="rId1"/>
@@ -22,14 +22,14 @@
     <sheet name="Entrenamiento" sheetId="8" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">FICHAR!$A$1:$T$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">FICHAR!$A$1:$T$64</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="364">
   <si>
     <t>at-central</t>
   </si>
@@ -1193,6 +1193,18 @@
   <si>
     <t>Ian Stone</t>
   </si>
+  <si>
+    <t>Jose Nuno Batista Almeida</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 杨 (Yang) 凯贵 (Kaigui)</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
 </sst>
 </file>
 
@@ -1207,7 +1219,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1321,18 +1333,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1414,6 +1419,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1526,7 +1543,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1746,13 +1763,7 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1763,6 +1774,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3325,8 +3345,8 @@
   </sheetPr>
   <dimension ref="A2:AB23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AD26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4028,7 +4048,7 @@
       <c r="C16" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="D16" s="105" t="s">
+      <c r="D16" s="103" t="s">
         <v>346</v>
       </c>
       <c r="E16" s="23">
@@ -4627,15 +4647,15 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:T62"/>
+  <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" style="85" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" style="94" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="85" customWidth="1"/>
     <col min="3" max="3" width="5.42578125" style="85" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.7109375" style="85" bestFit="1" customWidth="1"/>
@@ -4655,7 +4675,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="107" t="s">
         <v>243</v>
       </c>
       <c r="B1" s="101" t="s">
@@ -4717,604 +4737,601 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
-        <v>321</v>
+      <c r="A2" s="94" t="s">
+        <v>335</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>308</v>
+        <v>260</v>
       </c>
       <c r="C2" s="85">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="85">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="E2" s="85">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>269</v>
       </c>
       <c r="G2" s="29">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H2" s="29">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I2" s="29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J2" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K2" s="85">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="L2" s="85">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="M2" s="85">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N2" s="85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O2" s="85">
-        <f t="shared" ref="O2:O33" si="0">N2+L2+K2+M2</f>
-        <v>70</v>
+        <f>N2+L2+K2+M2</f>
+        <v>84</v>
       </c>
       <c r="P2" s="85">
-        <f t="shared" ref="P2:P33" si="1">(28-C2)*16-(D2/7)+O2</f>
-        <v>215.57142857142858</v>
+        <f>(28-C2)*16-(D2/7)+O2</f>
+        <v>219.71428571428572</v>
       </c>
       <c r="Q2" s="85">
-        <f t="shared" ref="Q2:Q33" si="2">L2+M2+N2</f>
-        <v>67</v>
+        <f>L2+M2+N2</f>
+        <v>40</v>
       </c>
       <c r="R2" s="85">
-        <f t="shared" ref="R2:R33" si="3">(28-C2)*16-(D2/7)+Q2</f>
-        <v>212.57142857142858</v>
+        <f>(28-C2)*16-(D2/7)+Q2</f>
+        <v>175.71428571428572</v>
       </c>
       <c r="S2" s="102">
-        <v>3950000</v>
+        <v>2000000</v>
       </c>
       <c r="T2" s="102">
-        <f t="shared" ref="T2:T33" si="4">S2/O2</f>
-        <v>56428.571428571428</v>
+        <f>S2/O2</f>
+        <v>23809.523809523809</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
-        <v>357</v>
+      <c r="A3" s="94" t="s">
+        <v>360</v>
       </c>
       <c r="B3" s="85" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C3" s="85">
         <v>19</v>
       </c>
       <c r="D3" s="85">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E3" s="85">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>183</v>
       </c>
       <c r="G3" s="29">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H3" s="29">
         <v>7</v>
       </c>
       <c r="I3" s="29">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J3" s="29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K3" s="85">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="L3" s="85">
         <v>21</v>
       </c>
       <c r="M3" s="85">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="N3" s="85">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="O3" s="85">
-        <f t="shared" si="0"/>
-        <v>74</v>
+        <f>N3+L3+K3+M3</f>
+        <v>76</v>
       </c>
       <c r="P3" s="85">
-        <f t="shared" si="1"/>
-        <v>215.57142857142858</v>
+        <f>(28-C3)*16-(D3/7)+O3</f>
+        <v>218</v>
       </c>
       <c r="Q3" s="85">
-        <f t="shared" si="2"/>
-        <v>68</v>
+        <f>L3+M3+N3</f>
+        <v>40</v>
       </c>
       <c r="R3" s="85">
-        <f t="shared" si="3"/>
-        <v>209.57142857142858</v>
+        <f>(28-C3)*16-(D3/7)+Q3</f>
+        <v>182</v>
       </c>
       <c r="S3" s="102">
-        <v>3500000</v>
+        <v>3000000</v>
       </c>
       <c r="T3" s="102">
-        <f t="shared" si="4"/>
-        <v>47297.2972972973</v>
+        <f>S3/O3</f>
+        <v>39473.684210526313</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
-        <v>325</v>
+      <c r="A4" s="94" t="s">
+        <v>328</v>
       </c>
       <c r="B4" s="85" t="s">
-        <v>326</v>
+        <v>260</v>
       </c>
       <c r="C4" s="85">
         <v>19</v>
       </c>
       <c r="D4" s="85">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="E4" s="85">
+        <v>2</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="G4" s="29">
+        <v>9</v>
+      </c>
+      <c r="H4" s="29">
+        <v>10</v>
+      </c>
+      <c r="I4" s="29">
         <v>5</v>
       </c>
-      <c r="F4" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="G4" s="29">
+      <c r="J4" s="29">
+        <v>0</v>
+      </c>
+      <c r="K4" s="85">
+        <v>36</v>
+      </c>
+      <c r="L4" s="85">
+        <v>39</v>
+      </c>
+      <c r="M4" s="85">
+        <v>12</v>
+      </c>
+      <c r="N4" s="85">
+        <v>-1</v>
+      </c>
+      <c r="O4" s="85">
+        <f>N4+L4+K4+M4</f>
+        <v>86</v>
+      </c>
+      <c r="P4" s="85">
+        <f>(28-C4)*16-(D4/7)+O4</f>
+        <v>217.42857142857142</v>
+      </c>
+      <c r="Q4" s="85">
+        <f>L4+M4+N4</f>
+        <v>50</v>
+      </c>
+      <c r="R4" s="85">
+        <f>(28-C4)*16-(D4/7)+Q4</f>
+        <v>181.42857142857142</v>
+      </c>
+      <c r="S4" s="102">
+        <v>4000000</v>
+      </c>
+      <c r="T4" s="102">
+        <f>S4/O4</f>
+        <v>46511.627906976741</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="94" t="s">
+        <v>282</v>
+      </c>
+      <c r="B5" s="85" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" s="85">
+        <v>19</v>
+      </c>
+      <c r="D5" s="85">
+        <v>15</v>
+      </c>
+      <c r="E5" s="85">
+        <v>6</v>
+      </c>
+      <c r="G5" s="29">
+        <v>10</v>
+      </c>
+      <c r="H5" s="29">
+        <v>7</v>
+      </c>
+      <c r="I5" s="29">
         <v>4</v>
-      </c>
-      <c r="H4" s="29">
-        <v>11</v>
-      </c>
-      <c r="I4" s="29">
-        <v>6</v>
-      </c>
-      <c r="J4" s="29">
-        <v>4</v>
-      </c>
-      <c r="K4" s="85">
-        <v>9</v>
-      </c>
-      <c r="L4" s="85">
-        <v>47</v>
-      </c>
-      <c r="M4" s="85">
-        <v>16</v>
-      </c>
-      <c r="N4" s="85">
-        <v>3</v>
-      </c>
-      <c r="O4" s="85">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="P4" s="85">
-        <f t="shared" si="1"/>
-        <v>216.71428571428572</v>
-      </c>
-      <c r="Q4" s="85">
-        <f t="shared" si="2"/>
-        <v>66</v>
-      </c>
-      <c r="R4" s="85">
-        <f t="shared" si="3"/>
-        <v>207.71428571428572</v>
-      </c>
-      <c r="S4" s="102">
-        <v>3000000</v>
-      </c>
-      <c r="T4" s="102">
-        <f t="shared" si="4"/>
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
-        <v>356</v>
-      </c>
-      <c r="B5" s="85" t="s">
-        <v>260</v>
-      </c>
-      <c r="C5" s="85">
-        <v>18</v>
-      </c>
-      <c r="D5" s="85">
-        <v>87</v>
-      </c>
-      <c r="E5" s="85">
-        <v>0</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="G5" s="29">
-        <v>2</v>
-      </c>
-      <c r="H5" s="29">
-        <v>8</v>
-      </c>
-      <c r="I5" s="29">
-        <v>9</v>
       </c>
       <c r="J5" s="29">
         <v>3</v>
       </c>
       <c r="K5" s="85">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="L5" s="85">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M5" s="85">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="N5" s="85">
         <v>2</v>
       </c>
       <c r="O5" s="85">
-        <f t="shared" si="0"/>
-        <v>62</v>
+        <f>N5+L5+K5+M5</f>
+        <v>75</v>
       </c>
       <c r="P5" s="85">
-        <f t="shared" si="1"/>
-        <v>209.57142857142858</v>
+        <f>(28-C5)*16-(D5/7)+O5</f>
+        <v>216.85714285714286</v>
       </c>
       <c r="Q5" s="85">
-        <f t="shared" si="2"/>
-        <v>60</v>
+        <f>L5+M5+N5</f>
+        <v>31</v>
       </c>
       <c r="R5" s="85">
-        <f t="shared" si="3"/>
-        <v>207.57142857142858</v>
+        <f>(28-C5)*16-(D5/7)+Q5</f>
+        <v>172.85714285714286</v>
       </c>
       <c r="S5" s="102">
-        <v>1900000</v>
+        <v>2000000</v>
       </c>
       <c r="T5" s="102">
-        <f t="shared" si="4"/>
-        <v>30645.16129032258</v>
+        <f>S5/O5</f>
+        <v>26666.666666666668</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="104" t="s">
-        <v>313</v>
+      <c r="A6" s="94" t="s">
+        <v>325</v>
       </c>
       <c r="B6" s="85" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="C6" s="85">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="85">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="E6" s="85">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>181</v>
+        <v>269</v>
       </c>
       <c r="G6" s="29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H6" s="29">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I6" s="29">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J6" s="29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K6" s="85">
+        <v>9</v>
+      </c>
+      <c r="L6" s="85">
+        <v>47</v>
+      </c>
+      <c r="M6" s="85">
+        <v>16</v>
+      </c>
+      <c r="N6" s="85">
         <v>3</v>
       </c>
-      <c r="L6" s="85">
-        <v>26</v>
-      </c>
-      <c r="M6" s="85">
-        <v>26</v>
-      </c>
-      <c r="N6" s="85">
-        <v>5</v>
-      </c>
       <c r="O6" s="85">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <f>N6+L6+K6+M6</f>
+        <v>75</v>
       </c>
       <c r="P6" s="85">
-        <f t="shared" si="1"/>
-        <v>209.85714285714286</v>
+        <f>(28-C6)*16-(D6/7)+O6</f>
+        <v>216.71428571428572</v>
       </c>
       <c r="Q6" s="85">
-        <f t="shared" si="2"/>
-        <v>57</v>
+        <f>L6+M6+N6</f>
+        <v>66</v>
       </c>
       <c r="R6" s="85">
-        <f t="shared" si="3"/>
-        <v>206.85714285714286</v>
+        <f>(28-C6)*16-(D6/7)+Q6</f>
+        <v>207.71428571428572</v>
       </c>
       <c r="S6" s="102">
-        <v>2500000</v>
+        <v>3000000</v>
       </c>
       <c r="T6" s="102">
-        <f t="shared" si="4"/>
-        <v>41666.666666666664</v>
+        <f>S6/O6</f>
+        <v>40000</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="94" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="B7" s="85" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C7" s="85">
         <v>18</v>
       </c>
       <c r="D7" s="85">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="E7" s="85">
+        <v>0</v>
+      </c>
+      <c r="G7" s="29">
+        <v>2</v>
+      </c>
+      <c r="H7" s="29">
+        <v>11</v>
+      </c>
+      <c r="I7" s="29">
+        <v>7</v>
+      </c>
+      <c r="J7" s="29">
+        <v>1</v>
+      </c>
+      <c r="K7" s="85">
+        <v>3</v>
+      </c>
+      <c r="L7" s="85">
+        <v>47</v>
+      </c>
+      <c r="M7" s="85">
+        <v>20</v>
+      </c>
+      <c r="N7" s="85">
+        <v>0</v>
+      </c>
+      <c r="O7" s="85">
+        <f>N7+L7+K7+M7</f>
+        <v>70</v>
+      </c>
+      <c r="P7" s="85">
+        <f>(28-C7)*16-(D7/7)+O7</f>
+        <v>215.57142857142858</v>
+      </c>
+      <c r="Q7" s="85">
+        <f>L7+M7+N7</f>
+        <v>67</v>
+      </c>
+      <c r="R7" s="85">
+        <f>(28-C7)*16-(D7/7)+Q7</f>
+        <v>212.57142857142858</v>
+      </c>
+      <c r="S7" s="102">
+        <v>3950000</v>
+      </c>
+      <c r="T7" s="102">
+        <f>S7/O7</f>
+        <v>56428.571428571428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="94" t="s">
+        <v>357</v>
+      </c>
+      <c r="B8" s="85" t="s">
+        <v>358</v>
+      </c>
+      <c r="C8" s="85">
+        <v>19</v>
+      </c>
+      <c r="D8" s="85">
+        <v>17</v>
+      </c>
+      <c r="E8" s="85">
+        <v>3</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="G8" s="29">
+        <v>3</v>
+      </c>
+      <c r="H8" s="29">
+        <v>7</v>
+      </c>
+      <c r="I8" s="29">
+        <v>11</v>
+      </c>
+      <c r="J8" s="29">
+        <v>0</v>
+      </c>
+      <c r="K8" s="85">
         <v>6</v>
       </c>
-      <c r="G7" s="29">
+      <c r="L8" s="85">
+        <v>21</v>
+      </c>
+      <c r="M8" s="85">
+        <v>48</v>
+      </c>
+      <c r="N8" s="85">
+        <v>-1</v>
+      </c>
+      <c r="O8" s="85">
+        <f>N8+L8+K8+M8</f>
+        <v>74</v>
+      </c>
+      <c r="P8" s="85">
+        <f>(28-C8)*16-(D8/7)+O8</f>
+        <v>215.57142857142858</v>
+      </c>
+      <c r="Q8" s="85">
+        <f>L8+M8+N8</f>
+        <v>68</v>
+      </c>
+      <c r="R8" s="85">
+        <f>(28-C8)*16-(D8/7)+Q8</f>
+        <v>209.57142857142858</v>
+      </c>
+      <c r="S8" s="102">
+        <v>3500000</v>
+      </c>
+      <c r="T8" s="102">
+        <f>S8/O8</f>
+        <v>47297.2972972973</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="94" t="s">
+        <v>319</v>
+      </c>
+      <c r="B9" s="85" t="s">
+        <v>320</v>
+      </c>
+      <c r="C9" s="85">
+        <v>19</v>
+      </c>
+      <c r="D9" s="85">
+        <v>59</v>
+      </c>
+      <c r="E9" s="85">
         <v>3</v>
       </c>
-      <c r="H7" s="29">
-        <v>10</v>
-      </c>
-      <c r="I7" s="29">
+      <c r="G9" s="29">
         <v>5</v>
       </c>
-      <c r="J7" s="29">
-        <v>2</v>
-      </c>
-      <c r="K7" s="85">
-        <v>6</v>
-      </c>
-      <c r="L7" s="85">
-        <v>39</v>
-      </c>
-      <c r="M7" s="85">
-        <v>12</v>
-      </c>
-      <c r="N7" s="85">
-        <v>1</v>
-      </c>
-      <c r="O7" s="85">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="P7" s="85">
-        <f t="shared" si="1"/>
-        <v>211</v>
-      </c>
-      <c r="Q7" s="85">
-        <f t="shared" si="2"/>
-        <v>52</v>
-      </c>
-      <c r="R7" s="85">
-        <f t="shared" si="3"/>
-        <v>205</v>
-      </c>
-      <c r="S7" s="102">
-        <v>2500000</v>
-      </c>
-      <c r="T7" s="102">
-        <f t="shared" si="4"/>
-        <v>43103.448275862072</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="85" t="s">
-        <v>295</v>
-      </c>
-      <c r="B8" s="85" t="s">
-        <v>255</v>
-      </c>
-      <c r="C8" s="85">
-        <v>18</v>
-      </c>
-      <c r="D8" s="85">
-        <v>92</v>
-      </c>
-      <c r="E8" s="85">
-        <v>5</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="G8" s="29">
-        <v>4</v>
-      </c>
-      <c r="H8" s="29">
-        <v>9</v>
-      </c>
-      <c r="I8" s="29">
+      <c r="H9" s="29">
         <v>8</v>
-      </c>
-      <c r="J8" s="29">
-        <v>1</v>
-      </c>
-      <c r="K8" s="85">
-        <v>9</v>
-      </c>
-      <c r="L8" s="85">
-        <v>32</v>
-      </c>
-      <c r="M8" s="85">
-        <v>26</v>
-      </c>
-      <c r="N8" s="85">
-        <v>0</v>
-      </c>
-      <c r="O8" s="85">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="P8" s="85">
-        <f t="shared" si="1"/>
-        <v>213.85714285714286</v>
-      </c>
-      <c r="Q8" s="85">
-        <f t="shared" si="2"/>
-        <v>58</v>
-      </c>
-      <c r="R8" s="85">
-        <f t="shared" si="3"/>
-        <v>204.85714285714286</v>
-      </c>
-      <c r="S8" s="102">
-        <v>3000000</v>
-      </c>
-      <c r="T8" s="102">
-        <f t="shared" si="4"/>
-        <v>44776.119402985074</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="85" t="s">
-        <v>256</v>
-      </c>
-      <c r="B9" s="85" t="s">
-        <v>257</v>
-      </c>
-      <c r="C9" s="85">
-        <v>18</v>
-      </c>
-      <c r="D9" s="85">
-        <v>107</v>
-      </c>
-      <c r="E9" s="85">
-        <v>2</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="G9" s="29">
-        <v>2</v>
-      </c>
-      <c r="H9" s="29">
-        <v>7</v>
       </c>
       <c r="I9" s="29">
         <v>10</v>
       </c>
       <c r="J9" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" s="85">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="L9" s="85">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M9" s="85">
         <v>39</v>
       </c>
       <c r="N9" s="85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="85">
-        <f t="shared" si="0"/>
-        <v>63</v>
+        <f>N9+L9+K9+M9</f>
+        <v>79</v>
       </c>
       <c r="P9" s="85">
-        <f t="shared" si="1"/>
-        <v>207.71428571428572</v>
+        <f>(28-C9)*16-(D9/7)+O9</f>
+        <v>214.57142857142858</v>
       </c>
       <c r="Q9" s="85">
-        <f t="shared" si="2"/>
-        <v>60</v>
+        <f>L9+M9+N9</f>
+        <v>66</v>
       </c>
       <c r="R9" s="85">
-        <f t="shared" si="3"/>
-        <v>204.71428571428572</v>
+        <f>(28-C9)*16-(D9/7)+Q9</f>
+        <v>201.57142857142858</v>
       </c>
       <c r="S9" s="102">
-        <v>3230000</v>
+        <v>2750000</v>
       </c>
       <c r="T9" s="102">
-        <f t="shared" si="4"/>
-        <v>51269.841269841272</v>
+        <f>S9/O9</f>
+        <v>34810.126582278484</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="85" t="s">
-        <v>359</v>
+      <c r="A10" s="94" t="s">
+        <v>295</v>
       </c>
       <c r="B10" s="85" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="C10" s="85">
         <v>18</v>
       </c>
       <c r="D10" s="85">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="E10" s="85">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G10" s="29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" s="29">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I10" s="29">
+        <v>8</v>
+      </c>
+      <c r="J10" s="29">
+        <v>1</v>
+      </c>
+      <c r="K10" s="85">
         <v>9</v>
       </c>
-      <c r="J10" s="29">
-        <v>2</v>
-      </c>
-      <c r="K10" s="85">
-        <v>6</v>
-      </c>
       <c r="L10" s="85">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="M10" s="85">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N10" s="85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="85">
-        <f t="shared" si="0"/>
-        <v>51</v>
+        <f>N10+L10+K10+M10</f>
+        <v>67</v>
       </c>
       <c r="P10" s="85">
-        <f t="shared" si="1"/>
-        <v>210.71428571428572</v>
+        <f>(28-C10)*16-(D10/7)+O10</f>
+        <v>213.85714285714286</v>
       </c>
       <c r="Q10" s="85">
-        <f t="shared" si="2"/>
-        <v>45</v>
+        <f>L10+M10+N10</f>
+        <v>58</v>
       </c>
       <c r="R10" s="85">
-        <f t="shared" si="3"/>
-        <v>204.71428571428572</v>
+        <f>(28-C10)*16-(D10/7)+Q10</f>
+        <v>204.85714285714286</v>
       </c>
       <c r="S10" s="102">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="T10" s="102">
-        <f t="shared" si="4"/>
-        <v>29411.764705882353</v>
+        <f>S10/O10</f>
+        <v>44776.119402985074</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="94" t="s">
         <v>324</v>
       </c>
       <c r="B11" s="85" t="s">
@@ -5354,41 +5371,41 @@
         <v>4</v>
       </c>
       <c r="O11" s="85">
-        <f t="shared" si="0"/>
+        <f>N11+L11+K11+M11</f>
         <v>68</v>
       </c>
       <c r="P11" s="85">
-        <f t="shared" si="1"/>
+        <f>(28-C11)*16-(D11/7)+O11</f>
         <v>213.14285714285714</v>
       </c>
       <c r="Q11" s="85">
-        <f t="shared" si="2"/>
+        <f>L11+M11+N11</f>
         <v>59</v>
       </c>
       <c r="R11" s="85">
-        <f t="shared" si="3"/>
+        <f>(28-C11)*16-(D11/7)+Q11</f>
         <v>204.14285714285714</v>
       </c>
       <c r="S11" s="102">
         <v>3800000</v>
       </c>
       <c r="T11" s="102">
-        <f t="shared" si="4"/>
+        <f>S11/O11</f>
         <v>55882.352941176468</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="85" t="s">
-        <v>355</v>
+      <c r="A12" s="94" t="s">
+        <v>362</v>
       </c>
       <c r="B12" s="85" t="s">
-        <v>266</v>
+        <v>363</v>
       </c>
       <c r="C12" s="85">
         <v>18</v>
       </c>
       <c r="D12" s="85">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="E12" s="85">
         <v>2</v>
@@ -5397,186 +5414,186 @@
         <v>181</v>
       </c>
       <c r="G12" s="29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H12" s="29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I12" s="29">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J12" s="29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K12" s="85">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="L12" s="85">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M12" s="85">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="N12" s="85">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O12" s="85">
-        <f t="shared" si="0"/>
-        <v>58</v>
+        <f>N12+L12+K12+M12</f>
+        <v>57</v>
       </c>
       <c r="P12" s="85">
-        <f t="shared" si="1"/>
-        <v>206.28571428571428</v>
+        <f>(28-C12)*16-(D12/7)+O12</f>
+        <v>212.71428571428572</v>
       </c>
       <c r="Q12" s="85">
-        <f t="shared" si="2"/>
-        <v>55</v>
+        <f>L12+M12+N12</f>
+        <v>44</v>
       </c>
       <c r="R12" s="85">
-        <f t="shared" si="3"/>
-        <v>203.28571428571428</v>
+        <f>(28-C12)*16-(D12/7)+Q12</f>
+        <v>199.71428571428572</v>
       </c>
       <c r="S12" s="102">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="T12" s="102">
-        <f t="shared" si="4"/>
-        <v>34482.758620689652</v>
+        <f>S12/O12</f>
+        <v>17543.859649122805</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="85" t="s">
-        <v>334</v>
+      <c r="A13" s="94" t="s">
+        <v>278</v>
       </c>
       <c r="B13" s="85" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C13" s="85">
         <v>18</v>
       </c>
       <c r="D13" s="85">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="E13" s="85">
+        <v>2</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="G13" s="29">
         <v>4</v>
       </c>
-      <c r="G13" s="29">
+      <c r="H13" s="29">
+        <v>10</v>
+      </c>
+      <c r="I13" s="29">
+        <v>4</v>
+      </c>
+      <c r="J13" s="29">
+        <v>4</v>
+      </c>
+      <c r="K13" s="85">
+        <v>9</v>
+      </c>
+      <c r="L13" s="85">
+        <v>39</v>
+      </c>
+      <c r="M13" s="85">
+        <v>8</v>
+      </c>
+      <c r="N13" s="85">
         <v>3</v>
       </c>
-      <c r="H13" s="29">
-        <v>8</v>
-      </c>
-      <c r="I13" s="29">
-        <v>7</v>
-      </c>
-      <c r="J13" s="29">
-        <v>3</v>
-      </c>
-      <c r="K13" s="85">
-        <v>6</v>
-      </c>
-      <c r="L13" s="85">
-        <v>26</v>
-      </c>
-      <c r="M13" s="85">
-        <v>20</v>
-      </c>
-      <c r="N13" s="85">
-        <v>2</v>
-      </c>
       <c r="O13" s="85">
-        <f t="shared" si="0"/>
-        <v>54</v>
+        <f>N13+L13+K13+M13</f>
+        <v>59</v>
       </c>
       <c r="P13" s="85">
-        <f t="shared" si="1"/>
-        <v>208.85714285714286</v>
+        <f>(28-C13)*16-(D13/7)+O13</f>
+        <v>211.14285714285714</v>
       </c>
       <c r="Q13" s="85">
-        <f t="shared" si="2"/>
-        <v>48</v>
+        <f>L13+M13+N13</f>
+        <v>50</v>
       </c>
       <c r="R13" s="85">
-        <f t="shared" si="3"/>
-        <v>202.85714285714286</v>
+        <f>(28-C13)*16-(D13/7)+Q13</f>
+        <v>202.14285714285714</v>
       </c>
       <c r="S13" s="102">
-        <v>1125000</v>
+        <v>1450000</v>
       </c>
       <c r="T13" s="102">
-        <f t="shared" si="4"/>
-        <v>20833.333333333332</v>
+        <f>S13/O13</f>
+        <v>24576.271186440677</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="85" t="s">
-        <v>278</v>
+      <c r="A14" s="94" t="s">
+        <v>311</v>
       </c>
       <c r="B14" s="85" t="s">
-        <v>264</v>
+        <v>312</v>
       </c>
       <c r="C14" s="85">
         <v>18</v>
       </c>
       <c r="D14" s="85">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E14" s="85">
-        <v>2</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>269</v>
+        <v>6</v>
       </c>
       <c r="G14" s="29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H14" s="29">
         <v>10</v>
       </c>
       <c r="I14" s="29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J14" s="29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K14" s="85">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L14" s="85">
         <v>39</v>
       </c>
       <c r="M14" s="85">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N14" s="85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O14" s="85">
-        <f t="shared" si="0"/>
-        <v>59</v>
+        <f>N14+L14+K14+M14</f>
+        <v>58</v>
       </c>
       <c r="P14" s="85">
-        <f t="shared" si="1"/>
-        <v>211.14285714285714</v>
+        <f>(28-C14)*16-(D14/7)+O14</f>
+        <v>211</v>
       </c>
       <c r="Q14" s="85">
-        <f t="shared" si="2"/>
-        <v>50</v>
+        <f>L14+M14+N14</f>
+        <v>52</v>
       </c>
       <c r="R14" s="85">
-        <f t="shared" si="3"/>
-        <v>202.14285714285714</v>
+        <f>(28-C14)*16-(D14/7)+Q14</f>
+        <v>205</v>
       </c>
       <c r="S14" s="102">
-        <v>1450000</v>
+        <v>2500000</v>
       </c>
       <c r="T14" s="102">
-        <f t="shared" si="4"/>
-        <v>24576.271186440677</v>
+        <f>S14/O14</f>
+        <v>43103.448275862072</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="104" t="s">
+      <c r="A15" s="94" t="s">
         <v>318</v>
       </c>
       <c r="B15" s="85" t="s">
@@ -5616,297 +5633,297 @@
         <v>0</v>
       </c>
       <c r="O15" s="85">
-        <f t="shared" si="0"/>
+        <f>N15+L15+K15+M15</f>
         <v>74</v>
       </c>
       <c r="P15" s="85">
-        <f t="shared" si="1"/>
+        <f>(28-C15)*16-(D15/7)+O15</f>
         <v>210.85714285714286</v>
       </c>
       <c r="Q15" s="85">
-        <f t="shared" si="2"/>
+        <f>L15+M15+N15</f>
         <v>65</v>
       </c>
       <c r="R15" s="85">
-        <f t="shared" si="3"/>
+        <f>(28-C15)*16-(D15/7)+Q15</f>
         <v>201.85714285714286</v>
       </c>
       <c r="S15" s="102">
         <v>2750000</v>
       </c>
       <c r="T15" s="102">
-        <f t="shared" si="4"/>
+        <f>S15/O15</f>
         <v>37162.16216216216</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="85" t="s">
-        <v>319</v>
+      <c r="A16" s="108" t="s">
+        <v>359</v>
       </c>
       <c r="B16" s="85" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="C16" s="85">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="85">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="E16" s="85">
+        <v>6</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16" s="29">
         <v>3</v>
       </c>
-      <c r="G16" s="29">
+      <c r="H16" s="29">
         <v>5</v>
       </c>
-      <c r="H16" s="29">
-        <v>8</v>
-      </c>
       <c r="I16" s="29">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J16" s="29">
         <v>2</v>
       </c>
       <c r="K16" s="85">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="L16" s="85">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="M16" s="85">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="N16" s="85">
         <v>1</v>
       </c>
       <c r="O16" s="85">
-        <f t="shared" si="0"/>
-        <v>79</v>
+        <f>N16+L16+K16+M16</f>
+        <v>51</v>
       </c>
       <c r="P16" s="85">
-        <f t="shared" si="1"/>
-        <v>214.57142857142858</v>
+        <f>(28-C16)*16-(D16/7)+O16</f>
+        <v>210.71428571428572</v>
       </c>
       <c r="Q16" s="85">
-        <f t="shared" si="2"/>
-        <v>66</v>
+        <f>L16+M16+N16</f>
+        <v>45</v>
       </c>
       <c r="R16" s="85">
-        <f t="shared" si="3"/>
-        <v>201.57142857142858</v>
+        <f>(28-C16)*16-(D16/7)+Q16</f>
+        <v>204.71428571428572</v>
       </c>
       <c r="S16" s="102">
-        <v>2750000</v>
+        <v>1500000</v>
       </c>
       <c r="T16" s="102">
-        <f t="shared" si="4"/>
-        <v>34810.126582278484</v>
+        <f>S16/O16</f>
+        <v>29411.764705882353</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="103" t="s">
-        <v>294</v>
+      <c r="A17" s="109" t="s">
+        <v>298</v>
       </c>
       <c r="B17" s="85" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="C17" s="85">
         <v>18</v>
       </c>
       <c r="D17" s="85">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E17" s="85">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>181</v>
+        <v>106</v>
       </c>
       <c r="G17" s="29">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H17" s="29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I17" s="29">
+        <v>6</v>
+      </c>
+      <c r="J17" s="29">
         <v>8</v>
       </c>
-      <c r="J17" s="29">
-        <v>3</v>
-      </c>
       <c r="K17" s="85">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="L17" s="85">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M17" s="85">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N17" s="85">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O17" s="85">
-        <f t="shared" si="0"/>
-        <v>55</v>
+        <f>N17+L17+K17+M17</f>
+        <v>58</v>
       </c>
       <c r="P17" s="85">
-        <f t="shared" si="1"/>
-        <v>207.28571428571428</v>
+        <f>(28-C17)*16-(D17/7)+O17</f>
+        <v>210.14285714285714</v>
       </c>
       <c r="Q17" s="85">
-        <f t="shared" si="2"/>
-        <v>49</v>
+        <f>L17+M17+N17</f>
+        <v>40</v>
       </c>
       <c r="R17" s="85">
-        <f t="shared" si="3"/>
-        <v>201.28571428571428</v>
+        <f>(28-C17)*16-(D17/7)+Q17</f>
+        <v>192.14285714285714</v>
       </c>
       <c r="S17" s="102">
-        <v>900000</v>
+        <v>150000</v>
       </c>
       <c r="T17" s="102">
-        <f t="shared" si="4"/>
-        <v>16363.636363636364</v>
+        <f>S17/O17</f>
+        <v>2586.2068965517242</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="104" t="s">
-        <v>327</v>
+      <c r="A18" s="108" t="s">
+        <v>313</v>
       </c>
       <c r="B18" s="85" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C18" s="85">
         <v>18</v>
       </c>
       <c r="D18" s="85">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E18" s="85">
+        <v>1</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="G18" s="29">
+        <v>2</v>
+      </c>
+      <c r="H18" s="29">
+        <v>8</v>
+      </c>
+      <c r="I18" s="29">
+        <v>8</v>
+      </c>
+      <c r="J18" s="29">
+        <v>6</v>
+      </c>
+      <c r="K18" s="85">
+        <v>3</v>
+      </c>
+      <c r="L18" s="85">
+        <v>26</v>
+      </c>
+      <c r="M18" s="85">
+        <v>26</v>
+      </c>
+      <c r="N18" s="85">
         <v>5</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="O18" s="85">
+        <f>N18+L18+K18+M18</f>
+        <v>60</v>
+      </c>
+      <c r="P18" s="85">
+        <f>(28-C18)*16-(D18/7)+O18</f>
+        <v>209.85714285714286</v>
+      </c>
+      <c r="Q18" s="85">
+        <f>L18+M18+N18</f>
+        <v>57</v>
+      </c>
+      <c r="R18" s="85">
+        <f>(28-C18)*16-(D18/7)+Q18</f>
+        <v>206.85714285714286</v>
+      </c>
+      <c r="S18" s="102">
+        <v>2500000</v>
+      </c>
+      <c r="T18" s="102">
+        <f>S18/O18</f>
+        <v>41666.666666666664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="94" t="s">
+        <v>322</v>
+      </c>
+      <c r="B19" s="85" t="s">
+        <v>323</v>
+      </c>
+      <c r="C19" s="85">
+        <v>18</v>
+      </c>
+      <c r="D19" s="85">
         <v>106</v>
       </c>
-      <c r="G18" s="29">
-        <v>3</v>
-      </c>
-      <c r="H18" s="29">
+      <c r="E19" s="85">
+        <v>1</v>
+      </c>
+      <c r="G19" s="29">
+        <v>6</v>
+      </c>
+      <c r="H19" s="29">
         <v>9</v>
-      </c>
-      <c r="I18" s="29">
-        <v>7</v>
-      </c>
-      <c r="J18" s="29">
-        <v>0</v>
-      </c>
-      <c r="K18" s="85">
-        <v>6</v>
-      </c>
-      <c r="L18" s="85">
-        <v>32</v>
-      </c>
-      <c r="M18" s="85">
-        <v>20</v>
-      </c>
-      <c r="N18" s="85">
-        <v>-1</v>
-      </c>
-      <c r="O18" s="85">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="P18" s="85">
-        <f t="shared" si="1"/>
-        <v>206.42857142857142</v>
-      </c>
-      <c r="Q18" s="85">
-        <f t="shared" si="2"/>
-        <v>51</v>
-      </c>
-      <c r="R18" s="85">
-        <f t="shared" si="3"/>
-        <v>200.42857142857142</v>
-      </c>
-      <c r="S18" s="102">
-        <v>3750000</v>
-      </c>
-      <c r="T18" s="102">
-        <f t="shared" si="4"/>
-        <v>65789.473684210519</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="85" t="s">
-        <v>285</v>
-      </c>
-      <c r="B19" s="85" t="s">
-        <v>284</v>
-      </c>
-      <c r="C19" s="85">
-        <v>17</v>
-      </c>
-      <c r="D19" s="85">
-        <v>60</v>
-      </c>
-      <c r="E19" s="85">
-        <v>4</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="29">
-        <v>2</v>
-      </c>
-      <c r="H19" s="29">
-        <v>6</v>
       </c>
       <c r="I19" s="29">
         <v>6</v>
       </c>
       <c r="J19" s="29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K19" s="85">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="L19" s="85">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M19" s="85">
         <v>16</v>
       </c>
       <c r="N19" s="85">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O19" s="85">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <f>N19+L19+K19+M19</f>
+        <v>65</v>
       </c>
       <c r="P19" s="85">
-        <f t="shared" si="1"/>
-        <v>203.42857142857142</v>
+        <f>(28-C19)*16-(D19/7)+O19</f>
+        <v>209.85714285714286</v>
       </c>
       <c r="Q19" s="85">
-        <f t="shared" si="2"/>
-        <v>33</v>
+        <f>L19+M19+N19</f>
+        <v>47</v>
       </c>
       <c r="R19" s="85">
-        <f t="shared" si="3"/>
-        <v>200.42857142857142</v>
+        <f>(28-C19)*16-(D19/7)+Q19</f>
+        <v>191.85714285714286</v>
       </c>
       <c r="S19" s="102">
-        <v>350000</v>
+        <v>975000</v>
       </c>
       <c r="T19" s="102">
-        <f t="shared" si="4"/>
-        <v>9722.2222222222226</v>
+        <f>S19/O19</f>
+        <v>15000</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="85" t="s">
-        <v>338</v>
+      <c r="A20" s="94" t="s">
+        <v>356</v>
       </c>
       <c r="B20" s="85" t="s">
         <v>260</v>
@@ -5915,403 +5932,403 @@
         <v>18</v>
       </c>
       <c r="D20" s="85">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E20" s="85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="26" t="s">
         <v>183</v>
       </c>
       <c r="G20" s="29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H20" s="29">
         <v>8</v>
       </c>
       <c r="I20" s="29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J20" s="29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K20" s="85">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L20" s="85">
         <v>26</v>
       </c>
       <c r="M20" s="85">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N20" s="85">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="O20" s="85">
-        <f t="shared" si="0"/>
+        <f>N20+L20+K20+M20</f>
+        <v>62</v>
+      </c>
+      <c r="P20" s="85">
+        <f>(28-C20)*16-(D20/7)+O20</f>
+        <v>209.57142857142858</v>
+      </c>
+      <c r="Q20" s="85">
+        <f>L20+M20+N20</f>
         <v>60</v>
       </c>
-      <c r="P20" s="85">
-        <f t="shared" si="1"/>
-        <v>209.28571428571428</v>
-      </c>
-      <c r="Q20" s="85">
-        <f t="shared" si="2"/>
-        <v>51</v>
-      </c>
       <c r="R20" s="85">
-        <f t="shared" si="3"/>
-        <v>200.28571428571428</v>
+        <f>(28-C20)*16-(D20/7)+Q20</f>
+        <v>207.57142857142858</v>
       </c>
       <c r="S20" s="102">
-        <v>1850000</v>
+        <v>1900000</v>
       </c>
       <c r="T20" s="102">
-        <f t="shared" si="4"/>
-        <v>30833.333333333332</v>
+        <f>S20/O20</f>
+        <v>30645.16129032258</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="85" t="s">
-        <v>290</v>
+      <c r="A21" s="94" t="s">
+        <v>261</v>
       </c>
       <c r="B21" s="85" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="C21" s="85">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D21" s="85">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E21" s="85">
+        <v>4</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="29">
         <v>6</v>
       </c>
-      <c r="F21" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="G21" s="29">
-        <v>2</v>
-      </c>
       <c r="H21" s="29">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I21" s="29">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J21" s="29">
         <v>0</v>
       </c>
       <c r="K21" s="85">
+        <v>18</v>
+      </c>
+      <c r="L21" s="85">
         <v>3</v>
       </c>
-      <c r="L21" s="85">
-        <v>26</v>
-      </c>
       <c r="M21" s="85">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="N21" s="85">
         <v>-1</v>
       </c>
       <c r="O21" s="85">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f>N21+L21+K21+M21</f>
+        <v>77</v>
       </c>
       <c r="P21" s="85">
-        <f t="shared" si="1"/>
-        <v>203</v>
+        <f>(28-C21)*16-(D21/7)+O21</f>
+        <v>209.57142857142858</v>
       </c>
       <c r="Q21" s="85">
-        <f t="shared" si="2"/>
-        <v>37</v>
+        <f>L21+M21+N21</f>
+        <v>59</v>
       </c>
       <c r="R21" s="85">
-        <f t="shared" si="3"/>
-        <v>200</v>
+        <f>(28-C21)*16-(D21/7)+Q21</f>
+        <v>191.57142857142858</v>
       </c>
       <c r="S21" s="102">
-        <v>700000</v>
+        <v>3200000</v>
       </c>
       <c r="T21" s="102">
-        <f t="shared" si="4"/>
-        <v>17500</v>
+        <f>S21/O21</f>
+        <v>41558.441558441562</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="94" t="s">
-        <v>306</v>
+      <c r="A22" s="108" t="s">
+        <v>338</v>
       </c>
       <c r="B22" s="85" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="C22" s="85">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" s="85">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="E22" s="85">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>183</v>
       </c>
       <c r="G22" s="29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H22" s="29">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I22" s="29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J22" s="29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K22" s="85">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L22" s="85">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="M22" s="85">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N22" s="85">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="O22" s="85">
-        <f t="shared" si="0"/>
-        <v>67</v>
+        <f>N22+L22+K22+M22</f>
+        <v>60</v>
       </c>
       <c r="P22" s="85">
-        <f t="shared" si="1"/>
-        <v>205.85714285714286</v>
+        <f>(28-C22)*16-(D22/7)+O22</f>
+        <v>209.28571428571428</v>
       </c>
       <c r="Q22" s="85">
-        <f t="shared" si="2"/>
-        <v>61</v>
+        <f>L22+M22+N22</f>
+        <v>51</v>
       </c>
       <c r="R22" s="85">
-        <f t="shared" si="3"/>
-        <v>199.85714285714286</v>
+        <f>(28-C22)*16-(D22/7)+Q22</f>
+        <v>200.28571428571428</v>
       </c>
       <c r="S22" s="102">
-        <v>2500000</v>
+        <v>1850000</v>
       </c>
       <c r="T22" s="102">
-        <f t="shared" si="4"/>
-        <v>37313.432835820895</v>
+        <f>S22/O22</f>
+        <v>30833.333333333332</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="85" t="s">
-        <v>281</v>
+      <c r="A23" s="94" t="s">
+        <v>334</v>
       </c>
       <c r="B23" s="85" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="C23" s="85">
         <v>18</v>
       </c>
       <c r="D23" s="85">
+        <v>36</v>
+      </c>
+      <c r="E23" s="85">
+        <v>4</v>
+      </c>
+      <c r="G23" s="29">
+        <v>3</v>
+      </c>
+      <c r="H23" s="29">
+        <v>8</v>
+      </c>
+      <c r="I23" s="29">
+        <v>7</v>
+      </c>
+      <c r="J23" s="29">
+        <v>3</v>
+      </c>
+      <c r="K23" s="85">
+        <v>6</v>
+      </c>
+      <c r="L23" s="85">
+        <v>26</v>
+      </c>
+      <c r="M23" s="85">
+        <v>20</v>
+      </c>
+      <c r="N23" s="85">
+        <v>2</v>
+      </c>
+      <c r="O23" s="85">
+        <f>N23+L23+K23+M23</f>
+        <v>54</v>
+      </c>
+      <c r="P23" s="85">
+        <f>(28-C23)*16-(D23/7)+O23</f>
+        <v>208.85714285714286</v>
+      </c>
+      <c r="Q23" s="85">
+        <f>L23+M23+N23</f>
+        <v>48</v>
+      </c>
+      <c r="R23" s="85">
+        <f>(28-C23)*16-(D23/7)+Q23</f>
+        <v>202.85714285714286</v>
+      </c>
+      <c r="S23" s="102">
+        <v>1125000</v>
+      </c>
+      <c r="T23" s="102">
+        <f>S23/O23</f>
+        <v>20833.333333333332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="94" t="s">
+        <v>281</v>
+      </c>
+      <c r="B24" s="85" t="s">
+        <v>252</v>
+      </c>
+      <c r="C24" s="85">
+        <v>18</v>
+      </c>
+      <c r="D24" s="85">
         <v>72</v>
       </c>
-      <c r="E23" s="85">
-        <v>2</v>
-      </c>
-      <c r="F23" s="26" t="s">
+      <c r="E24" s="85">
+        <v>2</v>
+      </c>
+      <c r="F24" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="G23" s="29">
+      <c r="G24" s="29">
         <v>5</v>
       </c>
-      <c r="H23" s="29">
+      <c r="H24" s="29">
         <v>10</v>
-      </c>
-      <c r="I23" s="29">
-        <v>4</v>
-      </c>
-      <c r="J23" s="29">
-        <v>4</v>
-      </c>
-      <c r="K23" s="85">
-        <v>9</v>
-      </c>
-      <c r="L23" s="85">
-        <v>39</v>
-      </c>
-      <c r="M23" s="85">
-        <v>8</v>
-      </c>
-      <c r="N23" s="85">
-        <v>3</v>
-      </c>
-      <c r="O23" s="85">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="P23" s="85">
-        <f t="shared" si="1"/>
-        <v>208.71428571428572</v>
-      </c>
-      <c r="Q23" s="85">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="R23" s="85">
-        <f t="shared" si="3"/>
-        <v>199.71428571428572</v>
-      </c>
-      <c r="S23" s="102">
-        <v>1900000</v>
-      </c>
-      <c r="T23" s="102">
-        <f t="shared" si="4"/>
-        <v>32203.389830508473</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="85" t="s">
-        <v>271</v>
-      </c>
-      <c r="B24" s="85" t="s">
-        <v>272</v>
-      </c>
-      <c r="C24" s="85">
-        <v>17</v>
-      </c>
-      <c r="D24" s="85">
-        <v>86</v>
-      </c>
-      <c r="E24" s="85">
-        <v>2</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="G24" s="29">
-        <v>4</v>
-      </c>
-      <c r="H24" s="29">
-        <v>8</v>
       </c>
       <c r="I24" s="29">
         <v>4</v>
       </c>
       <c r="J24" s="29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K24" s="85">
         <v>9</v>
       </c>
       <c r="L24" s="85">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="M24" s="85">
         <v>8</v>
       </c>
       <c r="N24" s="85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O24" s="85">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <f>N24+L24+K24+M24</f>
+        <v>59</v>
       </c>
       <c r="P24" s="85">
-        <f t="shared" si="1"/>
-        <v>207.71428571428572</v>
+        <f>(28-C24)*16-(D24/7)+O24</f>
+        <v>208.71428571428572</v>
       </c>
       <c r="Q24" s="85">
-        <f t="shared" si="2"/>
-        <v>35</v>
+        <f>L24+M24+N24</f>
+        <v>50</v>
       </c>
       <c r="R24" s="85">
-        <f t="shared" si="3"/>
-        <v>198.71428571428572</v>
+        <f>(28-C24)*16-(D24/7)+Q24</f>
+        <v>199.71428571428572</v>
       </c>
       <c r="S24" s="102">
-        <v>500000</v>
+        <v>1900000</v>
       </c>
       <c r="T24" s="102">
-        <f t="shared" si="4"/>
-        <v>11363.636363636364</v>
+        <f>S24/O24</f>
+        <v>32203.389830508473</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="103" t="s">
-        <v>299</v>
+      <c r="A25" s="94" t="s">
+        <v>301</v>
       </c>
       <c r="B25" s="85" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C25" s="85">
         <v>18</v>
       </c>
       <c r="D25" s="85">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E25" s="85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F25" s="26" t="s">
         <v>106</v>
       </c>
       <c r="G25" s="29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H25" s="29">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I25" s="29">
         <v>7</v>
       </c>
       <c r="J25" s="29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K25" s="85">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="L25" s="85">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="M25" s="85">
         <v>20</v>
       </c>
       <c r="N25" s="85">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O25" s="85">
-        <f t="shared" si="0"/>
-        <v>55</v>
+        <f>N25+L25+K25+M25</f>
+        <v>54</v>
       </c>
       <c r="P25" s="85">
-        <f t="shared" si="1"/>
-        <v>207.42857142857142</v>
+        <f>(28-C25)*16-(D25/7)+O25</f>
+        <v>208.71428571428572</v>
       </c>
       <c r="Q25" s="85">
-        <f t="shared" si="2"/>
-        <v>46</v>
+        <f>L25+M25+N25</f>
+        <v>36</v>
       </c>
       <c r="R25" s="85">
-        <f t="shared" si="3"/>
-        <v>198.42857142857142</v>
+        <f>(28-C25)*16-(D25/7)+Q25</f>
+        <v>190.71428571428572</v>
       </c>
       <c r="S25" s="102">
-        <v>650000</v>
+        <v>150000</v>
       </c>
       <c r="T25" s="102">
-        <f t="shared" si="4"/>
-        <v>11818.181818181818</v>
+        <f>S25/O25</f>
+        <v>2777.7777777777778</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="85" t="s">
-        <v>279</v>
+      <c r="A26" s="94" t="s">
+        <v>256</v>
       </c>
       <c r="B26" s="85" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="C26" s="85">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D26" s="85">
         <v>107</v>
@@ -6323,71 +6340,71 @@
         <v>181</v>
       </c>
       <c r="G26" s="29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H26" s="29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I26" s="29">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J26" s="29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K26" s="85">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L26" s="85">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M26" s="85">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="N26" s="85">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O26" s="85">
-        <f t="shared" si="0"/>
-        <v>46</v>
+        <f>N26+L26+K26+M26</f>
+        <v>63</v>
       </c>
       <c r="P26" s="85">
-        <f t="shared" si="1"/>
-        <v>206.71428571428572</v>
+        <f>(28-C26)*16-(D26/7)+O26</f>
+        <v>207.71428571428572</v>
       </c>
       <c r="Q26" s="85">
-        <f t="shared" si="2"/>
-        <v>37</v>
+        <f>L26+M26+N26</f>
+        <v>60</v>
       </c>
       <c r="R26" s="85">
-        <f t="shared" si="3"/>
-        <v>197.71428571428572</v>
+        <f>(28-C26)*16-(D26/7)+Q26</f>
+        <v>204.71428571428572</v>
       </c>
       <c r="S26" s="102">
-        <v>630000</v>
+        <v>3230000</v>
       </c>
       <c r="T26" s="102">
-        <f t="shared" si="4"/>
-        <v>13695.652173913044</v>
+        <f>S26/O26</f>
+        <v>51269.841269841272</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="85" t="s">
-        <v>287</v>
+      <c r="A27" s="94" t="s">
+        <v>271</v>
       </c>
       <c r="B27" s="85" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="C27" s="85">
         <v>17</v>
       </c>
       <c r="D27" s="85">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E27" s="85">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G27" s="29">
         <v>4</v>
@@ -6414,120 +6431,123 @@
         <v>1</v>
       </c>
       <c r="O27" s="85">
-        <f t="shared" si="0"/>
+        <f>N27+L27+K27+M27</f>
         <v>44</v>
       </c>
       <c r="P27" s="85">
-        <f t="shared" si="1"/>
-        <v>206.71428571428572</v>
+        <f>(28-C27)*16-(D27/7)+O27</f>
+        <v>207.71428571428572</v>
       </c>
       <c r="Q27" s="85">
-        <f t="shared" si="2"/>
+        <f>L27+M27+N27</f>
         <v>35</v>
       </c>
       <c r="R27" s="85">
-        <f t="shared" si="3"/>
-        <v>197.71428571428572</v>
+        <f>(28-C27)*16-(D27/7)+Q27</f>
+        <v>198.71428571428572</v>
       </c>
       <c r="S27" s="102">
-        <v>800000</v>
+        <v>500000</v>
       </c>
       <c r="T27" s="102">
-        <f t="shared" si="4"/>
-        <v>18181.81818181818</v>
+        <f>S27/O27</f>
+        <v>11363.636363636364</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="103" t="s">
-        <v>304</v>
+      <c r="A28" s="108" t="s">
+        <v>299</v>
       </c>
       <c r="B28" s="85" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="C28" s="85">
         <v>18</v>
       </c>
       <c r="D28" s="85">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="E28" s="85">
         <v>4</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>181</v>
+        <v>106</v>
       </c>
       <c r="G28" s="29">
         <v>4</v>
       </c>
       <c r="H28" s="29">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I28" s="29">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J28" s="29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K28" s="85">
         <v>9</v>
       </c>
       <c r="L28" s="85">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M28" s="85">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N28" s="85">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O28" s="85">
-        <f t="shared" si="0"/>
-        <v>59</v>
+        <f>N28+L28+K28+M28</f>
+        <v>55</v>
       </c>
       <c r="P28" s="85">
-        <f t="shared" si="1"/>
-        <v>206.57142857142858</v>
+        <f>(28-C28)*16-(D28/7)+O28</f>
+        <v>207.42857142857142</v>
       </c>
       <c r="Q28" s="85">
-        <f t="shared" si="2"/>
-        <v>50</v>
+        <f>L28+M28+N28</f>
+        <v>46</v>
       </c>
       <c r="R28" s="85">
-        <f t="shared" si="3"/>
-        <v>197.57142857142858</v>
+        <f>(28-C28)*16-(D28/7)+Q28</f>
+        <v>198.42857142857142</v>
       </c>
       <c r="S28" s="102">
-        <v>800000</v>
+        <v>650000</v>
       </c>
       <c r="T28" s="102">
-        <f t="shared" si="4"/>
-        <v>13559.322033898305</v>
+        <f>S28/O28</f>
+        <v>11818.181818181818</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="85" t="s">
-        <v>289</v>
+      <c r="A29" s="109" t="s">
+        <v>294</v>
       </c>
       <c r="B29" s="85" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="C29" s="85">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D29" s="85">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E29" s="85">
-        <v>3.2228070175438601</v>
+        <v>5</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>181</v>
       </c>
       <c r="G29" s="29">
         <v>3</v>
       </c>
       <c r="H29" s="29">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I29" s="29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J29" s="29">
         <v>3</v>
@@ -6536,190 +6556,190 @@
         <v>6</v>
       </c>
       <c r="L29" s="85">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M29" s="85">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N29" s="85">
         <v>2</v>
       </c>
       <c r="O29" s="85">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <f>N29+L29+K29+M29</f>
+        <v>55</v>
       </c>
       <c r="P29" s="85">
-        <f t="shared" si="1"/>
-        <v>203.57142857142858</v>
+        <f>(28-C29)*16-(D29/7)+O29</f>
+        <v>207.28571428571428</v>
       </c>
       <c r="Q29" s="85">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f>L29+M29+N29</f>
+        <v>49</v>
       </c>
       <c r="R29" s="85">
-        <f t="shared" si="3"/>
-        <v>197.57142857142858</v>
+        <f>(28-C29)*16-(D29/7)+Q29</f>
+        <v>201.28571428571428</v>
       </c>
       <c r="S29" s="102">
-        <v>400000</v>
+        <v>900000</v>
       </c>
       <c r="T29" s="102">
-        <f t="shared" si="4"/>
-        <v>11111.111111111111</v>
+        <f>S29/O29</f>
+        <v>16363.636363636364</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="85" t="s">
-        <v>354</v>
+      <c r="A30" s="94" t="s">
+        <v>279</v>
       </c>
       <c r="B30" s="85" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="C30" s="85">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30" s="85">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E30" s="85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G30" s="29">
         <v>4</v>
       </c>
       <c r="H30" s="29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I30" s="29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J30" s="29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K30" s="85">
         <v>9</v>
       </c>
       <c r="L30" s="85">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="M30" s="85">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N30" s="85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O30" s="85">
-        <f t="shared" si="0"/>
-        <v>59</v>
+        <f>N30+L30+K30+M30</f>
+        <v>46</v>
       </c>
       <c r="P30" s="85">
-        <f t="shared" si="1"/>
-        <v>205.85714285714286</v>
+        <f>(28-C30)*16-(D30/7)+O30</f>
+        <v>206.71428571428572</v>
       </c>
       <c r="Q30" s="85">
-        <f t="shared" si="2"/>
-        <v>50</v>
+        <f>L30+M30+N30</f>
+        <v>37</v>
       </c>
       <c r="R30" s="85">
-        <f t="shared" si="3"/>
-        <v>196.85714285714286</v>
+        <f>(28-C30)*16-(D30/7)+Q30</f>
+        <v>197.71428571428572</v>
       </c>
       <c r="S30" s="102">
-        <v>1500000</v>
+        <v>630000</v>
       </c>
       <c r="T30" s="102">
-        <f t="shared" si="4"/>
-        <v>25423.728813559323</v>
+        <f>S30/O30</f>
+        <v>13695.652173913044</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="85" t="s">
-        <v>274</v>
+      <c r="A31" s="94" t="s">
+        <v>287</v>
       </c>
       <c r="B31" s="85" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C31" s="85">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D31" s="85">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="E31" s="85">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G31" s="29">
         <v>4</v>
       </c>
       <c r="H31" s="29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I31" s="29">
         <v>4</v>
       </c>
       <c r="J31" s="29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K31" s="85">
         <v>9</v>
       </c>
       <c r="L31" s="85">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="M31" s="85">
         <v>8</v>
       </c>
       <c r="N31" s="85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O31" s="85">
-        <f t="shared" si="0"/>
-        <v>52</v>
+        <f>N31+L31+K31+M31</f>
+        <v>44</v>
       </c>
       <c r="P31" s="85">
-        <f t="shared" si="1"/>
-        <v>205.85714285714286</v>
+        <f>(28-C31)*16-(D31/7)+O31</f>
+        <v>206.71428571428572</v>
       </c>
       <c r="Q31" s="85">
-        <f t="shared" si="2"/>
-        <v>43</v>
+        <f>L31+M31+N31</f>
+        <v>35</v>
       </c>
       <c r="R31" s="85">
-        <f t="shared" si="3"/>
-        <v>196.85714285714286</v>
+        <f>(28-C31)*16-(D31/7)+Q31</f>
+        <v>197.71428571428572</v>
       </c>
       <c r="S31" s="102">
         <v>800000</v>
       </c>
       <c r="T31" s="102">
-        <f t="shared" si="4"/>
-        <v>15384.615384615385</v>
+        <f>S31/O31</f>
+        <v>18181.81818181818</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="85" t="s">
-        <v>296</v>
+      <c r="A32" s="109" t="s">
+        <v>304</v>
       </c>
       <c r="B32" s="85" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="C32" s="85">
         <v>18</v>
       </c>
       <c r="D32" s="85">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="E32" s="85">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>106</v>
+        <v>181</v>
       </c>
       <c r="G32" s="29">
         <v>4</v>
@@ -6728,10 +6748,10 @@
         <v>5</v>
       </c>
       <c r="I32" s="29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J32" s="29">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K32" s="85">
         <v>9</v>
@@ -6740,104 +6760,104 @@
         <v>12</v>
       </c>
       <c r="M32" s="85">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N32" s="85">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O32" s="85">
-        <f t="shared" si="0"/>
-        <v>49</v>
+        <f>N32+L32+K32+M32</f>
+        <v>59</v>
       </c>
       <c r="P32" s="85">
-        <f t="shared" si="1"/>
-        <v>205.28571428571428</v>
+        <f>(28-C32)*16-(D32/7)+O32</f>
+        <v>206.57142857142858</v>
       </c>
       <c r="Q32" s="85">
-        <f t="shared" si="2"/>
-        <v>40</v>
+        <f>L32+M32+N32</f>
+        <v>50</v>
       </c>
       <c r="R32" s="85">
-        <f t="shared" si="3"/>
-        <v>196.28571428571428</v>
+        <f>(28-C32)*16-(D32/7)+Q32</f>
+        <v>197.57142857142858</v>
       </c>
       <c r="S32" s="102">
-        <v>1500000</v>
+        <v>800000</v>
       </c>
       <c r="T32" s="102">
-        <f t="shared" si="4"/>
-        <v>30612.244897959183</v>
+        <f>S32/O32</f>
+        <v>13559.322033898305</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="85" t="s">
-        <v>339</v>
+      <c r="A33" s="94" t="s">
+        <v>327</v>
       </c>
       <c r="B33" s="85" t="s">
-        <v>340</v>
+        <v>268</v>
       </c>
       <c r="C33" s="85">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D33" s="85">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="E33" s="85">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F33" s="26" t="s">
         <v>106</v>
       </c>
       <c r="G33" s="29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H33" s="29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I33" s="29">
         <v>7</v>
       </c>
       <c r="J33" s="29">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K33" s="85">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L33" s="85">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M33" s="85">
         <v>20</v>
       </c>
       <c r="N33" s="85">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="O33" s="85">
-        <f t="shared" si="0"/>
-        <v>55</v>
+        <f>N33+L33+K33+M33</f>
+        <v>57</v>
       </c>
       <c r="P33" s="85">
-        <f t="shared" si="1"/>
-        <v>195.57142857142858</v>
+        <f>(28-C33)*16-(D33/7)+O33</f>
+        <v>206.42857142857142</v>
       </c>
       <c r="Q33" s="85">
-        <f t="shared" si="2"/>
-        <v>53</v>
+        <f>L33+M33+N33</f>
+        <v>51</v>
       </c>
       <c r="R33" s="85">
-        <f t="shared" si="3"/>
-        <v>193.57142857142858</v>
+        <f>(28-C33)*16-(D33/7)+Q33</f>
+        <v>200.42857142857142</v>
       </c>
       <c r="S33" s="102">
-        <v>1040308.55007257</v>
+        <v>3750000</v>
       </c>
       <c r="T33" s="102">
-        <f t="shared" si="4"/>
-        <v>18914.700910410364</v>
+        <f>S33/O33</f>
+        <v>65789.473684210519</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="103" t="s">
+      <c r="A34" s="109" t="s">
         <v>283</v>
       </c>
       <c r="B34" s="85" t="s">
@@ -6877,120 +6897,120 @@
         <v>0</v>
       </c>
       <c r="O34" s="85">
-        <f t="shared" ref="O34:O65" si="5">N34+L34+K34+M34</f>
+        <f>N34+L34+K34+M34</f>
         <v>61</v>
       </c>
       <c r="P34" s="85">
-        <f t="shared" ref="P34:P65" si="6">(28-C34)*16-(D34/7)+O34</f>
+        <f>(28-C34)*16-(D34/7)+O34</f>
         <v>206.42857142857142</v>
       </c>
       <c r="Q34" s="85">
-        <f t="shared" ref="Q34:Q62" si="7">L34+M34+N34</f>
+        <f>L34+M34+N34</f>
         <v>48</v>
       </c>
       <c r="R34" s="85">
-        <f t="shared" ref="R34:R65" si="8">(28-C34)*16-(D34/7)+Q34</f>
+        <f>(28-C34)*16-(D34/7)+Q34</f>
         <v>193.42857142857142</v>
       </c>
       <c r="S34" s="102">
         <v>1450007</v>
       </c>
       <c r="T34" s="102">
-        <f t="shared" ref="T34:T65" si="9">S34/O34</f>
+        <f>S34/O34</f>
         <v>23770.60655737705</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="85" t="s">
-        <v>337</v>
+      <c r="A35" s="94" t="s">
+        <v>355</v>
       </c>
       <c r="B35" s="85" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="C35" s="85">
         <v>18</v>
       </c>
       <c r="D35" s="85">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="E35" s="85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>106</v>
+        <v>181</v>
       </c>
       <c r="G35" s="29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H35" s="29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I35" s="29">
         <v>8</v>
       </c>
       <c r="J35" s="29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K35" s="85">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L35" s="85">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="M35" s="85">
         <v>26</v>
       </c>
       <c r="N35" s="85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O35" s="85">
-        <f t="shared" si="5"/>
-        <v>48</v>
+        <f>N35+L35+K35+M35</f>
+        <v>58</v>
       </c>
       <c r="P35" s="85">
-        <f t="shared" si="6"/>
-        <v>201.42857142857142</v>
+        <f>(28-C35)*16-(D35/7)+O35</f>
+        <v>206.28571428571428</v>
       </c>
       <c r="Q35" s="85">
-        <f t="shared" si="7"/>
-        <v>39</v>
+        <f>L35+M35+N35</f>
+        <v>55</v>
       </c>
       <c r="R35" s="85">
-        <f t="shared" si="8"/>
-        <v>192.42857142857142</v>
+        <f>(28-C35)*16-(D35/7)+Q35</f>
+        <v>203.28571428571428</v>
       </c>
       <c r="S35" s="102">
-        <v>1600000</v>
+        <v>2000000</v>
       </c>
       <c r="T35" s="102">
-        <f t="shared" si="9"/>
-        <v>33333.333333333336</v>
+        <f>S35/O35</f>
+        <v>34482.758620689652</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="85" t="s">
-        <v>288</v>
+      <c r="A36" s="94" t="s">
+        <v>306</v>
       </c>
       <c r="B36" s="85" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C36" s="85">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D36" s="85">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="E36" s="85">
-        <v>3.2456140350877201</v>
+        <v>6</v>
       </c>
       <c r="G36" s="29">
         <v>3</v>
       </c>
       <c r="H36" s="29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I36" s="29">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J36" s="29">
         <v>3</v>
@@ -6999,1390 +7019,1390 @@
         <v>6</v>
       </c>
       <c r="L36" s="85">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M36" s="85">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N36" s="85">
         <v>2</v>
       </c>
       <c r="O36" s="85">
-        <f t="shared" si="5"/>
-        <v>52</v>
+        <f>N36+L36+K36+M36</f>
+        <v>67</v>
       </c>
       <c r="P36" s="85">
-        <f t="shared" si="6"/>
-        <v>198.28571428571428</v>
+        <f>(28-C36)*16-(D36/7)+O36</f>
+        <v>205.85714285714286</v>
       </c>
       <c r="Q36" s="85">
-        <f t="shared" si="7"/>
-        <v>46</v>
+        <f>L36+M36+N36</f>
+        <v>61</v>
       </c>
       <c r="R36" s="85">
-        <f t="shared" si="8"/>
-        <v>192.28571428571428</v>
+        <f>(28-C36)*16-(D36/7)+Q36</f>
+        <v>199.85714285714286</v>
       </c>
       <c r="S36" s="102">
-        <v>2000000</v>
+        <v>2500000</v>
       </c>
       <c r="T36" s="102">
-        <f t="shared" si="9"/>
-        <v>38461.538461538461</v>
+        <f>S36/O36</f>
+        <v>37313.432835820895</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="103" t="s">
-        <v>298</v>
+      <c r="A37" s="94" t="s">
+        <v>354</v>
       </c>
       <c r="B37" s="85" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C37" s="85">
         <v>18</v>
       </c>
       <c r="D37" s="85">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="E37" s="85">
+        <v>3</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="G37" s="29">
         <v>4</v>
       </c>
-      <c r="F37" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="G37" s="29">
-        <v>6</v>
-      </c>
       <c r="H37" s="29">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I37" s="29">
         <v>6</v>
       </c>
       <c r="J37" s="29">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K37" s="85">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="L37" s="85">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M37" s="85">
         <v>16</v>
       </c>
       <c r="N37" s="85">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O37" s="85">
-        <f t="shared" si="5"/>
-        <v>58</v>
+        <f>N37+L37+K37+M37</f>
+        <v>59</v>
       </c>
       <c r="P37" s="85">
-        <f t="shared" si="6"/>
-        <v>210.14285714285714</v>
+        <f>(28-C37)*16-(D37/7)+O37</f>
+        <v>205.85714285714286</v>
       </c>
       <c r="Q37" s="85">
-        <f t="shared" si="7"/>
-        <v>40</v>
+        <f>L37+M37+N37</f>
+        <v>50</v>
       </c>
       <c r="R37" s="85">
-        <f t="shared" si="8"/>
-        <v>192.14285714285714</v>
+        <f>(28-C37)*16-(D37/7)+Q37</f>
+        <v>196.85714285714286</v>
       </c>
       <c r="S37" s="102">
-        <v>150000</v>
+        <v>1500000</v>
       </c>
       <c r="T37" s="102">
-        <f t="shared" si="9"/>
-        <v>2586.2068965517242</v>
+        <f>S37/O37</f>
+        <v>25423.728813559323</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="104" t="s">
-        <v>322</v>
+      <c r="A38" s="94" t="s">
+        <v>274</v>
       </c>
       <c r="B38" s="85" t="s">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="C38" s="85">
         <v>18</v>
       </c>
       <c r="D38" s="85">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="E38" s="85">
         <v>1</v>
       </c>
+      <c r="F38" s="26" t="s">
+        <v>179</v>
+      </c>
       <c r="G38" s="29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H38" s="29">
         <v>9</v>
       </c>
       <c r="I38" s="29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J38" s="29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K38" s="85">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="L38" s="85">
         <v>32</v>
       </c>
       <c r="M38" s="85">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N38" s="85">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="O38" s="85">
-        <f t="shared" si="5"/>
-        <v>65</v>
+        <f>N38+L38+K38+M38</f>
+        <v>52</v>
       </c>
       <c r="P38" s="85">
-        <f t="shared" si="6"/>
-        <v>209.85714285714286</v>
+        <f>(28-C38)*16-(D38/7)+O38</f>
+        <v>205.85714285714286</v>
       </c>
       <c r="Q38" s="85">
-        <f t="shared" si="7"/>
-        <v>47</v>
+        <f>L38+M38+N38</f>
+        <v>43</v>
       </c>
       <c r="R38" s="85">
-        <f t="shared" si="8"/>
-        <v>191.85714285714286</v>
+        <f>(28-C38)*16-(D38/7)+Q38</f>
+        <v>196.85714285714286</v>
       </c>
       <c r="S38" s="102">
-        <v>975000</v>
+        <v>800000</v>
       </c>
       <c r="T38" s="102">
-        <f t="shared" si="9"/>
-        <v>15000</v>
+        <f>S38/O38</f>
+        <v>15384.615384615385</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="85" t="s">
-        <v>261</v>
+      <c r="A39" s="94" t="s">
+        <v>296</v>
       </c>
       <c r="B39" s="85" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="C39" s="85">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D39" s="85">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="E39" s="85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F39" s="26" t="s">
         <v>106</v>
       </c>
       <c r="G39" s="29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H39" s="29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I39" s="29">
+        <v>8</v>
+      </c>
+      <c r="J39" s="29">
+        <v>3</v>
+      </c>
+      <c r="K39" s="85">
+        <v>9</v>
+      </c>
+      <c r="L39" s="85">
         <v>12</v>
       </c>
-      <c r="J39" s="29">
-        <v>0</v>
-      </c>
-      <c r="K39" s="85">
+      <c r="M39" s="85">
+        <v>26</v>
+      </c>
+      <c r="N39" s="85">
+        <v>2</v>
+      </c>
+      <c r="O39" s="85">
+        <f>N39+L39+K39+M39</f>
+        <v>49</v>
+      </c>
+      <c r="P39" s="85">
+        <f>(28-C39)*16-(D39/7)+O39</f>
+        <v>205.28571428571428</v>
+      </c>
+      <c r="Q39" s="85">
+        <f>L39+M39+N39</f>
+        <v>40</v>
+      </c>
+      <c r="R39" s="85">
+        <f>(28-C39)*16-(D39/7)+Q39</f>
+        <v>196.28571428571428</v>
+      </c>
+      <c r="S39" s="102">
+        <v>1500000</v>
+      </c>
+      <c r="T39" s="102">
+        <f>S39/O39</f>
+        <v>30612.244897959183</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="108" t="s">
+        <v>286</v>
+      </c>
+      <c r="B40" s="85" t="s">
+        <v>284</v>
+      </c>
+      <c r="C40" s="85">
         <v>18</v>
       </c>
-      <c r="L39" s="85">
-        <v>3</v>
-      </c>
-      <c r="M39" s="85">
-        <v>57</v>
-      </c>
-      <c r="N39" s="85">
-        <v>-1</v>
-      </c>
-      <c r="O39" s="85">
-        <f t="shared" si="5"/>
-        <v>77</v>
-      </c>
-      <c r="P39" s="85">
-        <f t="shared" si="6"/>
-        <v>209.57142857142858</v>
-      </c>
-      <c r="Q39" s="85">
-        <f t="shared" si="7"/>
-        <v>59</v>
-      </c>
-      <c r="R39" s="85">
-        <f t="shared" si="8"/>
-        <v>191.57142857142858</v>
-      </c>
-      <c r="S39" s="102">
-        <v>3200000</v>
-      </c>
-      <c r="T39" s="102">
-        <f t="shared" si="9"/>
-        <v>41558.441558441562</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="94" t="s">
-        <v>309</v>
-      </c>
-      <c r="B40" s="85" t="s">
-        <v>310</v>
-      </c>
-      <c r="C40" s="85">
-        <v>19</v>
-      </c>
       <c r="D40" s="85">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="E40" s="85">
         <v>4</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G40" s="29">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H40" s="29">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I40" s="29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J40" s="29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K40" s="85">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="L40" s="85">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="M40" s="85">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N40" s="85">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O40" s="85">
-        <f t="shared" si="5"/>
+        <f>N40+L40+K40+M40</f>
         <v>61</v>
       </c>
       <c r="P40" s="85">
-        <f t="shared" si="6"/>
-        <v>193.85714285714286</v>
+        <f>(28-C40)*16-(D40/7)+O40</f>
+        <v>205.28571428571428</v>
       </c>
       <c r="Q40" s="85">
-        <f t="shared" si="7"/>
-        <v>58</v>
+        <f>L40+M40+N40</f>
+        <v>38</v>
       </c>
       <c r="R40" s="85">
-        <f t="shared" si="8"/>
-        <v>190.85714285714286</v>
+        <f>(28-C40)*16-(D40/7)+Q40</f>
+        <v>182.28571428571428</v>
       </c>
       <c r="S40" s="102">
-        <v>3700000</v>
+        <v>450000</v>
       </c>
       <c r="T40" s="102">
-        <f t="shared" si="9"/>
-        <v>60655.737704918036</v>
+        <f>S40/O40</f>
+        <v>7377.0491803278692</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="94" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="B41" s="85" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="C41" s="85">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D41" s="85">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="E41" s="85">
-        <v>2</v>
-      </c>
-      <c r="F41" s="26" t="s">
-        <v>106</v>
+        <v>3.2228070175438601</v>
       </c>
       <c r="G41" s="29">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H41" s="29">
         <v>5</v>
       </c>
       <c r="I41" s="29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J41" s="29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K41" s="85">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L41" s="85">
         <v>12</v>
       </c>
       <c r="M41" s="85">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N41" s="85">
+        <v>2</v>
+      </c>
+      <c r="O41" s="85">
+        <f>N41+L41+K41+M41</f>
+        <v>36</v>
+      </c>
+      <c r="P41" s="85">
+        <f>(28-C41)*16-(D41/7)+O41</f>
+        <v>203.57142857142858</v>
+      </c>
+      <c r="Q41" s="85">
+        <f>L41+M41+N41</f>
+        <v>30</v>
+      </c>
+      <c r="R41" s="85">
+        <f>(28-C41)*16-(D41/7)+Q41</f>
+        <v>197.57142857142858</v>
+      </c>
+      <c r="S41" s="102">
+        <v>400000</v>
+      </c>
+      <c r="T41" s="102">
+        <f>S41/O41</f>
+        <v>11111.111111111111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="94" t="s">
+        <v>285</v>
+      </c>
+      <c r="B42" s="85" t="s">
+        <v>284</v>
+      </c>
+      <c r="C42" s="85">
+        <v>17</v>
+      </c>
+      <c r="D42" s="85">
+        <v>60</v>
+      </c>
+      <c r="E42" s="85">
         <v>4</v>
       </c>
-      <c r="O41" s="85">
-        <f t="shared" si="5"/>
-        <v>54</v>
-      </c>
-      <c r="P41" s="85">
-        <f t="shared" si="6"/>
-        <v>208.71428571428572</v>
-      </c>
-      <c r="Q41" s="85">
-        <f t="shared" si="7"/>
+      <c r="F42" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G42" s="29">
+        <v>2</v>
+      </c>
+      <c r="H42" s="29">
+        <v>6</v>
+      </c>
+      <c r="I42" s="29">
+        <v>6</v>
+      </c>
+      <c r="J42" s="29">
+        <v>2</v>
+      </c>
+      <c r="K42" s="85">
+        <v>3</v>
+      </c>
+      <c r="L42" s="85">
+        <v>16</v>
+      </c>
+      <c r="M42" s="85">
+        <v>16</v>
+      </c>
+      <c r="N42" s="85">
+        <v>1</v>
+      </c>
+      <c r="O42" s="85">
+        <f>N42+L42+K42+M42</f>
         <v>36</v>
       </c>
-      <c r="R41" s="85">
-        <f t="shared" si="8"/>
-        <v>190.71428571428572</v>
-      </c>
-      <c r="S41" s="102">
-        <v>150000</v>
-      </c>
-      <c r="T41" s="102">
-        <f t="shared" si="9"/>
-        <v>2777.7777777777778</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="85" t="s">
-        <v>276</v>
-      </c>
-      <c r="B42" s="85" t="s">
-        <v>277</v>
-      </c>
-      <c r="C42" s="85">
+      <c r="P42" s="85">
+        <f>(28-C42)*16-(D42/7)+O42</f>
+        <v>203.42857142857142</v>
+      </c>
+      <c r="Q42" s="85">
+        <f>L42+M42+N42</f>
+        <v>33</v>
+      </c>
+      <c r="R42" s="85">
+        <f>(28-C42)*16-(D42/7)+Q42</f>
+        <v>200.42857142857142</v>
+      </c>
+      <c r="S42" s="102">
+        <v>350000</v>
+      </c>
+      <c r="T42" s="102">
+        <f>S42/O42</f>
+        <v>9722.2222222222226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="94" t="s">
+        <v>250</v>
+      </c>
+      <c r="B43" s="85" t="s">
+        <v>252</v>
+      </c>
+      <c r="C43" s="85">
+        <v>19</v>
+      </c>
+      <c r="D43" s="85">
+        <v>61</v>
+      </c>
+      <c r="E43" s="85">
+        <v>2</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="G43" s="29">
+        <v>6</v>
+      </c>
+      <c r="H43" s="29">
+        <v>4</v>
+      </c>
+      <c r="I43" s="29">
+        <v>10</v>
+      </c>
+      <c r="J43" s="29">
+        <v>3</v>
+      </c>
+      <c r="K43" s="85">
         <v>18</v>
       </c>
-      <c r="D42" s="85">
-        <v>45</v>
-      </c>
-      <c r="E42" s="85">
-        <v>1</v>
-      </c>
-      <c r="F42" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="G42" s="29">
+      <c r="L43" s="85">
+        <v>9</v>
+      </c>
+      <c r="M43" s="85">
+        <v>39</v>
+      </c>
+      <c r="N43" s="85">
+        <v>2</v>
+      </c>
+      <c r="O43" s="85">
+        <f>N43+L43+K43+M43</f>
+        <v>68</v>
+      </c>
+      <c r="P43" s="85">
+        <f>(28-C43)*16-(D43/7)+O43</f>
+        <v>203.28571428571428</v>
+      </c>
+      <c r="Q43" s="85">
+        <f>L43+M43+N43</f>
+        <v>50</v>
+      </c>
+      <c r="R43" s="85">
+        <f>(28-C43)*16-(D43/7)+Q43</f>
+        <v>185.28571428571428</v>
+      </c>
+      <c r="S43" s="102">
+        <v>1550000</v>
+      </c>
+      <c r="T43" s="102">
+        <f>S43/O43</f>
+        <v>22794.117647058825</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="108" t="s">
+        <v>333</v>
+      </c>
+      <c r="B44" s="85" t="s">
+        <v>291</v>
+      </c>
+      <c r="C44" s="85">
+        <v>19</v>
+      </c>
+      <c r="D44" s="85">
+        <v>5</v>
+      </c>
+      <c r="E44" s="85">
         <v>4</v>
       </c>
-      <c r="H42" s="29">
-        <v>8</v>
-      </c>
-      <c r="I42" s="29">
-        <v>4</v>
-      </c>
-      <c r="J42" s="29">
-        <v>4</v>
-      </c>
-      <c r="K42" s="85">
-        <v>9</v>
-      </c>
-      <c r="L42" s="85">
-        <v>26</v>
-      </c>
-      <c r="M42" s="85">
-        <v>8</v>
-      </c>
-      <c r="N42" s="85">
-        <v>3</v>
-      </c>
-      <c r="O42" s="85">
-        <f t="shared" si="5"/>
-        <v>46</v>
-      </c>
-      <c r="P42" s="85">
-        <f t="shared" si="6"/>
-        <v>199.57142857142858</v>
-      </c>
-      <c r="Q42" s="85">
-        <f t="shared" si="7"/>
-        <v>37</v>
-      </c>
-      <c r="R42" s="85">
-        <f t="shared" si="8"/>
-        <v>190.57142857142858</v>
-      </c>
-      <c r="S42" s="102">
-        <v>450000</v>
-      </c>
-      <c r="T42" s="102">
-        <f t="shared" si="9"/>
-        <v>9782.608695652174</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="85" t="s">
-        <v>336</v>
-      </c>
-      <c r="B43" s="85" t="s">
-        <v>323</v>
-      </c>
-      <c r="C43" s="85">
-        <v>18</v>
-      </c>
-      <c r="D43" s="85">
-        <v>41</v>
-      </c>
-      <c r="E43" s="85">
-        <v>5</v>
-      </c>
-      <c r="F43" s="26" t="s">
+      <c r="F44" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="G43" s="29">
-        <v>3</v>
-      </c>
-      <c r="H43" s="29">
+      <c r="G44" s="29">
+        <v>7</v>
+      </c>
+      <c r="H44" s="29">
+        <v>7</v>
+      </c>
+      <c r="I44" s="29">
         <v>6</v>
-      </c>
-      <c r="I43" s="29">
-        <v>7</v>
-      </c>
-      <c r="J43" s="29">
-        <v>0</v>
-      </c>
-      <c r="K43" s="85">
-        <v>6</v>
-      </c>
-      <c r="L43" s="85">
-        <v>16</v>
-      </c>
-      <c r="M43" s="85">
-        <v>20</v>
-      </c>
-      <c r="N43" s="85">
-        <v>-1</v>
-      </c>
-      <c r="O43" s="85">
-        <f t="shared" si="5"/>
-        <v>41</v>
-      </c>
-      <c r="P43" s="85">
-        <f t="shared" si="6"/>
-        <v>195.14285714285714</v>
-      </c>
-      <c r="Q43" s="85">
-        <f t="shared" si="7"/>
-        <v>35</v>
-      </c>
-      <c r="R43" s="85">
-        <f t="shared" si="8"/>
-        <v>189.14285714285714</v>
-      </c>
-      <c r="S43" s="102">
-        <v>2000000</v>
-      </c>
-      <c r="T43" s="102">
-        <f t="shared" si="9"/>
-        <v>48780.487804878052</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="85" t="s">
-        <v>273</v>
-      </c>
-      <c r="B44" s="85" t="s">
-        <v>252</v>
-      </c>
-      <c r="C44" s="85">
-        <v>18</v>
-      </c>
-      <c r="D44" s="85">
-        <v>34</v>
-      </c>
-      <c r="E44" s="85">
-        <v>3</v>
-      </c>
-      <c r="F44" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="G44" s="29">
-        <v>4</v>
-      </c>
-      <c r="H44" s="29">
-        <v>8</v>
-      </c>
-      <c r="I44" s="29">
-        <v>4</v>
       </c>
       <c r="J44" s="29">
         <v>1</v>
       </c>
       <c r="K44" s="85">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="L44" s="85">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M44" s="85">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N44" s="85">
         <v>0</v>
       </c>
       <c r="O44" s="85">
-        <f t="shared" si="5"/>
-        <v>43</v>
+        <f>N44+L44+K44+M44</f>
+        <v>60</v>
       </c>
       <c r="P44" s="85">
-        <f t="shared" si="6"/>
-        <v>198.14285714285714</v>
+        <f>(28-C44)*16-(D44/7)+O44</f>
+        <v>203.28571428571428</v>
       </c>
       <c r="Q44" s="85">
-        <f t="shared" si="7"/>
-        <v>34</v>
+        <f>L44+M44+N44</f>
+        <v>37</v>
       </c>
       <c r="R44" s="85">
-        <f t="shared" si="8"/>
-        <v>189.14285714285714</v>
+        <f>(28-C44)*16-(D44/7)+Q44</f>
+        <v>180.28571428571428</v>
       </c>
       <c r="S44" s="102">
-        <v>240000</v>
+        <v>800000</v>
       </c>
       <c r="T44" s="102">
-        <f t="shared" si="9"/>
-        <v>5581.395348837209</v>
+        <f>S44/O44</f>
+        <v>13333.333333333334</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="85" t="s">
+      <c r="A45" s="94" t="s">
+        <v>290</v>
+      </c>
+      <c r="B45" s="85" t="s">
+        <v>284</v>
+      </c>
+      <c r="C45" s="85">
+        <v>17</v>
+      </c>
+      <c r="D45" s="85">
+        <v>91</v>
+      </c>
+      <c r="E45" s="85">
+        <v>6</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="G45" s="29">
+        <v>2</v>
+      </c>
+      <c r="H45" s="29">
+        <v>8</v>
+      </c>
+      <c r="I45" s="29">
+        <v>5</v>
+      </c>
+      <c r="J45" s="29">
+        <v>0</v>
+      </c>
+      <c r="K45" s="85">
+        <v>3</v>
+      </c>
+      <c r="L45" s="85">
+        <v>26</v>
+      </c>
+      <c r="M45" s="85">
+        <v>12</v>
+      </c>
+      <c r="N45" s="85">
+        <v>-1</v>
+      </c>
+      <c r="O45" s="85">
+        <f>N45+L45+K45+M45</f>
+        <v>40</v>
+      </c>
+      <c r="P45" s="85">
+        <f>(28-C45)*16-(D45/7)+O45</f>
+        <v>203</v>
+      </c>
+      <c r="Q45" s="85">
+        <f>L45+M45+N45</f>
+        <v>37</v>
+      </c>
+      <c r="R45" s="85">
+        <f>(28-C45)*16-(D45/7)+Q45</f>
+        <v>200</v>
+      </c>
+      <c r="S45" s="102">
+        <v>700000</v>
+      </c>
+      <c r="T45" s="102">
+        <f>S45/O45</f>
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="94" t="s">
         <v>353</v>
       </c>
-      <c r="B45" s="85" t="s">
+      <c r="B46" s="85" t="s">
         <v>252</v>
-      </c>
-      <c r="C45" s="85">
-        <v>18</v>
-      </c>
-      <c r="D45" s="85">
-        <v>49</v>
-      </c>
-      <c r="E45" s="85">
-        <v>2</v>
-      </c>
-      <c r="F45" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="G45" s="29">
-        <v>5</v>
-      </c>
-      <c r="H45" s="29">
-        <v>6</v>
-      </c>
-      <c r="I45" s="29">
-        <v>6</v>
-      </c>
-      <c r="J45" s="29">
-        <v>5</v>
-      </c>
-      <c r="K45" s="85">
-        <v>13</v>
-      </c>
-      <c r="L45" s="85">
-        <v>16</v>
-      </c>
-      <c r="M45" s="85">
-        <v>16</v>
-      </c>
-      <c r="N45" s="85">
-        <v>4</v>
-      </c>
-      <c r="O45" s="85">
-        <f t="shared" si="5"/>
-        <v>49</v>
-      </c>
-      <c r="P45" s="85">
-        <f t="shared" si="6"/>
-        <v>202</v>
-      </c>
-      <c r="Q45" s="85">
-        <f t="shared" si="7"/>
-        <v>36</v>
-      </c>
-      <c r="R45" s="85">
-        <f t="shared" si="8"/>
-        <v>189</v>
-      </c>
-      <c r="S45" s="102">
-        <v>200000</v>
-      </c>
-      <c r="T45" s="102">
-        <f t="shared" si="9"/>
-        <v>4081.6326530612246</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="85" t="s">
-        <v>303</v>
-      </c>
-      <c r="B46" s="85" t="s">
-        <v>292</v>
       </c>
       <c r="C46" s="85">
         <v>18</v>
       </c>
       <c r="D46" s="85">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="E46" s="85">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F46" s="26" t="s">
         <v>106</v>
       </c>
       <c r="G46" s="29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H46" s="29">
         <v>6</v>
       </c>
       <c r="I46" s="29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J46" s="29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K46" s="85">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L46" s="85">
         <v>16</v>
       </c>
       <c r="M46" s="85">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N46" s="85">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O46" s="85">
-        <f t="shared" si="5"/>
-        <v>48</v>
+        <f>N46+L46+K46+M46</f>
+        <v>49</v>
       </c>
       <c r="P46" s="85">
-        <f t="shared" si="6"/>
-        <v>197.85714285714286</v>
+        <f>(28-C46)*16-(D46/7)+O46</f>
+        <v>202</v>
       </c>
       <c r="Q46" s="85">
-        <f t="shared" si="7"/>
-        <v>39</v>
+        <f>L46+M46+N46</f>
+        <v>36</v>
       </c>
       <c r="R46" s="85">
-        <f t="shared" si="8"/>
-        <v>188.85714285714286</v>
+        <f>(28-C46)*16-(D46/7)+Q46</f>
+        <v>189</v>
       </c>
       <c r="S46" s="102">
         <v>200000</v>
       </c>
       <c r="T46" s="102">
-        <f t="shared" si="9"/>
-        <v>4166.666666666667</v>
+        <f>S46/O46</f>
+        <v>4081.6326530612246</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="85" t="s">
-        <v>267</v>
+      <c r="A47" s="94" t="s">
+        <v>337</v>
       </c>
       <c r="B47" s="85" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="C47" s="85">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D47" s="85">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E47" s="85">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F47" s="26" t="s">
-        <v>269</v>
+        <v>106</v>
       </c>
       <c r="G47" s="29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H47" s="29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I47" s="29">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J47" s="29">
         <v>2</v>
       </c>
       <c r="K47" s="85">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L47" s="85">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M47" s="85">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="N47" s="85">
         <v>1</v>
       </c>
       <c r="O47" s="85">
-        <f t="shared" si="5"/>
-        <v>52</v>
+        <f>N47+L47+K47+M47</f>
+        <v>48</v>
       </c>
       <c r="P47" s="85">
-        <f t="shared" si="6"/>
-        <v>193.14285714285714</v>
+        <f>(28-C47)*16-(D47/7)+O47</f>
+        <v>201.42857142857142</v>
       </c>
       <c r="Q47" s="85">
-        <f t="shared" si="7"/>
+        <f>L47+M47+N47</f>
+        <v>39</v>
+      </c>
+      <c r="R47" s="85">
+        <f>(28-C47)*16-(D47/7)+Q47</f>
+        <v>192.42857142857142</v>
+      </c>
+      <c r="S47" s="102">
+        <v>1600000</v>
+      </c>
+      <c r="T47" s="102">
+        <f>S47/O47</f>
+        <v>33333.333333333336</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="94" t="s">
+        <v>276</v>
+      </c>
+      <c r="B48" s="85" t="s">
+        <v>277</v>
+      </c>
+      <c r="C48" s="85">
+        <v>18</v>
+      </c>
+      <c r="D48" s="85">
+        <v>45</v>
+      </c>
+      <c r="E48" s="85">
+        <v>1</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="G48" s="29">
+        <v>4</v>
+      </c>
+      <c r="H48" s="29">
+        <v>8</v>
+      </c>
+      <c r="I48" s="29">
+        <v>4</v>
+      </c>
+      <c r="J48" s="29">
+        <v>4</v>
+      </c>
+      <c r="K48" s="85">
+        <v>9</v>
+      </c>
+      <c r="L48" s="85">
+        <v>26</v>
+      </c>
+      <c r="M48" s="85">
+        <v>8</v>
+      </c>
+      <c r="N48" s="85">
+        <v>3</v>
+      </c>
+      <c r="O48" s="85">
+        <f>N48+L48+K48+M48</f>
         <v>46</v>
       </c>
-      <c r="R47" s="85">
-        <f t="shared" si="8"/>
-        <v>187.14285714285714</v>
-      </c>
-      <c r="S47" s="102">
-        <v>1350000</v>
-      </c>
-      <c r="T47" s="102">
-        <f t="shared" si="9"/>
-        <v>25961.538461538461</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="85" t="s">
-        <v>250</v>
-      </c>
-      <c r="B48" s="85" t="s">
-        <v>252</v>
-      </c>
-      <c r="C48" s="85">
-        <v>19</v>
-      </c>
-      <c r="D48" s="85">
-        <v>61</v>
-      </c>
-      <c r="E48" s="85">
-        <v>2</v>
-      </c>
-      <c r="F48" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="G48" s="29">
-        <v>6</v>
-      </c>
-      <c r="H48" s="29">
-        <v>4</v>
-      </c>
-      <c r="I48" s="29">
-        <v>10</v>
-      </c>
-      <c r="J48" s="29">
-        <v>3</v>
-      </c>
-      <c r="K48" s="85">
-        <v>18</v>
-      </c>
-      <c r="L48" s="85">
-        <v>9</v>
-      </c>
-      <c r="M48" s="85">
-        <v>39</v>
-      </c>
-      <c r="N48" s="85">
-        <v>2</v>
-      </c>
-      <c r="O48" s="85">
-        <f t="shared" si="5"/>
-        <v>68</v>
-      </c>
       <c r="P48" s="85">
-        <f t="shared" si="6"/>
-        <v>203.28571428571428</v>
+        <f>(28-C48)*16-(D48/7)+O48</f>
+        <v>199.57142857142858</v>
       </c>
       <c r="Q48" s="85">
-        <f t="shared" si="7"/>
-        <v>50</v>
+        <f>L48+M48+N48</f>
+        <v>37</v>
       </c>
       <c r="R48" s="85">
-        <f t="shared" si="8"/>
-        <v>185.28571428571428</v>
+        <f>(28-C48)*16-(D48/7)+Q48</f>
+        <v>190.57142857142858</v>
       </c>
       <c r="S48" s="102">
-        <v>1550000</v>
+        <v>450000</v>
       </c>
       <c r="T48" s="102">
-        <f t="shared" si="9"/>
-        <v>22794.117647058825</v>
+        <f>S48/O48</f>
+        <v>9782.608695652174</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="85" t="s">
-        <v>352</v>
+      <c r="A49" s="94" t="s">
+        <v>288</v>
       </c>
       <c r="B49" s="85" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="C49" s="85">
         <v>18</v>
       </c>
       <c r="D49" s="85">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="E49" s="85">
+        <v>3.2456140350877201</v>
+      </c>
+      <c r="G49" s="29">
+        <v>3</v>
+      </c>
+      <c r="H49" s="29">
+        <v>9</v>
+      </c>
+      <c r="I49" s="29">
+        <v>5</v>
+      </c>
+      <c r="J49" s="29">
+        <v>3</v>
+      </c>
+      <c r="K49" s="85">
         <v>6</v>
       </c>
-      <c r="F49" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="G49" s="29">
-        <v>5</v>
-      </c>
-      <c r="H49" s="29">
-        <v>6</v>
-      </c>
-      <c r="I49" s="29">
-        <v>6</v>
-      </c>
-      <c r="J49" s="29">
-        <v>2</v>
-      </c>
-      <c r="K49" s="85">
-        <v>13</v>
-      </c>
       <c r="L49" s="85">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M49" s="85">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N49" s="85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O49" s="85">
-        <f t="shared" si="5"/>
+        <f>N49+L49+K49+M49</f>
+        <v>52</v>
+      </c>
+      <c r="P49" s="85">
+        <f>(28-C49)*16-(D49/7)+O49</f>
+        <v>198.28571428571428</v>
+      </c>
+      <c r="Q49" s="85">
+        <f>L49+M49+N49</f>
         <v>46</v>
       </c>
-      <c r="P49" s="85">
-        <f t="shared" si="6"/>
-        <v>198</v>
-      </c>
-      <c r="Q49" s="85">
-        <f t="shared" si="7"/>
-        <v>33</v>
-      </c>
       <c r="R49" s="85">
-        <f t="shared" si="8"/>
-        <v>185</v>
+        <f>(28-C49)*16-(D49/7)+Q49</f>
+        <v>192.28571428571428</v>
       </c>
       <c r="S49" s="102">
-        <v>2500000</v>
+        <v>2000000</v>
       </c>
       <c r="T49" s="102">
-        <f t="shared" si="9"/>
-        <v>54347.82608695652</v>
+        <f>S49/O49</f>
+        <v>38461.538461538461</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="85" t="s">
-        <v>329</v>
+      <c r="A50" s="94" t="s">
+        <v>273</v>
       </c>
       <c r="B50" s="85" t="s">
-        <v>330</v>
+        <v>252</v>
       </c>
       <c r="C50" s="85">
         <v>18</v>
       </c>
       <c r="D50" s="85">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="E50" s="85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F50" s="26" t="s">
         <v>181</v>
       </c>
       <c r="G50" s="29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H50" s="29">
+        <v>8</v>
+      </c>
+      <c r="I50" s="29">
+        <v>4</v>
+      </c>
+      <c r="J50" s="29">
+        <v>1</v>
+      </c>
+      <c r="K50" s="85">
+        <v>9</v>
+      </c>
+      <c r="L50" s="85">
+        <v>26</v>
+      </c>
+      <c r="M50" s="85">
+        <v>8</v>
+      </c>
+      <c r="N50" s="85">
+        <v>0</v>
+      </c>
+      <c r="O50" s="85">
+        <f>N50+L50+K50+M50</f>
+        <v>43</v>
+      </c>
+      <c r="P50" s="85">
+        <f>(28-C50)*16-(D50/7)+O50</f>
+        <v>198.14285714285714</v>
+      </c>
+      <c r="Q50" s="85">
+        <f>L50+M50+N50</f>
+        <v>34</v>
+      </c>
+      <c r="R50" s="85">
+        <f>(28-C50)*16-(D50/7)+Q50</f>
+        <v>189.14285714285714</v>
+      </c>
+      <c r="S50" s="102">
+        <v>240000</v>
+      </c>
+      <c r="T50" s="102">
+        <f>S50/O50</f>
+        <v>5581.395348837209</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="94" t="s">
+        <v>352</v>
+      </c>
+      <c r="B51" s="85" t="s">
+        <v>293</v>
+      </c>
+      <c r="C51" s="85">
+        <v>18</v>
+      </c>
+      <c r="D51" s="85">
+        <v>56</v>
+      </c>
+      <c r="E51" s="85">
         <v>6</v>
       </c>
-      <c r="I50" s="29">
-        <v>7</v>
-      </c>
-      <c r="J50" s="29">
-        <v>2</v>
-      </c>
-      <c r="K50" s="85">
-        <v>13</v>
-      </c>
-      <c r="L50" s="85">
-        <v>16</v>
-      </c>
-      <c r="M50" s="85">
-        <v>20</v>
-      </c>
-      <c r="N50" s="85">
-        <v>1</v>
-      </c>
-      <c r="O50" s="85">
-        <f t="shared" si="5"/>
-        <v>50</v>
-      </c>
-      <c r="P50" s="85">
-        <f t="shared" si="6"/>
-        <v>196.42857142857142</v>
-      </c>
-      <c r="Q50" s="85">
-        <f t="shared" si="7"/>
-        <v>37</v>
-      </c>
-      <c r="R50" s="85">
-        <f t="shared" si="8"/>
-        <v>183.42857142857142</v>
-      </c>
-      <c r="S50" s="102">
-        <v>2350000</v>
-      </c>
-      <c r="T50" s="102">
-        <f t="shared" si="9"/>
-        <v>47000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="85" t="s">
-        <v>317</v>
-      </c>
-      <c r="B51" s="85" t="s">
-        <v>277</v>
-      </c>
-      <c r="C51" s="85">
-        <v>19</v>
-      </c>
-      <c r="D51" s="85">
-        <v>26</v>
-      </c>
-      <c r="E51" s="85">
-        <v>5</v>
-      </c>
       <c r="F51" s="26" t="s">
-        <v>106</v>
+        <v>269</v>
       </c>
       <c r="G51" s="29">
         <v>5</v>
       </c>
       <c r="H51" s="29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I51" s="29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J51" s="29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K51" s="85">
         <v>13</v>
       </c>
       <c r="L51" s="85">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M51" s="85">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N51" s="85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O51" s="85">
-        <f t="shared" si="5"/>
-        <v>56</v>
+        <f>N51+L51+K51+M51</f>
+        <v>46</v>
       </c>
       <c r="P51" s="85">
-        <f t="shared" si="6"/>
-        <v>196.28571428571428</v>
+        <f>(28-C51)*16-(D51/7)+O51</f>
+        <v>198</v>
       </c>
       <c r="Q51" s="85">
-        <f t="shared" si="7"/>
-        <v>43</v>
+        <f>L51+M51+N51</f>
+        <v>33</v>
       </c>
       <c r="R51" s="85">
-        <f t="shared" si="8"/>
-        <v>183.28571428571428</v>
+        <f>(28-C51)*16-(D51/7)+Q51</f>
+        <v>185</v>
       </c>
       <c r="S51" s="102">
-        <v>3000000</v>
+        <v>2500000</v>
       </c>
       <c r="T51" s="102">
-        <f t="shared" si="9"/>
-        <v>53571.428571428572</v>
+        <f>S51/O51</f>
+        <v>54347.82608695652</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="103" t="s">
-        <v>286</v>
+      <c r="A52" s="94" t="s">
+        <v>303</v>
       </c>
       <c r="B52" s="85" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C52" s="85">
         <v>18</v>
       </c>
       <c r="D52" s="85">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="E52" s="85">
+        <v>6</v>
+      </c>
+      <c r="F52" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G52" s="29">
         <v>4</v>
       </c>
-      <c r="F52" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="G52" s="29">
+      <c r="H52" s="29">
+        <v>6</v>
+      </c>
+      <c r="I52" s="29">
         <v>7</v>
       </c>
-      <c r="H52" s="29">
+      <c r="J52" s="29">
+        <v>4</v>
+      </c>
+      <c r="K52" s="85">
+        <v>9</v>
+      </c>
+      <c r="L52" s="85">
+        <v>16</v>
+      </c>
+      <c r="M52" s="85">
+        <v>20</v>
+      </c>
+      <c r="N52" s="85">
+        <v>3</v>
+      </c>
+      <c r="O52" s="85">
+        <f>N52+L52+K52+M52</f>
+        <v>48</v>
+      </c>
+      <c r="P52" s="85">
+        <f>(28-C52)*16-(D52/7)+O52</f>
+        <v>197.85714285714286</v>
+      </c>
+      <c r="Q52" s="85">
+        <f>L52+M52+N52</f>
+        <v>39</v>
+      </c>
+      <c r="R52" s="85">
+        <f>(28-C52)*16-(D52/7)+Q52</f>
+        <v>188.85714285714286</v>
+      </c>
+      <c r="S52" s="102">
+        <v>200000</v>
+      </c>
+      <c r="T52" s="102">
+        <f>S52/O52</f>
+        <v>4166.666666666667</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="94" t="s">
+        <v>329</v>
+      </c>
+      <c r="B53" s="85" t="s">
+        <v>330</v>
+      </c>
+      <c r="C53" s="85">
+        <v>18</v>
+      </c>
+      <c r="D53" s="85">
+        <v>95</v>
+      </c>
+      <c r="E53" s="85">
+        <v>4</v>
+      </c>
+      <c r="F53" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="G53" s="29">
+        <v>5</v>
+      </c>
+      <c r="H53" s="29">
+        <v>6</v>
+      </c>
+      <c r="I53" s="29">
         <v>7</v>
       </c>
-      <c r="I52" s="29">
-        <v>6</v>
-      </c>
-      <c r="J52" s="29">
-        <v>2</v>
-      </c>
-      <c r="K52" s="85">
-        <v>23</v>
-      </c>
-      <c r="L52" s="85">
-        <v>21</v>
-      </c>
-      <c r="M52" s="85">
+      <c r="J53" s="29">
+        <v>2</v>
+      </c>
+      <c r="K53" s="85">
+        <v>13</v>
+      </c>
+      <c r="L53" s="85">
         <v>16</v>
       </c>
-      <c r="N52" s="85">
+      <c r="M53" s="85">
+        <v>20</v>
+      </c>
+      <c r="N53" s="85">
         <v>1</v>
       </c>
-      <c r="O52" s="85">
-        <f t="shared" si="5"/>
-        <v>61</v>
-      </c>
-      <c r="P52" s="85">
-        <f t="shared" si="6"/>
-        <v>205.28571428571428</v>
-      </c>
-      <c r="Q52" s="85">
-        <f t="shared" si="7"/>
-        <v>38</v>
-      </c>
-      <c r="R52" s="85">
-        <f t="shared" si="8"/>
-        <v>182.28571428571428</v>
-      </c>
-      <c r="S52" s="102">
-        <v>450000</v>
-      </c>
-      <c r="T52" s="102">
-        <f t="shared" si="9"/>
-        <v>7377.0491803278692</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" s="104" t="s">
-        <v>328</v>
-      </c>
-      <c r="B53" s="85" t="s">
-        <v>260</v>
-      </c>
-      <c r="C53" s="85">
-        <v>19</v>
-      </c>
-      <c r="D53" s="85">
-        <v>88</v>
-      </c>
-      <c r="E53" s="85">
-        <v>2</v>
-      </c>
-      <c r="F53" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="G53" s="29">
-        <v>9</v>
-      </c>
-      <c r="H53" s="29">
-        <v>10</v>
-      </c>
-      <c r="I53" s="29">
-        <v>5</v>
-      </c>
-      <c r="J53" s="29">
-        <v>0</v>
-      </c>
-      <c r="K53" s="85">
-        <v>36</v>
-      </c>
-      <c r="L53" s="85">
-        <v>39</v>
-      </c>
-      <c r="M53" s="85">
-        <v>12</v>
-      </c>
-      <c r="N53" s="85">
-        <v>-1</v>
-      </c>
       <c r="O53" s="85">
-        <f t="shared" si="5"/>
-        <v>86</v>
+        <f>N53+L53+K53+M53</f>
+        <v>50</v>
       </c>
       <c r="P53" s="85">
-        <f t="shared" si="6"/>
-        <v>217.42857142857142</v>
+        <f>(28-C53)*16-(D53/7)+O53</f>
+        <v>196.42857142857142</v>
       </c>
       <c r="Q53" s="85">
-        <f t="shared" si="7"/>
-        <v>50</v>
+        <f>L53+M53+N53</f>
+        <v>37</v>
       </c>
       <c r="R53" s="85">
-        <f t="shared" si="8"/>
-        <v>181.42857142857142</v>
+        <f>(28-C53)*16-(D53/7)+Q53</f>
+        <v>183.42857142857142</v>
       </c>
       <c r="S53" s="102">
-        <v>4000000</v>
+        <v>2350000</v>
       </c>
       <c r="T53" s="102">
-        <f t="shared" si="9"/>
-        <v>46511.627906976741</v>
+        <f>S53/O53</f>
+        <v>47000</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="94" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="B54" s="85" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="C54" s="85">
         <v>19</v>
       </c>
       <c r="D54" s="85">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="E54" s="85">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F54" s="26" t="s">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="G54" s="29">
         <v>5</v>
       </c>
       <c r="H54" s="29">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I54" s="29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J54" s="29">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K54" s="85">
         <v>13</v>
       </c>
       <c r="L54" s="85">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M54" s="85">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N54" s="85">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O54" s="85">
-        <f t="shared" si="5"/>
-        <v>59</v>
+        <f>N54+L54+K54+M54</f>
+        <v>56</v>
       </c>
       <c r="P54" s="85">
-        <f t="shared" si="6"/>
-        <v>194.42857142857142</v>
+        <f>(28-C54)*16-(D54/7)+O54</f>
+        <v>196.28571428571428</v>
       </c>
       <c r="Q54" s="85">
-        <f t="shared" si="7"/>
-        <v>46</v>
+        <f>L54+M54+N54</f>
+        <v>43</v>
       </c>
       <c r="R54" s="85">
-        <f t="shared" si="8"/>
-        <v>181.42857142857142</v>
+        <f>(28-C54)*16-(D54/7)+Q54</f>
+        <v>183.28571428571428</v>
       </c>
       <c r="S54" s="102">
-        <v>300000</v>
+        <v>3000000</v>
       </c>
       <c r="T54" s="102">
-        <f t="shared" si="9"/>
-        <v>5084.7457627118647</v>
+        <f>S54/O54</f>
+        <v>53571.428571428572</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="85" t="s">
-        <v>331</v>
+      <c r="A55" s="94" t="s">
+        <v>339</v>
       </c>
       <c r="B55" s="85" t="s">
-        <v>268</v>
+        <v>340</v>
       </c>
       <c r="C55" s="85">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D55" s="85">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="E55" s="85">
         <v>3</v>
       </c>
       <c r="F55" s="26" t="s">
-        <v>332</v>
+        <v>106</v>
       </c>
       <c r="G55" s="29">
         <v>2</v>
       </c>
       <c r="H55" s="29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I55" s="29">
         <v>7</v>
       </c>
       <c r="J55" s="29">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K55" s="85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L55" s="85">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M55" s="85">
         <v>20</v>
       </c>
       <c r="N55" s="85">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O55" s="85">
-        <f t="shared" si="5"/>
-        <v>40</v>
+        <f>N55+L55+K55+M55</f>
+        <v>55</v>
       </c>
       <c r="P55" s="85">
-        <f t="shared" si="6"/>
-        <v>184.42857142857142</v>
+        <f>(28-C55)*16-(D55/7)+O55</f>
+        <v>195.57142857142858</v>
       </c>
       <c r="Q55" s="85">
-        <f t="shared" si="7"/>
-        <v>37</v>
+        <f>L55+M55+N55</f>
+        <v>53</v>
       </c>
       <c r="R55" s="85">
-        <f t="shared" si="8"/>
-        <v>181.42857142857142</v>
+        <f>(28-C55)*16-(D55/7)+Q55</f>
+        <v>193.57142857142858</v>
       </c>
       <c r="S55" s="102">
-        <v>800000</v>
+        <v>1040308.55007257</v>
       </c>
       <c r="T55" s="102">
-        <f t="shared" si="9"/>
-        <v>20000</v>
+        <f>S55/O55</f>
+        <v>18914.700910410364</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="85" t="s">
-        <v>333</v>
+      <c r="A56" s="94" t="s">
+        <v>336</v>
       </c>
       <c r="B56" s="85" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="C56" s="85">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D56" s="85">
+        <v>41</v>
+      </c>
+      <c r="E56" s="85">
         <v>5</v>
-      </c>
-      <c r="E56" s="85">
-        <v>4</v>
       </c>
       <c r="F56" s="26" t="s">
         <v>106</v>
       </c>
       <c r="G56" s="29">
+        <v>3</v>
+      </c>
+      <c r="H56" s="29">
+        <v>6</v>
+      </c>
+      <c r="I56" s="29">
         <v>7</v>
       </c>
-      <c r="H56" s="29">
-        <v>7</v>
-      </c>
-      <c r="I56" s="29">
+      <c r="J56" s="29">
+        <v>0</v>
+      </c>
+      <c r="K56" s="85">
         <v>6</v>
       </c>
-      <c r="J56" s="29">
-        <v>1</v>
-      </c>
-      <c r="K56" s="85">
-        <v>23</v>
-      </c>
       <c r="L56" s="85">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M56" s="85">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N56" s="85">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O56" s="85">
-        <f t="shared" si="5"/>
-        <v>60</v>
+        <f>N56+L56+K56+M56</f>
+        <v>41</v>
       </c>
       <c r="P56" s="85">
-        <f t="shared" si="6"/>
-        <v>203.28571428571428</v>
+        <f>(28-C56)*16-(D56/7)+O56</f>
+        <v>195.14285714285714</v>
       </c>
       <c r="Q56" s="85">
-        <f t="shared" si="7"/>
-        <v>37</v>
+        <f>L56+M56+N56</f>
+        <v>35</v>
       </c>
       <c r="R56" s="85">
-        <f t="shared" si="8"/>
-        <v>180.28571428571428</v>
+        <f>(28-C56)*16-(D56/7)+Q56</f>
+        <v>189.14285714285714</v>
       </c>
       <c r="S56" s="102">
-        <v>800000</v>
+        <v>2000000</v>
       </c>
       <c r="T56" s="102">
-        <f t="shared" si="9"/>
-        <v>13333.333333333334</v>
+        <f>S56/O56</f>
+        <v>48780.487804878052</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="85" t="s">
-        <v>254</v>
+      <c r="A57" s="94" t="s">
+        <v>307</v>
       </c>
       <c r="B57" s="85" t="s">
-        <v>255</v>
+        <v>308</v>
       </c>
       <c r="C57" s="85">
         <v>19</v>
       </c>
       <c r="D57" s="85">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="E57" s="85">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F57" s="26" t="s">
+        <v>183</v>
       </c>
       <c r="G57" s="29">
         <v>5</v>
@@ -8391,10 +8411,10 @@
         <v>5</v>
       </c>
       <c r="I57" s="29">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J57" s="29">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K57" s="85">
         <v>13</v>
@@ -8403,50 +8423,50 @@
         <v>12</v>
       </c>
       <c r="M57" s="85">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="N57" s="85">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O57" s="85">
-        <f t="shared" si="5"/>
-        <v>64</v>
+        <f>N57+L57+K57+M57</f>
+        <v>59</v>
       </c>
       <c r="P57" s="85">
-        <f t="shared" si="6"/>
-        <v>193.14285714285714</v>
+        <f>(28-C57)*16-(D57/7)+O57</f>
+        <v>194.42857142857142</v>
       </c>
       <c r="Q57" s="85">
-        <f t="shared" si="7"/>
-        <v>51</v>
+        <f>L57+M57+N57</f>
+        <v>46</v>
       </c>
       <c r="R57" s="85">
-        <f t="shared" si="8"/>
-        <v>180.14285714285714</v>
+        <f>(28-C57)*16-(D57/7)+Q57</f>
+        <v>181.42857142857142</v>
       </c>
       <c r="S57" s="102">
-        <v>1000000</v>
+        <v>300000</v>
       </c>
       <c r="T57" s="102">
-        <f t="shared" si="9"/>
-        <v>15625</v>
+        <f>S57/O57</f>
+        <v>5084.7457627118647</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" s="85" t="s">
-        <v>265</v>
+      <c r="A58" s="94" t="s">
+        <v>309</v>
       </c>
       <c r="B58" s="85" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="C58" s="85">
         <v>19</v>
       </c>
       <c r="D58" s="85">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="E58" s="85">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F58" s="26" t="s">
         <v>181</v>
@@ -8455,10 +8475,10 @@
         <v>2</v>
       </c>
       <c r="H58" s="29">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I58" s="29">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J58" s="29">
         <v>0</v>
@@ -8467,129 +8487,126 @@
         <v>3</v>
       </c>
       <c r="L58" s="85">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="M58" s="85">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="N58" s="85">
         <v>-1</v>
       </c>
       <c r="O58" s="85">
-        <f t="shared" si="5"/>
-        <v>44</v>
+        <f>N58+L58+K58+M58</f>
+        <v>61</v>
       </c>
       <c r="P58" s="85">
-        <f t="shared" si="6"/>
-        <v>182.85714285714286</v>
+        <f>(28-C58)*16-(D58/7)+O58</f>
+        <v>193.85714285714286</v>
       </c>
       <c r="Q58" s="85">
-        <f t="shared" si="7"/>
-        <v>41</v>
+        <f>L58+M58+N58</f>
+        <v>58</v>
       </c>
       <c r="R58" s="85">
-        <f t="shared" si="8"/>
-        <v>179.85714285714286</v>
+        <f>(28-C58)*16-(D58/7)+Q58</f>
+        <v>190.85714285714286</v>
       </c>
       <c r="S58" s="102">
-        <v>1100000</v>
+        <v>3700000</v>
       </c>
       <c r="T58" s="102">
-        <f t="shared" si="9"/>
-        <v>25000</v>
+        <f>S58/O58</f>
+        <v>60655.737704918036</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="85" t="s">
-        <v>259</v>
+      <c r="A59" s="94" t="s">
+        <v>267</v>
       </c>
       <c r="B59" s="85" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C59" s="85">
         <v>19</v>
       </c>
       <c r="D59" s="85">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E59" s="85">
         <v>6</v>
       </c>
       <c r="F59" s="26" t="s">
-        <v>183</v>
+        <v>269</v>
       </c>
       <c r="G59" s="29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H59" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I59" s="29">
         <v>10</v>
       </c>
       <c r="J59" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K59" s="85">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L59" s="85">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M59" s="85">
         <v>39</v>
       </c>
       <c r="N59" s="85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O59" s="85">
-        <f t="shared" si="5"/>
-        <v>42</v>
+        <f>N59+L59+K59+M59</f>
+        <v>52</v>
       </c>
       <c r="P59" s="85">
-        <f t="shared" si="6"/>
-        <v>182.71428571428572</v>
+        <f>(28-C59)*16-(D59/7)+O59</f>
+        <v>193.14285714285714</v>
       </c>
       <c r="Q59" s="85">
-        <f t="shared" si="7"/>
-        <v>39</v>
+        <f>L59+M59+N59</f>
+        <v>46</v>
       </c>
       <c r="R59" s="85">
-        <f t="shared" si="8"/>
-        <v>179.71428571428572</v>
+        <f>(28-C59)*16-(D59/7)+Q59</f>
+        <v>187.14285714285714</v>
       </c>
       <c r="S59" s="102">
-        <v>1400000</v>
+        <v>1350000</v>
       </c>
       <c r="T59" s="102">
-        <f t="shared" si="9"/>
-        <v>33333.333333333336</v>
+        <f>S59/O59</f>
+        <v>25961.538461538461</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="85" t="s">
-        <v>263</v>
+      <c r="A60" s="94" t="s">
+        <v>254</v>
       </c>
       <c r="B60" s="85" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C60" s="85">
         <v>19</v>
       </c>
       <c r="D60" s="85">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="E60" s="85">
-        <v>6</v>
-      </c>
-      <c r="F60" s="26" t="s">
-        <v>106</v>
+        <v>2</v>
       </c>
       <c r="G60" s="29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H60" s="29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I60" s="29">
         <v>10</v>
@@ -8598,10 +8615,10 @@
         <v>1</v>
       </c>
       <c r="K60" s="85">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L60" s="85">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="M60" s="85">
         <v>39</v>
@@ -8610,167 +8627,304 @@
         <v>0</v>
       </c>
       <c r="O60" s="85">
-        <f t="shared" si="5"/>
-        <v>42</v>
+        <f>N60+L60+K60+M60</f>
+        <v>64</v>
       </c>
       <c r="P60" s="85">
-        <f t="shared" si="6"/>
-        <v>176.14285714285714</v>
+        <f>(28-C60)*16-(D60/7)+O60</f>
+        <v>193.14285714285714</v>
       </c>
       <c r="Q60" s="85">
-        <f t="shared" si="7"/>
-        <v>42</v>
+        <f>L60+M60+N60</f>
+        <v>51</v>
       </c>
       <c r="R60" s="85">
-        <f t="shared" si="8"/>
-        <v>176.14285714285714</v>
+        <f>(28-C60)*16-(D60/7)+Q60</f>
+        <v>180.14285714285714</v>
       </c>
       <c r="S60" s="102">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="T60" s="102">
-        <f t="shared" si="9"/>
-        <v>35714.285714285717</v>
+        <f>S60/O60</f>
+        <v>15625</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="85" t="s">
-        <v>335</v>
+      <c r="A61" s="94" t="s">
+        <v>331</v>
       </c>
       <c r="B61" s="85" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C61" s="85">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D61" s="85">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="E61" s="85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F61" s="26" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="G61" s="29">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H61" s="29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I61" s="29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J61" s="29">
+        <v>2</v>
+      </c>
+      <c r="K61" s="85">
         <v>3</v>
       </c>
-      <c r="K61" s="85">
-        <v>44</v>
-      </c>
       <c r="L61" s="85">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M61" s="85">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N61" s="85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O61" s="85">
-        <f t="shared" si="5"/>
-        <v>84</v>
+        <f>N61+L61+K61+M61</f>
+        <v>40</v>
       </c>
       <c r="P61" s="85">
-        <f t="shared" si="6"/>
-        <v>219.71428571428572</v>
+        <f>(28-C61)*16-(D61/7)+O61</f>
+        <v>184.42857142857142</v>
       </c>
       <c r="Q61" s="85">
-        <f t="shared" si="7"/>
-        <v>40</v>
+        <f>L61+M61+N61</f>
+        <v>37</v>
       </c>
       <c r="R61" s="85">
-        <f t="shared" si="8"/>
-        <v>175.71428571428572</v>
+        <f>(28-C61)*16-(D61/7)+Q61</f>
+        <v>181.42857142857142</v>
       </c>
       <c r="S61" s="102">
-        <v>2000000</v>
+        <v>800000</v>
       </c>
       <c r="T61" s="102">
-        <f t="shared" si="9"/>
-        <v>23809.523809523809</v>
+        <f>S61/O61</f>
+        <v>20000</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="85" t="s">
-        <v>282</v>
+      <c r="A62" s="94" t="s">
+        <v>265</v>
       </c>
       <c r="B62" s="85" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C62" s="85">
         <v>19</v>
       </c>
       <c r="D62" s="85">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E62" s="85">
         <v>6</v>
       </c>
+      <c r="F62" s="26" t="s">
+        <v>181</v>
+      </c>
       <c r="G62" s="29">
+        <v>2</v>
+      </c>
+      <c r="H62" s="29">
+        <v>2</v>
+      </c>
+      <c r="I62" s="29">
         <v>10</v>
       </c>
-      <c r="H62" s="29">
-        <v>7</v>
-      </c>
-      <c r="I62" s="29">
-        <v>4</v>
-      </c>
       <c r="J62" s="29">
+        <v>0</v>
+      </c>
+      <c r="K62" s="85">
         <v>3</v>
       </c>
-      <c r="K62" s="85">
+      <c r="L62" s="85">
+        <v>3</v>
+      </c>
+      <c r="M62" s="85">
+        <v>39</v>
+      </c>
+      <c r="N62" s="85">
+        <v>-1</v>
+      </c>
+      <c r="O62" s="85">
+        <f>N62+L62+K62+M62</f>
         <v>44</v>
       </c>
-      <c r="L62" s="85">
-        <v>21</v>
-      </c>
-      <c r="M62" s="85">
-        <v>8</v>
-      </c>
-      <c r="N62" s="85">
-        <v>2</v>
-      </c>
-      <c r="O62" s="85">
-        <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
       <c r="P62" s="85">
-        <f t="shared" si="6"/>
-        <v>216.85714285714286</v>
+        <f>(28-C62)*16-(D62/7)+O62</f>
+        <v>182.85714285714286</v>
       </c>
       <c r="Q62" s="85">
-        <f t="shared" si="7"/>
-        <v>31</v>
+        <f>L62+M62+N62</f>
+        <v>41</v>
       </c>
       <c r="R62" s="85">
-        <f t="shared" si="8"/>
-        <v>172.85714285714286</v>
+        <f>(28-C62)*16-(D62/7)+Q62</f>
+        <v>179.85714285714286</v>
       </c>
       <c r="S62" s="102">
-        <v>2000000</v>
+        <v>1100000</v>
       </c>
       <c r="T62" s="102">
-        <f t="shared" si="9"/>
-        <v>26666.666666666668</v>
+        <f>S62/O62</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="94" t="s">
+        <v>259</v>
+      </c>
+      <c r="B63" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="C63" s="85">
+        <v>19</v>
+      </c>
+      <c r="D63" s="85">
+        <v>23</v>
+      </c>
+      <c r="E63" s="85">
+        <v>6</v>
+      </c>
+      <c r="F63" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="G63" s="29">
+        <v>2</v>
+      </c>
+      <c r="H63" s="29">
+        <v>1</v>
+      </c>
+      <c r="I63" s="29">
+        <v>10</v>
+      </c>
+      <c r="J63" s="29">
+        <v>1</v>
+      </c>
+      <c r="K63" s="85">
+        <v>3</v>
+      </c>
+      <c r="L63" s="85">
+        <v>0</v>
+      </c>
+      <c r="M63" s="85">
+        <v>39</v>
+      </c>
+      <c r="N63" s="85">
+        <v>0</v>
+      </c>
+      <c r="O63" s="85">
+        <f>N63+L63+K63+M63</f>
+        <v>42</v>
+      </c>
+      <c r="P63" s="85">
+        <f>(28-C63)*16-(D63/7)+O63</f>
+        <v>182.71428571428572</v>
+      </c>
+      <c r="Q63" s="85">
+        <f>L63+M63+N63</f>
+        <v>39</v>
+      </c>
+      <c r="R63" s="85">
+        <f>(28-C63)*16-(D63/7)+Q63</f>
+        <v>179.71428571428572</v>
+      </c>
+      <c r="S63" s="102">
+        <v>1400000</v>
+      </c>
+      <c r="T63" s="102">
+        <f>S63/O63</f>
+        <v>33333.333333333336</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" s="94" t="s">
+        <v>263</v>
+      </c>
+      <c r="B64" s="85" t="s">
+        <v>264</v>
+      </c>
+      <c r="C64" s="85">
+        <v>19</v>
+      </c>
+      <c r="D64" s="85">
+        <v>69</v>
+      </c>
+      <c r="E64" s="85">
+        <v>6</v>
+      </c>
+      <c r="F64" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G64" s="29">
+        <v>1</v>
+      </c>
+      <c r="H64" s="29">
+        <v>2</v>
+      </c>
+      <c r="I64" s="29">
+        <v>10</v>
+      </c>
+      <c r="J64" s="29">
+        <v>1</v>
+      </c>
+      <c r="K64" s="85">
+        <v>0</v>
+      </c>
+      <c r="L64" s="85">
+        <v>3</v>
+      </c>
+      <c r="M64" s="85">
+        <v>39</v>
+      </c>
+      <c r="N64" s="85">
+        <v>0</v>
+      </c>
+      <c r="O64" s="85">
+        <f>N64+L64+K64+M64</f>
+        <v>42</v>
+      </c>
+      <c r="P64" s="85">
+        <f>(28-C64)*16-(D64/7)+O64</f>
+        <v>176.14285714285714</v>
+      </c>
+      <c r="Q64" s="85">
+        <f>L64+M64+N64</f>
+        <v>42</v>
+      </c>
+      <c r="R64" s="85">
+        <f>(28-C64)*16-(D64/7)+Q64</f>
+        <v>176.14285714285714</v>
+      </c>
+      <c r="S64" s="102">
+        <v>1500000</v>
+      </c>
+      <c r="T64" s="102">
+        <f>S64/O64</f>
+        <v>35714.285714285717</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:T62">
-    <sortCondition descending="1" ref="R2:R62"/>
-    <sortCondition descending="1" ref="Q2:Q62"/>
+  <sortState ref="A2:T64">
+    <sortCondition descending="1" ref="P2:P64"/>
+    <sortCondition descending="1" ref="R2:R64"/>
   </sortState>
-  <conditionalFormatting sqref="K47:N48 K31:N45 K16:N29 K3:N3 K5:N5 K50:N54">
-    <cfRule type="colorScale" priority="51">
+  <conditionalFormatting sqref="K49:N50 K33:N47 K18:N31 K3:N3 K5:N5 K52:N56">
+    <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8779,8 +8933,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K46:N46 K2:N2 K4:N4 K6:N15 K30:N30 K49:N49 K62:N62">
-    <cfRule type="colorScale" priority="108">
+  <conditionalFormatting sqref="K48:N48 K2:N2 K4:N4 K6:N17 K32:N32 K51:N51 K64:N64">
+    <cfRule type="colorScale" priority="111">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8789,8 +8943,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T54 T62">
-    <cfRule type="colorScale" priority="112">
+  <conditionalFormatting sqref="T2:T56 T64">
+    <cfRule type="colorScale" priority="115">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8801,8 +8955,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K55:N55">
-    <cfRule type="colorScale" priority="40">
+  <conditionalFormatting sqref="K57:N57">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8811,8 +8965,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T55">
-    <cfRule type="colorScale" priority="43">
+  <conditionalFormatting sqref="T57">
+    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8823,8 +8977,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K56:N57">
-    <cfRule type="colorScale" priority="114">
+  <conditionalFormatting sqref="K58:N59">
+    <cfRule type="colorScale" priority="117">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8833,8 +8987,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T56:T57">
-    <cfRule type="colorScale" priority="120">
+  <conditionalFormatting sqref="T58:T59">
+    <cfRule type="colorScale" priority="123">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8845,7 +8999,43 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
+  <conditionalFormatting sqref="E56">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -8857,7 +9047,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
+  <conditionalFormatting sqref="E60">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -8869,88 +9059,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58:N58">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T58">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K59:N59">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T59">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K60:N60">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8960,7 +9070,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T60">
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8972,7 +9082,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K61:N61">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8982,7 +9092,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T61">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8993,8 +9103,52 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E53">
-    <cfRule type="colorScale" priority="146">
+  <conditionalFormatting sqref="K62:N62">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T62">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K63:N63">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T63">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E55">
+    <cfRule type="colorScale" priority="149">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9005,25 +9159,43 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:R62">
-    <cfRule type="colorScale" priority="148">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:J62">
-    <cfRule type="colorScale" priority="150">
+  <conditionalFormatting sqref="G2:J64">
+    <cfRule type="colorScale" priority="153">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O64">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P64">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:R64">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -9190,10 +9362,10 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="106" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="108"/>
+      <c r="B7" s="106"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
@@ -13907,13 +14079,13 @@
       <c r="B1" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
       <c r="K1" s="1" t="s">
         <v>187</v>
       </c>
@@ -13963,38 +14135,38 @@
       <c r="L2" s="78" t="s">
         <v>188</v>
       </c>
-      <c r="M2" s="107" t="s">
+      <c r="M2" s="105" t="s">
         <v>192</v>
       </c>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
       <c r="X2">
         <v>1</v>
       </c>
       <c r="Y2" s="78" t="s">
         <v>188</v>
       </c>
-      <c r="Z2" s="107" t="s">
+      <c r="Z2" s="105" t="s">
         <v>192</v>
       </c>
-      <c r="AA2" s="107"/>
-      <c r="AB2" s="107"/>
-      <c r="AC2" s="107"/>
-      <c r="AD2" s="107"/>
-      <c r="AE2" s="107"/>
-      <c r="AF2" s="107"/>
-      <c r="AG2" s="107"/>
-      <c r="AH2" s="107"/>
-      <c r="AI2" s="107"/>
-      <c r="AJ2" s="107"/>
+      <c r="AA2" s="105"/>
+      <c r="AB2" s="105"/>
+      <c r="AC2" s="105"/>
+      <c r="AD2" s="105"/>
+      <c r="AE2" s="105"/>
+      <c r="AF2" s="105"/>
+      <c r="AG2" s="105"/>
+      <c r="AH2" s="105"/>
+      <c r="AI2" s="105"/>
+      <c r="AJ2" s="105"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -14029,38 +14201,38 @@
       <c r="L3" s="78" t="s">
         <v>189</v>
       </c>
-      <c r="M3" s="107" t="s">
+      <c r="M3" s="105" t="s">
         <v>193</v>
       </c>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="107"/>
-      <c r="R3" s="107"/>
-      <c r="S3" s="107"/>
-      <c r="T3" s="107"/>
-      <c r="U3" s="107"/>
-      <c r="V3" s="107"/>
-      <c r="W3" s="107"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="105"/>
+      <c r="U3" s="105"/>
+      <c r="V3" s="105"/>
+      <c r="W3" s="105"/>
       <c r="X3">
         <v>2</v>
       </c>
       <c r="Y3" s="78" t="s">
         <v>189</v>
       </c>
-      <c r="Z3" s="107" t="s">
+      <c r="Z3" s="105" t="s">
         <v>193</v>
       </c>
-      <c r="AA3" s="107"/>
-      <c r="AB3" s="107"/>
-      <c r="AC3" s="107"/>
-      <c r="AD3" s="107"/>
-      <c r="AE3" s="107"/>
-      <c r="AF3" s="107"/>
-      <c r="AG3" s="107"/>
-      <c r="AH3" s="107"/>
-      <c r="AI3" s="107"/>
-      <c r="AJ3" s="107"/>
+      <c r="AA3" s="105"/>
+      <c r="AB3" s="105"/>
+      <c r="AC3" s="105"/>
+      <c r="AD3" s="105"/>
+      <c r="AE3" s="105"/>
+      <c r="AF3" s="105"/>
+      <c r="AG3" s="105"/>
+      <c r="AH3" s="105"/>
+      <c r="AI3" s="105"/>
+      <c r="AJ3" s="105"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -14095,38 +14267,38 @@
       <c r="L4" s="78" t="s">
         <v>191</v>
       </c>
-      <c r="M4" s="107" t="s">
+      <c r="M4" s="105" t="s">
         <v>190</v>
       </c>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="107"/>
-      <c r="W4" s="107"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="105"/>
+      <c r="V4" s="105"/>
+      <c r="W4" s="105"/>
       <c r="X4">
         <v>3</v>
       </c>
       <c r="Y4" s="78" t="s">
         <v>191</v>
       </c>
-      <c r="Z4" s="107" t="s">
+      <c r="Z4" s="105" t="s">
         <v>197</v>
       </c>
-      <c r="AA4" s="107"/>
-      <c r="AB4" s="107"/>
-      <c r="AC4" s="107"/>
-      <c r="AD4" s="107"/>
-      <c r="AE4" s="107"/>
-      <c r="AF4" s="107"/>
-      <c r="AG4" s="107"/>
-      <c r="AH4" s="107"/>
-      <c r="AI4" s="107"/>
-      <c r="AJ4" s="107"/>
+      <c r="AA4" s="105"/>
+      <c r="AB4" s="105"/>
+      <c r="AC4" s="105"/>
+      <c r="AD4" s="105"/>
+      <c r="AE4" s="105"/>
+      <c r="AF4" s="105"/>
+      <c r="AG4" s="105"/>
+      <c r="AH4" s="105"/>
+      <c r="AI4" s="105"/>
+      <c r="AJ4" s="105"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -15446,21 +15618,21 @@
       <c r="B2" s="84" t="s">
         <v>188</v>
       </c>
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="105" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -15682,21 +15854,21 @@
       <c r="B3" s="84" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="105" t="s">
         <v>209</v>
       </c>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
       <c r="R3" s="1" t="s">
         <v>160</v>
       </c>
@@ -15982,21 +16154,21 @@
       <c r="B4" s="84" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="105" t="s">
         <v>210</v>
       </c>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
       <c r="Q4" t="s">
         <v>32</v>
       </c>
@@ -20429,13 +20601,13 @@
       <c r="B1" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
       <c r="L1" s="1" t="s">
         <v>187</v>
       </c>
@@ -20478,19 +20650,19 @@
       <c r="M2" s="85" t="s">
         <v>188</v>
       </c>
-      <c r="N2" s="107" t="s">
+      <c r="N2" s="105" t="s">
         <v>192</v>
       </c>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="105"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -20526,19 +20698,19 @@
       <c r="M3" s="85" t="s">
         <v>189</v>
       </c>
-      <c r="N3" s="107" t="s">
+      <c r="N3" s="105" t="s">
         <v>193</v>
       </c>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="107"/>
-      <c r="R3" s="107"/>
-      <c r="S3" s="107"/>
-      <c r="T3" s="107"/>
-      <c r="U3" s="107"/>
-      <c r="V3" s="107"/>
-      <c r="W3" s="107"/>
-      <c r="X3" s="107"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="105"/>
+      <c r="U3" s="105"/>
+      <c r="V3" s="105"/>
+      <c r="W3" s="105"/>
+      <c r="X3" s="105"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -20574,19 +20746,19 @@
       <c r="M4" s="85" t="s">
         <v>191</v>
       </c>
-      <c r="N4" s="107" t="s">
+      <c r="N4" s="105" t="s">
         <v>197</v>
       </c>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="107"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="107"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="105"/>
+      <c r="V4" s="105"/>
+      <c r="W4" s="105"/>
+      <c r="X4" s="105"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>

--- a/projects/current/hattrick/z-TirosLejanos.xlsx
+++ b/projects/current/hattrick/z-TirosLejanos.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802F7605-C8BC-44CE-890C-8A0C33393064}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195E8EBE-AC51-4F04-AF98-271E353CC4E3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipoPerikas" sheetId="5" r:id="rId1"/>
@@ -1766,6 +1766,15 @@
     <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1774,15 +1783,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4649,7 +4649,7 @@
   </sheetPr>
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -4675,7 +4675,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="104" t="s">
         <v>243</v>
       </c>
       <c r="B1" s="101" t="s">
@@ -4780,26 +4780,26 @@
         <v>2</v>
       </c>
       <c r="O2" s="85">
-        <f>N2+L2+K2+M2</f>
+        <f t="shared" ref="O2:O33" si="0">N2+L2+K2+M2</f>
         <v>84</v>
       </c>
       <c r="P2" s="85">
-        <f>(28-C2)*16-(D2/7)+O2</f>
+        <f t="shared" ref="P2:P33" si="1">(28-C2)*16-(D2/7)+O2</f>
         <v>219.71428571428572</v>
       </c>
       <c r="Q2" s="85">
-        <f>L2+M2+N2</f>
+        <f t="shared" ref="Q2:Q33" si="2">L2+M2+N2</f>
         <v>40</v>
       </c>
       <c r="R2" s="85">
-        <f>(28-C2)*16-(D2/7)+Q2</f>
+        <f t="shared" ref="R2:R33" si="3">(28-C2)*16-(D2/7)+Q2</f>
         <v>175.71428571428572</v>
       </c>
       <c r="S2" s="102">
         <v>2000000</v>
       </c>
       <c r="T2" s="102">
-        <f>S2/O2</f>
+        <f t="shared" ref="T2:T33" si="4">S2/O2</f>
         <v>23809.523809523809</v>
       </c>
     </row>
@@ -4847,26 +4847,26 @@
         <v>3</v>
       </c>
       <c r="O3" s="85">
-        <f>N3+L3+K3+M3</f>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="P3" s="85">
-        <f>(28-C3)*16-(D3/7)+O3</f>
+        <f t="shared" si="1"/>
         <v>218</v>
       </c>
       <c r="Q3" s="85">
-        <f>L3+M3+N3</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="R3" s="85">
-        <f>(28-C3)*16-(D3/7)+Q3</f>
+        <f t="shared" si="3"/>
         <v>182</v>
       </c>
       <c r="S3" s="102">
         <v>3000000</v>
       </c>
       <c r="T3" s="102">
-        <f>S3/O3</f>
+        <f t="shared" si="4"/>
         <v>39473.684210526313</v>
       </c>
     </row>
@@ -4914,26 +4914,26 @@
         <v>-1</v>
       </c>
       <c r="O4" s="85">
-        <f>N4+L4+K4+M4</f>
+        <f t="shared" si="0"/>
         <v>86</v>
       </c>
       <c r="P4" s="85">
-        <f>(28-C4)*16-(D4/7)+O4</f>
+        <f t="shared" si="1"/>
         <v>217.42857142857142</v>
       </c>
       <c r="Q4" s="85">
-        <f>L4+M4+N4</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="R4" s="85">
-        <f>(28-C4)*16-(D4/7)+Q4</f>
+        <f t="shared" si="3"/>
         <v>181.42857142857142</v>
       </c>
       <c r="S4" s="102">
         <v>4000000</v>
       </c>
       <c r="T4" s="102">
-        <f>S4/O4</f>
+        <f t="shared" si="4"/>
         <v>46511.627906976741</v>
       </c>
     </row>
@@ -4978,26 +4978,26 @@
         <v>2</v>
       </c>
       <c r="O5" s="85">
-        <f>N5+L5+K5+M5</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="P5" s="85">
-        <f>(28-C5)*16-(D5/7)+O5</f>
+        <f t="shared" si="1"/>
         <v>216.85714285714286</v>
       </c>
       <c r="Q5" s="85">
-        <f>L5+M5+N5</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="R5" s="85">
-        <f>(28-C5)*16-(D5/7)+Q5</f>
+        <f t="shared" si="3"/>
         <v>172.85714285714286</v>
       </c>
       <c r="S5" s="102">
         <v>2000000</v>
       </c>
       <c r="T5" s="102">
-        <f>S5/O5</f>
+        <f t="shared" si="4"/>
         <v>26666.666666666668</v>
       </c>
     </row>
@@ -5045,26 +5045,26 @@
         <v>3</v>
       </c>
       <c r="O6" s="85">
-        <f>N6+L6+K6+M6</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="P6" s="85">
-        <f>(28-C6)*16-(D6/7)+O6</f>
+        <f t="shared" si="1"/>
         <v>216.71428571428572</v>
       </c>
       <c r="Q6" s="85">
-        <f>L6+M6+N6</f>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="R6" s="85">
-        <f>(28-C6)*16-(D6/7)+Q6</f>
+        <f t="shared" si="3"/>
         <v>207.71428571428572</v>
       </c>
       <c r="S6" s="102">
         <v>3000000</v>
       </c>
       <c r="T6" s="102">
-        <f>S6/O6</f>
+        <f t="shared" si="4"/>
         <v>40000</v>
       </c>
     </row>
@@ -5109,26 +5109,26 @@
         <v>0</v>
       </c>
       <c r="O7" s="85">
-        <f>N7+L7+K7+M7</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="P7" s="85">
-        <f>(28-C7)*16-(D7/7)+O7</f>
+        <f t="shared" si="1"/>
         <v>215.57142857142858</v>
       </c>
       <c r="Q7" s="85">
-        <f>L7+M7+N7</f>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="R7" s="85">
-        <f>(28-C7)*16-(D7/7)+Q7</f>
+        <f t="shared" si="3"/>
         <v>212.57142857142858</v>
       </c>
       <c r="S7" s="102">
         <v>3950000</v>
       </c>
       <c r="T7" s="102">
-        <f>S7/O7</f>
+        <f t="shared" si="4"/>
         <v>56428.571428571428</v>
       </c>
     </row>
@@ -5176,26 +5176,26 @@
         <v>-1</v>
       </c>
       <c r="O8" s="85">
-        <f>N8+L8+K8+M8</f>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="P8" s="85">
-        <f>(28-C8)*16-(D8/7)+O8</f>
+        <f t="shared" si="1"/>
         <v>215.57142857142858</v>
       </c>
       <c r="Q8" s="85">
-        <f>L8+M8+N8</f>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="R8" s="85">
-        <f>(28-C8)*16-(D8/7)+Q8</f>
+        <f t="shared" si="3"/>
         <v>209.57142857142858</v>
       </c>
       <c r="S8" s="102">
         <v>3500000</v>
       </c>
       <c r="T8" s="102">
-        <f>S8/O8</f>
+        <f t="shared" si="4"/>
         <v>47297.2972972973</v>
       </c>
     </row>
@@ -5240,26 +5240,26 @@
         <v>1</v>
       </c>
       <c r="O9" s="85">
-        <f>N9+L9+K9+M9</f>
+        <f t="shared" si="0"/>
         <v>79</v>
       </c>
       <c r="P9" s="85">
-        <f>(28-C9)*16-(D9/7)+O9</f>
+        <f t="shared" si="1"/>
         <v>214.57142857142858</v>
       </c>
       <c r="Q9" s="85">
-        <f>L9+M9+N9</f>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="R9" s="85">
-        <f>(28-C9)*16-(D9/7)+Q9</f>
+        <f t="shared" si="3"/>
         <v>201.57142857142858</v>
       </c>
       <c r="S9" s="102">
         <v>2750000</v>
       </c>
       <c r="T9" s="102">
-        <f>S9/O9</f>
+        <f t="shared" si="4"/>
         <v>34810.126582278484</v>
       </c>
     </row>
@@ -5307,26 +5307,26 @@
         <v>0</v>
       </c>
       <c r="O10" s="85">
-        <f>N10+L10+K10+M10</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="P10" s="85">
-        <f>(28-C10)*16-(D10/7)+O10</f>
+        <f t="shared" si="1"/>
         <v>213.85714285714286</v>
       </c>
       <c r="Q10" s="85">
-        <f>L10+M10+N10</f>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="R10" s="85">
-        <f>(28-C10)*16-(D10/7)+Q10</f>
+        <f t="shared" si="3"/>
         <v>204.85714285714286</v>
       </c>
       <c r="S10" s="102">
         <v>3000000</v>
       </c>
       <c r="T10" s="102">
-        <f>S10/O10</f>
+        <f t="shared" si="4"/>
         <v>44776.119402985074</v>
       </c>
     </row>
@@ -5371,26 +5371,26 @@
         <v>4</v>
       </c>
       <c r="O11" s="85">
-        <f>N11+L11+K11+M11</f>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="P11" s="85">
-        <f>(28-C11)*16-(D11/7)+O11</f>
+        <f t="shared" si="1"/>
         <v>213.14285714285714</v>
       </c>
       <c r="Q11" s="85">
-        <f>L11+M11+N11</f>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="R11" s="85">
-        <f>(28-C11)*16-(D11/7)+Q11</f>
+        <f t="shared" si="3"/>
         <v>204.14285714285714</v>
       </c>
       <c r="S11" s="102">
         <v>3800000</v>
       </c>
       <c r="T11" s="102">
-        <f>S11/O11</f>
+        <f t="shared" si="4"/>
         <v>55882.352941176468</v>
       </c>
     </row>
@@ -5438,26 +5438,26 @@
         <v>0</v>
       </c>
       <c r="O12" s="85">
-        <f>N12+L12+K12+M12</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="P12" s="85">
-        <f>(28-C12)*16-(D12/7)+O12</f>
+        <f t="shared" si="1"/>
         <v>212.71428571428572</v>
       </c>
       <c r="Q12" s="85">
-        <f>L12+M12+N12</f>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="R12" s="85">
-        <f>(28-C12)*16-(D12/7)+Q12</f>
+        <f t="shared" si="3"/>
         <v>199.71428571428572</v>
       </c>
       <c r="S12" s="102">
         <v>1000000</v>
       </c>
       <c r="T12" s="102">
-        <f>S12/O12</f>
+        <f t="shared" si="4"/>
         <v>17543.859649122805</v>
       </c>
     </row>
@@ -5505,26 +5505,26 @@
         <v>3</v>
       </c>
       <c r="O13" s="85">
-        <f>N13+L13+K13+M13</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="P13" s="85">
-        <f>(28-C13)*16-(D13/7)+O13</f>
+        <f t="shared" si="1"/>
         <v>211.14285714285714</v>
       </c>
       <c r="Q13" s="85">
-        <f>L13+M13+N13</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="R13" s="85">
-        <f>(28-C13)*16-(D13/7)+Q13</f>
+        <f t="shared" si="3"/>
         <v>202.14285714285714</v>
       </c>
       <c r="S13" s="102">
         <v>1450000</v>
       </c>
       <c r="T13" s="102">
-        <f>S13/O13</f>
+        <f t="shared" si="4"/>
         <v>24576.271186440677</v>
       </c>
     </row>
@@ -5569,26 +5569,26 @@
         <v>1</v>
       </c>
       <c r="O14" s="85">
-        <f>N14+L14+K14+M14</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="P14" s="85">
-        <f>(28-C14)*16-(D14/7)+O14</f>
+        <f t="shared" si="1"/>
         <v>211</v>
       </c>
       <c r="Q14" s="85">
-        <f>L14+M14+N14</f>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="R14" s="85">
-        <f>(28-C14)*16-(D14/7)+Q14</f>
+        <f t="shared" si="3"/>
         <v>205</v>
       </c>
       <c r="S14" s="102">
         <v>2500000</v>
       </c>
       <c r="T14" s="102">
-        <f>S14/O14</f>
+        <f t="shared" si="4"/>
         <v>43103.448275862072</v>
       </c>
     </row>
@@ -5633,31 +5633,31 @@
         <v>0</v>
       </c>
       <c r="O15" s="85">
-        <f>N15+L15+K15+M15</f>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="P15" s="85">
-        <f>(28-C15)*16-(D15/7)+O15</f>
+        <f t="shared" si="1"/>
         <v>210.85714285714286</v>
       </c>
       <c r="Q15" s="85">
-        <f>L15+M15+N15</f>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="R15" s="85">
-        <f>(28-C15)*16-(D15/7)+Q15</f>
+        <f t="shared" si="3"/>
         <v>201.85714285714286</v>
       </c>
       <c r="S15" s="102">
         <v>2750000</v>
       </c>
       <c r="T15" s="102">
-        <f>S15/O15</f>
+        <f t="shared" si="4"/>
         <v>37162.16216216216</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="105" t="s">
         <v>359</v>
       </c>
       <c r="B16" s="85" t="s">
@@ -5700,31 +5700,31 @@
         <v>1</v>
       </c>
       <c r="O16" s="85">
-        <f>N16+L16+K16+M16</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="P16" s="85">
-        <f>(28-C16)*16-(D16/7)+O16</f>
+        <f t="shared" si="1"/>
         <v>210.71428571428572</v>
       </c>
       <c r="Q16" s="85">
-        <f>L16+M16+N16</f>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="R16" s="85">
-        <f>(28-C16)*16-(D16/7)+Q16</f>
+        <f t="shared" si="3"/>
         <v>204.71428571428572</v>
       </c>
       <c r="S16" s="102">
         <v>1500000</v>
       </c>
       <c r="T16" s="102">
-        <f>S16/O16</f>
+        <f t="shared" si="4"/>
         <v>29411.764705882353</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="109" t="s">
+      <c r="A17" s="106" t="s">
         <v>298</v>
       </c>
       <c r="B17" s="85" t="s">
@@ -5767,31 +5767,31 @@
         <v>8</v>
       </c>
       <c r="O17" s="85">
-        <f>N17+L17+K17+M17</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="P17" s="85">
-        <f>(28-C17)*16-(D17/7)+O17</f>
+        <f t="shared" si="1"/>
         <v>210.14285714285714</v>
       </c>
       <c r="Q17" s="85">
-        <f>L17+M17+N17</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="R17" s="85">
-        <f>(28-C17)*16-(D17/7)+Q17</f>
+        <f t="shared" si="3"/>
         <v>192.14285714285714</v>
       </c>
       <c r="S17" s="102">
         <v>150000</v>
       </c>
       <c r="T17" s="102">
-        <f>S17/O17</f>
+        <f t="shared" si="4"/>
         <v>2586.2068965517242</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="108" t="s">
+      <c r="A18" s="105" t="s">
         <v>313</v>
       </c>
       <c r="B18" s="85" t="s">
@@ -5834,26 +5834,26 @@
         <v>5</v>
       </c>
       <c r="O18" s="85">
-        <f>N18+L18+K18+M18</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="P18" s="85">
-        <f>(28-C18)*16-(D18/7)+O18</f>
+        <f t="shared" si="1"/>
         <v>209.85714285714286</v>
       </c>
       <c r="Q18" s="85">
-        <f>L18+M18+N18</f>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="R18" s="85">
-        <f>(28-C18)*16-(D18/7)+Q18</f>
+        <f t="shared" si="3"/>
         <v>206.85714285714286</v>
       </c>
       <c r="S18" s="102">
         <v>2500000</v>
       </c>
       <c r="T18" s="102">
-        <f>S18/O18</f>
+        <f t="shared" si="4"/>
         <v>41666.666666666664</v>
       </c>
     </row>
@@ -5898,26 +5898,26 @@
         <v>-1</v>
       </c>
       <c r="O19" s="85">
-        <f>N19+L19+K19+M19</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="P19" s="85">
-        <f>(28-C19)*16-(D19/7)+O19</f>
+        <f t="shared" si="1"/>
         <v>209.85714285714286</v>
       </c>
       <c r="Q19" s="85">
-        <f>L19+M19+N19</f>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="R19" s="85">
-        <f>(28-C19)*16-(D19/7)+Q19</f>
+        <f t="shared" si="3"/>
         <v>191.85714285714286</v>
       </c>
       <c r="S19" s="102">
         <v>975000</v>
       </c>
       <c r="T19" s="102">
-        <f>S19/O19</f>
+        <f t="shared" si="4"/>
         <v>15000</v>
       </c>
     </row>
@@ -5965,26 +5965,26 @@
         <v>2</v>
       </c>
       <c r="O20" s="85">
-        <f>N20+L20+K20+M20</f>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="P20" s="85">
-        <f>(28-C20)*16-(D20/7)+O20</f>
+        <f t="shared" si="1"/>
         <v>209.57142857142858</v>
       </c>
       <c r="Q20" s="85">
-        <f>L20+M20+N20</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="R20" s="85">
-        <f>(28-C20)*16-(D20/7)+Q20</f>
+        <f t="shared" si="3"/>
         <v>207.57142857142858</v>
       </c>
       <c r="S20" s="102">
         <v>1900000</v>
       </c>
       <c r="T20" s="102">
-        <f>S20/O20</f>
+        <f t="shared" si="4"/>
         <v>30645.16129032258</v>
       </c>
     </row>
@@ -6032,31 +6032,31 @@
         <v>-1</v>
       </c>
       <c r="O21" s="85">
-        <f>N21+L21+K21+M21</f>
+        <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="P21" s="85">
-        <f>(28-C21)*16-(D21/7)+O21</f>
+        <f t="shared" si="1"/>
         <v>209.57142857142858</v>
       </c>
       <c r="Q21" s="85">
-        <f>L21+M21+N21</f>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="R21" s="85">
-        <f>(28-C21)*16-(D21/7)+Q21</f>
+        <f t="shared" si="3"/>
         <v>191.57142857142858</v>
       </c>
       <c r="S21" s="102">
         <v>3200000</v>
       </c>
       <c r="T21" s="102">
-        <f>S21/O21</f>
+        <f t="shared" si="4"/>
         <v>41558.441558441562</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="108" t="s">
+      <c r="A22" s="105" t="s">
         <v>338</v>
       </c>
       <c r="B22" s="85" t="s">
@@ -6099,26 +6099,26 @@
         <v>-1</v>
       </c>
       <c r="O22" s="85">
-        <f>N22+L22+K22+M22</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="P22" s="85">
-        <f>(28-C22)*16-(D22/7)+O22</f>
+        <f t="shared" si="1"/>
         <v>209.28571428571428</v>
       </c>
       <c r="Q22" s="85">
-        <f>L22+M22+N22</f>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="R22" s="85">
-        <f>(28-C22)*16-(D22/7)+Q22</f>
+        <f t="shared" si="3"/>
         <v>200.28571428571428</v>
       </c>
       <c r="S22" s="102">
         <v>1850000</v>
       </c>
       <c r="T22" s="102">
-        <f>S22/O22</f>
+        <f t="shared" si="4"/>
         <v>30833.333333333332</v>
       </c>
     </row>
@@ -6163,26 +6163,26 @@
         <v>2</v>
       </c>
       <c r="O23" s="85">
-        <f>N23+L23+K23+M23</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="P23" s="85">
-        <f>(28-C23)*16-(D23/7)+O23</f>
+        <f t="shared" si="1"/>
         <v>208.85714285714286</v>
       </c>
       <c r="Q23" s="85">
-        <f>L23+M23+N23</f>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="R23" s="85">
-        <f>(28-C23)*16-(D23/7)+Q23</f>
+        <f t="shared" si="3"/>
         <v>202.85714285714286</v>
       </c>
       <c r="S23" s="102">
         <v>1125000</v>
       </c>
       <c r="T23" s="102">
-        <f>S23/O23</f>
+        <f t="shared" si="4"/>
         <v>20833.333333333332</v>
       </c>
     </row>
@@ -6230,26 +6230,26 @@
         <v>3</v>
       </c>
       <c r="O24" s="85">
-        <f>N24+L24+K24+M24</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="P24" s="85">
-        <f>(28-C24)*16-(D24/7)+O24</f>
+        <f t="shared" si="1"/>
         <v>208.71428571428572</v>
       </c>
       <c r="Q24" s="85">
-        <f>L24+M24+N24</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="R24" s="85">
-        <f>(28-C24)*16-(D24/7)+Q24</f>
+        <f t="shared" si="3"/>
         <v>199.71428571428572</v>
       </c>
       <c r="S24" s="102">
         <v>1900000</v>
       </c>
       <c r="T24" s="102">
-        <f>S24/O24</f>
+        <f t="shared" si="4"/>
         <v>32203.389830508473</v>
       </c>
     </row>
@@ -6297,26 +6297,26 @@
         <v>4</v>
       </c>
       <c r="O25" s="85">
-        <f>N25+L25+K25+M25</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="P25" s="85">
-        <f>(28-C25)*16-(D25/7)+O25</f>
+        <f t="shared" si="1"/>
         <v>208.71428571428572</v>
       </c>
       <c r="Q25" s="85">
-        <f>L25+M25+N25</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="R25" s="85">
-        <f>(28-C25)*16-(D25/7)+Q25</f>
+        <f t="shared" si="3"/>
         <v>190.71428571428572</v>
       </c>
       <c r="S25" s="102">
         <v>150000</v>
       </c>
       <c r="T25" s="102">
-        <f>S25/O25</f>
+        <f t="shared" si="4"/>
         <v>2777.7777777777778</v>
       </c>
     </row>
@@ -6364,26 +6364,26 @@
         <v>0</v>
       </c>
       <c r="O26" s="85">
-        <f>N26+L26+K26+M26</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="P26" s="85">
-        <f>(28-C26)*16-(D26/7)+O26</f>
+        <f t="shared" si="1"/>
         <v>207.71428571428572</v>
       </c>
       <c r="Q26" s="85">
-        <f>L26+M26+N26</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="R26" s="85">
-        <f>(28-C26)*16-(D26/7)+Q26</f>
+        <f t="shared" si="3"/>
         <v>204.71428571428572</v>
       </c>
       <c r="S26" s="102">
         <v>3230000</v>
       </c>
       <c r="T26" s="102">
-        <f>S26/O26</f>
+        <f t="shared" si="4"/>
         <v>51269.841269841272</v>
       </c>
     </row>
@@ -6431,31 +6431,31 @@
         <v>1</v>
       </c>
       <c r="O27" s="85">
-        <f>N27+L27+K27+M27</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="P27" s="85">
-        <f>(28-C27)*16-(D27/7)+O27</f>
+        <f t="shared" si="1"/>
         <v>207.71428571428572</v>
       </c>
       <c r="Q27" s="85">
-        <f>L27+M27+N27</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="R27" s="85">
-        <f>(28-C27)*16-(D27/7)+Q27</f>
+        <f t="shared" si="3"/>
         <v>198.71428571428572</v>
       </c>
       <c r="S27" s="102">
         <v>500000</v>
       </c>
       <c r="T27" s="102">
-        <f>S27/O27</f>
+        <f t="shared" si="4"/>
         <v>11363.636363636364</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="108" t="s">
+      <c r="A28" s="105" t="s">
         <v>299</v>
       </c>
       <c r="B28" s="85" t="s">
@@ -6498,31 +6498,31 @@
         <v>5</v>
       </c>
       <c r="O28" s="85">
-        <f>N28+L28+K28+M28</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="P28" s="85">
-        <f>(28-C28)*16-(D28/7)+O28</f>
+        <f t="shared" si="1"/>
         <v>207.42857142857142</v>
       </c>
       <c r="Q28" s="85">
-        <f>L28+M28+N28</f>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="R28" s="85">
-        <f>(28-C28)*16-(D28/7)+Q28</f>
+        <f t="shared" si="3"/>
         <v>198.42857142857142</v>
       </c>
       <c r="S28" s="102">
         <v>650000</v>
       </c>
       <c r="T28" s="102">
-        <f>S28/O28</f>
+        <f t="shared" si="4"/>
         <v>11818.181818181818</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="109" t="s">
+      <c r="A29" s="106" t="s">
         <v>294</v>
       </c>
       <c r="B29" s="85" t="s">
@@ -6565,26 +6565,26 @@
         <v>2</v>
       </c>
       <c r="O29" s="85">
-        <f>N29+L29+K29+M29</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="P29" s="85">
-        <f>(28-C29)*16-(D29/7)+O29</f>
+        <f t="shared" si="1"/>
         <v>207.28571428571428</v>
       </c>
       <c r="Q29" s="85">
-        <f>L29+M29+N29</f>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="R29" s="85">
-        <f>(28-C29)*16-(D29/7)+Q29</f>
+        <f t="shared" si="3"/>
         <v>201.28571428571428</v>
       </c>
       <c r="S29" s="102">
         <v>900000</v>
       </c>
       <c r="T29" s="102">
-        <f>S29/O29</f>
+        <f t="shared" si="4"/>
         <v>16363.636363636364</v>
       </c>
     </row>
@@ -6632,26 +6632,26 @@
         <v>3</v>
       </c>
       <c r="O30" s="85">
-        <f>N30+L30+K30+M30</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="P30" s="85">
-        <f>(28-C30)*16-(D30/7)+O30</f>
+        <f t="shared" si="1"/>
         <v>206.71428571428572</v>
       </c>
       <c r="Q30" s="85">
-        <f>L30+M30+N30</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="R30" s="85">
-        <f>(28-C30)*16-(D30/7)+Q30</f>
+        <f t="shared" si="3"/>
         <v>197.71428571428572</v>
       </c>
       <c r="S30" s="102">
         <v>630000</v>
       </c>
       <c r="T30" s="102">
-        <f>S30/O30</f>
+        <f t="shared" si="4"/>
         <v>13695.652173913044</v>
       </c>
     </row>
@@ -6699,31 +6699,31 @@
         <v>1</v>
       </c>
       <c r="O31" s="85">
-        <f>N31+L31+K31+M31</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="P31" s="85">
-        <f>(28-C31)*16-(D31/7)+O31</f>
+        <f t="shared" si="1"/>
         <v>206.71428571428572</v>
       </c>
       <c r="Q31" s="85">
-        <f>L31+M31+N31</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="R31" s="85">
-        <f>(28-C31)*16-(D31/7)+Q31</f>
+        <f t="shared" si="3"/>
         <v>197.71428571428572</v>
       </c>
       <c r="S31" s="102">
         <v>800000</v>
       </c>
       <c r="T31" s="102">
-        <f>S31/O31</f>
+        <f t="shared" si="4"/>
         <v>18181.81818181818</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="109" t="s">
+      <c r="A32" s="106" t="s">
         <v>304</v>
       </c>
       <c r="B32" s="85" t="s">
@@ -6766,26 +6766,26 @@
         <v>6</v>
       </c>
       <c r="O32" s="85">
-        <f>N32+L32+K32+M32</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="P32" s="85">
-        <f>(28-C32)*16-(D32/7)+O32</f>
+        <f t="shared" si="1"/>
         <v>206.57142857142858</v>
       </c>
       <c r="Q32" s="85">
-        <f>L32+M32+N32</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="R32" s="85">
-        <f>(28-C32)*16-(D32/7)+Q32</f>
+        <f t="shared" si="3"/>
         <v>197.57142857142858</v>
       </c>
       <c r="S32" s="102">
         <v>800000</v>
       </c>
       <c r="T32" s="102">
-        <f>S32/O32</f>
+        <f t="shared" si="4"/>
         <v>13559.322033898305</v>
       </c>
     </row>
@@ -6833,31 +6833,31 @@
         <v>-1</v>
       </c>
       <c r="O33" s="85">
-        <f>N33+L33+K33+M33</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="P33" s="85">
-        <f>(28-C33)*16-(D33/7)+O33</f>
+        <f t="shared" si="1"/>
         <v>206.42857142857142</v>
       </c>
       <c r="Q33" s="85">
-        <f>L33+M33+N33</f>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="R33" s="85">
-        <f>(28-C33)*16-(D33/7)+Q33</f>
+        <f t="shared" si="3"/>
         <v>200.42857142857142</v>
       </c>
       <c r="S33" s="102">
         <v>3750000</v>
       </c>
       <c r="T33" s="102">
-        <f>S33/O33</f>
+        <f t="shared" si="4"/>
         <v>65789.473684210519</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="109" t="s">
+      <c r="A34" s="106" t="s">
         <v>283</v>
       </c>
       <c r="B34" s="85" t="s">
@@ -6897,26 +6897,26 @@
         <v>0</v>
       </c>
       <c r="O34" s="85">
-        <f>N34+L34+K34+M34</f>
+        <f t="shared" ref="O34:O65" si="5">N34+L34+K34+M34</f>
         <v>61</v>
       </c>
       <c r="P34" s="85">
-        <f>(28-C34)*16-(D34/7)+O34</f>
+        <f t="shared" ref="P34:P65" si="6">(28-C34)*16-(D34/7)+O34</f>
         <v>206.42857142857142</v>
       </c>
       <c r="Q34" s="85">
-        <f>L34+M34+N34</f>
+        <f t="shared" ref="Q34:Q64" si="7">L34+M34+N34</f>
         <v>48</v>
       </c>
       <c r="R34" s="85">
-        <f>(28-C34)*16-(D34/7)+Q34</f>
+        <f t="shared" ref="R34:R65" si="8">(28-C34)*16-(D34/7)+Q34</f>
         <v>193.42857142857142</v>
       </c>
       <c r="S34" s="102">
         <v>1450007</v>
       </c>
       <c r="T34" s="102">
-        <f>S34/O34</f>
+        <f t="shared" ref="T34:T65" si="9">S34/O34</f>
         <v>23770.60655737705</v>
       </c>
     </row>
@@ -6964,26 +6964,26 @@
         <v>3</v>
       </c>
       <c r="O35" s="85">
-        <f>N35+L35+K35+M35</f>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="P35" s="85">
-        <f>(28-C35)*16-(D35/7)+O35</f>
+        <f t="shared" si="6"/>
         <v>206.28571428571428</v>
       </c>
       <c r="Q35" s="85">
-        <f>L35+M35+N35</f>
+        <f t="shared" si="7"/>
         <v>55</v>
       </c>
       <c r="R35" s="85">
-        <f>(28-C35)*16-(D35/7)+Q35</f>
+        <f t="shared" si="8"/>
         <v>203.28571428571428</v>
       </c>
       <c r="S35" s="102">
         <v>2000000</v>
       </c>
       <c r="T35" s="102">
-        <f>S35/O35</f>
+        <f t="shared" si="9"/>
         <v>34482.758620689652</v>
       </c>
     </row>
@@ -7028,26 +7028,26 @@
         <v>2</v>
       </c>
       <c r="O36" s="85">
-        <f>N36+L36+K36+M36</f>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="P36" s="85">
-        <f>(28-C36)*16-(D36/7)+O36</f>
+        <f t="shared" si="6"/>
         <v>205.85714285714286</v>
       </c>
       <c r="Q36" s="85">
-        <f>L36+M36+N36</f>
+        <f t="shared" si="7"/>
         <v>61</v>
       </c>
       <c r="R36" s="85">
-        <f>(28-C36)*16-(D36/7)+Q36</f>
+        <f t="shared" si="8"/>
         <v>199.85714285714286</v>
       </c>
       <c r="S36" s="102">
         <v>2500000</v>
       </c>
       <c r="T36" s="102">
-        <f>S36/O36</f>
+        <f t="shared" si="9"/>
         <v>37313.432835820895</v>
       </c>
     </row>
@@ -7095,26 +7095,26 @@
         <v>2</v>
       </c>
       <c r="O37" s="85">
-        <f>N37+L37+K37+M37</f>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="P37" s="85">
-        <f>(28-C37)*16-(D37/7)+O37</f>
+        <f t="shared" si="6"/>
         <v>205.85714285714286</v>
       </c>
       <c r="Q37" s="85">
-        <f>L37+M37+N37</f>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="R37" s="85">
-        <f>(28-C37)*16-(D37/7)+Q37</f>
+        <f t="shared" si="8"/>
         <v>196.85714285714286</v>
       </c>
       <c r="S37" s="102">
         <v>1500000</v>
       </c>
       <c r="T37" s="102">
-        <f>S37/O37</f>
+        <f t="shared" si="9"/>
         <v>25423.728813559323</v>
       </c>
     </row>
@@ -7162,26 +7162,26 @@
         <v>3</v>
       </c>
       <c r="O38" s="85">
-        <f>N38+L38+K38+M38</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="P38" s="85">
-        <f>(28-C38)*16-(D38/7)+O38</f>
+        <f t="shared" si="6"/>
         <v>205.85714285714286</v>
       </c>
       <c r="Q38" s="85">
-        <f>L38+M38+N38</f>
+        <f t="shared" si="7"/>
         <v>43</v>
       </c>
       <c r="R38" s="85">
-        <f>(28-C38)*16-(D38/7)+Q38</f>
+        <f t="shared" si="8"/>
         <v>196.85714285714286</v>
       </c>
       <c r="S38" s="102">
         <v>800000</v>
       </c>
       <c r="T38" s="102">
-        <f>S38/O38</f>
+        <f t="shared" si="9"/>
         <v>15384.615384615385</v>
       </c>
     </row>
@@ -7229,31 +7229,31 @@
         <v>2</v>
       </c>
       <c r="O39" s="85">
-        <f>N39+L39+K39+M39</f>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
       <c r="P39" s="85">
-        <f>(28-C39)*16-(D39/7)+O39</f>
+        <f t="shared" si="6"/>
         <v>205.28571428571428</v>
       </c>
       <c r="Q39" s="85">
-        <f>L39+M39+N39</f>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="R39" s="85">
-        <f>(28-C39)*16-(D39/7)+Q39</f>
+        <f t="shared" si="8"/>
         <v>196.28571428571428</v>
       </c>
       <c r="S39" s="102">
         <v>1500000</v>
       </c>
       <c r="T39" s="102">
-        <f>S39/O39</f>
+        <f t="shared" si="9"/>
         <v>30612.244897959183</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="108" t="s">
+      <c r="A40" s="105" t="s">
         <v>286</v>
       </c>
       <c r="B40" s="85" t="s">
@@ -7296,26 +7296,26 @@
         <v>1</v>
       </c>
       <c r="O40" s="85">
-        <f>N40+L40+K40+M40</f>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="P40" s="85">
-        <f>(28-C40)*16-(D40/7)+O40</f>
+        <f t="shared" si="6"/>
         <v>205.28571428571428</v>
       </c>
       <c r="Q40" s="85">
-        <f>L40+M40+N40</f>
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
       <c r="R40" s="85">
-        <f>(28-C40)*16-(D40/7)+Q40</f>
+        <f t="shared" si="8"/>
         <v>182.28571428571428</v>
       </c>
       <c r="S40" s="102">
         <v>450000</v>
       </c>
       <c r="T40" s="102">
-        <f>S40/O40</f>
+        <f t="shared" si="9"/>
         <v>7377.0491803278692</v>
       </c>
     </row>
@@ -7360,26 +7360,26 @@
         <v>2</v>
       </c>
       <c r="O41" s="85">
-        <f>N41+L41+K41+M41</f>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="P41" s="85">
-        <f>(28-C41)*16-(D41/7)+O41</f>
+        <f t="shared" si="6"/>
         <v>203.57142857142858</v>
       </c>
       <c r="Q41" s="85">
-        <f>L41+M41+N41</f>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="R41" s="85">
-        <f>(28-C41)*16-(D41/7)+Q41</f>
+        <f t="shared" si="8"/>
         <v>197.57142857142858</v>
       </c>
       <c r="S41" s="102">
         <v>400000</v>
       </c>
       <c r="T41" s="102">
-        <f>S41/O41</f>
+        <f t="shared" si="9"/>
         <v>11111.111111111111</v>
       </c>
     </row>
@@ -7427,26 +7427,26 @@
         <v>1</v>
       </c>
       <c r="O42" s="85">
-        <f>N42+L42+K42+M42</f>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="P42" s="85">
-        <f>(28-C42)*16-(D42/7)+O42</f>
+        <f t="shared" si="6"/>
         <v>203.42857142857142</v>
       </c>
       <c r="Q42" s="85">
-        <f>L42+M42+N42</f>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
       <c r="R42" s="85">
-        <f>(28-C42)*16-(D42/7)+Q42</f>
+        <f t="shared" si="8"/>
         <v>200.42857142857142</v>
       </c>
       <c r="S42" s="102">
         <v>350000</v>
       </c>
       <c r="T42" s="102">
-        <f>S42/O42</f>
+        <f t="shared" si="9"/>
         <v>9722.2222222222226</v>
       </c>
     </row>
@@ -7494,31 +7494,31 @@
         <v>2</v>
       </c>
       <c r="O43" s="85">
-        <f>N43+L43+K43+M43</f>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="P43" s="85">
-        <f>(28-C43)*16-(D43/7)+O43</f>
+        <f t="shared" si="6"/>
         <v>203.28571428571428</v>
       </c>
       <c r="Q43" s="85">
-        <f>L43+M43+N43</f>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="R43" s="85">
-        <f>(28-C43)*16-(D43/7)+Q43</f>
+        <f t="shared" si="8"/>
         <v>185.28571428571428</v>
       </c>
       <c r="S43" s="102">
         <v>1550000</v>
       </c>
       <c r="T43" s="102">
-        <f>S43/O43</f>
+        <f t="shared" si="9"/>
         <v>22794.117647058825</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="108" t="s">
+      <c r="A44" s="105" t="s">
         <v>333</v>
       </c>
       <c r="B44" s="85" t="s">
@@ -7561,26 +7561,26 @@
         <v>0</v>
       </c>
       <c r="O44" s="85">
-        <f>N44+L44+K44+M44</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="P44" s="85">
-        <f>(28-C44)*16-(D44/7)+O44</f>
+        <f t="shared" si="6"/>
         <v>203.28571428571428</v>
       </c>
       <c r="Q44" s="85">
-        <f>L44+M44+N44</f>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="R44" s="85">
-        <f>(28-C44)*16-(D44/7)+Q44</f>
+        <f t="shared" si="8"/>
         <v>180.28571428571428</v>
       </c>
       <c r="S44" s="102">
         <v>800000</v>
       </c>
       <c r="T44" s="102">
-        <f>S44/O44</f>
+        <f t="shared" si="9"/>
         <v>13333.333333333334</v>
       </c>
     </row>
@@ -7628,26 +7628,26 @@
         <v>-1</v>
       </c>
       <c r="O45" s="85">
-        <f>N45+L45+K45+M45</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="P45" s="85">
-        <f>(28-C45)*16-(D45/7)+O45</f>
+        <f t="shared" si="6"/>
         <v>203</v>
       </c>
       <c r="Q45" s="85">
-        <f>L45+M45+N45</f>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="R45" s="85">
-        <f>(28-C45)*16-(D45/7)+Q45</f>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="S45" s="102">
         <v>700000</v>
       </c>
       <c r="T45" s="102">
-        <f>S45/O45</f>
+        <f t="shared" si="9"/>
         <v>17500</v>
       </c>
     </row>
@@ -7695,26 +7695,26 @@
         <v>4</v>
       </c>
       <c r="O46" s="85">
-        <f>N46+L46+K46+M46</f>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
       <c r="P46" s="85">
-        <f>(28-C46)*16-(D46/7)+O46</f>
+        <f t="shared" si="6"/>
         <v>202</v>
       </c>
       <c r="Q46" s="85">
-        <f>L46+M46+N46</f>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="R46" s="85">
-        <f>(28-C46)*16-(D46/7)+Q46</f>
+        <f t="shared" si="8"/>
         <v>189</v>
       </c>
       <c r="S46" s="102">
         <v>200000</v>
       </c>
       <c r="T46" s="102">
-        <f>S46/O46</f>
+        <f t="shared" si="9"/>
         <v>4081.6326530612246</v>
       </c>
     </row>
@@ -7762,26 +7762,26 @@
         <v>1</v>
       </c>
       <c r="O47" s="85">
-        <f>N47+L47+K47+M47</f>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="P47" s="85">
-        <f>(28-C47)*16-(D47/7)+O47</f>
+        <f t="shared" si="6"/>
         <v>201.42857142857142</v>
       </c>
       <c r="Q47" s="85">
-        <f>L47+M47+N47</f>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
       <c r="R47" s="85">
-        <f>(28-C47)*16-(D47/7)+Q47</f>
+        <f t="shared" si="8"/>
         <v>192.42857142857142</v>
       </c>
       <c r="S47" s="102">
         <v>1600000</v>
       </c>
       <c r="T47" s="102">
-        <f>S47/O47</f>
+        <f t="shared" si="9"/>
         <v>33333.333333333336</v>
       </c>
     </row>
@@ -7829,26 +7829,26 @@
         <v>3</v>
       </c>
       <c r="O48" s="85">
-        <f>N48+L48+K48+M48</f>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
       <c r="P48" s="85">
-        <f>(28-C48)*16-(D48/7)+O48</f>
+        <f t="shared" si="6"/>
         <v>199.57142857142858</v>
       </c>
       <c r="Q48" s="85">
-        <f>L48+M48+N48</f>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="R48" s="85">
-        <f>(28-C48)*16-(D48/7)+Q48</f>
+        <f t="shared" si="8"/>
         <v>190.57142857142858</v>
       </c>
       <c r="S48" s="102">
         <v>450000</v>
       </c>
       <c r="T48" s="102">
-        <f>S48/O48</f>
+        <f t="shared" si="9"/>
         <v>9782.608695652174</v>
       </c>
     </row>
@@ -7893,26 +7893,26 @@
         <v>2</v>
       </c>
       <c r="O49" s="85">
-        <f>N49+L49+K49+M49</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="P49" s="85">
-        <f>(28-C49)*16-(D49/7)+O49</f>
+        <f t="shared" si="6"/>
         <v>198.28571428571428</v>
       </c>
       <c r="Q49" s="85">
-        <f>L49+M49+N49</f>
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
       <c r="R49" s="85">
-        <f>(28-C49)*16-(D49/7)+Q49</f>
+        <f t="shared" si="8"/>
         <v>192.28571428571428</v>
       </c>
       <c r="S49" s="102">
         <v>2000000</v>
       </c>
       <c r="T49" s="102">
-        <f>S49/O49</f>
+        <f t="shared" si="9"/>
         <v>38461.538461538461</v>
       </c>
     </row>
@@ -7960,26 +7960,26 @@
         <v>0</v>
       </c>
       <c r="O50" s="85">
-        <f>N50+L50+K50+M50</f>
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
       <c r="P50" s="85">
-        <f>(28-C50)*16-(D50/7)+O50</f>
+        <f t="shared" si="6"/>
         <v>198.14285714285714</v>
       </c>
       <c r="Q50" s="85">
-        <f>L50+M50+N50</f>
+        <f t="shared" si="7"/>
         <v>34</v>
       </c>
       <c r="R50" s="85">
-        <f>(28-C50)*16-(D50/7)+Q50</f>
+        <f t="shared" si="8"/>
         <v>189.14285714285714</v>
       </c>
       <c r="S50" s="102">
         <v>240000</v>
       </c>
       <c r="T50" s="102">
-        <f>S50/O50</f>
+        <f t="shared" si="9"/>
         <v>5581.395348837209</v>
       </c>
     </row>
@@ -8027,26 +8027,26 @@
         <v>1</v>
       </c>
       <c r="O51" s="85">
-        <f>N51+L51+K51+M51</f>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
       <c r="P51" s="85">
-        <f>(28-C51)*16-(D51/7)+O51</f>
+        <f t="shared" si="6"/>
         <v>198</v>
       </c>
       <c r="Q51" s="85">
-        <f>L51+M51+N51</f>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
       <c r="R51" s="85">
-        <f>(28-C51)*16-(D51/7)+Q51</f>
+        <f t="shared" si="8"/>
         <v>185</v>
       </c>
       <c r="S51" s="102">
         <v>2500000</v>
       </c>
       <c r="T51" s="102">
-        <f>S51/O51</f>
+        <f t="shared" si="9"/>
         <v>54347.82608695652</v>
       </c>
     </row>
@@ -8094,26 +8094,26 @@
         <v>3</v>
       </c>
       <c r="O52" s="85">
-        <f>N52+L52+K52+M52</f>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="P52" s="85">
-        <f>(28-C52)*16-(D52/7)+O52</f>
+        <f t="shared" si="6"/>
         <v>197.85714285714286</v>
       </c>
       <c r="Q52" s="85">
-        <f>L52+M52+N52</f>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
       <c r="R52" s="85">
-        <f>(28-C52)*16-(D52/7)+Q52</f>
+        <f t="shared" si="8"/>
         <v>188.85714285714286</v>
       </c>
       <c r="S52" s="102">
         <v>200000</v>
       </c>
       <c r="T52" s="102">
-        <f>S52/O52</f>
+        <f t="shared" si="9"/>
         <v>4166.666666666667</v>
       </c>
     </row>
@@ -8161,26 +8161,26 @@
         <v>1</v>
       </c>
       <c r="O53" s="85">
-        <f>N53+L53+K53+M53</f>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="P53" s="85">
-        <f>(28-C53)*16-(D53/7)+O53</f>
+        <f t="shared" si="6"/>
         <v>196.42857142857142</v>
       </c>
       <c r="Q53" s="85">
-        <f>L53+M53+N53</f>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="R53" s="85">
-        <f>(28-C53)*16-(D53/7)+Q53</f>
+        <f t="shared" si="8"/>
         <v>183.42857142857142</v>
       </c>
       <c r="S53" s="102">
         <v>2350000</v>
       </c>
       <c r="T53" s="102">
-        <f>S53/O53</f>
+        <f t="shared" si="9"/>
         <v>47000</v>
       </c>
     </row>
@@ -8228,26 +8228,26 @@
         <v>2</v>
       </c>
       <c r="O54" s="85">
-        <f>N54+L54+K54+M54</f>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="P54" s="85">
-        <f>(28-C54)*16-(D54/7)+O54</f>
+        <f t="shared" si="6"/>
         <v>196.28571428571428</v>
       </c>
       <c r="Q54" s="85">
-        <f>L54+M54+N54</f>
+        <f t="shared" si="7"/>
         <v>43</v>
       </c>
       <c r="R54" s="85">
-        <f>(28-C54)*16-(D54/7)+Q54</f>
+        <f t="shared" si="8"/>
         <v>183.28571428571428</v>
       </c>
       <c r="S54" s="102">
         <v>3000000</v>
       </c>
       <c r="T54" s="102">
-        <f>S54/O54</f>
+        <f t="shared" si="9"/>
         <v>53571.428571428572</v>
       </c>
     </row>
@@ -8295,26 +8295,26 @@
         <v>7</v>
       </c>
       <c r="O55" s="85">
-        <f>N55+L55+K55+M55</f>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="P55" s="85">
-        <f>(28-C55)*16-(D55/7)+O55</f>
+        <f t="shared" si="6"/>
         <v>195.57142857142858</v>
       </c>
       <c r="Q55" s="85">
-        <f>L55+M55+N55</f>
+        <f t="shared" si="7"/>
         <v>53</v>
       </c>
       <c r="R55" s="85">
-        <f>(28-C55)*16-(D55/7)+Q55</f>
+        <f t="shared" si="8"/>
         <v>193.57142857142858</v>
       </c>
       <c r="S55" s="102">
         <v>1040308.55007257</v>
       </c>
       <c r="T55" s="102">
-        <f>S55/O55</f>
+        <f t="shared" si="9"/>
         <v>18914.700910410364</v>
       </c>
     </row>
@@ -8362,26 +8362,26 @@
         <v>-1</v>
       </c>
       <c r="O56" s="85">
-        <f>N56+L56+K56+M56</f>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="P56" s="85">
-        <f>(28-C56)*16-(D56/7)+O56</f>
+        <f t="shared" si="6"/>
         <v>195.14285714285714</v>
       </c>
       <c r="Q56" s="85">
-        <f>L56+M56+N56</f>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="R56" s="85">
-        <f>(28-C56)*16-(D56/7)+Q56</f>
+        <f t="shared" si="8"/>
         <v>189.14285714285714</v>
       </c>
       <c r="S56" s="102">
         <v>2000000</v>
       </c>
       <c r="T56" s="102">
-        <f>S56/O56</f>
+        <f t="shared" si="9"/>
         <v>48780.487804878052</v>
       </c>
     </row>
@@ -8429,26 +8429,26 @@
         <v>8</v>
       </c>
       <c r="O57" s="85">
-        <f>N57+L57+K57+M57</f>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="P57" s="85">
-        <f>(28-C57)*16-(D57/7)+O57</f>
+        <f t="shared" si="6"/>
         <v>194.42857142857142</v>
       </c>
       <c r="Q57" s="85">
-        <f>L57+M57+N57</f>
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
       <c r="R57" s="85">
-        <f>(28-C57)*16-(D57/7)+Q57</f>
+        <f t="shared" si="8"/>
         <v>181.42857142857142</v>
       </c>
       <c r="S57" s="102">
         <v>300000</v>
       </c>
       <c r="T57" s="102">
-        <f>S57/O57</f>
+        <f t="shared" si="9"/>
         <v>5084.7457627118647</v>
       </c>
     </row>
@@ -8496,26 +8496,26 @@
         <v>-1</v>
       </c>
       <c r="O58" s="85">
-        <f>N58+L58+K58+M58</f>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="P58" s="85">
-        <f>(28-C58)*16-(D58/7)+O58</f>
+        <f t="shared" si="6"/>
         <v>193.85714285714286</v>
       </c>
       <c r="Q58" s="85">
-        <f>L58+M58+N58</f>
+        <f t="shared" si="7"/>
         <v>58</v>
       </c>
       <c r="R58" s="85">
-        <f>(28-C58)*16-(D58/7)+Q58</f>
+        <f t="shared" si="8"/>
         <v>190.85714285714286</v>
       </c>
       <c r="S58" s="102">
         <v>3700000</v>
       </c>
       <c r="T58" s="102">
-        <f>S58/O58</f>
+        <f t="shared" si="9"/>
         <v>60655.737704918036</v>
       </c>
     </row>
@@ -8563,26 +8563,26 @@
         <v>1</v>
       </c>
       <c r="O59" s="85">
-        <f>N59+L59+K59+M59</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="P59" s="85">
-        <f>(28-C59)*16-(D59/7)+O59</f>
+        <f t="shared" si="6"/>
         <v>193.14285714285714</v>
       </c>
       <c r="Q59" s="85">
-        <f>L59+M59+N59</f>
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
       <c r="R59" s="85">
-        <f>(28-C59)*16-(D59/7)+Q59</f>
+        <f t="shared" si="8"/>
         <v>187.14285714285714</v>
       </c>
       <c r="S59" s="102">
         <v>1350000</v>
       </c>
       <c r="T59" s="102">
-        <f>S59/O59</f>
+        <f t="shared" si="9"/>
         <v>25961.538461538461</v>
       </c>
     </row>
@@ -8627,26 +8627,26 @@
         <v>0</v>
       </c>
       <c r="O60" s="85">
-        <f>N60+L60+K60+M60</f>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="P60" s="85">
-        <f>(28-C60)*16-(D60/7)+O60</f>
+        <f t="shared" si="6"/>
         <v>193.14285714285714</v>
       </c>
       <c r="Q60" s="85">
-        <f>L60+M60+N60</f>
+        <f t="shared" si="7"/>
         <v>51</v>
       </c>
       <c r="R60" s="85">
-        <f>(28-C60)*16-(D60/7)+Q60</f>
+        <f t="shared" si="8"/>
         <v>180.14285714285714</v>
       </c>
       <c r="S60" s="102">
         <v>1000000</v>
       </c>
       <c r="T60" s="102">
-        <f>S60/O60</f>
+        <f t="shared" si="9"/>
         <v>15625</v>
       </c>
     </row>
@@ -8694,26 +8694,26 @@
         <v>1</v>
       </c>
       <c r="O61" s="85">
-        <f>N61+L61+K61+M61</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="P61" s="85">
-        <f>(28-C61)*16-(D61/7)+O61</f>
+        <f t="shared" si="6"/>
         <v>184.42857142857142</v>
       </c>
       <c r="Q61" s="85">
-        <f>L61+M61+N61</f>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="R61" s="85">
-        <f>(28-C61)*16-(D61/7)+Q61</f>
+        <f t="shared" si="8"/>
         <v>181.42857142857142</v>
       </c>
       <c r="S61" s="102">
         <v>800000</v>
       </c>
       <c r="T61" s="102">
-        <f>S61/O61</f>
+        <f t="shared" si="9"/>
         <v>20000</v>
       </c>
     </row>
@@ -8761,26 +8761,26 @@
         <v>-1</v>
       </c>
       <c r="O62" s="85">
-        <f>N62+L62+K62+M62</f>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
       <c r="P62" s="85">
-        <f>(28-C62)*16-(D62/7)+O62</f>
+        <f t="shared" si="6"/>
         <v>182.85714285714286</v>
       </c>
       <c r="Q62" s="85">
-        <f>L62+M62+N62</f>
+        <f t="shared" si="7"/>
         <v>41</v>
       </c>
       <c r="R62" s="85">
-        <f>(28-C62)*16-(D62/7)+Q62</f>
+        <f t="shared" si="8"/>
         <v>179.85714285714286</v>
       </c>
       <c r="S62" s="102">
         <v>1100000</v>
       </c>
       <c r="T62" s="102">
-        <f>S62/O62</f>
+        <f t="shared" si="9"/>
         <v>25000</v>
       </c>
     </row>
@@ -8828,26 +8828,26 @@
         <v>0</v>
       </c>
       <c r="O63" s="85">
-        <f>N63+L63+K63+M63</f>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
       <c r="P63" s="85">
-        <f>(28-C63)*16-(D63/7)+O63</f>
+        <f t="shared" si="6"/>
         <v>182.71428571428572</v>
       </c>
       <c r="Q63" s="85">
-        <f>L63+M63+N63</f>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
       <c r="R63" s="85">
-        <f>(28-C63)*16-(D63/7)+Q63</f>
+        <f t="shared" si="8"/>
         <v>179.71428571428572</v>
       </c>
       <c r="S63" s="102">
         <v>1400000</v>
       </c>
       <c r="T63" s="102">
-        <f>S63/O63</f>
+        <f t="shared" si="9"/>
         <v>33333.333333333336</v>
       </c>
     </row>
@@ -8895,26 +8895,26 @@
         <v>0</v>
       </c>
       <c r="O64" s="85">
-        <f>N64+L64+K64+M64</f>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
       <c r="P64" s="85">
-        <f>(28-C64)*16-(D64/7)+O64</f>
+        <f t="shared" si="6"/>
         <v>176.14285714285714</v>
       </c>
       <c r="Q64" s="85">
-        <f>L64+M64+N64</f>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
       <c r="R64" s="85">
-        <f>(28-C64)*16-(D64/7)+Q64</f>
+        <f t="shared" si="8"/>
         <v>176.14285714285714</v>
       </c>
       <c r="S64" s="102">
         <v>1500000</v>
       </c>
       <c r="T64" s="102">
-        <f>S64/O64</f>
+        <f t="shared" si="9"/>
         <v>35714.285714285717</v>
       </c>
     </row>
@@ -9362,10 +9362,10 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="109" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="106"/>
+      <c r="B7" s="109"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
@@ -13529,8 +13529,8 @@
   </sheetPr>
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14079,13 +14079,13 @@
       <c r="B1" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
       <c r="K1" s="1" t="s">
         <v>187</v>
       </c>
@@ -14135,38 +14135,38 @@
       <c r="L2" s="78" t="s">
         <v>188</v>
       </c>
-      <c r="M2" s="105" t="s">
+      <c r="M2" s="108" t="s">
         <v>192</v>
       </c>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="108"/>
       <c r="X2">
         <v>1</v>
       </c>
       <c r="Y2" s="78" t="s">
         <v>188</v>
       </c>
-      <c r="Z2" s="105" t="s">
+      <c r="Z2" s="108" t="s">
         <v>192</v>
       </c>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="105"/>
-      <c r="AC2" s="105"/>
-      <c r="AD2" s="105"/>
-      <c r="AE2" s="105"/>
-      <c r="AF2" s="105"/>
-      <c r="AG2" s="105"/>
-      <c r="AH2" s="105"/>
-      <c r="AI2" s="105"/>
-      <c r="AJ2" s="105"/>
+      <c r="AA2" s="108"/>
+      <c r="AB2" s="108"/>
+      <c r="AC2" s="108"/>
+      <c r="AD2" s="108"/>
+      <c r="AE2" s="108"/>
+      <c r="AF2" s="108"/>
+      <c r="AG2" s="108"/>
+      <c r="AH2" s="108"/>
+      <c r="AI2" s="108"/>
+      <c r="AJ2" s="108"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -14201,38 +14201,38 @@
       <c r="L3" s="78" t="s">
         <v>189</v>
       </c>
-      <c r="M3" s="105" t="s">
+      <c r="M3" s="108" t="s">
         <v>193</v>
       </c>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="105"/>
-      <c r="V3" s="105"/>
-      <c r="W3" s="105"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="108"/>
+      <c r="T3" s="108"/>
+      <c r="U3" s="108"/>
+      <c r="V3" s="108"/>
+      <c r="W3" s="108"/>
       <c r="X3">
         <v>2</v>
       </c>
       <c r="Y3" s="78" t="s">
         <v>189</v>
       </c>
-      <c r="Z3" s="105" t="s">
+      <c r="Z3" s="108" t="s">
         <v>193</v>
       </c>
-      <c r="AA3" s="105"/>
-      <c r="AB3" s="105"/>
-      <c r="AC3" s="105"/>
-      <c r="AD3" s="105"/>
-      <c r="AE3" s="105"/>
-      <c r="AF3" s="105"/>
-      <c r="AG3" s="105"/>
-      <c r="AH3" s="105"/>
-      <c r="AI3" s="105"/>
-      <c r="AJ3" s="105"/>
+      <c r="AA3" s="108"/>
+      <c r="AB3" s="108"/>
+      <c r="AC3" s="108"/>
+      <c r="AD3" s="108"/>
+      <c r="AE3" s="108"/>
+      <c r="AF3" s="108"/>
+      <c r="AG3" s="108"/>
+      <c r="AH3" s="108"/>
+      <c r="AI3" s="108"/>
+      <c r="AJ3" s="108"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -14267,38 +14267,38 @@
       <c r="L4" s="78" t="s">
         <v>191</v>
       </c>
-      <c r="M4" s="105" t="s">
+      <c r="M4" s="108" t="s">
         <v>190</v>
       </c>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
-      <c r="U4" s="105"/>
-      <c r="V4" s="105"/>
-      <c r="W4" s="105"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="108"/>
+      <c r="U4" s="108"/>
+      <c r="V4" s="108"/>
+      <c r="W4" s="108"/>
       <c r="X4">
         <v>3</v>
       </c>
       <c r="Y4" s="78" t="s">
         <v>191</v>
       </c>
-      <c r="Z4" s="105" t="s">
+      <c r="Z4" s="108" t="s">
         <v>197</v>
       </c>
-      <c r="AA4" s="105"/>
-      <c r="AB4" s="105"/>
-      <c r="AC4" s="105"/>
-      <c r="AD4" s="105"/>
-      <c r="AE4" s="105"/>
-      <c r="AF4" s="105"/>
-      <c r="AG4" s="105"/>
-      <c r="AH4" s="105"/>
-      <c r="AI4" s="105"/>
-      <c r="AJ4" s="105"/>
+      <c r="AA4" s="108"/>
+      <c r="AB4" s="108"/>
+      <c r="AC4" s="108"/>
+      <c r="AD4" s="108"/>
+      <c r="AE4" s="108"/>
+      <c r="AF4" s="108"/>
+      <c r="AG4" s="108"/>
+      <c r="AH4" s="108"/>
+      <c r="AI4" s="108"/>
+      <c r="AJ4" s="108"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -15463,7 +15463,7 @@
   <dimension ref="A1:CR30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15618,21 +15618,21 @@
       <c r="B2" s="84" t="s">
         <v>188</v>
       </c>
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="108" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -15854,21 +15854,21 @@
       <c r="B3" s="84" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="108" t="s">
         <v>209</v>
       </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
       <c r="R3" s="1" t="s">
         <v>160</v>
       </c>
@@ -16154,21 +16154,21 @@
       <c r="B4" s="84" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="108" t="s">
         <v>210</v>
       </c>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108"/>
       <c r="Q4" t="s">
         <v>32</v>
       </c>
@@ -20601,13 +20601,13 @@
       <c r="B1" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
       <c r="L1" s="1" t="s">
         <v>187</v>
       </c>
@@ -20650,19 +20650,19 @@
       <c r="M2" s="85" t="s">
         <v>188</v>
       </c>
-      <c r="N2" s="105" t="s">
+      <c r="N2" s="108" t="s">
         <v>192</v>
       </c>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="108"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -20698,19 +20698,19 @@
       <c r="M3" s="85" t="s">
         <v>189</v>
       </c>
-      <c r="N3" s="105" t="s">
+      <c r="N3" s="108" t="s">
         <v>193</v>
       </c>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="105"/>
-      <c r="V3" s="105"/>
-      <c r="W3" s="105"/>
-      <c r="X3" s="105"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="108"/>
+      <c r="T3" s="108"/>
+      <c r="U3" s="108"/>
+      <c r="V3" s="108"/>
+      <c r="W3" s="108"/>
+      <c r="X3" s="108"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -20746,19 +20746,19 @@
       <c r="M4" s="85" t="s">
         <v>191</v>
       </c>
-      <c r="N4" s="105" t="s">
+      <c r="N4" s="108" t="s">
         <v>197</v>
       </c>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
-      <c r="U4" s="105"/>
-      <c r="V4" s="105"/>
-      <c r="W4" s="105"/>
-      <c r="X4" s="105"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="108"/>
+      <c r="U4" s="108"/>
+      <c r="V4" s="108"/>
+      <c r="W4" s="108"/>
+      <c r="X4" s="108"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
